--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="24">
   <si>
     <t>原料长度</t>
   </si>
@@ -64,13 +64,13 @@
     <t>[4266, 6134]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>[4534, 6134]</t>
   </si>
   <si>
     <t>[4802, 6134]</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[536]</t>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F446"/>
+  <dimension ref="A1:F442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,19 +691,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C13">
-        <v>1332</v>
+        <v>746</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -714,16 +714,16 @@
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F14">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -734,16 +734,16 @@
         <v>12000</v>
       </c>
       <c r="C15">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E15">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -754,13 +754,13 @@
         <v>12000</v>
       </c>
       <c r="C16">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F17">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -794,16 +794,16 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -814,13 +814,13 @@
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F22">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -891,19 +891,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C23">
-        <v>746</v>
+        <v>3244</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F23">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -977,7 +977,7 @@
         <v>1332</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>1332</v>
@@ -997,7 +997,7 @@
         <v>1064</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1011,19 +1011,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C29">
-        <v>5866</v>
+        <v>746</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1034,13 +1034,13 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F31">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1074,16 +1074,16 @@
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1094,13 +1094,13 @@
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1154,16 +1154,16 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F36">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1174,16 +1174,16 @@
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1194,13 +1194,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F41">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1274,16 +1274,16 @@
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1294,13 +1294,13 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F44">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1334,16 +1334,16 @@
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1354,13 +1354,13 @@
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F49">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1434,16 +1434,16 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1454,13 +1454,13 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1474,13 +1474,13 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1514,16 +1514,16 @@
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F54">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1534,16 +1534,16 @@
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1554,13 +1554,13 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1574,16 +1574,16 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F57">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1594,16 +1594,16 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1611,19 +1611,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C59">
-        <v>4048</v>
+        <v>746</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1634,13 +1634,13 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1674,16 +1674,16 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F62">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1694,13 +1694,13 @@
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1714,16 +1714,16 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E64">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1734,13 +1734,13 @@
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1754,13 +1754,13 @@
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F67">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1791,19 +1791,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C68">
-        <v>746</v>
+        <v>1332</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F68">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1814,16 +1814,16 @@
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1834,13 +1834,13 @@
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1851,19 +1851,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C71">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F71">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1874,16 +1874,16 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1894,13 +1894,13 @@
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E74">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F74">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1934,13 +1934,13 @@
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1954,13 +1954,13 @@
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E77">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1994,13 +1994,13 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E78">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E79">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F79">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2034,13 +2034,13 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E82">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2094,13 +2094,13 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F84">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2134,16 +2134,16 @@
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2154,13 +2154,13 @@
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E86">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2174,16 +2174,16 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E87">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F87">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2194,13 +2194,13 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2254,13 +2254,13 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E91">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E92">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F92">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2294,13 +2294,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2311,19 +2311,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C94">
-        <v>210</v>
+        <v>1332</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F94">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2334,16 +2334,16 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E95">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2354,13 +2354,13 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E97">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2391,19 +2391,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C98">
-        <v>1064</v>
+        <v>210</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1064</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2631,19 +2631,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C110">
-        <v>210</v>
+        <v>1332</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F110">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2654,16 +2654,16 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E111">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2671,19 +2671,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C112">
-        <v>1064</v>
+        <v>210</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1064</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2731,19 +2731,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C115">
-        <v>210</v>
+        <v>5330</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F115">
-        <v>210</v>
+        <v>746</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2754,16 +2754,16 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F116">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2774,13 +2774,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2814,13 +2814,13 @@
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E120">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2854,16 +2854,16 @@
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E121">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F121">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2874,13 +2874,13 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E122">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E123">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2914,13 +2914,13 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E124">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2934,16 +2934,16 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E125">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2954,16 +2954,16 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F126">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2974,13 +2974,13 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E127">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3014,16 +3014,16 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E129">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F129">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3034,13 +3034,13 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3054,13 +3054,13 @@
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3094,16 +3094,16 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E133">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3114,16 +3114,16 @@
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E134">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F134">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3134,13 +3134,13 @@
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E135">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3154,13 +3154,13 @@
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E136">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3174,13 +3174,13 @@
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E137">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3194,16 +3194,16 @@
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E138">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3214,16 +3214,16 @@
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F139">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3231,19 +3231,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C140">
-        <v>5866</v>
+        <v>210</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E140">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3457,7 +3457,7 @@
         <v>1332</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E151">
         <v>1332</v>
@@ -3477,7 +3477,7 @@
         <v>1064</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -3611,19 +3611,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C159">
-        <v>210</v>
+        <v>3512</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F159">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3634,16 +3634,16 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E160">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3654,16 +3654,16 @@
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E161">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F161">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3674,13 +3674,13 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E162">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3694,13 +3694,13 @@
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E163">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C164">
-        <v>1600</v>
+        <v>210</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E164">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3737,7 +3737,7 @@
         <v>1332</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E165">
         <v>1332</v>
@@ -3757,7 +3757,7 @@
         <v>1064</v>
       </c>
       <c r="D166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -3931,19 +3931,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C175">
-        <v>210</v>
+        <v>2136</v>
       </c>
       <c r="D175" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F175">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3954,13 +3954,13 @@
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E176">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E177">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3994,13 +3994,13 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D178" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E178">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4014,16 +4014,16 @@
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D179" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E179">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4034,16 +4034,16 @@
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D180" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F180">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4054,13 +4054,13 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E181">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4074,16 +4074,16 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E182">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4094,16 +4094,16 @@
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E183">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F183">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4114,13 +4114,13 @@
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E184">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4154,13 +4154,13 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -4174,16 +4174,16 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E187">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4194,16 +4194,16 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E188">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F188">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4214,13 +4214,13 @@
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E189">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4234,13 +4234,13 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E190">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4254,13 +4254,13 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E191">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4274,16 +4274,16 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D192" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E192">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4294,16 +4294,16 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D193" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F193">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4314,13 +4314,13 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4334,16 +4334,16 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E195">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4354,16 +4354,16 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E196">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F196">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4374,13 +4374,13 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E197">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4394,13 +4394,13 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4414,13 +4414,13 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4434,16 +4434,16 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E200">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4454,16 +4454,16 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E201">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F201">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4474,13 +4474,13 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E202">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4494,13 +4494,13 @@
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E203">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E204">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4531,10 +4531,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C205">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="D205" t="s">
         <v>18</v>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>210</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4554,13 +4554,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4574,16 +4574,16 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D207" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F207">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4594,16 +4594,16 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E208">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4614,13 +4614,13 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E209">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4634,16 +4634,16 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F210">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4654,13 +4654,13 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E211">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -4674,13 +4674,13 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4694,16 +4694,16 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E213">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4714,13 +4714,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E214">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D215" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E215">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F215">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4754,13 +4754,13 @@
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D216" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E216">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4774,13 +4774,13 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D217" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E217">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4794,16 +4794,16 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E218">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4814,13 +4814,13 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4834,16 +4834,16 @@
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D220" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F220">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4851,19 +4851,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C221">
-        <v>210</v>
+        <v>5330</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F221">
-        <v>210</v>
+        <v>746</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4874,13 +4874,13 @@
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E222">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4894,13 +4894,13 @@
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E223">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4914,16 +4914,16 @@
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E224">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F224">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4934,13 +4934,13 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D225" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E225">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4954,16 +4954,16 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E226">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4974,13 +4974,13 @@
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E227">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4994,13 +4994,13 @@
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E228">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5014,16 +5014,16 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D229" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E229">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F229">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5034,13 +5034,13 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E230">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5054,16 +5054,16 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D231" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E231">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5074,13 +5074,13 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D232" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E232">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5091,19 +5091,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C233">
-        <v>1332</v>
+        <v>210</v>
       </c>
       <c r="D233" t="s">
         <v>16</v>
       </c>
       <c r="E233">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5114,16 +5114,16 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D234" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F234">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5134,16 +5134,16 @@
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E235">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5154,13 +5154,13 @@
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E236">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5174,16 +5174,16 @@
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E237">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F237">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5194,13 +5194,13 @@
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D238" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E238">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5214,13 +5214,13 @@
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E239">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5234,16 +5234,16 @@
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E240">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5254,13 +5254,13 @@
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D241" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E241">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5274,16 +5274,16 @@
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D242" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E242">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F242">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5294,13 +5294,13 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E243">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5314,13 +5314,13 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D244" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E244">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5334,16 +5334,16 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D245" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E245">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5354,13 +5354,13 @@
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D246" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5374,16 +5374,16 @@
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D247" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F247">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5394,16 +5394,16 @@
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E248">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5414,13 +5414,13 @@
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D249" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E249">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5434,16 +5434,16 @@
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E250">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F250">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5454,13 +5454,13 @@
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D251" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E251">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -5474,13 +5474,13 @@
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D252" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E252">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D253" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E253">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5514,13 +5514,13 @@
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E254">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5534,16 +5534,16 @@
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D255" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E255">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F255">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5554,13 +5554,13 @@
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D256" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E256">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5574,13 +5574,13 @@
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D257" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E257">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5594,16 +5594,16 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D258" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E258">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5611,19 +5611,19 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C259">
-        <v>1332</v>
+        <v>210</v>
       </c>
       <c r="D259" t="s">
         <v>16</v>
       </c>
       <c r="E259">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5637,7 +5637,7 @@
         <v>210</v>
       </c>
       <c r="D260" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -5654,16 +5654,16 @@
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D261" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F261">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5674,13 +5674,13 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D262" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E262">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5694,16 +5694,16 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D263" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E263">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5714,16 +5714,16 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D264" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E264">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F264">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5734,13 +5734,13 @@
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E265">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5754,13 +5754,13 @@
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D266" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E266">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5774,13 +5774,13 @@
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D267" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E267">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5791,19 +5791,19 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C268">
-        <v>210</v>
+        <v>3244</v>
       </c>
       <c r="D268" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F268">
-        <v>210</v>
+        <v>840</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5814,13 +5814,13 @@
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D269" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E269">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5834,16 +5834,16 @@
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D270" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E270">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F270">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5854,13 +5854,13 @@
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D271" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E271">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5874,13 +5874,13 @@
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D272" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E272">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5894,16 +5894,16 @@
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D273" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E273">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5914,13 +5914,13 @@
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D274" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E274">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5934,16 +5934,16 @@
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D275" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F275">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5957,7 +5957,7 @@
         <v>210</v>
       </c>
       <c r="D276" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D277" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E277">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5994,13 +5994,13 @@
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D278" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E278">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6014,16 +6014,16 @@
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D279" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E279">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F279">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6031,19 +6031,19 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C280">
-        <v>4316</v>
+        <v>210</v>
       </c>
       <c r="D280" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E280">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6054,13 +6054,13 @@
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D281" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E281">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6074,13 +6074,13 @@
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D282" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E282">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6094,16 +6094,16 @@
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D283" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E283">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6114,16 +6114,16 @@
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D284" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E284">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F284">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6134,13 +6134,13 @@
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D285" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E285">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D286" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E286">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -6174,13 +6174,13 @@
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D287" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E287">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6191,10 +6191,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C288">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="D288" t="s">
         <v>18</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="F288">
-        <v>210</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6214,13 +6214,13 @@
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D289" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E289">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6231,19 +6231,19 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C290">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D290" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F290">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6254,16 +6254,16 @@
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D291" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F291">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6271,19 +6271,19 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C292">
-        <v>210</v>
+        <v>4316</v>
       </c>
       <c r="D292" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F292">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6294,13 +6294,13 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D293" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E293">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D294" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E294">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E295">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F295">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6354,16 +6354,16 @@
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D296" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E296">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6374,13 +6374,13 @@
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D297" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E297">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6394,13 +6394,13 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D298" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E298">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6414,13 +6414,13 @@
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D299" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E299">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -6431,19 +6431,19 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C300">
-        <v>3244</v>
+        <v>210</v>
       </c>
       <c r="D300" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E300">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F300">
-        <v>840</v>
+        <v>210</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6454,13 +6454,13 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D301" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E301">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6474,16 +6474,16 @@
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D302" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E302">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6494,13 +6494,13 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D303" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E303">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -6511,19 +6511,19 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C304">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D304" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F304">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6534,16 +6534,16 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D305" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E305">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6554,16 +6554,16 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D306" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E306">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F306">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6574,13 +6574,13 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D307" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E307">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6594,13 +6594,13 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D308" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E308">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6614,16 +6614,16 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D309" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E309">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F309">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6634,16 +6634,16 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D310" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E310">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6654,13 +6654,13 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D311" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E311">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6674,13 +6674,13 @@
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D312" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E312">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6694,13 +6694,13 @@
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D313" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E313">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6714,16 +6714,16 @@
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D314" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E314">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F314">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6734,16 +6734,16 @@
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D315" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E315">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6754,13 +6754,13 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D316" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E316">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6774,13 +6774,13 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D317" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E317">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6794,16 +6794,16 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D318" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E318">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6814,16 +6814,16 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D319" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F319">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6834,13 +6834,13 @@
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D320" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E320">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6851,19 +6851,19 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C321">
-        <v>210</v>
+        <v>3780</v>
       </c>
       <c r="D321" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F321">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6874,13 +6874,13 @@
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D322" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E322">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6894,16 +6894,16 @@
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>5330</v>
+        <v>3244</v>
       </c>
       <c r="D323" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E323">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F323">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6914,13 +6914,13 @@
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="D324" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E324">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6931,19 +6931,19 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C325">
-        <v>4048</v>
+        <v>210</v>
       </c>
       <c r="D325" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E325">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6954,13 +6954,13 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D326" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E326">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6974,13 +6974,13 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D327" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E327">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6994,16 +6994,16 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D328" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E328">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F328">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7014,16 +7014,16 @@
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D329" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E329">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7034,13 +7034,13 @@
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D330" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E330">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7054,13 +7054,13 @@
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D331" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E331">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7071,19 +7071,19 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C332">
-        <v>1332</v>
+        <v>210</v>
       </c>
       <c r="D332" t="s">
         <v>16</v>
       </c>
       <c r="E332">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7094,16 +7094,16 @@
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D333" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F333">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7114,13 +7114,13 @@
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D334" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E334">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7131,19 +7131,19 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C335">
-        <v>5598</v>
+        <v>210</v>
       </c>
       <c r="D335" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E335">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7154,16 +7154,16 @@
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D336" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E336">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F336">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7174,13 +7174,13 @@
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D337" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E337">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -7194,13 +7194,13 @@
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D338" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E338">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7214,16 +7214,16 @@
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D339" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E339">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7234,13 +7234,13 @@
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D340" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E340">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7254,16 +7254,16 @@
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D341" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E341">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F341">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7274,13 +7274,13 @@
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D342" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E342">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -7294,13 +7294,13 @@
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D343" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E343">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -7314,16 +7314,16 @@
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D344" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E344">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F344">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7334,13 +7334,13 @@
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D345" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E345">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7354,16 +7354,16 @@
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D346" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F346">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7374,16 +7374,16 @@
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D347" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E347">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F347">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7394,13 +7394,13 @@
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D348" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E348">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7414,16 +7414,16 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D349" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E349">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F349">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7434,13 +7434,13 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D350" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E350">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7454,13 +7454,13 @@
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D351" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E351">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -7474,16 +7474,16 @@
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D352" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E352">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7494,13 +7494,13 @@
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D353" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E353">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7514,16 +7514,16 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D354" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E354">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F354">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7534,13 +7534,13 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D355" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E355">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7554,13 +7554,13 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D356" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E356">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -7574,16 +7574,16 @@
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D357" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E357">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F357">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7594,13 +7594,13 @@
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D358" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E358">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -7614,16 +7614,16 @@
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D359" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F359">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7634,16 +7634,16 @@
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D360" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E360">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F360">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7654,13 +7654,13 @@
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D361" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E361">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7674,16 +7674,16 @@
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D362" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E362">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F362">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7694,13 +7694,13 @@
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D363" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E363">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7711,19 +7711,19 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C364">
-        <v>210</v>
+        <v>3512</v>
       </c>
       <c r="D364" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E364">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F364">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7734,16 +7734,16 @@
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D365" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E365">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F365">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7751,19 +7751,19 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C366">
-        <v>3780</v>
+        <v>210</v>
       </c>
       <c r="D366" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E366">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F366">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7774,13 +7774,13 @@
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D367" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E367">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7794,16 +7794,16 @@
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D368" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E368">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F368">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7814,13 +7814,13 @@
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D369" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E369">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7834,13 +7834,13 @@
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D370" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E370">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7851,10 +7851,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C371">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="D371" t="s">
         <v>18</v>
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="F371">
-        <v>210</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7874,13 +7874,13 @@
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D372" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E372">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -7894,13 +7894,13 @@
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D373" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E373">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7914,16 +7914,16 @@
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D374" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E374">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F374">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7934,13 +7934,13 @@
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D375" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E375">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7954,13 +7954,13 @@
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D376" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E376">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -7974,16 +7974,16 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D377" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E377">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F377">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -7994,13 +7994,13 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D378" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E378">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -8014,16 +8014,16 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D379" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E379">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F379">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8034,13 +8034,13 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D380" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E380">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D381" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E381">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8074,16 +8074,16 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D382" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E382">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F382">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8094,13 +8094,13 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D383" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E383">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8114,16 +8114,16 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D384" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E384">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F384">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8134,13 +8134,13 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D385" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E385">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -8154,13 +8154,13 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D386" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E386">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -8174,16 +8174,16 @@
         <v>12000</v>
       </c>
       <c r="C387">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D387" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E387">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F387">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8194,13 +8194,13 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D388" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E388">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -8214,13 +8214,13 @@
         <v>12000</v>
       </c>
       <c r="C389">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D389" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E389">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -8231,19 +8231,19 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C390">
-        <v>210</v>
+        <v>3780</v>
       </c>
       <c r="D390" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F390">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8254,16 +8254,16 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D391" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E391">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F391">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8274,16 +8274,16 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D392" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E392">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F392">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8294,13 +8294,13 @@
         <v>12000</v>
       </c>
       <c r="C393">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D393" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E393">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -8314,13 +8314,13 @@
         <v>12000</v>
       </c>
       <c r="C394">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D394" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E394">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -8334,13 +8334,13 @@
         <v>12000</v>
       </c>
       <c r="C395">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D395" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E395">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -8354,16 +8354,16 @@
         <v>12000</v>
       </c>
       <c r="C396">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D396" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E396">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F396">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8374,16 +8374,16 @@
         <v>12000</v>
       </c>
       <c r="C397">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D397" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E397">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F397">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8394,13 +8394,13 @@
         <v>12000</v>
       </c>
       <c r="C398">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D398" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E398">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -8414,13 +8414,13 @@
         <v>12000</v>
       </c>
       <c r="C399">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D399" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E399">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -8434,16 +8434,16 @@
         <v>12000</v>
       </c>
       <c r="C400">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D400" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E400">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8451,19 +8451,19 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C401">
-        <v>1064</v>
+        <v>3516</v>
       </c>
       <c r="D401" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F401">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8471,19 +8471,19 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C402">
-        <v>5866</v>
+        <v>2448</v>
       </c>
       <c r="D402" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E402">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F402">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8491,16 +8491,16 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C403">
-        <v>5598</v>
+        <v>1336</v>
       </c>
       <c r="D403" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E403">
-        <v>5598</v>
+        <v>1336</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -8511,19 +8511,19 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C404">
-        <v>5330</v>
+        <v>268</v>
       </c>
       <c r="D404" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E404">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F404">
-        <v>746</v>
+        <v>268</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8534,16 +8534,16 @@
         <v>11200</v>
       </c>
       <c r="C405">
-        <v>3516</v>
+        <v>5066</v>
       </c>
       <c r="D405" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E405">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8554,16 +8554,16 @@
         <v>11200</v>
       </c>
       <c r="C406">
-        <v>2448</v>
+        <v>3516</v>
       </c>
       <c r="D406" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E406">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F406">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8574,16 +8574,16 @@
         <v>11200</v>
       </c>
       <c r="C407">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D407" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E407">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F407">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8594,16 +8594,16 @@
         <v>11200</v>
       </c>
       <c r="C408">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D408" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E408">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F408">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8614,16 +8614,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D409" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E409">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F409">
-        <v>482</v>
+        <v>268</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8634,16 +8634,16 @@
         <v>11200</v>
       </c>
       <c r="C410">
-        <v>3516</v>
+        <v>5066</v>
       </c>
       <c r="D410" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E410">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F410">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8651,16 +8651,16 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>11200</v>
+        <v>44</v>
       </c>
       <c r="C411">
-        <v>2448</v>
+        <v>44</v>
       </c>
       <c r="D411" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E411">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F411">
         <v>44</v>
@@ -8674,13 +8674,13 @@
         <v>11200</v>
       </c>
       <c r="C412">
-        <v>1336</v>
+        <v>3516</v>
       </c>
       <c r="D412" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E412">
-        <v>1336</v>
+        <v>3516</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -8694,16 +8694,16 @@
         <v>11200</v>
       </c>
       <c r="C413">
-        <v>268</v>
+        <v>2448</v>
       </c>
       <c r="D413" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E413">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F413">
-        <v>268</v>
+        <v>44</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8714,16 +8714,16 @@
         <v>11200</v>
       </c>
       <c r="C414">
-        <v>5066</v>
+        <v>1336</v>
       </c>
       <c r="D414" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E414">
-        <v>4584</v>
+        <v>1336</v>
       </c>
       <c r="F414">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8734,16 +8734,16 @@
         <v>11200</v>
       </c>
       <c r="C415">
-        <v>3516</v>
+        <v>268</v>
       </c>
       <c r="D415" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E415">
-        <v>3516</v>
+        <v>0</v>
       </c>
       <c r="F415">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8751,19 +8751,19 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C416">
-        <v>2448</v>
+        <v>3266</v>
       </c>
       <c r="D416" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E416">
         <v>2404</v>
       </c>
       <c r="F416">
-        <v>44</v>
+        <v>862</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8771,16 +8771,16 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C417">
-        <v>1336</v>
+        <v>5670</v>
       </c>
       <c r="D417" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E417">
-        <v>1336</v>
+        <v>5670</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -8791,19 +8791,19 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C418">
-        <v>268</v>
+        <v>2802</v>
       </c>
       <c r="D418" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E418">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F418">
-        <v>268</v>
+        <v>398</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8814,16 +8814,16 @@
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>3266</v>
+        <v>5670</v>
       </c>
       <c r="D419" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E419">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F419">
-        <v>862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8834,16 +8834,16 @@
         <v>9400</v>
       </c>
       <c r="C420">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D420" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E420">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F420">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8854,16 +8854,16 @@
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D421" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E421">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F421">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8874,16 +8874,16 @@
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D422" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E422">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F422">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8894,16 +8894,16 @@
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D423" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E423">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F423">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8914,16 +8914,16 @@
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D424" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E424">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F424">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8934,16 +8934,16 @@
         <v>9400</v>
       </c>
       <c r="C425">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D425" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E425">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F425">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8954,16 +8954,16 @@
         <v>9400</v>
       </c>
       <c r="C426">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D426" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E426">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F426">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8974,16 +8974,16 @@
         <v>9400</v>
       </c>
       <c r="C427">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D427" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E427">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F427">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8994,16 +8994,16 @@
         <v>9400</v>
       </c>
       <c r="C428">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D428" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E428">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F428">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9014,16 +9014,16 @@
         <v>9400</v>
       </c>
       <c r="C429">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D429" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E429">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F429">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9034,16 +9034,16 @@
         <v>9400</v>
       </c>
       <c r="C430">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D430" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E430">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F430">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9054,16 +9054,16 @@
         <v>9400</v>
       </c>
       <c r="C431">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D431" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E431">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F431">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9074,16 +9074,16 @@
         <v>9400</v>
       </c>
       <c r="C432">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D432" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E432">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F432">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9094,16 +9094,16 @@
         <v>9400</v>
       </c>
       <c r="C433">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D433" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E433">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F433">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9114,16 +9114,16 @@
         <v>9400</v>
       </c>
       <c r="C434">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D434" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E434">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F434">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9134,16 +9134,16 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D435" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E435">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F435">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9154,16 +9154,16 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D436" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E436">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F436">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9174,16 +9174,16 @@
         <v>9400</v>
       </c>
       <c r="C437">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D437" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E437">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F437">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9194,16 +9194,16 @@
         <v>9400</v>
       </c>
       <c r="C438">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D438" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E438">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F438">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9214,16 +9214,16 @@
         <v>9400</v>
       </c>
       <c r="C439">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D439" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E439">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F439">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -9234,16 +9234,16 @@
         <v>9400</v>
       </c>
       <c r="C440">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D440" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E440">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F440">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9254,16 +9254,16 @@
         <v>9400</v>
       </c>
       <c r="C441">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D441" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E441">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F441">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -9274,95 +9274,15 @@
         <v>9400</v>
       </c>
       <c r="C442">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D442" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E442">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443">
-        <v>210</v>
-      </c>
-      <c r="C443">
-        <v>210</v>
-      </c>
-      <c r="D443" t="s">
-        <v>18</v>
-      </c>
-      <c r="E443">
-        <v>0</v>
-      </c>
-      <c r="F443">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444">
-        <v>9400</v>
-      </c>
-      <c r="C444">
-        <v>2802</v>
-      </c>
-      <c r="D444" t="s">
-        <v>23</v>
-      </c>
-      <c r="E444">
-        <v>2404</v>
-      </c>
-      <c r="F444">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445">
-        <v>9400</v>
-      </c>
-      <c r="C445">
-        <v>5670</v>
-      </c>
-      <c r="D445" t="s">
-        <v>22</v>
-      </c>
-      <c r="E445">
-        <v>5670</v>
-      </c>
-      <c r="F445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446">
-        <v>9400</v>
-      </c>
-      <c r="C446">
-        <v>2802</v>
-      </c>
-      <c r="D446" t="s">
-        <v>23</v>
-      </c>
-      <c r="E446">
-        <v>0</v>
-      </c>
-      <c r="F446">
         <v>2802</v>
       </c>
     </row>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="22">
   <si>
     <t>原料长度</t>
   </si>
@@ -64,28 +64,22 @@
     <t>[4266, 6134]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>[4534, 6134]</t>
   </si>
   <si>
     <t>[4802, 6134]</t>
   </si>
   <si>
-    <t>[536]</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[4798, 6134]</t>
   </si>
   <si>
     <t>[2618, 6134]</t>
   </si>
   <si>
-    <t>[4798, 6134]</t>
-  </si>
-  <si>
-    <t>[3730]</t>
-  </si>
-  <si>
-    <t>[464, 6134]</t>
+    <t>[4418]</t>
   </si>
 </sst>
 </file>
@@ -443,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F442"/>
+  <dimension ref="A1:F440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C13">
-        <v>746</v>
+        <v>1332</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F13">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -714,16 +708,16 @@
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -734,16 +728,16 @@
         <v>12000</v>
       </c>
       <c r="C15">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F15">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -754,13 +748,13 @@
         <v>12000</v>
       </c>
       <c r="C16">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -774,16 +768,16 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -794,16 +788,16 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F18">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -814,13 +808,13 @@
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -834,13 +828,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -854,13 +848,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -874,16 +868,16 @@
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -894,16 +888,16 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F23">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -911,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C24">
-        <v>2136</v>
+        <v>746</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -977,7 +971,7 @@
         <v>1332</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>1332</v>
@@ -997,7 +991,7 @@
         <v>1064</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1011,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C29">
-        <v>746</v>
+        <v>5866</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F29">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1034,13 +1028,13 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1054,16 +1048,16 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1074,16 +1068,16 @@
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F32">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1094,13 +1088,13 @@
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1114,13 +1108,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1134,13 +1128,13 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1154,16 +1148,16 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1174,16 +1168,16 @@
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F37">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1194,13 +1188,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1214,13 +1208,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1234,13 +1228,13 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1254,16 +1248,16 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1274,16 +1268,16 @@
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F42">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1294,13 +1288,13 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1314,16 +1308,16 @@
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1334,16 +1328,16 @@
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F45">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1354,13 +1348,13 @@
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1374,13 +1368,13 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1394,13 +1388,13 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1414,16 +1408,16 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1434,16 +1428,16 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F50">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1454,13 +1448,13 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1474,13 +1468,13 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1494,13 +1488,13 @@
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1514,16 +1508,16 @@
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1534,16 +1528,16 @@
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F55">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1554,13 +1548,13 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1574,16 +1568,16 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1594,16 +1588,16 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F58">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1611,19 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C59">
-        <v>746</v>
+        <v>4048</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F59">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1634,13 +1628,13 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1654,13 +1648,13 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1674,16 +1668,16 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E62">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1694,13 +1688,13 @@
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E63">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1714,16 +1708,16 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F64">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1731,19 +1725,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C65">
-        <v>2136</v>
+        <v>746</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E65">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1754,13 +1748,13 @@
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1774,13 +1768,13 @@
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1794,16 +1788,16 @@
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
       </c>
       <c r="E68">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1814,16 +1808,16 @@
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F69">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1834,13 +1828,13 @@
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1854,16 +1848,16 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1874,16 +1868,16 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F72">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1894,13 +1888,13 @@
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1914,13 +1908,13 @@
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1934,13 +1928,13 @@
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1954,16 +1948,16 @@
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E76">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1974,16 +1968,16 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F77">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1994,13 +1988,13 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E78">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2011,19 +2005,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C79">
-        <v>1868</v>
+        <v>746</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E79">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2057,7 +2051,7 @@
         <v>1332</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>1332</v>
@@ -2077,7 +2071,7 @@
         <v>1064</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2317,7 +2311,7 @@
         <v>1332</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>1332</v>
@@ -2337,7 +2331,7 @@
         <v>1064</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2391,19 +2385,19 @@
         <v>96</v>
       </c>
       <c r="B98">
+        <v>12000</v>
+      </c>
+      <c r="C98">
+        <v>5330</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>4584</v>
+      </c>
+      <c r="F98">
         <v>746</v>
-      </c>
-      <c r="C98">
-        <v>210</v>
-      </c>
-      <c r="D98" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2414,13 +2408,13 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2434,13 +2428,13 @@
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2454,16 +2448,16 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F101">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2474,13 +2468,13 @@
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2494,16 +2488,16 @@
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2514,13 +2508,13 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E104">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2534,13 +2528,13 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E105">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2554,16 +2548,16 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E106">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F106">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2574,13 +2568,13 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E107">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2594,16 +2588,16 @@
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2614,13 +2608,13 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2634,13 +2628,13 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E110">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2654,16 +2648,16 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F111">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2671,19 +2665,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C112">
-        <v>210</v>
+        <v>4316</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F112">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2694,13 +2688,13 @@
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E113">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2714,13 +2708,13 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2734,16 +2728,16 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F115">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2754,16 +2748,16 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E116">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2774,13 +2768,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E117">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2794,13 +2788,13 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E118">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2814,13 +2808,13 @@
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E119">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2834,16 +2828,16 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E120">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F120">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2851,19 +2845,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C121">
-        <v>2136</v>
+        <v>746</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E121">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2874,16 +2868,16 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E122">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2894,13 +2888,13 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2914,13 +2908,13 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D124" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E124">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2934,16 +2928,16 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F125">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2954,13 +2948,13 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -2974,13 +2968,13 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2994,16 +2988,16 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F128">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3014,13 +3008,13 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E129">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3034,16 +3028,16 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E130">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3054,13 +3048,13 @@
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E131">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3074,13 +3068,13 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E132">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3094,16 +3088,16 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E133">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F133">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3114,13 +3108,13 @@
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E134">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3134,16 +3128,16 @@
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D135" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E135">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3154,13 +3148,13 @@
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3174,13 +3168,13 @@
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E137">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3194,16 +3188,16 @@
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F138">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3214,13 +3208,13 @@
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3231,19 +3225,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C140">
-        <v>210</v>
+        <v>4048</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F140">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3254,13 +3248,13 @@
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D141" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3274,16 +3268,16 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F142">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3294,16 +3288,16 @@
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3311,19 +3305,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C144">
-        <v>4048</v>
+        <v>746</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E144">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3334,13 +3328,13 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E145">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3354,13 +3348,13 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E146">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3374,16 +3368,16 @@
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E147">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F147">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3394,13 +3388,13 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E148">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3414,16 +3408,16 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E149">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3434,13 +3428,13 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3454,13 +3448,13 @@
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E151">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3474,16 +3468,16 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F152">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3494,13 +3488,13 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E153">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3514,13 +3508,13 @@
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D154" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E154">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3534,16 +3528,16 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E155">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F155">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3554,13 +3548,13 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E156">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3574,16 +3568,16 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E157">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3594,13 +3588,13 @@
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E158">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3614,13 +3608,13 @@
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E159">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3634,16 +3628,16 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D160" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E160">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F160">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3654,13 +3648,13 @@
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E161">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3674,16 +3668,16 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E162">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3694,13 +3688,13 @@
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E163">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3711,19 +3705,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C164">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D164" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F164">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3734,16 +3728,16 @@
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E165">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3754,16 +3748,16 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F166">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3774,13 +3768,13 @@
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3794,13 +3788,13 @@
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D168" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E168">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3814,16 +3808,16 @@
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F169">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3834,16 +3828,16 @@
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E170">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3854,13 +3848,13 @@
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E171">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3874,13 +3868,13 @@
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E172">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3894,13 +3888,13 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E173">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3914,16 +3908,16 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D174" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E174">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F174">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3934,16 +3928,16 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D175" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E175">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3954,13 +3948,13 @@
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D176" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E176">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3974,13 +3968,13 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E177">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3994,16 +3988,16 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E178">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4014,16 +4008,16 @@
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D179" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F179">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4034,13 +4028,13 @@
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D180" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E180">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4054,13 +4048,13 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D181" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E181">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4074,16 +4068,16 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E182">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F182">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4094,16 +4088,16 @@
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D183" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E183">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4114,13 +4108,13 @@
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E184">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4134,13 +4128,13 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E185">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4154,13 +4148,13 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E186">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -4174,16 +4168,16 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D187" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E187">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F187">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4194,16 +4188,16 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E188">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4214,13 +4208,13 @@
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D189" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E189">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4234,13 +4228,13 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D190" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E190">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4254,16 +4248,16 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D191" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4274,16 +4268,16 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F192">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4294,13 +4288,13 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D193" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E193">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4314,13 +4308,13 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D194" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E194">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4334,16 +4328,16 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F195">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4354,16 +4348,16 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E196">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4374,13 +4368,13 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E197">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4394,13 +4388,13 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E198">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4414,13 +4408,13 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E199">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4434,16 +4428,16 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D200" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E200">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F200">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4454,16 +4448,16 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E201">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4474,13 +4468,13 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D202" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E202">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4494,13 +4488,13 @@
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D203" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E203">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4514,16 +4508,16 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D204" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E204">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4534,16 +4528,16 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D205" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F205">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4554,13 +4548,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D206" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E206">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4574,13 +4568,13 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D207" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E207">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4594,16 +4588,16 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E208">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F208">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4614,16 +4608,16 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E209">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4634,13 +4628,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E210">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4651,19 +4645,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C211">
-        <v>3780</v>
+        <v>746</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E211">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4674,13 +4668,13 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E212">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4694,16 +4688,16 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D213" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E213">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F213">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4714,13 +4708,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E214">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4734,16 +4728,16 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D215" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E215">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4754,13 +4748,13 @@
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D216" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E216">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4774,13 +4768,13 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D217" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4794,16 +4788,16 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D218" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F218">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4814,13 +4808,13 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E219">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4834,13 +4828,13 @@
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D220" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E220">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4854,16 +4848,16 @@
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E221">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F221">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4874,13 +4868,13 @@
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D222" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E222">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4894,16 +4888,16 @@
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E223">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4914,13 +4908,13 @@
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E224">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4934,13 +4928,13 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E225">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4954,16 +4948,16 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D226" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E226">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F226">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4974,13 +4968,13 @@
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D227" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E227">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4994,16 +4988,16 @@
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D228" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E228">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5014,13 +5008,13 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D229" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E229">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -5034,13 +5028,13 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D230" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5054,16 +5048,16 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D231" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F231">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5074,13 +5068,13 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E232">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5091,19 +5085,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C233">
-        <v>210</v>
+        <v>4048</v>
       </c>
       <c r="D233" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F233">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5114,13 +5108,13 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D234" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E234">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5134,16 +5128,16 @@
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E235">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F235">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5154,16 +5148,16 @@
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E236">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5174,13 +5168,13 @@
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E237">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5194,13 +5188,13 @@
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E238">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5214,13 +5208,13 @@
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E239">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5234,16 +5228,16 @@
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D240" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E240">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F240">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5254,16 +5248,16 @@
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D241" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E241">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5271,19 +5265,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C242">
-        <v>1868</v>
+        <v>746</v>
       </c>
       <c r="D242" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E242">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5294,13 +5288,13 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D243" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E243">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5314,13 +5308,13 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D244" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E244">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5334,16 +5328,16 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F245">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5354,13 +5348,13 @@
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E246">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5374,13 +5368,13 @@
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D247" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E247">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -5394,16 +5388,16 @@
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E248">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F248">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5414,13 +5408,13 @@
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D249" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E249">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5434,16 +5428,16 @@
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D250" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E250">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5454,13 +5448,13 @@
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D251" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E251">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -5474,13 +5468,13 @@
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D252" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E252">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5494,16 +5488,16 @@
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D253" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E253">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F253">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5514,13 +5508,13 @@
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D254" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E254">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5534,16 +5528,16 @@
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D255" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E255">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5554,13 +5548,13 @@
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D256" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5574,13 +5568,13 @@
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D257" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E257">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5594,16 +5588,16 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D258" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F258">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5611,19 +5605,19 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C259">
-        <v>210</v>
+        <v>4316</v>
       </c>
       <c r="D259" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F259">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5631,19 +5625,19 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C260">
-        <v>210</v>
+        <v>4048</v>
       </c>
       <c r="D260" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F260">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5654,13 +5648,13 @@
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="D261" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E261">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -5674,13 +5668,13 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D262" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E262">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5694,16 +5688,16 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>5330</v>
+        <v>3244</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E263">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F263">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5714,13 +5708,13 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="D264" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E264">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5734,13 +5728,13 @@
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="D265" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E265">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5754,13 +5748,13 @@
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="D266" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E266">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5774,13 +5768,13 @@
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="D267" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E267">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5794,16 +5788,16 @@
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>3244</v>
+        <v>1064</v>
       </c>
       <c r="D268" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E268">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F268">
-        <v>840</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5814,13 +5808,13 @@
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D269" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E269">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5834,13 +5828,13 @@
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D270" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E270">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5854,16 +5848,16 @@
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D271" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E271">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5874,13 +5868,13 @@
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="D272" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E272">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5894,16 +5888,16 @@
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>1064</v>
+        <v>4048</v>
       </c>
       <c r="D273" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F273">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5914,13 +5908,13 @@
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="D274" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E274">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5934,13 +5928,13 @@
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D275" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E275">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5951,19 +5945,19 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C276">
-        <v>210</v>
+        <v>3244</v>
       </c>
       <c r="D276" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F276">
-        <v>210</v>
+        <v>840</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5974,16 +5968,16 @@
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D277" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E277">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F277">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5994,13 +5988,13 @@
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D278" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E278">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6014,13 +6008,13 @@
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D279" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E279">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -6031,19 +6025,19 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C280">
-        <v>210</v>
+        <v>1332</v>
       </c>
       <c r="D280" t="s">
         <v>16</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F280">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6054,16 +6048,16 @@
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D281" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E281">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6074,13 +6068,13 @@
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D282" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E282">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6094,16 +6088,16 @@
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D283" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E283">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F283">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6114,16 +6108,16 @@
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D284" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E284">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6134,13 +6128,13 @@
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D285" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E285">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6154,13 +6148,13 @@
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D286" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E286">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -6174,13 +6168,13 @@
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D287" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E287">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6194,16 +6188,16 @@
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D288" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F288">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6214,16 +6208,16 @@
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D289" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E289">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6234,13 +6228,13 @@
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D290" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E290">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -6254,16 +6248,16 @@
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D291" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E291">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F291">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6274,13 +6268,13 @@
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D292" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E292">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6294,13 +6288,13 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D293" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E293">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6314,16 +6308,16 @@
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D294" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E294">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6334,13 +6328,13 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D295" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E295">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6354,16 +6348,16 @@
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D296" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E296">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F296">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6374,16 +6368,16 @@
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D297" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E297">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6394,13 +6388,13 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D298" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E298">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6414,13 +6408,13 @@
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D299" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E299">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -6431,19 +6425,19 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C300">
-        <v>210</v>
+        <v>3780</v>
       </c>
       <c r="D300" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F300">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6454,13 +6448,13 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D301" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E301">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6474,16 +6468,16 @@
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D302" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F302">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6494,13 +6488,13 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D303" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E303">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -6514,13 +6508,13 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D304" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E304">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6534,16 +6528,16 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D305" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E305">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F305">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6554,13 +6548,13 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D306" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E306">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6574,16 +6568,16 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D307" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E307">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6594,13 +6588,13 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D308" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E308">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6614,13 +6608,13 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D309" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E309">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6634,16 +6628,16 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D310" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E310">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F310">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6654,13 +6648,13 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D311" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E311">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6674,13 +6668,13 @@
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D312" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E312">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6694,13 +6688,13 @@
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D313" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E313">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6714,13 +6708,13 @@
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D314" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E314">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6734,16 +6728,16 @@
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D315" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F315">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6754,13 +6748,13 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D316" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E316">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6774,13 +6768,13 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D317" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E317">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6794,16 +6788,16 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D318" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E318">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F318">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6814,13 +6808,13 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D319" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E319">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6831,19 +6825,19 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C320">
-        <v>4048</v>
+        <v>746</v>
       </c>
       <c r="D320" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E320">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6854,16 +6848,16 @@
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D321" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E321">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F321">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6874,13 +6868,13 @@
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D322" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E322">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6894,16 +6888,16 @@
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D323" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E323">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F323">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6914,16 +6908,16 @@
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D324" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E324">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6931,19 +6925,19 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C325">
-        <v>210</v>
+        <v>4316</v>
       </c>
       <c r="D325" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F325">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6954,13 +6948,13 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D326" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E326">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6974,13 +6968,13 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D327" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E327">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6994,13 +6988,13 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D328" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E328">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7014,16 +7008,16 @@
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D329" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F329">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7034,13 +7028,13 @@
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D330" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E330">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7054,13 +7048,13 @@
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D331" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E331">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7071,19 +7065,19 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C332">
-        <v>210</v>
+        <v>1600</v>
       </c>
       <c r="D332" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F332">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7094,16 +7088,16 @@
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D333" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E333">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F333">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7111,19 +7105,19 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C334">
-        <v>4316</v>
+        <v>746</v>
       </c>
       <c r="D334" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E334">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7131,19 +7125,19 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C335">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="D335" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E335">
         <v>0</v>
       </c>
       <c r="F335">
-        <v>210</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7154,13 +7148,13 @@
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D336" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E336">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7174,13 +7168,13 @@
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D337" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E337">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -7194,16 +7188,16 @@
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D338" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E338">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7214,16 +7208,16 @@
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D339" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E339">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F339">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7234,13 +7228,13 @@
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D340" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E340">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7254,13 +7248,13 @@
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D341" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E341">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7274,13 +7268,13 @@
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D342" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E342">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -7294,16 +7288,16 @@
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D343" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E343">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7314,16 +7308,16 @@
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D344" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F344">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7334,13 +7328,13 @@
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D345" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E345">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7354,13 +7348,13 @@
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D346" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E346">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -7371,16 +7365,16 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C347">
-        <v>5330</v>
+        <v>746</v>
       </c>
       <c r="D347" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E347">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F347">
         <v>746</v>
@@ -7394,13 +7388,13 @@
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D348" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E348">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7414,16 +7408,16 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D349" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E349">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F349">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7434,13 +7428,13 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D350" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E350">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7454,13 +7448,13 @@
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D351" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E351">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -7474,16 +7468,16 @@
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D352" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E352">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F352">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7494,13 +7488,13 @@
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D353" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E353">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7514,13 +7508,13 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D354" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E354">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7534,13 +7528,13 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D355" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E355">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7554,13 +7548,13 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D356" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E356">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -7574,16 +7568,16 @@
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D357" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F357">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7594,13 +7588,13 @@
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D358" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E358">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -7614,13 +7608,13 @@
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D359" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E359">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -7634,16 +7628,16 @@
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D360" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E360">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F360">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7654,13 +7648,13 @@
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D361" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E361">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7674,16 +7668,16 @@
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D362" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E362">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F362">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7694,13 +7688,13 @@
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D363" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E363">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7714,13 +7708,13 @@
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D364" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E364">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -7734,16 +7728,16 @@
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D365" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E365">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F365">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7751,19 +7745,19 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C366">
-        <v>210</v>
+        <v>4316</v>
       </c>
       <c r="D366" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F366">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7774,13 +7768,13 @@
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D367" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E367">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7794,13 +7788,13 @@
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D368" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E368">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7814,13 +7808,13 @@
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D369" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E369">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7834,16 +7828,16 @@
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D370" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E370">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F370">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7854,16 +7848,16 @@
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D371" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F371">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7874,13 +7868,13 @@
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D372" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E372">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -7894,13 +7888,13 @@
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D373" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E373">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7911,16 +7905,16 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C374">
-        <v>5330</v>
+        <v>746</v>
       </c>
       <c r="D374" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E374">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F374">
         <v>746</v>
@@ -7934,13 +7928,13 @@
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D375" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E375">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7954,16 +7948,16 @@
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D376" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E376">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F376">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7974,13 +7968,13 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D377" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E377">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7994,13 +7988,13 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D378" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E378">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -8014,16 +8008,16 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D379" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E379">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F379">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8034,13 +8028,13 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D380" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E380">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8054,13 +8048,13 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D381" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E381">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8074,13 +8068,13 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D382" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E382">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8094,13 +8088,13 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D383" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E383">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8114,16 +8108,16 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D384" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F384">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8134,13 +8128,13 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D385" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E385">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -8154,13 +8148,13 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D386" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E386">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -8174,16 +8168,16 @@
         <v>12000</v>
       </c>
       <c r="C387">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D387" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E387">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F387">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8194,13 +8188,13 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D388" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E388">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -8214,16 +8208,16 @@
         <v>12000</v>
       </c>
       <c r="C389">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D389" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E389">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F389">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8234,13 +8228,13 @@
         <v>12000</v>
       </c>
       <c r="C390">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D390" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E390">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8254,13 +8248,13 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D391" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E391">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -8274,16 +8268,16 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D392" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E392">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F392">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8294,13 +8288,13 @@
         <v>12000</v>
       </c>
       <c r="C393">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D393" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E393">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -8314,13 +8308,13 @@
         <v>12000</v>
       </c>
       <c r="C394">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D394" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E394">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -8331,19 +8325,19 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C395">
-        <v>1600</v>
+        <v>746</v>
       </c>
       <c r="D395" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E395">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F395">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8351,19 +8345,19 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C396">
-        <v>1332</v>
+        <v>2980</v>
       </c>
       <c r="D396" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E396">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F396">
-        <v>0</v>
+        <v>576</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8371,19 +8365,19 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C397">
-        <v>1064</v>
+        <v>1336</v>
       </c>
       <c r="D397" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F397">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8391,19 +8385,19 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C398">
-        <v>5866</v>
+        <v>268</v>
       </c>
       <c r="D398" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E398">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F398">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8411,19 +8405,19 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C399">
-        <v>5598</v>
+        <v>5066</v>
       </c>
       <c r="D399" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E399">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F399">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8431,19 +8425,19 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C400">
-        <v>5330</v>
+        <v>3516</v>
       </c>
       <c r="D400" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E400">
-        <v>4584</v>
+        <v>3516</v>
       </c>
       <c r="F400">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8454,16 +8448,16 @@
         <v>11200</v>
       </c>
       <c r="C401">
-        <v>3516</v>
+        <v>2448</v>
       </c>
       <c r="D401" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E401">
-        <v>3516</v>
+        <v>2404</v>
       </c>
       <c r="F401">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8474,16 +8468,16 @@
         <v>11200</v>
       </c>
       <c r="C402">
-        <v>2448</v>
+        <v>1336</v>
       </c>
       <c r="D402" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E402">
-        <v>2404</v>
+        <v>1336</v>
       </c>
       <c r="F402">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8494,16 +8488,16 @@
         <v>11200</v>
       </c>
       <c r="C403">
-        <v>1336</v>
+        <v>268</v>
       </c>
       <c r="D403" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E403">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="F403">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8514,16 +8508,16 @@
         <v>11200</v>
       </c>
       <c r="C404">
-        <v>268</v>
+        <v>5066</v>
       </c>
       <c r="D404" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E404">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F404">
-        <v>268</v>
+        <v>482</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8534,16 +8528,16 @@
         <v>11200</v>
       </c>
       <c r="C405">
-        <v>5066</v>
+        <v>3516</v>
       </c>
       <c r="D405" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E405">
-        <v>4584</v>
+        <v>3516</v>
       </c>
       <c r="F405">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8554,16 +8548,16 @@
         <v>11200</v>
       </c>
       <c r="C406">
-        <v>3516</v>
+        <v>2448</v>
       </c>
       <c r="D406" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E406">
-        <v>3516</v>
+        <v>2404</v>
       </c>
       <c r="F406">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8574,16 +8568,16 @@
         <v>11200</v>
       </c>
       <c r="C407">
-        <v>2448</v>
+        <v>1336</v>
       </c>
       <c r="D407" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E407">
-        <v>2404</v>
+        <v>1336</v>
       </c>
       <c r="F407">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8594,16 +8588,16 @@
         <v>11200</v>
       </c>
       <c r="C408">
-        <v>1336</v>
+        <v>268</v>
       </c>
       <c r="D408" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E408">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="F408">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8614,16 +8608,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>268</v>
+        <v>5066</v>
       </c>
       <c r="D409" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E409">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F409">
-        <v>268</v>
+        <v>482</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8631,19 +8625,19 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C410">
-        <v>5066</v>
+        <v>1716</v>
       </c>
       <c r="D410" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E410">
-        <v>4584</v>
+        <v>1716</v>
       </c>
       <c r="F410">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8651,19 +8645,19 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C411">
-        <v>44</v>
+        <v>4982</v>
       </c>
       <c r="D411" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F411">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8671,16 +8665,16 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C412">
-        <v>3516</v>
+        <v>1716</v>
       </c>
       <c r="D412" t="s">
         <v>8</v>
       </c>
       <c r="E412">
-        <v>3516</v>
+        <v>1716</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -8691,19 +8685,19 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C413">
-        <v>2448</v>
+        <v>4982</v>
       </c>
       <c r="D413" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E413">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F413">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8711,19 +8705,19 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>11200</v>
+        <v>44</v>
       </c>
       <c r="C414">
-        <v>1336</v>
+        <v>44</v>
       </c>
       <c r="D414" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E414">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="F414">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8731,19 +8725,19 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C415">
-        <v>268</v>
+        <v>1716</v>
       </c>
       <c r="D415" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E415">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="F415">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8754,16 +8748,16 @@
         <v>9400</v>
       </c>
       <c r="C416">
-        <v>3266</v>
+        <v>4982</v>
       </c>
       <c r="D416" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E416">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F416">
-        <v>862</v>
+        <v>398</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8774,13 +8768,13 @@
         <v>9400</v>
       </c>
       <c r="C417">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D417" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E417">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -8794,13 +8788,13 @@
         <v>9400</v>
       </c>
       <c r="C418">
-        <v>2802</v>
+        <v>4982</v>
       </c>
       <c r="D418" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E418">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F418">
         <v>398</v>
@@ -8814,13 +8808,13 @@
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D419" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E419">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -8831,19 +8825,19 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C420">
-        <v>2802</v>
+        <v>44</v>
       </c>
       <c r="D420" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E420">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F420">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8854,16 +8848,16 @@
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D421" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E421">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F421">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8874,16 +8868,16 @@
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D422" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E422">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F422">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8894,16 +8888,16 @@
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D423" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E423">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F423">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8914,16 +8908,16 @@
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D424" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E424">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F424">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8934,16 +8928,16 @@
         <v>9400</v>
       </c>
       <c r="C425">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D425" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E425">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F425">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8954,16 +8948,16 @@
         <v>9400</v>
       </c>
       <c r="C426">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D426" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E426">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F426">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8974,16 +8968,16 @@
         <v>9400</v>
       </c>
       <c r="C427">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D427" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E427">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F427">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8994,16 +8988,16 @@
         <v>9400</v>
       </c>
       <c r="C428">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D428" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E428">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F428">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9014,16 +9008,16 @@
         <v>9400</v>
       </c>
       <c r="C429">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D429" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E429">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F429">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9031,19 +9025,19 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C430">
-        <v>2802</v>
+        <v>44</v>
       </c>
       <c r="D430" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E430">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F430">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9054,13 +9048,13 @@
         <v>9400</v>
       </c>
       <c r="C431">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="D431" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E431">
-        <v>5670</v>
+        <v>1716</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -9071,19 +9065,19 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C432">
-        <v>2802</v>
+        <v>44</v>
       </c>
       <c r="D432" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E432">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F432">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9094,16 +9088,16 @@
         <v>9400</v>
       </c>
       <c r="C433">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D433" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E433">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F433">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9114,16 +9108,16 @@
         <v>9400</v>
       </c>
       <c r="C434">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D434" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E434">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F434">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9134,16 +9128,16 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D435" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E435">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F435">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9154,16 +9148,16 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D436" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E436">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F436">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9174,16 +9168,16 @@
         <v>9400</v>
       </c>
       <c r="C437">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D437" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E437">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F437">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9194,16 +9188,16 @@
         <v>9400</v>
       </c>
       <c r="C438">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D438" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E438">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F438">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9214,16 +9208,16 @@
         <v>9400</v>
       </c>
       <c r="C439">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D439" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E439">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F439">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -9234,56 +9228,16 @@
         <v>9400</v>
       </c>
       <c r="C440">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D440" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E440">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F440">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441">
-        <v>9400</v>
-      </c>
-      <c r="C441">
-        <v>5670</v>
-      </c>
-      <c r="D441" t="s">
-        <v>22</v>
-      </c>
-      <c r="E441">
-        <v>5670</v>
-      </c>
-      <c r="F441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442">
-        <v>9400</v>
-      </c>
-      <c r="C442">
-        <v>2802</v>
-      </c>
-      <c r="D442" t="s">
-        <v>23</v>
-      </c>
-      <c r="E442">
-        <v>0</v>
-      </c>
-      <c r="F442">
-        <v>2802</v>
+        <v>1716</v>
       </c>
     </row>
   </sheetData>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="24">
   <si>
     <t>原料长度</t>
   </si>
@@ -67,19 +67,25 @@
     <t>[4534, 6134]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>[4802, 6134]</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>[268]</t>
+  </si>
+  <si>
+    <t>[2618, 6134]</t>
   </si>
   <si>
     <t>[4798, 6134]</t>
   </si>
   <si>
-    <t>[2618, 6134]</t>
+    <t>[3730]</t>
   </si>
   <si>
-    <t>[4418]</t>
+    <t>[464, 6134]</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F440"/>
+  <dimension ref="A1:F453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,10 +711,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C14">
-        <v>1064</v>
+        <v>746</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -717,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -725,19 +731,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C15">
-        <v>5866</v>
+        <v>746</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -748,16 +754,16 @@
         <v>12000</v>
       </c>
       <c r="C16">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -768,16 +774,16 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F17">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -788,13 +794,13 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -808,16 +814,16 @@
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -828,13 +834,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -848,13 +854,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -868,16 +874,16 @@
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F22">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -888,13 +894,13 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -905,19 +911,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C24">
-        <v>746</v>
+        <v>3244</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F24">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -925,19 +931,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C25">
-        <v>1868</v>
+        <v>746</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E25">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -948,13 +954,13 @@
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -968,13 +974,13 @@
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -988,16 +994,16 @@
         <v>12000</v>
       </c>
       <c r="C28">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F28">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1008,13 +1014,13 @@
         <v>12000</v>
       </c>
       <c r="C29">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1028,16 +1034,16 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1048,16 +1054,16 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F31">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1065,19 +1071,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C32">
-        <v>4316</v>
+        <v>478</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E32">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1085,19 +1091,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C33">
-        <v>4048</v>
+        <v>478</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E33">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1108,13 +1114,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1128,13 +1134,13 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1148,16 +1154,16 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F36">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1168,13 +1174,13 @@
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1188,13 +1194,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1208,13 +1214,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1228,13 +1234,13 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1248,16 +1254,16 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F41">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1265,19 +1271,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C42">
-        <v>5866</v>
+        <v>478</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1288,13 +1294,13 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E43">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1308,16 +1314,16 @@
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F44">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1328,13 +1334,13 @@
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1348,13 +1354,13 @@
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1368,16 +1374,16 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E47">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1388,13 +1394,13 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1408,16 +1414,16 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F49">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1428,16 +1434,16 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1448,13 +1454,13 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1468,13 +1474,13 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1488,13 +1494,13 @@
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1508,16 +1514,16 @@
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F54">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1528,16 +1534,16 @@
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1548,13 +1554,13 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E56">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1568,16 +1574,16 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E57">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F57">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1588,13 +1594,13 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1608,13 +1614,13 @@
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1628,16 +1634,16 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E60">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1648,13 +1654,13 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1668,16 +1674,16 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F62">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1688,16 +1694,16 @@
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E63">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1708,13 +1714,13 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1725,19 +1731,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C65">
-        <v>746</v>
+        <v>4048</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F65">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1748,13 +1754,13 @@
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1768,13 +1774,13 @@
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E67">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1788,16 +1794,16 @@
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F68">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1808,13 +1814,13 @@
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E69">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1825,19 +1831,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C70">
-        <v>5598</v>
+        <v>478</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1848,16 +1854,16 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F71">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1868,13 +1874,13 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1888,13 +1894,13 @@
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1908,16 +1914,16 @@
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E74">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1928,13 +1934,13 @@
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1948,16 +1954,16 @@
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E76">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F76">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1968,16 +1974,16 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1988,13 +1994,13 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2005,19 +2011,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C79">
-        <v>746</v>
+        <v>4048</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F79">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2028,13 +2034,13 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2048,13 +2054,13 @@
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E81">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2068,16 +2074,16 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F82">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2088,13 +2094,13 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E83">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2108,13 +2114,13 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E84">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2128,16 +2134,16 @@
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F85">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2145,19 +2151,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C86">
-        <v>4316</v>
+        <v>478</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2168,13 +2174,13 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E87">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2188,16 +2194,16 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E88">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2208,13 +2214,13 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E89">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2228,16 +2234,16 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E90">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F90">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2248,16 +2254,16 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E91">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2268,13 +2274,13 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2288,13 +2294,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E93">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2308,13 +2314,13 @@
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2328,16 +2334,16 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F95">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2348,16 +2354,16 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E96">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2368,13 +2374,13 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E97">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2388,16 +2394,16 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E98">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F98">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2408,13 +2414,13 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E99">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2428,13 +2434,13 @@
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E100">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2448,16 +2454,16 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2465,19 +2471,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C102">
-        <v>3512</v>
+        <v>478</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E102">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2488,16 +2494,16 @@
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E103">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F103">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2508,13 +2514,13 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E104">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2528,16 +2534,16 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2548,13 +2554,13 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E106">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2568,13 +2574,13 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2585,10 +2591,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C108">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
@@ -2597,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1064</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2608,13 +2614,13 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E109">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2628,13 +2634,13 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E110">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2648,16 +2654,16 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>5330</v>
+        <v>3244</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E111">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F111">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2668,13 +2674,13 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E112">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2688,13 +2694,13 @@
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E113">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2708,13 +2714,13 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E114">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2728,13 +2734,13 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E115">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2748,16 +2754,16 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>3244</v>
+        <v>1064</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E116">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>840</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2768,13 +2774,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2788,13 +2794,13 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E118">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2808,16 +2814,16 @@
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E119">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2828,13 +2834,13 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2845,19 +2851,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C121">
-        <v>746</v>
+        <v>4048</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F121">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2868,16 +2874,16 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F122">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2888,13 +2894,13 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E123">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2908,16 +2914,16 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D124" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E124">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2928,16 +2934,16 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E125">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F125">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2948,13 +2954,13 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E126">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -2968,13 +2974,13 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E127">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2988,13 +2994,13 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E128">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3008,16 +3014,16 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E129">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3028,16 +3034,16 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F130">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3048,13 +3054,13 @@
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E131">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3068,16 +3074,16 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3088,13 +3094,13 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E133">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3108,13 +3114,13 @@
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E134">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3128,16 +3134,16 @@
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F135">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3148,13 +3154,13 @@
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E136">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3168,16 +3174,16 @@
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D137" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E137">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3188,16 +3194,16 @@
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E138">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F138">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3208,13 +3214,13 @@
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E139">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3228,13 +3234,13 @@
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E140">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3248,13 +3254,13 @@
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E141">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3268,16 +3274,16 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3288,16 +3294,16 @@
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F143">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3305,19 +3311,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C144">
-        <v>746</v>
+        <v>5598</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F144">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3328,16 +3334,16 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E145">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3348,13 +3354,13 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E146">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3368,13 +3374,13 @@
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E147">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3388,13 +3394,13 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E148">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3408,16 +3414,16 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F149">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3428,16 +3434,16 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D150" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E150">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3448,13 +3454,13 @@
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D151" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E151">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3468,16 +3474,16 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E152">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F152">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3488,13 +3494,13 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E153">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3508,13 +3514,13 @@
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E154">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3528,16 +3534,16 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E155">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3548,13 +3554,13 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E156">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3568,16 +3574,16 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D157" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F157">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3588,16 +3594,16 @@
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E158">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3608,13 +3614,13 @@
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D159" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E159">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3628,13 +3634,13 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E160">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3648,13 +3654,13 @@
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E161">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3668,16 +3674,16 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F162">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3688,16 +3694,16 @@
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E163">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3708,13 +3714,13 @@
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D164" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E164">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3728,16 +3734,16 @@
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E165">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F165">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3748,13 +3754,13 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D166" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E166">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3768,13 +3774,13 @@
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E167">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3788,16 +3794,16 @@
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E168">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3808,13 +3814,13 @@
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E169">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3828,16 +3834,16 @@
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D170" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E170">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F170">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3848,16 +3854,16 @@
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E171">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3868,13 +3874,13 @@
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D172" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E172">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3888,13 +3894,13 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E173">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3908,13 +3914,13 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E174">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3928,16 +3934,16 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D175" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F175">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3948,16 +3954,16 @@
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E176">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3968,13 +3974,13 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D177" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E177">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3988,16 +3994,16 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E178">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F178">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4008,13 +4014,13 @@
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D179" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E179">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4028,13 +4034,13 @@
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E180">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4048,16 +4054,16 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E181">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4068,13 +4074,13 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E182">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4088,16 +4094,16 @@
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D183" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E183">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F183">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4108,16 +4114,16 @@
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E184">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4128,13 +4134,13 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D185" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E185">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4148,13 +4154,13 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -4168,13 +4174,13 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4188,16 +4194,16 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F188">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4205,19 +4211,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C189">
-        <v>5866</v>
+        <v>478</v>
       </c>
       <c r="D189" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E189">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4228,16 +4234,16 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D190" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E190">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4248,16 +4254,16 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E191">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F191">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4268,13 +4274,13 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E192">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4288,13 +4294,13 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E193">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4308,13 +4314,13 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E194">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4328,16 +4334,16 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D195" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E195">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4348,16 +4354,16 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F196">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4368,13 +4374,13 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D197" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4388,16 +4394,16 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D198" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E198">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4408,13 +4414,13 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4428,13 +4434,13 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4448,16 +4454,16 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D201" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F201">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4468,13 +4474,13 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D202" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E202">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4488,16 +4494,16 @@
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D203" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E203">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4508,16 +4514,16 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E204">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F204">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4528,13 +4534,13 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E205">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4548,13 +4554,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E206">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4568,13 +4574,13 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E207">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4588,16 +4594,16 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E208">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4608,16 +4614,16 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D209" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F209">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4628,13 +4634,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D210" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E210">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4645,16 +4651,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C211">
-        <v>746</v>
+        <v>5330</v>
       </c>
       <c r="D211" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F211">
         <v>746</v>
@@ -4668,13 +4674,13 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D212" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4688,13 +4694,13 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4708,13 +4714,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4728,16 +4734,16 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D215" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F215">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4748,16 +4754,16 @@
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D216" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E216">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4768,13 +4774,13 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D217" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E217">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4788,16 +4794,16 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E218">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F218">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4808,13 +4814,13 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D219" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E219">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4828,13 +4834,13 @@
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E220">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4845,19 +4851,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C221">
-        <v>3780</v>
+        <v>478</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E221">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4868,16 +4874,16 @@
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E222">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4888,16 +4894,16 @@
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D223" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F223">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4905,19 +4911,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C224">
-        <v>2136</v>
+        <v>210</v>
       </c>
       <c r="D224" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E224">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4928,13 +4934,13 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D225" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E225">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4948,13 +4954,13 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D226" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4968,16 +4974,16 @@
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D227" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E227">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4988,16 +4994,16 @@
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D228" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F228">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5008,13 +5014,13 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D229" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -5028,13 +5034,13 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D230" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E230">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5048,16 +5054,16 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E231">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F231">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5068,16 +5074,16 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D232" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E232">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5085,19 +5091,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C233">
-        <v>4048</v>
+        <v>210</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E233">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5108,13 +5114,13 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D234" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E234">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5128,13 +5134,13 @@
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D235" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E235">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5145,19 +5151,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C236">
-        <v>3244</v>
+        <v>210</v>
       </c>
       <c r="D236" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E236">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>840</v>
+        <v>210</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5168,13 +5174,13 @@
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D237" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E237">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5188,13 +5194,13 @@
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D238" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E238">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5208,16 +5214,16 @@
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D239" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E239">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5228,13 +5234,13 @@
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5248,16 +5254,16 @@
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D241" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F241">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5265,16 +5271,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C242">
-        <v>746</v>
+        <v>5330</v>
       </c>
       <c r="D242" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F242">
         <v>746</v>
@@ -5288,13 +5294,13 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5308,13 +5314,13 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D244" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E244">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5328,16 +5334,16 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E245">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F245">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5345,19 +5351,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C246">
-        <v>4316</v>
+        <v>210</v>
       </c>
       <c r="D246" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E246">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5368,13 +5374,13 @@
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D247" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E247">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -5388,16 +5394,16 @@
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D248" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E248">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5408,13 +5414,13 @@
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D249" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E249">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5425,19 +5431,19 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C250">
-        <v>3244</v>
+        <v>210</v>
       </c>
       <c r="D250" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E250">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>840</v>
+        <v>210</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5448,13 +5454,13 @@
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E251">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -5468,13 +5474,13 @@
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D252" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E252">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5488,13 +5494,13 @@
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D253" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E253">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5508,16 +5514,16 @@
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D254" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E254">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5528,16 +5534,16 @@
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D255" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F255">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5548,13 +5554,13 @@
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E256">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5568,16 +5574,16 @@
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E257">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5588,16 +5594,16 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D258" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E258">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F258">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5608,13 +5614,13 @@
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D259" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E259">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5628,13 +5634,13 @@
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D260" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E260">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -5648,13 +5654,13 @@
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D261" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E261">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -5668,16 +5674,16 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D262" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E262">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5688,16 +5694,16 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D263" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E263">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F263">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5708,13 +5714,13 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D264" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E264">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5728,13 +5734,13 @@
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D265" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E265">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5748,13 +5754,13 @@
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D266" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E266">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5768,16 +5774,16 @@
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D267" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E267">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5788,16 +5794,16 @@
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D268" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F268">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5808,13 +5814,13 @@
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D269" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E269">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5828,16 +5834,16 @@
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D270" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E270">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5848,16 +5854,16 @@
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E271">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F271">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5868,13 +5874,13 @@
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D272" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E272">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5888,13 +5894,13 @@
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D273" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E273">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5908,13 +5914,13 @@
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D274" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E274">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5928,16 +5934,16 @@
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D275" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E275">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5948,16 +5954,16 @@
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D276" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E276">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F276">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5968,13 +5974,13 @@
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D277" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E277">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -5985,19 +5991,19 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C278">
-        <v>1868</v>
+        <v>210</v>
       </c>
       <c r="D278" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E278">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6051,7 +6057,7 @@
         <v>1064</v>
       </c>
       <c r="D281" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -6305,10 +6311,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C294">
-        <v>1064</v>
+        <v>210</v>
       </c>
       <c r="D294" t="s">
         <v>17</v>
@@ -6317,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="F294">
-        <v>1064</v>
+        <v>210</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6328,16 +6334,16 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D295" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E295">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6348,13 +6354,13 @@
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D296" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E296">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6368,16 +6374,16 @@
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D297" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E297">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F297">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6388,16 +6394,16 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D298" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E298">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F298">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6408,13 +6414,13 @@
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D299" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E299">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -6428,13 +6434,13 @@
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D300" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E300">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -6448,13 +6454,13 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E301">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6468,16 +6474,16 @@
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D302" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E302">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F302">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6488,16 +6494,16 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D303" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E303">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F303">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6508,13 +6514,13 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E304">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6528,13 +6534,13 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D305" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E305">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6548,13 +6554,13 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D306" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E306">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6568,16 +6574,16 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D307" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E307">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F307">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6588,16 +6594,16 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D308" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E308">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6608,13 +6614,13 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D309" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E309">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6628,16 +6634,16 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D310" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E310">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F310">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6648,16 +6654,16 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D311" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E311">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6668,13 +6674,13 @@
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D312" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E312">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6688,13 +6694,13 @@
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D313" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E313">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6708,13 +6714,13 @@
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E314">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6728,16 +6734,16 @@
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D315" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E315">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F315">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6748,16 +6754,16 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D316" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E316">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F316">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6768,13 +6774,13 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E317">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6788,13 +6794,13 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D318" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E318">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6808,13 +6814,13 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D319" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E319">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6825,19 +6831,19 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C320">
-        <v>746</v>
+        <v>1332</v>
       </c>
       <c r="D320" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F320">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6851,7 +6857,7 @@
         <v>1064</v>
       </c>
       <c r="D321" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -7105,10 +7111,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C334">
-        <v>746</v>
+        <v>1064</v>
       </c>
       <c r="D334" t="s">
         <v>18</v>
@@ -7117,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="F334">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7128,16 +7134,16 @@
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D335" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F335">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7148,13 +7154,13 @@
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D336" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E336">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7168,16 +7174,16 @@
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D337" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E337">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7188,16 +7194,16 @@
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D338" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E338">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F338">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7208,13 +7214,13 @@
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D339" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E339">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7228,13 +7234,13 @@
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D340" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E340">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7248,13 +7254,13 @@
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D341" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E341">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7268,16 +7274,16 @@
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D342" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E342">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F342">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7285,19 +7291,19 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C343">
-        <v>3244</v>
+        <v>210</v>
       </c>
       <c r="D343" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E343">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F343">
-        <v>840</v>
+        <v>210</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7365,19 +7371,19 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C347">
-        <v>746</v>
+        <v>1332</v>
       </c>
       <c r="D347" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F347">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7388,16 +7394,16 @@
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D348" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E348">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F348">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7408,16 +7414,16 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D349" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F349">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7428,13 +7434,13 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D350" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E350">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7448,16 +7454,16 @@
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D351" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E351">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7468,16 +7474,16 @@
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D352" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E352">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F352">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7488,13 +7494,13 @@
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D353" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E353">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7508,13 +7514,13 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D354" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E354">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7528,13 +7534,13 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D355" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E355">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7548,16 +7554,16 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D356" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E356">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F356">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7565,19 +7571,19 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C357">
-        <v>3244</v>
+        <v>210</v>
       </c>
       <c r="D357" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E357">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F357">
-        <v>840</v>
+        <v>210</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7671,7 +7677,7 @@
         <v>1064</v>
       </c>
       <c r="D362" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -7905,19 +7911,19 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C374">
-        <v>746</v>
+        <v>1332</v>
       </c>
       <c r="D374" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E374">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F374">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7928,16 +7934,16 @@
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D375" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E375">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F375">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -7948,16 +7954,16 @@
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D376" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E376">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F376">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7968,13 +7974,13 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D377" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E377">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7988,16 +7994,16 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D378" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E378">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F378">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8008,16 +8014,16 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D379" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E379">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F379">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8028,13 +8034,13 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D380" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E380">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8048,13 +8054,13 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D381" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E381">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8068,13 +8074,13 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D382" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E382">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8088,16 +8094,16 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D383" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E383">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F383">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8108,16 +8114,16 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D384" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E384">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F384">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8128,13 +8134,13 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D385" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E385">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -8148,13 +8154,13 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D386" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E386">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -8168,13 +8174,13 @@
         <v>12000</v>
       </c>
       <c r="C387">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D387" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E387">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -8188,16 +8194,16 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D388" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E388">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F388">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8208,16 +8214,16 @@
         <v>12000</v>
       </c>
       <c r="C389">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D389" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F389">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8228,13 +8234,13 @@
         <v>12000</v>
       </c>
       <c r="C390">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D390" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E390">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8248,16 +8254,16 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D391" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E391">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F391">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8268,16 +8274,16 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D392" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E392">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F392">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8285,19 +8291,19 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C393">
-        <v>4316</v>
+        <v>210</v>
       </c>
       <c r="D393" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E393">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F393">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8325,19 +8331,19 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C395">
-        <v>746</v>
+        <v>3780</v>
       </c>
       <c r="D395" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F395">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8345,19 +8351,19 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C396">
-        <v>2980</v>
+        <v>3512</v>
       </c>
       <c r="D396" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E396">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F396">
-        <v>576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8365,19 +8371,19 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C397">
-        <v>1336</v>
+        <v>3244</v>
       </c>
       <c r="D397" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E397">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F397">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8385,19 +8391,19 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C398">
-        <v>268</v>
+        <v>2136</v>
       </c>
       <c r="D398" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F398">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8405,19 +8411,19 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>11200</v>
+        <v>210</v>
       </c>
       <c r="C399">
-        <v>5066</v>
+        <v>210</v>
       </c>
       <c r="D399" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E399">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F399">
-        <v>482</v>
+        <v>210</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8425,16 +8431,16 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C400">
-        <v>3516</v>
+        <v>1868</v>
       </c>
       <c r="D400" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E400">
-        <v>3516</v>
+        <v>1868</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -8445,19 +8451,19 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C401">
-        <v>2448</v>
+        <v>1600</v>
       </c>
       <c r="D401" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E401">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F401">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8465,16 +8471,16 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C402">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="D402" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E402">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -8485,19 +8491,19 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C403">
-        <v>268</v>
+        <v>1064</v>
       </c>
       <c r="D403" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E403">
         <v>0</v>
       </c>
       <c r="F403">
-        <v>268</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8505,19 +8511,19 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C404">
-        <v>5066</v>
+        <v>5866</v>
       </c>
       <c r="D404" t="s">
         <v>5</v>
       </c>
       <c r="E404">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F404">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8525,16 +8531,16 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C405">
-        <v>3516</v>
+        <v>5598</v>
       </c>
       <c r="D405" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E405">
-        <v>3516</v>
+        <v>5598</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -8545,19 +8551,19 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C406">
-        <v>2448</v>
+        <v>5330</v>
       </c>
       <c r="D406" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E406">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F406">
-        <v>44</v>
+        <v>746</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8568,13 +8574,13 @@
         <v>11200</v>
       </c>
       <c r="C407">
-        <v>1336</v>
+        <v>3516</v>
       </c>
       <c r="D407" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E407">
-        <v>1336</v>
+        <v>3516</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -8585,19 +8591,19 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>11200</v>
+        <v>210</v>
       </c>
       <c r="C408">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="D408" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E408">
         <v>0</v>
       </c>
       <c r="F408">
-        <v>268</v>
+        <v>210</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8608,16 +8614,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>5066</v>
+        <v>2448</v>
       </c>
       <c r="D409" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E409">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F409">
-        <v>482</v>
+        <v>44</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8625,16 +8631,16 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C410">
-        <v>1716</v>
+        <v>1336</v>
       </c>
       <c r="D410" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E410">
-        <v>1716</v>
+        <v>1336</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -8645,19 +8651,19 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C411">
-        <v>4982</v>
+        <v>268</v>
       </c>
       <c r="D411" t="s">
         <v>21</v>
       </c>
       <c r="E411">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F411">
-        <v>398</v>
+        <v>268</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8665,19 +8671,19 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C412">
-        <v>1716</v>
+        <v>5066</v>
       </c>
       <c r="D412" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E412">
-        <v>1716</v>
+        <v>4584</v>
       </c>
       <c r="F412">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8685,19 +8691,19 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C413">
-        <v>4982</v>
+        <v>44</v>
       </c>
       <c r="D413" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E413">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F413">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8705,19 +8711,19 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>44</v>
+        <v>11200</v>
       </c>
       <c r="C414">
-        <v>44</v>
+        <v>3516</v>
       </c>
       <c r="D414" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F414">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8725,19 +8731,19 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C415">
-        <v>1716</v>
+        <v>2448</v>
       </c>
       <c r="D415" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E415">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F415">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8745,19 +8751,19 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C416">
-        <v>4982</v>
+        <v>1336</v>
       </c>
       <c r="D416" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E416">
-        <v>4584</v>
+        <v>1336</v>
       </c>
       <c r="F416">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8765,19 +8771,19 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C417">
-        <v>1716</v>
+        <v>268</v>
       </c>
       <c r="D417" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E417">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="F417">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8785,19 +8791,19 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C418">
-        <v>4982</v>
+        <v>5066</v>
       </c>
       <c r="D418" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E418">
         <v>4584</v>
       </c>
       <c r="F418">
-        <v>398</v>
+        <v>482</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8805,16 +8811,16 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C419">
-        <v>1716</v>
+        <v>3516</v>
       </c>
       <c r="D419" t="s">
         <v>8</v>
       </c>
       <c r="E419">
-        <v>1716</v>
+        <v>3516</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -8831,7 +8837,7 @@
         <v>44</v>
       </c>
       <c r="D420" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E420">
         <v>0</v>
@@ -8845,19 +8851,19 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C421">
-        <v>4982</v>
+        <v>2448</v>
       </c>
       <c r="D421" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E421">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F421">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8865,16 +8871,16 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C422">
-        <v>1716</v>
+        <v>1336</v>
       </c>
       <c r="D422" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E422">
-        <v>1716</v>
+        <v>1336</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -8885,19 +8891,19 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C423">
-        <v>4982</v>
+        <v>268</v>
       </c>
       <c r="D423" t="s">
         <v>21</v>
       </c>
       <c r="E423">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F423">
-        <v>398</v>
+        <v>268</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8908,16 +8914,16 @@
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>1716</v>
+        <v>3266</v>
       </c>
       <c r="D424" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E424">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F424">
-        <v>0</v>
+        <v>862</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8928,16 +8934,16 @@
         <v>9400</v>
       </c>
       <c r="C425">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D425" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E425">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F425">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8948,16 +8954,16 @@
         <v>9400</v>
       </c>
       <c r="C426">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D426" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E426">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F426">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8968,16 +8974,16 @@
         <v>9400</v>
       </c>
       <c r="C427">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D427" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E427">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F427">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8988,16 +8994,16 @@
         <v>9400</v>
       </c>
       <c r="C428">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D428" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E428">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F428">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9008,16 +9014,16 @@
         <v>9400</v>
       </c>
       <c r="C429">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D429" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E429">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F429">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9025,19 +9031,19 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C430">
-        <v>44</v>
+        <v>2802</v>
       </c>
       <c r="D430" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F430">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9045,19 +9051,19 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C431">
-        <v>1716</v>
+        <v>44</v>
       </c>
       <c r="D431" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E431">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="F431">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9065,19 +9071,19 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C432">
-        <v>44</v>
+        <v>5670</v>
       </c>
       <c r="D432" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>5670</v>
       </c>
       <c r="F432">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9088,13 +9094,13 @@
         <v>9400</v>
       </c>
       <c r="C433">
-        <v>4982</v>
+        <v>2802</v>
       </c>
       <c r="D433" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E433">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F433">
         <v>398</v>
@@ -9108,13 +9114,13 @@
         <v>9400</v>
       </c>
       <c r="C434">
-        <v>1716</v>
+        <v>5670</v>
       </c>
       <c r="D434" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E434">
-        <v>1716</v>
+        <v>5670</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -9128,13 +9134,13 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>4982</v>
+        <v>2802</v>
       </c>
       <c r="D435" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E435">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F435">
         <v>398</v>
@@ -9148,13 +9154,13 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>1716</v>
+        <v>5670</v>
       </c>
       <c r="D436" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E436">
-        <v>1716</v>
+        <v>5670</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -9165,19 +9171,19 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C437">
-        <v>4982</v>
+        <v>44</v>
       </c>
       <c r="D437" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E437">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F437">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9188,16 +9194,16 @@
         <v>9400</v>
       </c>
       <c r="C438">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D438" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E438">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F438">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9208,16 +9214,16 @@
         <v>9400</v>
       </c>
       <c r="C439">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D439" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E439">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F439">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -9228,16 +9234,276 @@
         <v>9400</v>
       </c>
       <c r="C440">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D440" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E440">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F440">
-        <v>1716</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>9400</v>
+      </c>
+      <c r="C441">
+        <v>5670</v>
+      </c>
+      <c r="D441" t="s">
+        <v>22</v>
+      </c>
+      <c r="E441">
+        <v>5670</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>44</v>
+      </c>
+      <c r="C442">
+        <v>44</v>
+      </c>
+      <c r="D442" t="s">
+        <v>17</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>9400</v>
+      </c>
+      <c r="C443">
+        <v>2802</v>
+      </c>
+      <c r="D443" t="s">
+        <v>23</v>
+      </c>
+      <c r="E443">
+        <v>2404</v>
+      </c>
+      <c r="F443">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>9400</v>
+      </c>
+      <c r="C444">
+        <v>5670</v>
+      </c>
+      <c r="D444" t="s">
+        <v>22</v>
+      </c>
+      <c r="E444">
+        <v>5670</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>9400</v>
+      </c>
+      <c r="C445">
+        <v>2802</v>
+      </c>
+      <c r="D445" t="s">
+        <v>23</v>
+      </c>
+      <c r="E445">
+        <v>2404</v>
+      </c>
+      <c r="F445">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>9400</v>
+      </c>
+      <c r="C446">
+        <v>5670</v>
+      </c>
+      <c r="D446" t="s">
+        <v>22</v>
+      </c>
+      <c r="E446">
+        <v>5670</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>9400</v>
+      </c>
+      <c r="C447">
+        <v>2802</v>
+      </c>
+      <c r="D447" t="s">
+        <v>23</v>
+      </c>
+      <c r="E447">
+        <v>2404</v>
+      </c>
+      <c r="F447">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>9400</v>
+      </c>
+      <c r="C448">
+        <v>5670</v>
+      </c>
+      <c r="D448" t="s">
+        <v>22</v>
+      </c>
+      <c r="E448">
+        <v>5670</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>9400</v>
+      </c>
+      <c r="C449">
+        <v>2802</v>
+      </c>
+      <c r="D449" t="s">
+        <v>23</v>
+      </c>
+      <c r="E449">
+        <v>2404</v>
+      </c>
+      <c r="F449">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>9400</v>
+      </c>
+      <c r="C450">
+        <v>5670</v>
+      </c>
+      <c r="D450" t="s">
+        <v>22</v>
+      </c>
+      <c r="E450">
+        <v>5670</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>9400</v>
+      </c>
+      <c r="C451">
+        <v>2802</v>
+      </c>
+      <c r="D451" t="s">
+        <v>23</v>
+      </c>
+      <c r="E451">
+        <v>2404</v>
+      </c>
+      <c r="F451">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>9400</v>
+      </c>
+      <c r="C452">
+        <v>5670</v>
+      </c>
+      <c r="D452" t="s">
+        <v>22</v>
+      </c>
+      <c r="E452">
+        <v>5670</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>9400</v>
+      </c>
+      <c r="C453">
+        <v>2802</v>
+      </c>
+      <c r="D453" t="s">
+        <v>23</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>2802</v>
       </c>
     </row>
   </sheetData>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="24">
   <si>
     <t>原料长度</t>
   </si>
@@ -34,6 +34,21 @@
     <t>[6134]</t>
   </si>
   <si>
+    <t>[3730, 6134]</t>
+  </si>
+  <si>
+    <t>[3998, 6134]</t>
+  </si>
+  <si>
+    <t>[4266, 6134]</t>
+  </si>
+  <si>
+    <t>[4534, 6134]</t>
+  </si>
+  <si>
+    <t>[4802, 6134]</t>
+  </si>
+  <si>
     <t>[268, 6134]</t>
   </si>
   <si>
@@ -46,6 +61,9 @@
     <t>[1818, 6134]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>[2086, 6134]</t>
   </si>
   <si>
@@ -53,24 +71,6 @@
   </si>
   <si>
     <t>[2622, 6134]</t>
-  </si>
-  <si>
-    <t>[3730, 6134]</t>
-  </si>
-  <si>
-    <t>[3998, 6134]</t>
-  </si>
-  <si>
-    <t>[4266, 6134]</t>
-  </si>
-  <si>
-    <t>[4534, 6134]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[4802, 6134]</t>
   </si>
   <si>
     <t>[268]</t>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F453"/>
+  <dimension ref="A1:F448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12000</v>
+        <v>9400</v>
       </c>
       <c r="C2">
-        <v>5866</v>
+        <v>3266</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -494,13 +494,13 @@
         <v>12000</v>
       </c>
       <c r="C3">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>12000</v>
       </c>
       <c r="C4">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F4">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -534,13 +534,13 @@
         <v>12000</v>
       </c>
       <c r="C5">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -554,13 +554,13 @@
         <v>12000</v>
       </c>
       <c r="C6">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -574,16 +574,16 @@
         <v>12000</v>
       </c>
       <c r="C7">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -594,13 +594,13 @@
         <v>12000</v>
       </c>
       <c r="C8">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -614,16 +614,16 @@
         <v>12000</v>
       </c>
       <c r="C9">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F9">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -634,16 +634,16 @@
         <v>12000</v>
       </c>
       <c r="C10">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -654,13 +654,13 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -691,19 +691,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C13">
-        <v>1332</v>
+        <v>746</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -711,19 +711,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C14">
-        <v>746</v>
+        <v>3780</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F14">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -731,19 +731,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C15">
-        <v>746</v>
+        <v>3512</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F15">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -754,16 +754,16 @@
         <v>12000</v>
       </c>
       <c r="C16">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F16">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -774,13 +774,13 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C19">
-        <v>5330</v>
+        <v>746</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>746</v>
@@ -834,13 +834,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -894,13 +894,13 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -914,16 +914,16 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F24">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -931,16 +931,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C25">
-        <v>746</v>
+        <v>5330</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F25">
         <v>746</v>
@@ -954,13 +954,13 @@
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -994,13 +994,13 @@
         <v>12000</v>
       </c>
       <c r="C28">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1014,13 +1014,13 @@
         <v>12000</v>
       </c>
       <c r="C29">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F30">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1054,13 +1054,13 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1071,19 +1071,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C32">
-        <v>478</v>
+        <v>1868</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F32">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1091,19 +1091,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C33">
-        <v>478</v>
+        <v>1600</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F33">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1114,13 +1114,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1154,16 +1154,16 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F36">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1171,19 +1171,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C37">
-        <v>4316</v>
+        <v>478</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1194,13 +1194,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1234,16 +1234,16 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1254,16 +1254,16 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F41">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1271,19 +1271,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C42">
-        <v>478</v>
+        <v>4048</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F42">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1294,13 +1294,13 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1314,13 +1314,13 @@
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1331,19 +1331,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C45">
-        <v>1600</v>
+        <v>478</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1354,16 +1354,16 @@
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1374,16 +1374,16 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F47">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1394,13 +1394,13 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F50">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1454,16 +1454,16 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1474,13 +1474,13 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1514,16 +1514,16 @@
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1534,16 +1534,16 @@
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F55">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1554,13 +1554,13 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1574,13 +1574,13 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1594,13 +1594,13 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E58">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1611,19 +1611,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C59">
-        <v>1332</v>
+        <v>478</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1634,16 +1634,16 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F60">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1654,13 +1654,13 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E63">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F63">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1714,13 +1714,13 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1754,13 +1754,13 @@
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1794,16 +1794,16 @@
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F68">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1814,13 +1814,13 @@
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
       </c>
       <c r="E69">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1831,19 +1831,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C70">
-        <v>478</v>
+        <v>4048</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F70">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1854,13 +1854,13 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E71">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1874,13 +1874,13 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E73">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1914,16 +1914,16 @@
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F74">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1934,13 +1934,13 @@
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1954,13 +1954,13 @@
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F77">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1994,16 +1994,16 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2014,13 +2014,13 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2034,13 +2034,13 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2074,16 +2074,16 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F82">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2094,13 +2094,13 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E83">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E84">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E85">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C86">
-        <v>478</v>
+        <v>3244</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F86">
-        <v>478</v>
+        <v>840</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2174,13 +2174,13 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E87">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F88">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2214,13 +2214,13 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E89">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2234,13 +2234,13 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2254,16 +2254,16 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2274,13 +2274,13 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E92">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2294,13 +2294,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2311,19 +2311,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C94">
-        <v>3780</v>
+        <v>478</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E94">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2334,16 +2334,16 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E95">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2354,16 +2354,16 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F96">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2374,13 +2374,13 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E97">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E98">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E99">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2434,16 +2434,16 @@
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E100">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2454,16 +2454,16 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F101">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2471,19 +2471,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C102">
-        <v>478</v>
+        <v>1868</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F102">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2494,13 +2494,13 @@
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2514,13 +2514,13 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E104">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2534,16 +2534,16 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2554,13 +2554,13 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2574,13 +2574,13 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E107">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2591,19 +2591,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C108">
-        <v>478</v>
+        <v>5330</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F108">
-        <v>478</v>
+        <v>746</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2614,13 +2614,13 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E109">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E110">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2654,16 +2654,16 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F111">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2674,13 +2674,13 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E112">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2691,19 +2691,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C113">
-        <v>1868</v>
+        <v>478</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E113">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2714,16 +2714,16 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E114">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2734,13 +2734,13 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E115">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F116">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2774,13 +2774,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E117">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2814,16 +2814,16 @@
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2834,13 +2834,13 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E121">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2874,16 +2874,16 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2894,13 +2894,13 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E123">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2914,16 +2914,16 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F124">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2934,13 +2934,13 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E125">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2954,13 +2954,13 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D126" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E126">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -2974,16 +2974,16 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E127">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2994,13 +2994,13 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E128">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3014,16 +3014,16 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F129">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3034,13 +3034,13 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3054,13 +3054,13 @@
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D131" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E132">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3094,13 +3094,13 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E134">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3134,16 +3134,16 @@
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E135">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3154,13 +3154,13 @@
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E136">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3174,16 +3174,16 @@
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E137">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F137">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3194,13 +3194,13 @@
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E138">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3214,13 +3214,13 @@
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E139">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E140">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3254,13 +3254,13 @@
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F142">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3294,13 +3294,13 @@
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E143">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E144">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3334,16 +3334,16 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E145">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3354,13 +3354,13 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3374,13 +3374,13 @@
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E147">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3394,16 +3394,16 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E148">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3414,13 +3414,13 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E149">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E150">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F150">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3454,13 +3454,13 @@
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E151">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E152">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3494,16 +3494,16 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E153">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3514,13 +3514,13 @@
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3534,16 +3534,16 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F155">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3554,13 +3554,13 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E156">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3574,13 +3574,13 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D157" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E157">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E158">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3614,13 +3614,13 @@
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E159">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3634,13 +3634,13 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E160">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3654,16 +3654,16 @@
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E161">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3674,13 +3674,13 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C163">
-        <v>3244</v>
+        <v>478</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E163">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>840</v>
+        <v>478</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3714,13 +3714,13 @@
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E164">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3734,13 +3734,13 @@
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D165" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E165">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E166">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3774,16 +3774,16 @@
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E167">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3794,16 +3794,16 @@
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D168" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F168">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3814,13 +3814,13 @@
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E169">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E170">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3854,16 +3854,16 @@
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E171">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F171">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3874,16 +3874,16 @@
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E172">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3894,13 +3894,13 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3914,13 +3914,13 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3934,16 +3934,16 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E175">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3954,16 +3954,16 @@
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E176">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F176">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3974,13 +3974,13 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E177">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3994,13 +3994,13 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D178" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E178">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4014,13 +4014,13 @@
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D179" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E179">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E180">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4054,16 +4054,16 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F181">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4074,13 +4074,13 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E182">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4091,19 +4091,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C183">
-        <v>5598</v>
+        <v>478</v>
       </c>
       <c r="D183" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E183">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4114,16 +4114,16 @@
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E184">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F184">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4134,13 +4134,13 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E185">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4154,16 +4154,16 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4174,13 +4174,13 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D188" t="s">
         <v>11</v>
       </c>
       <c r="E188">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4211,19 +4211,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C189">
-        <v>478</v>
+        <v>5330</v>
       </c>
       <c r="D189" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F189">
-        <v>478</v>
+        <v>746</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4234,16 +4234,16 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E190">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F190">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4254,13 +4254,13 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E191">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4274,13 +4274,13 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D192" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E192">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4294,13 +4294,13 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D193" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E193">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4314,16 +4314,16 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E194">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4334,16 +4334,16 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D195" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F195">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4354,13 +4354,13 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D196" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E196">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4374,13 +4374,13 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E197">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4394,16 +4394,16 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E198">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F198">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4414,16 +4414,16 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E199">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4434,13 +4434,13 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4454,13 +4454,13 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4474,16 +4474,16 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E202">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4494,16 +4494,16 @@
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E203">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F203">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4514,13 +4514,13 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E204">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4534,13 +4534,13 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D205" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E205">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4554,13 +4554,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D206" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E206">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4574,16 +4574,16 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D207" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E207">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4594,16 +4594,16 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D208" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F208">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4614,13 +4614,13 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E209">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4634,13 +4634,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4654,16 +4654,16 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E211">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F211">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4674,16 +4674,16 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E212">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4694,13 +4694,13 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E215">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4754,16 +4754,16 @@
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E216">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F216">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4774,13 +4774,13 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E217">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4794,13 +4794,13 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D218" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E218">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4814,13 +4814,13 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D219" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E219">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4834,16 +4834,16 @@
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E220">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4851,19 +4851,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C221">
-        <v>478</v>
+        <v>2136</v>
       </c>
       <c r="D221" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F221">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4871,19 +4871,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C222">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="D222" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E222">
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1064</v>
+        <v>478</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4894,13 +4894,13 @@
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E223">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4911,19 +4911,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C224">
-        <v>210</v>
+        <v>1600</v>
       </c>
       <c r="D224" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F224">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4934,13 +4934,13 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D225" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E225">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4954,16 +4954,16 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D226" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E226">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4974,16 +4974,16 @@
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F227">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4994,13 +4994,13 @@
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D228" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E228">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5014,16 +5014,16 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5034,13 +5034,13 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D230" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E230">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5054,13 +5054,13 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E231">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5074,16 +5074,16 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D232" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E232">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F232">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5091,19 +5091,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>210</v>
+        <v>478</v>
       </c>
       <c r="C233">
-        <v>210</v>
+        <v>478</v>
       </c>
       <c r="D233" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E233">
         <v>0</v>
       </c>
       <c r="F233">
-        <v>210</v>
+        <v>478</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5114,13 +5114,13 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D234" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E234">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5134,16 +5134,16 @@
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D235" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E235">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5151,19 +5151,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C236">
-        <v>210</v>
+        <v>2136</v>
       </c>
       <c r="D236" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F236">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5174,13 +5174,13 @@
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D237" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E237">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5191,19 +5191,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C238">
-        <v>1332</v>
+        <v>478</v>
       </c>
       <c r="D238" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E238">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5211,19 +5211,19 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C239">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="D239" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E239">
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1064</v>
+        <v>478</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5234,13 +5234,13 @@
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E240">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5254,13 +5254,13 @@
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E241">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5274,16 +5274,16 @@
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E242">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5294,13 +5294,13 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E243">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5314,13 +5314,13 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E244">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5334,16 +5334,16 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D245" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E245">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5351,19 +5351,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C246">
-        <v>210</v>
+        <v>4316</v>
       </c>
       <c r="D246" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F246">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5374,13 +5374,13 @@
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E247">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -5394,16 +5394,16 @@
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D248" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E248">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F248">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5414,13 +5414,13 @@
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D249" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E249">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5431,19 +5431,19 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C250">
-        <v>210</v>
+        <v>3244</v>
       </c>
       <c r="D250" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F250">
-        <v>210</v>
+        <v>840</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5454,13 +5454,13 @@
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D251" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E251">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -5474,13 +5474,13 @@
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D252" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E252">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5494,13 +5494,13 @@
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D253" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E253">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5514,16 +5514,16 @@
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D254" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F254">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5534,16 +5534,16 @@
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D255" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E255">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5554,13 +5554,13 @@
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5571,19 +5571,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C257">
-        <v>5330</v>
+        <v>210</v>
       </c>
       <c r="D257" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E257">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>746</v>
+        <v>210</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5594,13 +5594,13 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D258" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E258">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5614,13 +5614,13 @@
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D259" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E259">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5634,16 +5634,16 @@
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D260" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E260">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5654,13 +5654,13 @@
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D261" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E261">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -5674,16 +5674,16 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D262" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E262">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F262">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5694,13 +5694,13 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D263" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E263">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5714,13 +5714,13 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D264" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E264">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5734,16 +5734,16 @@
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D265" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E265">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5754,13 +5754,13 @@
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D266" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E266">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5774,16 +5774,16 @@
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D267" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F267">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5794,13 +5794,13 @@
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D268" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E268">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D269" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E269">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5834,16 +5834,16 @@
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D270" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E270">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F270">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5851,19 +5851,19 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C271">
-        <v>4316</v>
+        <v>210</v>
       </c>
       <c r="D271" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E271">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5874,13 +5874,13 @@
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D272" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E272">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5894,13 +5894,13 @@
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D273" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E273">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5914,16 +5914,16 @@
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D274" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E274">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5934,16 +5934,16 @@
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D275" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E275">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F275">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5954,13 +5954,13 @@
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D276" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E276">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5974,13 +5974,13 @@
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D277" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E277">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -5991,19 +5991,19 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C278">
-        <v>210</v>
+        <v>3512</v>
       </c>
       <c r="D278" t="s">
         <v>17</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F278">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6014,16 +6014,16 @@
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D279" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E279">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6031,19 +6031,19 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C280">
-        <v>1332</v>
+        <v>210</v>
       </c>
       <c r="D280" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E280">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6054,16 +6054,16 @@
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D281" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F281">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6074,13 +6074,13 @@
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D282" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E282">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6094,13 +6094,13 @@
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D283" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E283">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6114,16 +6114,16 @@
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D284" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E284">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F284">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6134,16 +6134,16 @@
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D285" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E285">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6151,19 +6151,19 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C286">
-        <v>4048</v>
+        <v>210</v>
       </c>
       <c r="D286" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E286">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6174,13 +6174,13 @@
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D287" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E287">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6194,13 +6194,13 @@
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D288" t="s">
         <v>11</v>
       </c>
       <c r="E288">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6214,16 +6214,16 @@
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D289" t="s">
         <v>12</v>
       </c>
       <c r="E289">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F289">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6234,13 +6234,13 @@
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D290" t="s">
         <v>13</v>
       </c>
       <c r="E290">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -6254,13 +6254,13 @@
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D291" t="s">
         <v>14</v>
       </c>
       <c r="E291">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -6274,13 +6274,13 @@
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D292" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E292">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6294,13 +6294,13 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D293" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E293">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6311,19 +6311,19 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C294">
-        <v>210</v>
+        <v>3244</v>
       </c>
       <c r="D294" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F294">
-        <v>210</v>
+        <v>840</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6334,16 +6334,16 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D295" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F295">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6351,19 +6351,19 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C296">
-        <v>5866</v>
+        <v>210</v>
       </c>
       <c r="D296" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E296">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6374,13 +6374,13 @@
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D297" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E297">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6394,16 +6394,16 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D298" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E298">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F298">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6414,13 +6414,13 @@
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D299" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E299">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -6434,16 +6434,16 @@
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D300" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E300">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6454,13 +6454,13 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D301" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E301">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6471,19 +6471,19 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C302">
-        <v>3512</v>
+        <v>210</v>
       </c>
       <c r="D302" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E302">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6494,16 +6494,16 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D303" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E303">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F303">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6514,16 +6514,16 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D304" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E304">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F304">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6534,13 +6534,13 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D305" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E305">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6554,13 +6554,13 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D306" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E306">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6574,13 +6574,13 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D307" t="s">
         <v>16</v>
       </c>
       <c r="E307">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6594,16 +6594,16 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D308" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E308">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F308">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6614,16 +6614,16 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D309" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E309">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6634,13 +6634,13 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D310" t="s">
         <v>6</v>
       </c>
       <c r="E310">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6654,16 +6654,16 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D311" t="s">
         <v>7</v>
       </c>
       <c r="E311">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F311">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6674,13 +6674,13 @@
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D312" t="s">
         <v>8</v>
       </c>
       <c r="E312">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6694,13 +6694,13 @@
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D313" t="s">
         <v>9</v>
       </c>
       <c r="E313">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6714,16 +6714,16 @@
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D314" t="s">
         <v>10</v>
       </c>
       <c r="E314">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6734,13 +6734,13 @@
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D315" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E315">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6754,16 +6754,16 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D316" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E316">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F316">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6774,16 +6774,16 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D317" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E317">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6794,13 +6794,13 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D318" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E318">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6814,13 +6814,13 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D319" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E319">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6834,13 +6834,13 @@
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D320" t="s">
         <v>16</v>
       </c>
       <c r="E320">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6854,16 +6854,16 @@
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D321" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F321">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6874,16 +6874,16 @@
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D322" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E322">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F322">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6894,13 +6894,13 @@
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D323" t="s">
         <v>6</v>
       </c>
       <c r="E323">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6914,16 +6914,16 @@
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D324" t="s">
         <v>7</v>
       </c>
       <c r="E324">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F324">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6934,13 +6934,13 @@
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D325" t="s">
         <v>8</v>
       </c>
       <c r="E325">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -6954,13 +6954,13 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D326" t="s">
         <v>9</v>
       </c>
       <c r="E326">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6974,16 +6974,16 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D327" t="s">
         <v>10</v>
       </c>
       <c r="E327">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6994,13 +6994,13 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D328" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E328">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7014,16 +7014,16 @@
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D329" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E329">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F329">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7034,16 +7034,16 @@
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D330" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E330">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F330">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7054,13 +7054,13 @@
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E331">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D332" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E332">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7094,13 +7094,13 @@
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D333" t="s">
         <v>16</v>
       </c>
       <c r="E333">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7114,16 +7114,16 @@
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D334" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F334">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7134,16 +7134,16 @@
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D335" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E335">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7154,13 +7154,13 @@
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D336" t="s">
         <v>6</v>
       </c>
       <c r="E336">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7171,19 +7171,19 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C337">
-        <v>5330</v>
+        <v>210</v>
       </c>
       <c r="D337" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E337">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F337">
-        <v>746</v>
+        <v>210</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7194,13 +7194,13 @@
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D338" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E338">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7214,13 +7214,13 @@
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D339" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E339">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7234,13 +7234,13 @@
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D340" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E340">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7254,16 +7254,16 @@
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D341" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E341">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F341">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7274,16 +7274,16 @@
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D342" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E342">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F342">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7291,19 +7291,19 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C343">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D343" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F343">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7314,16 +7314,16 @@
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E344">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F344">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7334,13 +7334,13 @@
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D345" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E345">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7354,13 +7354,13 @@
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D346" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E346">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -7374,13 +7374,13 @@
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D347" t="s">
         <v>16</v>
       </c>
       <c r="E347">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7391,19 +7391,19 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C348">
-        <v>1064</v>
+        <v>210</v>
       </c>
       <c r="D348" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E348">
         <v>0</v>
       </c>
       <c r="F348">
-        <v>1064</v>
+        <v>210</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7414,13 +7414,13 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D349" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E349">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7434,16 +7434,16 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D350" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E350">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F350">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7454,16 +7454,16 @@
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D351" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E351">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F351">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7474,13 +7474,13 @@
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D352" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E352">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7491,19 +7491,19 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C353">
-        <v>4048</v>
+        <v>210</v>
       </c>
       <c r="D353" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E353">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7514,13 +7514,13 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="D354" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E354">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7534,13 +7534,13 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="D355" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E355">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7554,16 +7554,16 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>3244</v>
+        <v>1064</v>
       </c>
       <c r="D356" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E356">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F356">
-        <v>840</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7571,19 +7571,19 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C357">
-        <v>210</v>
+        <v>5866</v>
       </c>
       <c r="D357" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F357">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7594,13 +7594,13 @@
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D358" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E358">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -7614,16 +7614,16 @@
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D359" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E359">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7634,13 +7634,13 @@
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D360" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E360">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D361" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E361">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7674,16 +7674,16 @@
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D362" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F362">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7694,13 +7694,13 @@
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D363" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E363">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7714,16 +7714,16 @@
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D364" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E364">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F364">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7734,16 +7734,16 @@
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D365" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E365">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F365">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7754,13 +7754,13 @@
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D366" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E366">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7774,13 +7774,13 @@
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D367" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E367">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7794,13 +7794,13 @@
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D368" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E368">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7814,16 +7814,16 @@
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D369" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E369">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F369">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7834,16 +7834,16 @@
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D370" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E370">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F370">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7854,13 +7854,13 @@
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D371" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E371">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -7874,16 +7874,16 @@
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D372" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E372">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F372">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7894,13 +7894,13 @@
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D373" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E373">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7914,13 +7914,13 @@
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D374" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E374">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7931,19 +7931,19 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C375">
-        <v>1064</v>
+        <v>210</v>
       </c>
       <c r="D375" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E375">
         <v>0</v>
       </c>
       <c r="F375">
-        <v>1064</v>
+        <v>210</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -7954,13 +7954,13 @@
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="D376" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E376">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -7974,13 +7974,13 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D377" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E377">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7994,16 +7994,16 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>5330</v>
+        <v>3244</v>
       </c>
       <c r="D378" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E378">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F378">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8014,13 +8014,13 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="D379" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E379">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8034,13 +8034,13 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="D380" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E380">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="D381" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E381">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8074,13 +8074,13 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="D382" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E382">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8094,16 +8094,16 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>3244</v>
+        <v>1064</v>
       </c>
       <c r="D383" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E383">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F383">
-        <v>840</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8114,13 +8114,13 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D384" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E384">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -8134,13 +8134,13 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D385" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E385">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D386" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E386">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F386">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8174,13 +8174,13 @@
         <v>12000</v>
       </c>
       <c r="C387">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="D387" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E387">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>1064</v>
+        <v>4048</v>
       </c>
       <c r="D388" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F388">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8214,13 +8214,13 @@
         <v>12000</v>
       </c>
       <c r="C389">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="D389" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E389">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         <v>12000</v>
       </c>
       <c r="C390">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D390" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E390">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8254,16 +8254,16 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>5330</v>
+        <v>3244</v>
       </c>
       <c r="D391" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E391">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F391">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8274,13 +8274,13 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="D392" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E392">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -8291,19 +8291,19 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C393">
-        <v>210</v>
+        <v>1868</v>
       </c>
       <c r="D393" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F393">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8314,13 +8314,13 @@
         <v>12000</v>
       </c>
       <c r="C394">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D394" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E394">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -8334,13 +8334,13 @@
         <v>12000</v>
       </c>
       <c r="C395">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D395" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E395">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -8354,16 +8354,16 @@
         <v>12000</v>
       </c>
       <c r="C396">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D396" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E396">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F396">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8374,16 +8374,16 @@
         <v>12000</v>
       </c>
       <c r="C397">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D397" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E397">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F397">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8394,13 +8394,13 @@
         <v>12000</v>
       </c>
       <c r="C398">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D398" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E398">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -8411,19 +8411,19 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C399">
-        <v>210</v>
+        <v>5330</v>
       </c>
       <c r="D399" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F399">
-        <v>210</v>
+        <v>746</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8434,13 +8434,13 @@
         <v>12000</v>
       </c>
       <c r="C400">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D400" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E400">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -8454,13 +8454,13 @@
         <v>12000</v>
       </c>
       <c r="C401">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D401" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E401">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -8474,13 +8474,13 @@
         <v>12000</v>
       </c>
       <c r="C402">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D402" t="s">
         <v>16</v>
       </c>
       <c r="E402">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -8494,16 +8494,16 @@
         <v>12000</v>
       </c>
       <c r="C403">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D403" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F403">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8514,16 +8514,16 @@
         <v>12000</v>
       </c>
       <c r="C404">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D404" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E404">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F404">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8534,13 +8534,13 @@
         <v>12000</v>
       </c>
       <c r="C405">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D405" t="s">
         <v>6</v>
       </c>
       <c r="E405">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -8554,16 +8554,16 @@
         <v>12000</v>
       </c>
       <c r="C406">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D406" t="s">
         <v>7</v>
       </c>
       <c r="E406">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F406">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8571,16 +8571,16 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C407">
-        <v>3516</v>
+        <v>1600</v>
       </c>
       <c r="D407" t="s">
         <v>8</v>
       </c>
       <c r="E407">
-        <v>3516</v>
+        <v>1600</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -8591,19 +8591,19 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>210</v>
+        <v>11200</v>
       </c>
       <c r="C408">
-        <v>210</v>
+        <v>532</v>
       </c>
       <c r="D408" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E408">
         <v>0</v>
       </c>
       <c r="F408">
-        <v>210</v>
+        <v>532</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8614,16 +8614,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>2448</v>
+        <v>5066</v>
       </c>
       <c r="D409" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E409">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F409">
-        <v>44</v>
+        <v>482</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8634,13 +8634,13 @@
         <v>11200</v>
       </c>
       <c r="C410">
-        <v>1336</v>
+        <v>3516</v>
       </c>
       <c r="D410" t="s">
         <v>13</v>
       </c>
       <c r="E410">
-        <v>1336</v>
+        <v>3516</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -8654,16 +8654,16 @@
         <v>11200</v>
       </c>
       <c r="C411">
-        <v>268</v>
+        <v>2448</v>
       </c>
       <c r="D411" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F411">
-        <v>268</v>
+        <v>44</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8674,16 +8674,16 @@
         <v>11200</v>
       </c>
       <c r="C412">
-        <v>5066</v>
+        <v>1336</v>
       </c>
       <c r="D412" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E412">
-        <v>4584</v>
+        <v>1336</v>
       </c>
       <c r="F412">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8691,19 +8691,19 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>44</v>
+        <v>11200</v>
       </c>
       <c r="C413">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="D413" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E413">
         <v>0</v>
       </c>
       <c r="F413">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8714,16 +8714,16 @@
         <v>11200</v>
       </c>
       <c r="C414">
-        <v>3516</v>
+        <v>5066</v>
       </c>
       <c r="D414" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E414">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F414">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8734,16 +8734,16 @@
         <v>11200</v>
       </c>
       <c r="C415">
-        <v>2448</v>
+        <v>3516</v>
       </c>
       <c r="D415" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E415">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F415">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8754,16 +8754,16 @@
         <v>11200</v>
       </c>
       <c r="C416">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D416" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E416">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F416">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8774,16 +8774,16 @@
         <v>11200</v>
       </c>
       <c r="C417">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D417" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E417">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F417">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8794,16 +8794,16 @@
         <v>11200</v>
       </c>
       <c r="C418">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D418" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E418">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F418">
-        <v>482</v>
+        <v>268</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8814,16 +8814,16 @@
         <v>11200</v>
       </c>
       <c r="C419">
-        <v>3516</v>
+        <v>5066</v>
       </c>
       <c r="D419" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E419">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F419">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8831,19 +8831,19 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>44</v>
+        <v>11200</v>
       </c>
       <c r="C420">
-        <v>44</v>
+        <v>3516</v>
       </c>
       <c r="D420" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E420">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="F420">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8871,16 +8871,16 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C422">
-        <v>1336</v>
+        <v>5670</v>
       </c>
       <c r="D422" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E422">
-        <v>1336</v>
+        <v>5670</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -8891,19 +8891,19 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C423">
-        <v>268</v>
+        <v>2802</v>
       </c>
       <c r="D423" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F423">
-        <v>268</v>
+        <v>398</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8914,16 +8914,16 @@
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>3266</v>
+        <v>5670</v>
       </c>
       <c r="D424" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E424">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F424">
-        <v>862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8934,16 +8934,16 @@
         <v>9400</v>
       </c>
       <c r="C425">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D425" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E425">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F425">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8954,16 +8954,16 @@
         <v>9400</v>
       </c>
       <c r="C426">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D426" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E426">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F426">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8974,16 +8974,16 @@
         <v>9400</v>
       </c>
       <c r="C427">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D427" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E427">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F427">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8994,16 +8994,16 @@
         <v>9400</v>
       </c>
       <c r="C428">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D428" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E428">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F428">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9014,16 +9014,16 @@
         <v>9400</v>
       </c>
       <c r="C429">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D429" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E429">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F429">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9031,19 +9031,19 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C430">
-        <v>2802</v>
+        <v>44</v>
       </c>
       <c r="D430" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E430">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F430">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9051,19 +9051,19 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C431">
-        <v>44</v>
+        <v>5670</v>
       </c>
       <c r="D431" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E431">
-        <v>0</v>
+        <v>5670</v>
       </c>
       <c r="F431">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9074,16 +9074,16 @@
         <v>9400</v>
       </c>
       <c r="C432">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D432" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E432">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F432">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9094,16 +9094,16 @@
         <v>9400</v>
       </c>
       <c r="C433">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D433" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E433">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F433">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9114,16 +9114,16 @@
         <v>9400</v>
       </c>
       <c r="C434">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D434" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E434">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F434">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9134,16 +9134,16 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D435" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E435">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F435">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9154,16 +9154,16 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D436" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E436">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F436">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9171,19 +9171,19 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C437">
-        <v>44</v>
+        <v>5670</v>
       </c>
       <c r="D437" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>5670</v>
       </c>
       <c r="F437">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9271,19 +9271,19 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C442">
-        <v>44</v>
+        <v>2802</v>
       </c>
       <c r="D442" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E442">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F442">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -9294,16 +9294,16 @@
         <v>9400</v>
       </c>
       <c r="C443">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D443" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E443">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F443">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -9314,16 +9314,16 @@
         <v>9400</v>
       </c>
       <c r="C444">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D444" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E444">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F444">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -9334,16 +9334,16 @@
         <v>9400</v>
       </c>
       <c r="C445">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D445" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E445">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F445">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -9354,16 +9354,16 @@
         <v>9400</v>
       </c>
       <c r="C446">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D446" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E446">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F446">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -9374,16 +9374,16 @@
         <v>9400</v>
       </c>
       <c r="C447">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D447" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E447">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F447">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -9394,115 +9394,15 @@
         <v>9400</v>
       </c>
       <c r="C448">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D448" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E448">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6">
-      <c r="A449" s="1">
-        <v>447</v>
-      </c>
-      <c r="B449">
-        <v>9400</v>
-      </c>
-      <c r="C449">
-        <v>2802</v>
-      </c>
-      <c r="D449" t="s">
-        <v>23</v>
-      </c>
-      <c r="E449">
-        <v>2404</v>
-      </c>
-      <c r="F449">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6">
-      <c r="A450" s="1">
-        <v>448</v>
-      </c>
-      <c r="B450">
-        <v>9400</v>
-      </c>
-      <c r="C450">
-        <v>5670</v>
-      </c>
-      <c r="D450" t="s">
-        <v>22</v>
-      </c>
-      <c r="E450">
-        <v>5670</v>
-      </c>
-      <c r="F450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6">
-      <c r="A451" s="1">
-        <v>449</v>
-      </c>
-      <c r="B451">
-        <v>9400</v>
-      </c>
-      <c r="C451">
-        <v>2802</v>
-      </c>
-      <c r="D451" t="s">
-        <v>23</v>
-      </c>
-      <c r="E451">
-        <v>2404</v>
-      </c>
-      <c r="F451">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6">
-      <c r="A452" s="1">
-        <v>450</v>
-      </c>
-      <c r="B452">
-        <v>9400</v>
-      </c>
-      <c r="C452">
-        <v>5670</v>
-      </c>
-      <c r="D452" t="s">
-        <v>22</v>
-      </c>
-      <c r="E452">
-        <v>5670</v>
-      </c>
-      <c r="F452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6">
-      <c r="A453" s="1">
-        <v>451</v>
-      </c>
-      <c r="B453">
-        <v>9400</v>
-      </c>
-      <c r="C453">
-        <v>2802</v>
-      </c>
-      <c r="D453" t="s">
-        <v>23</v>
-      </c>
-      <c r="E453">
-        <v>0</v>
-      </c>
-      <c r="F453">
         <v>2802</v>
       </c>
     </row>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="24">
   <si>
     <t>原料长度</t>
   </si>
@@ -34,6 +34,27 @@
     <t>[6134]</t>
   </si>
   <si>
+    <t>[268, 6134]</t>
+  </si>
+  <si>
+    <t>[536, 6134]</t>
+  </si>
+  <si>
+    <t>[1550, 6134]</t>
+  </si>
+  <si>
+    <t>[1818, 6134]</t>
+  </si>
+  <si>
+    <t>[2086, 6134]</t>
+  </si>
+  <si>
+    <t>[2354, 6134]</t>
+  </si>
+  <si>
+    <t>[2622, 6134]</t>
+  </si>
+  <si>
     <t>[3730, 6134]</t>
   </si>
   <si>
@@ -49,31 +70,10 @@
     <t>[4802, 6134]</t>
   </si>
   <si>
-    <t>[268, 6134]</t>
-  </si>
-  <si>
-    <t>[536, 6134]</t>
-  </si>
-  <si>
-    <t>[1550, 6134]</t>
-  </si>
-  <si>
-    <t>[1818, 6134]</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[2086, 6134]</t>
-  </si>
-  <si>
-    <t>[2354, 6134]</t>
-  </si>
-  <si>
-    <t>[2622, 6134]</t>
-  </si>
-  <si>
-    <t>[268]</t>
+    <t>[536]</t>
   </si>
   <si>
     <t>[2618, 6134]</t>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F448"/>
+  <dimension ref="A1:F439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9400</v>
+        <v>12000</v>
       </c>
       <c r="C2">
-        <v>3266</v>
+        <v>5866</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F2">
-        <v>862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -494,13 +494,13 @@
         <v>12000</v>
       </c>
       <c r="C3">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>12000</v>
       </c>
       <c r="C4">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -534,13 +534,13 @@
         <v>12000</v>
       </c>
       <c r="C5">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -554,13 +554,13 @@
         <v>12000</v>
       </c>
       <c r="C6">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -574,16 +574,16 @@
         <v>12000</v>
       </c>
       <c r="C7">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F7">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -594,13 +594,13 @@
         <v>12000</v>
       </c>
       <c r="C8">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -614,16 +614,16 @@
         <v>12000</v>
       </c>
       <c r="C9">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -634,16 +634,16 @@
         <v>12000</v>
       </c>
       <c r="C10">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F10">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -654,13 +654,13 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -691,19 +691,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C13">
-        <v>746</v>
+        <v>1332</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F13">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -714,16 +714,16 @@
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -734,13 +734,13 @@
         <v>12000</v>
       </c>
       <c r="C15">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>12000</v>
       </c>
       <c r="C16">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F16">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -774,16 +774,16 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -794,13 +794,13 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C19">
-        <v>746</v>
+        <v>4048</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F19">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -834,13 +834,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F22">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -894,13 +894,13 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -914,13 +914,13 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>12000</v>
       </c>
       <c r="C25">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F25">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -954,13 +954,13 @@
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -974,16 +974,16 @@
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -994,13 +994,13 @@
         <v>12000</v>
       </c>
       <c r="C28">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1014,13 +1014,13 @@
         <v>12000</v>
       </c>
       <c r="C29">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F30">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1054,13 +1054,13 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1094,13 +1094,13 @@
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F35">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1154,13 +1154,13 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C37">
-        <v>478</v>
+        <v>1868</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F37">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1194,13 +1194,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1234,16 +1234,16 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1254,13 +1254,13 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1314,13 +1314,13 @@
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1331,19 +1331,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C45">
-        <v>478</v>
+        <v>4048</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F45">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1354,16 +1354,16 @@
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F46">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1374,13 +1374,13 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1394,16 +1394,16 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1414,13 +1414,13 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1434,13 +1434,13 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F51">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1474,13 +1474,13 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1514,16 +1514,16 @@
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F54">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1534,13 +1534,13 @@
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1554,16 +1554,16 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1574,13 +1574,13 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1594,13 +1594,13 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E58">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1611,19 +1611,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C59">
-        <v>478</v>
+        <v>3780</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F59">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1634,16 +1634,16 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F60">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1654,16 +1654,16 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1674,13 +1674,13 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E62">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1714,13 +1714,13 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F65">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1754,16 +1754,16 @@
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1774,13 +1774,13 @@
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1794,16 +1794,16 @@
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E68">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F68">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1814,16 +1814,16 @@
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E69">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1834,13 +1834,13 @@
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1854,13 +1854,13 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1874,13 +1874,13 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F73">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1914,16 +1914,16 @@
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1931,19 +1931,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C75">
-        <v>1868</v>
+        <v>746</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1954,13 +1954,13 @@
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E76">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E77">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1994,16 +1994,16 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F78">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2014,13 +2014,13 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2034,16 +2034,16 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E80">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2051,16 +2051,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C81">
-        <v>5330</v>
+        <v>746</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>746</v>
@@ -2074,13 +2074,13 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2094,13 +2094,13 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2134,13 +2134,13 @@
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2154,16 +2154,16 @@
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F86">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2174,13 +2174,13 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2234,13 +2234,13 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E90">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2254,16 +2254,16 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F91">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2274,13 +2274,13 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2294,13 +2294,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E93">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2311,19 +2311,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C94">
-        <v>478</v>
+        <v>1064</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>478</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2334,16 +2334,16 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F95">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2354,13 +2354,13 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E96">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E97">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2394,13 +2394,13 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2434,16 +2434,16 @@
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F100">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2454,13 +2454,13 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E101">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E102">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2494,13 +2494,13 @@
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E103">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2514,13 +2514,13 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E104">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2534,16 +2534,16 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F105">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2554,13 +2554,13 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E106">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2574,16 +2574,16 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2594,16 +2594,16 @@
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F108">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2614,13 +2614,13 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2634,16 +2634,16 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E110">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2654,13 +2654,13 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E111">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2674,13 +2674,13 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E112">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2691,19 +2691,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C113">
-        <v>478</v>
+        <v>3780</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F113">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2714,16 +2714,16 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E114">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F114">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2734,16 +2734,16 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D115" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2754,13 +2754,13 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E116">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2774,13 +2774,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E117">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E118">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2814,16 +2814,16 @@
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F119">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2834,16 +2834,16 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E120">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2854,13 +2854,13 @@
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2874,16 +2874,16 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E122">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F122">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2894,16 +2894,16 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2914,13 +2914,13 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E124">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2934,13 +2934,13 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2954,13 +2954,13 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -2974,16 +2974,16 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F127">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2994,16 +2994,16 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E128">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3014,13 +3014,13 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E129">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E130">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3054,13 +3054,13 @@
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E131">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F132">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3094,16 +3094,16 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D133" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E133">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3114,13 +3114,13 @@
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3134,16 +3134,16 @@
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E135">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F135">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3154,16 +3154,16 @@
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3174,13 +3174,13 @@
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E138">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3214,13 +3214,13 @@
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E139">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E140">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F140">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3254,16 +3254,16 @@
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D141" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E141">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3274,13 +3274,13 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E142">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3294,13 +3294,13 @@
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E143">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E144">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3334,16 +3334,16 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F145">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3354,16 +3354,16 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D146" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E146">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3371,19 +3371,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C147">
-        <v>5598</v>
+        <v>746</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E147">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3394,16 +3394,16 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F148">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3414,13 +3414,13 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E150">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3454,13 +3454,13 @@
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E151">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E152">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3494,16 +3494,16 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E153">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F153">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3514,13 +3514,13 @@
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D154" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E154">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3534,16 +3534,16 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E155">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3554,13 +3554,13 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3574,13 +3574,13 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E157">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F158">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3614,13 +3614,13 @@
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E159">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3634,16 +3634,16 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E160">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3654,16 +3654,16 @@
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F161">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3674,13 +3674,13 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E162">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C163">
-        <v>478</v>
+        <v>5330</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F163">
-        <v>478</v>
+        <v>746</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3714,13 +3714,13 @@
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D164" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3734,13 +3734,13 @@
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D166" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3774,16 +3774,16 @@
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D167" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F167">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3794,16 +3794,16 @@
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D168" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E168">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3814,13 +3814,13 @@
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E169">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3854,13 +3854,13 @@
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3874,16 +3874,16 @@
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F172">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3894,16 +3894,16 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D173" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E173">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3914,13 +3914,13 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3934,16 +3934,16 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D175" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E175">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F175">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3951,19 +3951,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C176">
-        <v>4316</v>
+        <v>210</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E176">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3974,13 +3974,13 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D177" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E177">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3994,13 +3994,13 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D178" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E178">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4014,16 +4014,16 @@
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E179">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4031,19 +4031,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C180">
-        <v>3244</v>
+        <v>210</v>
       </c>
       <c r="D180" t="s">
         <v>18</v>
       </c>
       <c r="E180">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>840</v>
+        <v>210</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4054,13 +4054,13 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E181">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4074,13 +4074,13 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E182">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4091,19 +4091,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C183">
-        <v>478</v>
+        <v>3780</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F183">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4114,13 +4114,13 @@
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E184">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E185">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4154,16 +4154,16 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F186">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4174,13 +4174,13 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D187" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E187">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D188" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E188">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4214,16 +4214,16 @@
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D189" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E189">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F189">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4234,16 +4234,16 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E190">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4254,13 +4254,13 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D191" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4274,13 +4274,13 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D192" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E192">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4294,16 +4294,16 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D193" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E193">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4314,16 +4314,16 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E194">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F194">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4334,13 +4334,13 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D195" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E195">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4354,13 +4354,13 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E196">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4374,13 +4374,13 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D197" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E197">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4394,16 +4394,16 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E198">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4414,16 +4414,16 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F199">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4434,13 +4434,13 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E200">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4454,13 +4454,13 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E201">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4474,16 +4474,16 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D202" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E202">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F202">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4494,16 +4494,16 @@
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E203">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4514,13 +4514,13 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D204" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E204">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4534,13 +4534,13 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E205">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4554,16 +4554,16 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D206" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E206">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4571,19 +4571,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C207">
-        <v>3244</v>
+        <v>210</v>
       </c>
       <c r="D207" t="s">
         <v>18</v>
       </c>
       <c r="E207">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>840</v>
+        <v>210</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4594,13 +4594,13 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -4614,13 +4614,13 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4634,13 +4634,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E210">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4654,13 +4654,13 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E211">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -4674,16 +4674,16 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F212">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4694,13 +4694,13 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D213" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E213">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E214">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D215" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E215">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F215">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4754,13 +4754,13 @@
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D216" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E216">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4774,16 +4774,16 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D217" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E217">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4794,13 +4794,13 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E218">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4814,13 +4814,13 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D219" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4834,16 +4834,16 @@
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D220" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E220">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F220">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4854,13 +4854,13 @@
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4871,19 +4871,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C222">
-        <v>478</v>
+        <v>4048</v>
       </c>
       <c r="D222" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F222">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4894,13 +4894,13 @@
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E223">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4914,13 +4914,13 @@
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4934,16 +4934,16 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E225">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4954,16 +4954,16 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F226">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4974,13 +4974,13 @@
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D227" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E227">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4994,13 +4994,13 @@
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E228">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5014,16 +5014,16 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D229" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E229">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F229">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5034,16 +5034,16 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E230">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5054,13 +5054,13 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D231" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E231">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5074,13 +5074,13 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D232" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E232">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5091,19 +5091,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C233">
-        <v>478</v>
+        <v>5330</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F233">
-        <v>478</v>
+        <v>746</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5114,13 +5114,13 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D234" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E234">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5134,16 +5134,16 @@
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D235" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E235">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F235">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5154,13 +5154,13 @@
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D236" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E236">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5174,13 +5174,13 @@
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E237">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5191,19 +5191,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C238">
-        <v>478</v>
+        <v>3244</v>
       </c>
       <c r="D238" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F238">
-        <v>478</v>
+        <v>840</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5211,19 +5211,19 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C239">
-        <v>478</v>
+        <v>2136</v>
       </c>
       <c r="D239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F239">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5234,13 +5234,13 @@
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D240" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E240">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5254,13 +5254,13 @@
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E241">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5274,16 +5274,16 @@
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D242" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F242">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5294,16 +5294,16 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D243" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E243">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5314,13 +5314,13 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E244">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5334,16 +5334,16 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D245" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E245">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F245">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5354,16 +5354,16 @@
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D246" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E246">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5374,13 +5374,13 @@
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E247">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -5394,13 +5394,13 @@
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D248" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E248">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5414,13 +5414,13 @@
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D249" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E249">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5434,16 +5434,16 @@
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E250">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F250">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5454,16 +5454,16 @@
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D251" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E251">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5474,13 +5474,13 @@
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E252">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5494,13 +5494,13 @@
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D253" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E253">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5514,13 +5514,13 @@
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D254" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E254">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5534,16 +5534,16 @@
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D255" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F255">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5554,16 +5554,16 @@
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D256" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E256">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5571,19 +5571,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C257">
-        <v>210</v>
+        <v>5866</v>
       </c>
       <c r="D257" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F257">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5594,13 +5594,13 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D258" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E258">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5614,16 +5614,16 @@
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E259">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5634,16 +5634,16 @@
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D260" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E260">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F260">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5654,13 +5654,13 @@
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D261" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E261">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -5674,13 +5674,13 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D262" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E262">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5694,13 +5694,13 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E263">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5714,16 +5714,16 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D264" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E264">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5734,16 +5734,16 @@
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D265" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E265">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F265">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5754,13 +5754,13 @@
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D266" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E266">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5774,13 +5774,13 @@
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E267">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5794,13 +5794,13 @@
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D268" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E268">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5814,16 +5814,16 @@
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D269" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E269">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5834,16 +5834,16 @@
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D270" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F270">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5851,19 +5851,19 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C271">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D271" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F271">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5874,16 +5874,16 @@
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D272" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E272">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5894,13 +5894,13 @@
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D273" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E273">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5914,16 +5914,16 @@
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D274" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E274">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F274">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5934,13 +5934,13 @@
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D275" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E275">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5954,13 +5954,13 @@
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D276" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E276">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D277" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E277">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5994,13 +5994,13 @@
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D278" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E278">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6014,16 +6014,16 @@
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D279" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E279">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F279">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6037,7 +6037,7 @@
         <v>210</v>
       </c>
       <c r="D280" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -6054,13 +6054,13 @@
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D281" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E281">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6074,13 +6074,13 @@
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D282" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E282">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6094,16 +6094,16 @@
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D283" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E283">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6114,13 +6114,13 @@
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D284" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E284">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6134,16 +6134,16 @@
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D285" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F285">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6151,19 +6151,19 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C286">
-        <v>210</v>
+        <v>5330</v>
       </c>
       <c r="D286" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F286">
-        <v>210</v>
+        <v>746</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6174,13 +6174,13 @@
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D287" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E287">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6194,13 +6194,13 @@
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D288" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E288">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6214,16 +6214,16 @@
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D289" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E289">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F289">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6234,13 +6234,13 @@
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D290" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E290">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D291" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E291">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6274,13 +6274,13 @@
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D292" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E292">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6294,13 +6294,13 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D293" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E293">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6314,16 +6314,16 @@
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D294" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E294">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F294">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6334,13 +6334,13 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D295" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E295">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6351,19 +6351,19 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C296">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="D296" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E296">
         <v>0</v>
       </c>
       <c r="F296">
-        <v>210</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6374,13 +6374,13 @@
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D297" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E297">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6394,13 +6394,13 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D298" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E298">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6414,16 +6414,16 @@
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D299" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E299">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6434,16 +6434,16 @@
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D300" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F300">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6454,13 +6454,13 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D301" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E301">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6471,19 +6471,19 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C302">
-        <v>210</v>
+        <v>3780</v>
       </c>
       <c r="D302" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F302">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6494,13 +6494,13 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D303" t="s">
         <v>11</v>
       </c>
       <c r="E303">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -6514,16 +6514,16 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>5330</v>
+        <v>3244</v>
       </c>
       <c r="D304" t="s">
         <v>12</v>
       </c>
       <c r="E304">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F304">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6534,13 +6534,13 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="D305" t="s">
         <v>13</v>
       </c>
       <c r="E305">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6554,13 +6554,13 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="D306" t="s">
         <v>14</v>
       </c>
       <c r="E306">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6574,13 +6574,13 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="D307" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E307">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6594,13 +6594,13 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="D308" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E308">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6614,16 +6614,16 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>3244</v>
+        <v>1064</v>
       </c>
       <c r="D309" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E309">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F309">
-        <v>840</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6634,13 +6634,13 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D310" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E310">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6654,13 +6654,13 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D311" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E311">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6674,16 +6674,16 @@
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D312" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E312">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6691,19 +6691,19 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C313">
-        <v>1332</v>
+        <v>210</v>
       </c>
       <c r="D313" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E313">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6714,16 +6714,16 @@
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D314" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F314">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6734,13 +6734,13 @@
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D315" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E315">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6754,13 +6754,13 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D316" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E316">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6774,16 +6774,16 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D317" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E317">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F317">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6794,16 +6794,16 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D318" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E318">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6814,13 +6814,13 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D319" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E319">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6834,13 +6834,13 @@
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D320" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E320">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6854,13 +6854,13 @@
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D321" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E321">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6874,16 +6874,16 @@
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D322" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E322">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F322">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6894,16 +6894,16 @@
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D323" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E323">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6914,13 +6914,13 @@
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D324" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E324">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6934,13 +6934,13 @@
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D325" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E325">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -6954,16 +6954,16 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D326" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E326">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6974,16 +6974,16 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D327" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F327">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6994,13 +6994,13 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D328" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E328">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7014,13 +7014,13 @@
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E329">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -7034,16 +7034,16 @@
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D330" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E330">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F330">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7054,16 +7054,16 @@
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D331" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E331">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F331">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7074,13 +7074,13 @@
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D332" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E332">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7094,13 +7094,13 @@
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D333" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E333">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7114,13 +7114,13 @@
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D334" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E334">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7134,16 +7134,16 @@
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D335" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E335">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F335">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7154,16 +7154,16 @@
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D336" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E336">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F336">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7171,19 +7171,19 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C337">
-        <v>210</v>
+        <v>5866</v>
       </c>
       <c r="D337" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F337">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7194,13 +7194,13 @@
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D338" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E338">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7214,16 +7214,16 @@
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D339" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E339">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7234,13 +7234,13 @@
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="D340" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E340">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7254,16 +7254,16 @@
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1064</v>
+        <v>4048</v>
       </c>
       <c r="D341" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F341">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7274,13 +7274,13 @@
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="D342" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E342">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -7291,19 +7291,19 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C343">
-        <v>5598</v>
+        <v>210</v>
       </c>
       <c r="D343" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E343">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7314,16 +7314,16 @@
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D344" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E344">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F344">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7334,16 +7334,16 @@
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D345" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E345">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7354,13 +7354,13 @@
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D346" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E346">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -7374,13 +7374,13 @@
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D347" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E347">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7391,19 +7391,19 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C348">
-        <v>210</v>
+        <v>1600</v>
       </c>
       <c r="D348" t="s">
         <v>15</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F348">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7414,13 +7414,13 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="D349" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E349">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7434,16 +7434,16 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3244</v>
+        <v>1064</v>
       </c>
       <c r="D350" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E350">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F350">
-        <v>840</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7454,13 +7454,13 @@
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D351" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E351">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -7474,13 +7474,13 @@
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D352" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E352">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7491,19 +7491,19 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C353">
-        <v>210</v>
+        <v>5330</v>
       </c>
       <c r="D353" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E353">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F353">
-        <v>210</v>
+        <v>746</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7514,13 +7514,13 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D354" t="s">
         <v>8</v>
       </c>
       <c r="E354">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7534,13 +7534,13 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D355" t="s">
         <v>9</v>
       </c>
       <c r="E355">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7554,16 +7554,16 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D356" t="s">
         <v>10</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F356">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7574,13 +7574,13 @@
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D357" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E357">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7594,16 +7594,16 @@
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D358" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E358">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7614,16 +7614,16 @@
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D359" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E359">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F359">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7634,13 +7634,13 @@
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D360" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E360">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D361" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E361">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7671,19 +7671,19 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C362">
-        <v>3780</v>
+        <v>210</v>
       </c>
       <c r="D362" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E362">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F362">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7694,13 +7694,13 @@
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="D363" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E363">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7714,16 +7714,16 @@
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>3244</v>
+        <v>1064</v>
       </c>
       <c r="D364" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E364">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F364">
-        <v>840</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7734,13 +7734,13 @@
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D365" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E365">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7754,13 +7754,13 @@
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D366" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E366">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D367" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E367">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F367">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7794,13 +7794,13 @@
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="D368" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E368">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7814,16 +7814,16 @@
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>1064</v>
+        <v>4048</v>
       </c>
       <c r="D369" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F369">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7834,13 +7834,13 @@
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="D370" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E370">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7854,13 +7854,13 @@
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D371" t="s">
         <v>11</v>
       </c>
       <c r="E371">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -7874,16 +7874,16 @@
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>5330</v>
+        <v>3244</v>
       </c>
       <c r="D372" t="s">
         <v>12</v>
       </c>
       <c r="E372">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F372">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7894,13 +7894,13 @@
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="D373" t="s">
         <v>13</v>
       </c>
       <c r="E373">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7914,13 +7914,13 @@
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="D374" t="s">
         <v>14</v>
       </c>
       <c r="E374">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7931,19 +7931,19 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C375">
-        <v>210</v>
+        <v>1600</v>
       </c>
       <c r="D375" t="s">
         <v>15</v>
       </c>
       <c r="E375">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F375">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -7954,13 +7954,13 @@
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D376" t="s">
         <v>16</v>
       </c>
       <c r="E376">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -7974,16 +7974,16 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D377" t="s">
         <v>17</v>
       </c>
       <c r="E377">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F377">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -7994,16 +7994,16 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D378" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E378">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F378">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8014,13 +8014,13 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D379" t="s">
         <v>6</v>
       </c>
       <c r="E379">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8034,16 +8034,16 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D380" t="s">
         <v>7</v>
       </c>
       <c r="E380">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F380">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8054,13 +8054,13 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D381" t="s">
         <v>8</v>
       </c>
       <c r="E381">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8074,13 +8074,13 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D382" t="s">
         <v>9</v>
       </c>
       <c r="E382">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8094,16 +8094,16 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D383" t="s">
         <v>10</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F383">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8114,13 +8114,13 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D384" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E384">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -8134,16 +8134,16 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D385" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E385">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F385">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8154,16 +8154,16 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D386" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E386">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F386">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8171,19 +8171,19 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C387">
-        <v>4316</v>
+        <v>210</v>
       </c>
       <c r="D387" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E387">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F387">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8194,13 +8194,13 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="D388" t="s">
         <v>14</v>
       </c>
       <c r="E388">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -8214,13 +8214,13 @@
         <v>12000</v>
       </c>
       <c r="C389">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="D389" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E389">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         <v>12000</v>
       </c>
       <c r="C390">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="D390" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E390">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8254,16 +8254,16 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>3244</v>
+        <v>1064</v>
       </c>
       <c r="D391" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E391">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F391">
-        <v>840</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8274,13 +8274,13 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D392" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E392">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>12000</v>
       </c>
       <c r="C393">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D393" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E393">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -8314,16 +8314,16 @@
         <v>12000</v>
       </c>
       <c r="C394">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D394" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E394">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F394">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8331,16 +8331,16 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C395">
-        <v>1332</v>
+        <v>3516</v>
       </c>
       <c r="D395" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E395">
-        <v>1332</v>
+        <v>3516</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -8351,19 +8351,19 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C396">
-        <v>1064</v>
+        <v>2448</v>
       </c>
       <c r="D396" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F396">
-        <v>1064</v>
+        <v>44</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8371,16 +8371,16 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C397">
-        <v>5866</v>
+        <v>1336</v>
       </c>
       <c r="D397" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E397">
-        <v>5866</v>
+        <v>1336</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -8391,19 +8391,19 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C398">
-        <v>5598</v>
+        <v>268</v>
       </c>
       <c r="D398" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E398">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F398">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8411,19 +8411,19 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C399">
-        <v>5330</v>
+        <v>5066</v>
       </c>
       <c r="D399" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E399">
         <v>4584</v>
       </c>
       <c r="F399">
-        <v>746</v>
+        <v>482</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8431,19 +8431,19 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>12000</v>
+        <v>44</v>
       </c>
       <c r="C400">
-        <v>4316</v>
+        <v>44</v>
       </c>
       <c r="D400" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E400">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8451,16 +8451,16 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C401">
-        <v>4048</v>
+        <v>3516</v>
       </c>
       <c r="D401" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E401">
-        <v>4048</v>
+        <v>3516</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -8471,19 +8471,19 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C402">
-        <v>3780</v>
+        <v>2448</v>
       </c>
       <c r="D402" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E402">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F402">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8491,16 +8491,16 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C403">
-        <v>3512</v>
+        <v>1336</v>
       </c>
       <c r="D403" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E403">
-        <v>3512</v>
+        <v>1336</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -8511,19 +8511,19 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C404">
-        <v>3244</v>
+        <v>268</v>
       </c>
       <c r="D404" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E404">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F404">
-        <v>840</v>
+        <v>268</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8531,19 +8531,19 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C405">
-        <v>2136</v>
+        <v>5066</v>
       </c>
       <c r="D405" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E405">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8551,16 +8551,16 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C406">
-        <v>1868</v>
+        <v>3516</v>
       </c>
       <c r="D406" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E406">
-        <v>1868</v>
+        <v>3516</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -8571,19 +8571,19 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>12000</v>
+        <v>44</v>
       </c>
       <c r="C407">
-        <v>1600</v>
+        <v>44</v>
       </c>
       <c r="D407" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E407">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F407">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8594,16 +8594,16 @@
         <v>11200</v>
       </c>
       <c r="C408">
-        <v>532</v>
+        <v>2448</v>
       </c>
       <c r="D408" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E408">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F408">
-        <v>532</v>
+        <v>44</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8614,16 +8614,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>5066</v>
+        <v>1336</v>
       </c>
       <c r="D409" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E409">
-        <v>4584</v>
+        <v>1336</v>
       </c>
       <c r="F409">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8634,16 +8634,16 @@
         <v>11200</v>
       </c>
       <c r="C410">
-        <v>3516</v>
+        <v>268</v>
       </c>
       <c r="D410" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E410">
-        <v>3516</v>
+        <v>0</v>
       </c>
       <c r="F410">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8651,19 +8651,19 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C411">
-        <v>2448</v>
+        <v>3266</v>
       </c>
       <c r="D411" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E411">
         <v>2404</v>
       </c>
       <c r="F411">
-        <v>44</v>
+        <v>862</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8671,16 +8671,16 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C412">
-        <v>1336</v>
+        <v>5670</v>
       </c>
       <c r="D412" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E412">
-        <v>1336</v>
+        <v>5670</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C413">
-        <v>268</v>
+        <v>2802</v>
       </c>
       <c r="D413" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E413">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F413">
-        <v>268</v>
+        <v>398</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8711,19 +8711,19 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C414">
-        <v>5066</v>
+        <v>5670</v>
       </c>
       <c r="D414" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E414">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F414">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8731,19 +8731,19 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C415">
-        <v>3516</v>
+        <v>2802</v>
       </c>
       <c r="D415" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E415">
-        <v>3516</v>
+        <v>2404</v>
       </c>
       <c r="F415">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8751,19 +8751,19 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C416">
-        <v>2448</v>
+        <v>5670</v>
       </c>
       <c r="D416" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E416">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F416">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8771,19 +8771,19 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C417">
-        <v>1336</v>
+        <v>2802</v>
       </c>
       <c r="D417" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E417">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F417">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8791,19 +8791,19 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>11200</v>
+        <v>44</v>
       </c>
       <c r="C418">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="D418" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E418">
         <v>0</v>
       </c>
       <c r="F418">
-        <v>268</v>
+        <v>44</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8811,19 +8811,19 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C419">
-        <v>5066</v>
+        <v>5670</v>
       </c>
       <c r="D419" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E419">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F419">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8831,19 +8831,19 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C420">
-        <v>3516</v>
+        <v>2802</v>
       </c>
       <c r="D420" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E420">
-        <v>3516</v>
+        <v>2404</v>
       </c>
       <c r="F420">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8851,19 +8851,19 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C421">
-        <v>2448</v>
+        <v>5670</v>
       </c>
       <c r="D421" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E421">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F421">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8874,16 +8874,16 @@
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D422" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E422">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F422">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8894,16 +8894,16 @@
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D423" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E423">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F423">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8914,16 +8914,16 @@
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D424" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E424">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F424">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8934,16 +8934,16 @@
         <v>9400</v>
       </c>
       <c r="C425">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D425" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E425">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F425">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8954,16 +8954,16 @@
         <v>9400</v>
       </c>
       <c r="C426">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D426" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E426">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F426">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8974,16 +8974,16 @@
         <v>9400</v>
       </c>
       <c r="C427">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D427" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E427">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F427">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8994,16 +8994,16 @@
         <v>9400</v>
       </c>
       <c r="C428">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D428" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E428">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F428">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9014,16 +9014,16 @@
         <v>9400</v>
       </c>
       <c r="C429">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D429" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E429">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F429">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9031,19 +9031,19 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C430">
-        <v>44</v>
+        <v>2802</v>
       </c>
       <c r="D430" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F430">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9111,19 +9111,19 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C434">
-        <v>2802</v>
+        <v>44</v>
       </c>
       <c r="D434" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E434">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F434">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9134,16 +9134,16 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D435" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E435">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F435">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9154,16 +9154,16 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D436" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E436">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F436">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9174,16 +9174,16 @@
         <v>9400</v>
       </c>
       <c r="C437">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D437" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E437">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F437">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9194,16 +9194,16 @@
         <v>9400</v>
       </c>
       <c r="C438">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D438" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E438">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F438">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9214,195 +9214,15 @@
         <v>9400</v>
       </c>
       <c r="C439">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D439" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E439">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6">
-      <c r="A440" s="1">
-        <v>438</v>
-      </c>
-      <c r="B440">
-        <v>9400</v>
-      </c>
-      <c r="C440">
-        <v>2802</v>
-      </c>
-      <c r="D440" t="s">
-        <v>23</v>
-      </c>
-      <c r="E440">
-        <v>2404</v>
-      </c>
-      <c r="F440">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441">
-        <v>9400</v>
-      </c>
-      <c r="C441">
-        <v>5670</v>
-      </c>
-      <c r="D441" t="s">
-        <v>22</v>
-      </c>
-      <c r="E441">
-        <v>5670</v>
-      </c>
-      <c r="F441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442">
-        <v>9400</v>
-      </c>
-      <c r="C442">
-        <v>2802</v>
-      </c>
-      <c r="D442" t="s">
-        <v>23</v>
-      </c>
-      <c r="E442">
-        <v>2404</v>
-      </c>
-      <c r="F442">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443">
-        <v>9400</v>
-      </c>
-      <c r="C443">
-        <v>5670</v>
-      </c>
-      <c r="D443" t="s">
-        <v>22</v>
-      </c>
-      <c r="E443">
-        <v>5670</v>
-      </c>
-      <c r="F443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444">
-        <v>9400</v>
-      </c>
-      <c r="C444">
-        <v>2802</v>
-      </c>
-      <c r="D444" t="s">
-        <v>23</v>
-      </c>
-      <c r="E444">
-        <v>2404</v>
-      </c>
-      <c r="F444">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445">
-        <v>9400</v>
-      </c>
-      <c r="C445">
-        <v>5670</v>
-      </c>
-      <c r="D445" t="s">
-        <v>22</v>
-      </c>
-      <c r="E445">
-        <v>5670</v>
-      </c>
-      <c r="F445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446">
-        <v>9400</v>
-      </c>
-      <c r="C446">
-        <v>2802</v>
-      </c>
-      <c r="D446" t="s">
-        <v>23</v>
-      </c>
-      <c r="E446">
-        <v>2404</v>
-      </c>
-      <c r="F446">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="B447">
-        <v>9400</v>
-      </c>
-      <c r="C447">
-        <v>5670</v>
-      </c>
-      <c r="D447" t="s">
-        <v>22</v>
-      </c>
-      <c r="E447">
-        <v>5670</v>
-      </c>
-      <c r="F447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6">
-      <c r="A448" s="1">
-        <v>446</v>
-      </c>
-      <c r="B448">
-        <v>9400</v>
-      </c>
-      <c r="C448">
-        <v>2802</v>
-      </c>
-      <c r="D448" t="s">
-        <v>23</v>
-      </c>
-      <c r="E448">
-        <v>0</v>
-      </c>
-      <c r="F448">
         <v>2802</v>
       </c>
     </row>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="24">
   <si>
     <t>原料长度</t>
   </si>
@@ -64,13 +64,13 @@
     <t>[4266, 6134]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>[4534, 6134]</t>
   </si>
   <si>
     <t>[4802, 6134]</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[536]</t>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F439"/>
+  <dimension ref="A1:F453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,19 +691,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C13">
-        <v>1332</v>
+        <v>746</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -714,16 +714,16 @@
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F14">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -734,16 +734,16 @@
         <v>12000</v>
       </c>
       <c r="C15">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E15">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -754,13 +754,13 @@
         <v>12000</v>
       </c>
       <c r="C16">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F17">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -794,16 +794,16 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -814,13 +814,13 @@
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C22">
-        <v>3244</v>
+        <v>746</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -894,13 +894,13 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -914,16 +914,16 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -934,13 +934,13 @@
         <v>12000</v>
       </c>
       <c r="C25">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -974,16 +974,16 @@
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F27">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -994,13 +994,13 @@
         <v>12000</v>
       </c>
       <c r="C28">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>12000</v>
       </c>
       <c r="C29">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E29">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1034,16 +1034,16 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F30">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1054,13 +1054,13 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1094,13 +1094,13 @@
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F35">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1154,13 +1154,13 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1174,16 +1174,16 @@
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1194,13 +1194,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1234,16 +1234,16 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F40">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1254,13 +1254,13 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E41">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1274,16 +1274,16 @@
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1294,16 +1294,16 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F43">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1314,13 +1314,13 @@
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1334,16 +1334,16 @@
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1354,13 +1354,13 @@
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1394,16 +1394,16 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F48">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1414,13 +1414,13 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1454,13 +1454,13 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E51">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1474,13 +1474,13 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F53">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1514,13 +1514,13 @@
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1554,16 +1554,16 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F56">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1574,13 +1574,13 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1594,16 +1594,16 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1614,13 +1614,13 @@
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F61">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1674,13 +1674,13 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1714,13 +1714,13 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1751,19 +1751,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C66">
-        <v>1064</v>
+        <v>746</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1774,13 +1774,13 @@
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1794,13 +1794,13 @@
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1814,16 +1814,16 @@
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1834,13 +1834,13 @@
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1854,13 +1854,13 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E71">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1874,16 +1874,16 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1894,13 +1894,13 @@
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1911,19 +1911,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C74">
-        <v>3244</v>
+        <v>746</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1931,19 +1931,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C75">
-        <v>746</v>
+        <v>4048</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F75">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1954,13 +1954,13 @@
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E77">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1994,16 +1994,16 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2014,13 +2014,13 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E79">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2034,16 +2034,16 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F80">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2051,19 +2051,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C81">
-        <v>746</v>
+        <v>1600</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F81">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2074,13 +2074,13 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E82">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2094,16 +2094,16 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E83">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2114,16 +2114,16 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F84">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2134,13 +2134,13 @@
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E85">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2154,16 +2154,16 @@
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2174,13 +2174,13 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E88">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E89">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F89">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2234,13 +2234,13 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2254,16 +2254,16 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E91">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2274,13 +2274,13 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E92">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2294,13 +2294,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2314,16 +2314,16 @@
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F94">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2334,13 +2334,13 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2354,16 +2354,16 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E96">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2374,16 +2374,16 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F97">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2394,13 +2394,13 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2414,16 +2414,16 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2434,13 +2434,13 @@
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F102">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2491,19 +2491,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C103">
-        <v>2136</v>
+        <v>746</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E103">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2514,13 +2514,13 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E104">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2534,16 +2534,16 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E105">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2554,13 +2554,13 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E106">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2574,16 +2574,16 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F107">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2594,13 +2594,13 @@
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E108">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2634,16 +2634,16 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E110">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2654,13 +2654,13 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2674,13 +2674,13 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2694,16 +2694,16 @@
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E113">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2714,13 +2714,13 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2734,16 +2734,16 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E115">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F115">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2754,13 +2754,13 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E116">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2774,13 +2774,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E117">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E118">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2814,13 +2814,13 @@
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E119">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F120">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2854,13 +2854,13 @@
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E121">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2874,13 +2874,13 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D122" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E122">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E123">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2914,13 +2914,13 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E124">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2934,13 +2934,13 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E125">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2954,16 +2954,16 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E126">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2974,13 +2974,13 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E127">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C128">
-        <v>3244</v>
+        <v>746</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E128">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3014,13 +3014,13 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E129">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E130">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3054,13 +3054,13 @@
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E131">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E132">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3094,16 +3094,16 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F133">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3114,13 +3114,13 @@
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E134">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C135">
-        <v>5598</v>
+        <v>746</v>
       </c>
       <c r="D135" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E135">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3154,16 +3154,16 @@
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E136">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F136">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3174,13 +3174,13 @@
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E137">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3194,16 +3194,16 @@
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E138">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3214,13 +3214,13 @@
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E140">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3254,16 +3254,16 @@
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E141">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F141">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3274,13 +3274,13 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E142">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3294,13 +3294,13 @@
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E143">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3334,13 +3334,13 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E145">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F146">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3371,19 +3371,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C147">
-        <v>746</v>
+        <v>2136</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F147">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3394,13 +3394,13 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E148">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3414,13 +3414,13 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E149">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E150">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F150">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3454,16 +3454,16 @@
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E151">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3474,13 +3474,13 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E152">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3494,13 +3494,13 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E153">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E154">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3534,16 +3534,16 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E155">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F155">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3554,13 +3554,13 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E156">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3574,13 +3574,13 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D157" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E157">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E158">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3614,16 +3614,16 @@
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E159">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3634,16 +3634,16 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F160">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3654,13 +3654,13 @@
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E161">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3674,13 +3674,13 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D162" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E162">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3694,16 +3694,16 @@
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E163">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F163">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3714,16 +3714,16 @@
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E164">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3734,13 +3734,13 @@
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E165">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E166">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3771,19 +3771,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C167">
-        <v>3512</v>
+        <v>210</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E167">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3794,16 +3794,16 @@
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E168">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F168">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3814,13 +3814,13 @@
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E169">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3834,16 +3834,16 @@
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D170" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E170">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3854,13 +3854,13 @@
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E171">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3874,13 +3874,13 @@
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E172">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3894,16 +3894,16 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F173">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3914,13 +3914,13 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D174" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E174">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3934,16 +3934,16 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D175" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E175">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3951,19 +3951,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C176">
-        <v>210</v>
+        <v>2136</v>
       </c>
       <c r="D176" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F176">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3974,13 +3974,13 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D177" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E177">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3994,13 +3994,13 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D178" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E178">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4014,16 +4014,16 @@
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E179">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F179">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4031,10 +4031,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C180">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="D180" t="s">
         <v>18</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>210</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4054,13 +4054,13 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E181">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4074,13 +4074,13 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E182">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4091,19 +4091,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C183">
-        <v>3780</v>
+        <v>210</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E183">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4114,16 +4114,16 @@
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E184">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4134,16 +4134,16 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D185" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E185">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F185">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4154,13 +4154,13 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D186" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -4174,13 +4174,13 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D187" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E188">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4214,16 +4214,16 @@
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E189">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4234,16 +4234,16 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D190" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F190">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4254,13 +4254,13 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D191" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E191">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4274,13 +4274,13 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D192" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E192">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4294,16 +4294,16 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E193">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F193">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4314,16 +4314,16 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D194" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E194">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4334,13 +4334,13 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4354,13 +4354,13 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E196">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4374,16 +4374,16 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D197" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E197">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4394,16 +4394,16 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D198" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E198">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F198">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4414,13 +4414,13 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D199" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E199">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4434,13 +4434,13 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D200" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E200">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4454,13 +4454,13 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D201" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4474,16 +4474,16 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D202" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E202">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4491,19 +4491,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C203">
-        <v>1064</v>
+        <v>210</v>
       </c>
       <c r="D203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1064</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4514,13 +4514,13 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D204" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E204">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4534,13 +4534,13 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D205" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E205">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4554,16 +4554,16 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E206">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F206">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4571,19 +4571,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C207">
-        <v>210</v>
+        <v>1332</v>
       </c>
       <c r="D207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F207">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4594,16 +4594,16 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D208" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E208">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4614,13 +4614,13 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4634,13 +4634,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E210">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4654,16 +4654,16 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E211">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4674,16 +4674,16 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D212" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F212">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4694,13 +4694,13 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D213" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D214" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4734,13 +4734,13 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E215">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4754,16 +4754,16 @@
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E216">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4774,16 +4774,16 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D217" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F217">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4794,13 +4794,13 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D218" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E218">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4814,13 +4814,13 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D219" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E219">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4834,16 +4834,16 @@
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D220" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E220">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F220">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4854,16 +4854,16 @@
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D221" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E221">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4874,13 +4874,13 @@
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E222">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4894,13 +4894,13 @@
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E223">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4914,16 +4914,16 @@
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E224">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4934,16 +4934,16 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D225" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F225">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4954,13 +4954,13 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D226" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E226">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4974,13 +4974,13 @@
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D227" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E227">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4994,13 +4994,13 @@
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D228" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E228">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5014,16 +5014,16 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D229" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5034,16 +5034,16 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D230" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F230">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5054,13 +5054,13 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D231" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E231">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5074,13 +5074,13 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D232" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E232">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5094,16 +5094,16 @@
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E233">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F233">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5114,16 +5114,16 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D234" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E234">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5134,13 +5134,13 @@
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E235">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5154,13 +5154,13 @@
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D236" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5174,16 +5174,16 @@
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D237" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E237">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5194,16 +5194,16 @@
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D238" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E238">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F238">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5214,13 +5214,13 @@
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D239" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E239">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5234,13 +5234,13 @@
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D240" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5251,19 +5251,19 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C241">
-        <v>1600</v>
+        <v>210</v>
       </c>
       <c r="D241" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E241">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5271,19 +5271,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C242">
-        <v>1332</v>
+        <v>210</v>
       </c>
       <c r="D242" t="s">
         <v>16</v>
       </c>
       <c r="E242">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5294,16 +5294,16 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D243" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F243">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5314,16 +5314,16 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D244" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E244">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5334,13 +5334,13 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D245" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E245">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5354,16 +5354,16 @@
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D246" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E246">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F246">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5371,19 +5371,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C247">
-        <v>4316</v>
+        <v>210</v>
       </c>
       <c r="D247" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E247">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5394,13 +5394,13 @@
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D248" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E248">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5414,13 +5414,13 @@
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D249" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E249">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5434,16 +5434,16 @@
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D250" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E250">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5454,16 +5454,16 @@
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D251" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E251">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F251">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5474,13 +5474,13 @@
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D252" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D253" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E253">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5511,19 +5511,19 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C254">
-        <v>1600</v>
+        <v>210</v>
       </c>
       <c r="D254" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E254">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5534,13 +5534,13 @@
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="D255" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E255">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -5551,19 +5551,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C256">
-        <v>1064</v>
+        <v>210</v>
       </c>
       <c r="D256" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1064</v>
+        <v>210</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5574,13 +5574,13 @@
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D257" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E257">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5594,13 +5594,13 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D258" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E258">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5614,16 +5614,16 @@
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E259">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F259">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5634,16 +5634,16 @@
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D260" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E260">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5651,19 +5651,19 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C261">
-        <v>4048</v>
+        <v>210</v>
       </c>
       <c r="D261" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E261">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5674,13 +5674,13 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D262" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E262">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5694,13 +5694,13 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D263" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E263">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5714,16 +5714,16 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D264" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E264">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F264">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5734,13 +5734,13 @@
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D265" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E265">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5754,16 +5754,16 @@
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D266" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E266">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5771,19 +5771,19 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C267">
-        <v>1600</v>
+        <v>210</v>
       </c>
       <c r="D267" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E267">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5794,13 +5794,13 @@
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D268" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E268">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5814,16 +5814,16 @@
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D269" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F269">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5834,16 +5834,16 @@
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D270" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E270">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5854,13 +5854,13 @@
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D271" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E271">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E272">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F272">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5894,13 +5894,13 @@
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D273" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E273">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D274" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E274">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5934,16 +5934,16 @@
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D275" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E275">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5954,13 +5954,13 @@
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D276" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E276">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D277" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E277">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F277">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5994,13 +5994,13 @@
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D278" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E278">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6014,13 +6014,13 @@
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D279" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E279">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -6031,10 +6031,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C280">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="D280" t="s">
         <v>18</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="F280">
-        <v>210</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6054,13 +6054,13 @@
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D281" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E281">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6074,13 +6074,13 @@
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D282" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E282">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6094,16 +6094,16 @@
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D283" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F283">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6114,13 +6114,13 @@
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D284" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E284">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6134,13 +6134,13 @@
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D285" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E285">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6154,16 +6154,16 @@
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E286">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F286">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6174,13 +6174,13 @@
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D287" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E287">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6194,16 +6194,16 @@
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D288" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E288">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6214,13 +6214,13 @@
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D289" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E289">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6234,13 +6234,13 @@
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D290" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E290">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D291" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E291">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F291">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6274,13 +6274,13 @@
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D292" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E292">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6294,16 +6294,16 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D293" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E293">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6314,13 +6314,13 @@
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D294" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E294">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6334,13 +6334,13 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D295" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E295">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6354,16 +6354,16 @@
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D296" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F296">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6374,13 +6374,13 @@
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D297" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E297">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6394,13 +6394,13 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D298" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E298">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6414,16 +6414,16 @@
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D299" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E299">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F299">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6434,13 +6434,13 @@
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D300" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E300">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -6454,16 +6454,16 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D301" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E301">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F301">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6474,13 +6474,13 @@
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D302" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E302">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D303" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E303">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -6514,16 +6514,16 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D304" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E304">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F304">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6534,13 +6534,13 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D305" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E305">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6554,16 +6554,16 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D306" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E306">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F306">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6574,13 +6574,13 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D307" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E307">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6594,13 +6594,13 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D308" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E308">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6614,16 +6614,16 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D309" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F309">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6634,13 +6634,13 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D310" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E310">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6654,13 +6654,13 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D311" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E311">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6674,16 +6674,16 @@
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D312" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E312">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F312">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6691,19 +6691,19 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C313">
-        <v>210</v>
+        <v>3512</v>
       </c>
       <c r="D313" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F313">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6714,16 +6714,16 @@
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D314" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E314">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6731,19 +6731,19 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C315">
-        <v>4048</v>
+        <v>210</v>
       </c>
       <c r="D315" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E315">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6754,13 +6754,13 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D316" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E316">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6774,13 +6774,13 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D317" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E317">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6794,16 +6794,16 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D318" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E318">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F318">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6814,13 +6814,13 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D319" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E319">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6834,16 +6834,16 @@
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D320" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E320">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6854,13 +6854,13 @@
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D321" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E321">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6874,13 +6874,13 @@
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D322" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E322">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6891,19 +6891,19 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C323">
-        <v>1064</v>
+        <v>210</v>
       </c>
       <c r="D323" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E323">
         <v>0</v>
       </c>
       <c r="F323">
-        <v>1064</v>
+        <v>210</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6914,16 +6914,16 @@
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D324" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E324">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6934,13 +6934,13 @@
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D325" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E325">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -6954,16 +6954,16 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D326" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E326">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F326">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6974,13 +6974,13 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D327" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E327">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6994,13 +6994,13 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D328" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E328">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7014,16 +7014,16 @@
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D329" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E329">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7034,13 +7034,13 @@
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D330" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E330">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7054,16 +7054,16 @@
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D331" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E331">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F331">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7074,13 +7074,13 @@
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D332" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E332">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7094,13 +7094,13 @@
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D333" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E333">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7114,16 +7114,16 @@
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D334" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E334">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7134,13 +7134,13 @@
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D335" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E335">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7154,16 +7154,16 @@
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D336" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F336">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7174,16 +7174,16 @@
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D337" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E337">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7191,19 +7191,19 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C338">
-        <v>5598</v>
+        <v>210</v>
       </c>
       <c r="D338" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E338">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7214,16 +7214,16 @@
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D339" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E339">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F339">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7234,13 +7234,13 @@
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D340" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E340">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7254,13 +7254,13 @@
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D341" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E341">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7274,13 +7274,13 @@
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D342" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E342">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -7291,19 +7291,19 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C343">
-        <v>210</v>
+        <v>3244</v>
       </c>
       <c r="D343" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F343">
-        <v>210</v>
+        <v>840</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7314,13 +7314,13 @@
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D344" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E344">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7334,16 +7334,16 @@
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D345" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E345">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F345">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7354,13 +7354,13 @@
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D346" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E346">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -7374,13 +7374,13 @@
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D347" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E347">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D348" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E348">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F348">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7414,13 +7414,13 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D349" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E349">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7434,16 +7434,16 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D350" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E350">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F350">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7454,16 +7454,16 @@
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D351" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E351">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7474,13 +7474,13 @@
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D352" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E352">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7494,16 +7494,16 @@
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D353" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E353">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F353">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7514,13 +7514,13 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D354" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E354">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7534,13 +7534,13 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D355" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E355">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7554,16 +7554,16 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D356" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E356">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F356">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7574,13 +7574,13 @@
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D357" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E357">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7594,16 +7594,16 @@
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D358" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E358">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F358">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7614,13 +7614,13 @@
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D359" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E359">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -7634,13 +7634,13 @@
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D360" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E360">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7654,16 +7654,16 @@
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D361" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E361">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F361">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7671,19 +7671,19 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C362">
-        <v>210</v>
+        <v>5866</v>
       </c>
       <c r="D362" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F362">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7691,19 +7691,19 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C363">
-        <v>1332</v>
+        <v>210</v>
       </c>
       <c r="D363" t="s">
         <v>16</v>
       </c>
       <c r="E363">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F363">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -7714,16 +7714,16 @@
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D364" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E364">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F364">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7734,16 +7734,16 @@
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D365" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E365">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F365">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7754,13 +7754,13 @@
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D366" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E366">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D367" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E367">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F367">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7794,13 +7794,13 @@
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D368" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E368">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7814,13 +7814,13 @@
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D369" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E369">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7834,16 +7834,16 @@
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D370" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E370">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F370">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7854,13 +7854,13 @@
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D371" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E371">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -7874,16 +7874,16 @@
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D372" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E372">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F372">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7891,19 +7891,19 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C373">
-        <v>2136</v>
+        <v>210</v>
       </c>
       <c r="D373" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E373">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F373">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -7914,13 +7914,13 @@
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D374" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E374">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7934,13 +7934,13 @@
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D375" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E375">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7954,16 +7954,16 @@
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D376" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E376">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F376">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7974,16 +7974,16 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D377" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E377">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F377">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -7994,13 +7994,13 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D378" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E378">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -8014,16 +8014,16 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D379" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E379">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F379">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8034,16 +8034,16 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D380" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E380">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F380">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8054,13 +8054,13 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D381" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E381">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8074,13 +8074,13 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D382" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E382">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8094,13 +8094,13 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D383" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E383">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8114,16 +8114,16 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D384" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E384">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F384">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8134,16 +8134,16 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D385" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E385">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F385">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8154,13 +8154,13 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D386" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E386">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -8171,19 +8171,19 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C387">
-        <v>210</v>
+        <v>1600</v>
       </c>
       <c r="D387" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E387">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F387">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8194,13 +8194,13 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D388" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E388">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -8211,19 +8211,19 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C389">
-        <v>1600</v>
+        <v>210</v>
       </c>
       <c r="D389" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E389">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F389">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8234,16 +8234,16 @@
         <v>12000</v>
       </c>
       <c r="C390">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D390" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E390">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F390">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8254,16 +8254,16 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D391" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F391">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8274,13 +8274,13 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D392" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E392">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>12000</v>
       </c>
       <c r="C393">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D393" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E393">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F393">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8314,16 +8314,16 @@
         <v>12000</v>
       </c>
       <c r="C394">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D394" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E394">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F394">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8331,16 +8331,16 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C395">
-        <v>3516</v>
+        <v>4048</v>
       </c>
       <c r="D395" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E395">
-        <v>3516</v>
+        <v>4048</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -8351,19 +8351,19 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C396">
-        <v>2448</v>
+        <v>3780</v>
       </c>
       <c r="D396" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E396">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F396">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8371,16 +8371,16 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C397">
-        <v>1336</v>
+        <v>3512</v>
       </c>
       <c r="D397" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E397">
-        <v>1336</v>
+        <v>3512</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -8391,19 +8391,19 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C398">
-        <v>268</v>
+        <v>3244</v>
       </c>
       <c r="D398" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F398">
-        <v>268</v>
+        <v>840</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8411,19 +8411,19 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C399">
-        <v>5066</v>
+        <v>2136</v>
       </c>
       <c r="D399" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E399">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F399">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8431,19 +8431,19 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>44</v>
+        <v>12000</v>
       </c>
       <c r="C400">
-        <v>44</v>
+        <v>1868</v>
       </c>
       <c r="D400" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E400">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F400">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8451,16 +8451,16 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C401">
-        <v>3516</v>
+        <v>1600</v>
       </c>
       <c r="D401" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E401">
-        <v>3516</v>
+        <v>1600</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -8471,19 +8471,19 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C402">
-        <v>2448</v>
+        <v>1332</v>
       </c>
       <c r="D402" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E402">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F402">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8491,19 +8491,19 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C403">
-        <v>1336</v>
+        <v>1064</v>
       </c>
       <c r="D403" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E403">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="F403">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8511,19 +8511,19 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C404">
-        <v>268</v>
+        <v>5866</v>
       </c>
       <c r="D404" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E404">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F404">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8531,19 +8531,19 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C405">
-        <v>5066</v>
+        <v>5598</v>
       </c>
       <c r="D405" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E405">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F405">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8551,19 +8551,19 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>11200</v>
+        <v>210</v>
       </c>
       <c r="C406">
-        <v>3516</v>
+        <v>210</v>
       </c>
       <c r="D406" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E406">
-        <v>3516</v>
+        <v>0</v>
       </c>
       <c r="F406">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8571,19 +8571,19 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>44</v>
+        <v>12000</v>
       </c>
       <c r="C407">
-        <v>44</v>
+        <v>5330</v>
       </c>
       <c r="D407" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E407">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F407">
-        <v>44</v>
+        <v>746</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8594,16 +8594,16 @@
         <v>11200</v>
       </c>
       <c r="C408">
-        <v>2448</v>
+        <v>3516</v>
       </c>
       <c r="D408" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E408">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F408">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8614,16 +8614,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D409" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E409">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F409">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8634,16 +8634,16 @@
         <v>11200</v>
       </c>
       <c r="C410">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D410" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F410">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8651,19 +8651,19 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C411">
-        <v>3266</v>
+        <v>268</v>
       </c>
       <c r="D411" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E411">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F411">
-        <v>862</v>
+        <v>268</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8671,19 +8671,19 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C412">
-        <v>5670</v>
+        <v>5066</v>
       </c>
       <c r="D412" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E412">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F412">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8691,19 +8691,19 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C413">
-        <v>2802</v>
+        <v>3516</v>
       </c>
       <c r="D413" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E413">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F413">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8711,19 +8711,19 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C414">
-        <v>5670</v>
+        <v>2448</v>
       </c>
       <c r="D414" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E414">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F414">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8731,19 +8731,19 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C415">
-        <v>2802</v>
+        <v>1336</v>
       </c>
       <c r="D415" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E415">
-        <v>2404</v>
+        <v>1336</v>
       </c>
       <c r="F415">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8751,19 +8751,19 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C416">
-        <v>5670</v>
+        <v>268</v>
       </c>
       <c r="D416" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E416">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F416">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8771,19 +8771,19 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C417">
-        <v>2802</v>
+        <v>5066</v>
       </c>
       <c r="D417" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E417">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F417">
-        <v>398</v>
+        <v>482</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8797,7 +8797,7 @@
         <v>44</v>
       </c>
       <c r="D418" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E418">
         <v>0</v>
@@ -8811,16 +8811,16 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C419">
-        <v>5670</v>
+        <v>3516</v>
       </c>
       <c r="D419" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E419">
-        <v>5670</v>
+        <v>3516</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -8831,19 +8831,19 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C420">
-        <v>2802</v>
+        <v>2448</v>
       </c>
       <c r="D420" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E420">
         <v>2404</v>
       </c>
       <c r="F420">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8851,16 +8851,16 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C421">
-        <v>5670</v>
+        <v>1336</v>
       </c>
       <c r="D421" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E421">
-        <v>5670</v>
+        <v>1336</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -8871,19 +8871,19 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C422">
-        <v>2802</v>
+        <v>268</v>
       </c>
       <c r="D422" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E422">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F422">
-        <v>398</v>
+        <v>268</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8891,19 +8891,19 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C423">
-        <v>5670</v>
+        <v>44</v>
       </c>
       <c r="D423" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E423">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F423">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8914,16 +8914,16 @@
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>2802</v>
+        <v>3266</v>
       </c>
       <c r="D424" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E424">
         <v>2404</v>
       </c>
       <c r="F424">
-        <v>398</v>
+        <v>862</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8931,19 +8931,19 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C425">
-        <v>5670</v>
+        <v>44</v>
       </c>
       <c r="D425" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E425">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F425">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8954,16 +8954,16 @@
         <v>9400</v>
       </c>
       <c r="C426">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D426" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E426">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F426">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8974,16 +8974,16 @@
         <v>9400</v>
       </c>
       <c r="C427">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D427" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E427">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F427">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8994,16 +8994,16 @@
         <v>9400</v>
       </c>
       <c r="C428">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D428" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E428">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F428">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9014,16 +9014,16 @@
         <v>9400</v>
       </c>
       <c r="C429">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D429" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E429">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F429">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9034,16 +9034,16 @@
         <v>9400</v>
       </c>
       <c r="C430">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D430" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E430">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F430">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9054,16 +9054,16 @@
         <v>9400</v>
       </c>
       <c r="C431">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D431" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E431">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F431">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9071,19 +9071,19 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C432">
-        <v>2802</v>
+        <v>44</v>
       </c>
       <c r="D432" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E432">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F432">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9111,19 +9111,19 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C434">
-        <v>44</v>
+        <v>2802</v>
       </c>
       <c r="D434" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F434">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9134,16 +9134,16 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D435" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E435">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F435">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9154,16 +9154,16 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D436" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E436">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F436">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9171,19 +9171,19 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C437">
-        <v>2802</v>
+        <v>44</v>
       </c>
       <c r="D437" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E437">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F437">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9220,9 +9220,289 @@
         <v>23</v>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F439">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>9400</v>
+      </c>
+      <c r="C440">
+        <v>5670</v>
+      </c>
+      <c r="D440" t="s">
+        <v>22</v>
+      </c>
+      <c r="E440">
+        <v>5670</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>9400</v>
+      </c>
+      <c r="C441">
+        <v>2802</v>
+      </c>
+      <c r="D441" t="s">
+        <v>23</v>
+      </c>
+      <c r="E441">
+        <v>2404</v>
+      </c>
+      <c r="F441">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>9400</v>
+      </c>
+      <c r="C442">
+        <v>5670</v>
+      </c>
+      <c r="D442" t="s">
+        <v>22</v>
+      </c>
+      <c r="E442">
+        <v>5670</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>9400</v>
+      </c>
+      <c r="C443">
+        <v>2802</v>
+      </c>
+      <c r="D443" t="s">
+        <v>23</v>
+      </c>
+      <c r="E443">
+        <v>2404</v>
+      </c>
+      <c r="F443">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>9400</v>
+      </c>
+      <c r="C444">
+        <v>5670</v>
+      </c>
+      <c r="D444" t="s">
+        <v>22</v>
+      </c>
+      <c r="E444">
+        <v>5670</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>9400</v>
+      </c>
+      <c r="C445">
+        <v>2802</v>
+      </c>
+      <c r="D445" t="s">
+        <v>23</v>
+      </c>
+      <c r="E445">
+        <v>2404</v>
+      </c>
+      <c r="F445">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>9400</v>
+      </c>
+      <c r="C446">
+        <v>5670</v>
+      </c>
+      <c r="D446" t="s">
+        <v>22</v>
+      </c>
+      <c r="E446">
+        <v>5670</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>9400</v>
+      </c>
+      <c r="C447">
+        <v>2802</v>
+      </c>
+      <c r="D447" t="s">
+        <v>23</v>
+      </c>
+      <c r="E447">
+        <v>2404</v>
+      </c>
+      <c r="F447">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>9400</v>
+      </c>
+      <c r="C448">
+        <v>5670</v>
+      </c>
+      <c r="D448" t="s">
+        <v>22</v>
+      </c>
+      <c r="E448">
+        <v>5670</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>9400</v>
+      </c>
+      <c r="C449">
+        <v>2802</v>
+      </c>
+      <c r="D449" t="s">
+        <v>23</v>
+      </c>
+      <c r="E449">
+        <v>2404</v>
+      </c>
+      <c r="F449">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>9400</v>
+      </c>
+      <c r="C450">
+        <v>5670</v>
+      </c>
+      <c r="D450" t="s">
+        <v>22</v>
+      </c>
+      <c r="E450">
+        <v>5670</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>9400</v>
+      </c>
+      <c r="C451">
+        <v>2802</v>
+      </c>
+      <c r="D451" t="s">
+        <v>23</v>
+      </c>
+      <c r="E451">
+        <v>2404</v>
+      </c>
+      <c r="F451">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>9400</v>
+      </c>
+      <c r="C452">
+        <v>5670</v>
+      </c>
+      <c r="D452" t="s">
+        <v>22</v>
+      </c>
+      <c r="E452">
+        <v>5670</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>9400</v>
+      </c>
+      <c r="C453">
+        <v>2802</v>
+      </c>
+      <c r="D453" t="s">
+        <v>23</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
         <v>2802</v>
       </c>
     </row>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="24">
   <si>
     <t>原料长度</t>
   </si>
@@ -64,16 +64,16 @@
     <t>[4266, 6134]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>[4534, 6134]</t>
   </si>
   <si>
     <t>[4802, 6134]</t>
   </si>
   <si>
-    <t>[536]</t>
+    <t>[268]</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>[2618, 6134]</t>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F453"/>
+  <dimension ref="A1:F448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,19 +691,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C13">
-        <v>746</v>
+        <v>1332</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F13">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -714,16 +714,16 @@
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -734,16 +734,16 @@
         <v>12000</v>
       </c>
       <c r="C15">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F15">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -751,19 +751,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C16">
-        <v>5866</v>
+        <v>478</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -774,13 +774,13 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F18">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -814,16 +814,16 @@
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -834,13 +834,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C22">
-        <v>746</v>
+        <v>3780</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F22">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -997,7 +997,7 @@
         <v>1332</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>1332</v>
@@ -1017,7 +1017,7 @@
         <v>1064</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>1332</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>1332</v>
@@ -1277,7 +1277,7 @@
         <v>1064</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>12000</v>
+        <v>478</v>
       </c>
       <c r="C44">
-        <v>5598</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E44">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1334,16 +1334,16 @@
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F45">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1354,13 +1354,13 @@
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1374,16 +1374,16 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1394,13 +1394,13 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F50">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1454,13 +1454,13 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1474,16 +1474,16 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E52">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1494,13 +1494,13 @@
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E53">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1514,13 +1514,13 @@
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E54">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F55">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1554,13 +1554,13 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1574,16 +1574,16 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1594,16 +1594,16 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F58">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1614,13 +1614,13 @@
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1654,13 +1654,13 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E62">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C63">
-        <v>3244</v>
+        <v>210</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E63">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>840</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1714,13 +1714,13 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1751,19 +1751,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C66">
-        <v>746</v>
+        <v>3244</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F66">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1774,13 +1774,13 @@
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E67">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1794,13 +1794,13 @@
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E68">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1814,16 +1814,16 @@
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F69">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1831,19 +1831,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C70">
-        <v>5866</v>
+        <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1854,13 +1854,13 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E71">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1874,16 +1874,16 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1894,13 +1894,13 @@
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1911,19 +1911,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C74">
-        <v>746</v>
+        <v>5598</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F74">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1931,19 +1931,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C75">
-        <v>4048</v>
+        <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1954,16 +1954,16 @@
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E76">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1974,13 +1974,13 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E77">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1994,16 +1994,16 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E78">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F78">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2014,13 +2014,13 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2034,13 +2034,13 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2074,13 +2074,13 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E82">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2094,16 +2094,16 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F83">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2114,13 +2114,13 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E84">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E85">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2154,16 +2154,16 @@
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2174,13 +2174,13 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E88">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2234,13 +2234,13 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E90">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2254,16 +2254,16 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E91">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F91">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2274,13 +2274,13 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2294,13 +2294,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2314,16 +2314,16 @@
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E94">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2334,13 +2334,13 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E95">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2354,16 +2354,16 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F96">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2374,13 +2374,13 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D98" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E98">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2414,16 +2414,16 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E99">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2434,13 +2434,13 @@
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E102">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2491,19 +2491,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C103">
-        <v>746</v>
+        <v>4316</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F103">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2514,13 +2514,13 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E104">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2534,16 +2534,16 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F105">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2554,13 +2554,13 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E106">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2574,16 +2574,16 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E107">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2594,13 +2594,13 @@
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E108">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E109">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2634,16 +2634,16 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F110">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2654,13 +2654,13 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E112">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2694,16 +2694,16 @@
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F113">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2714,13 +2714,13 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2734,16 +2734,16 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E115">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2754,13 +2754,13 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2774,13 +2774,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E118">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F118">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2814,13 +2814,13 @@
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E119">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E120">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2854,13 +2854,13 @@
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E121">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2874,13 +2874,13 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E122">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F123">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2914,13 +2914,13 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E124">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2934,16 +2934,16 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D125" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E125">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2951,19 +2951,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C126">
-        <v>5330</v>
+        <v>210</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E126">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>746</v>
+        <v>210</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2974,13 +2974,13 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C128">
-        <v>746</v>
+        <v>5598</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F128">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3014,16 +3014,16 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E129">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3034,13 +3034,13 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3054,13 +3054,13 @@
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E132">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F132">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3094,13 +3094,13 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E133">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3114,16 +3114,16 @@
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E134">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3131,19 +3131,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C135">
-        <v>746</v>
+        <v>2136</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F135">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3154,13 +3154,13 @@
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E136">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3174,13 +3174,13 @@
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E137">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3194,16 +3194,16 @@
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F138">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3214,16 +3214,16 @@
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E139">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3234,13 +3234,13 @@
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E140">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3254,16 +3254,16 @@
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F141">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3274,16 +3274,16 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3291,19 +3291,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C143">
-        <v>4048</v>
+        <v>210</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E143">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3314,13 +3314,13 @@
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3334,13 +3334,13 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E145">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E146">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F146">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3374,13 +3374,13 @@
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E147">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3394,16 +3394,16 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D148" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E148">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3414,13 +3414,13 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E149">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3434,13 +3434,13 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E150">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3454,16 +3454,16 @@
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F151">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3474,13 +3474,13 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E152">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3494,16 +3494,16 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D153" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E153">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3514,16 +3514,16 @@
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E154">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F154">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3534,13 +3534,13 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E156">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3574,13 +3574,13 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E157">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E158">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3614,16 +3614,16 @@
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E159">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F159">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3634,13 +3634,13 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E160">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3654,16 +3654,16 @@
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D161" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E161">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3674,13 +3674,13 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C163">
-        <v>1332</v>
+        <v>210</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E163">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3714,16 +3714,16 @@
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D164" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F164">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3734,13 +3734,13 @@
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E165">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D166" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E166">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3771,19 +3771,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C167">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="D167" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="F167">
-        <v>210</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4011,19 +4011,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C179">
-        <v>1332</v>
+        <v>210</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E179">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4034,16 +4034,16 @@
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F180">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4054,16 +4054,16 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E181">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4074,13 +4074,13 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E182">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4091,19 +4091,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C183">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F183">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4271,19 +4271,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C192">
-        <v>1600</v>
+        <v>210</v>
       </c>
       <c r="D192" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E192">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4294,13 +4294,13 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D193" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E193">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4314,16 +4314,16 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F194">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4334,16 +4334,16 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D195" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E195">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4354,13 +4354,13 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4374,16 +4374,16 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F197">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4394,16 +4394,16 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E198">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4414,13 +4414,13 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4434,13 +4434,13 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4454,13 +4454,13 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E201">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4474,16 +4474,16 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E202">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F202">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4497,7 +4497,7 @@
         <v>210</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -4514,16 +4514,16 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E204">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4534,13 +4534,13 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E205">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4554,13 +4554,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E206">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4574,13 +4574,13 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D207" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E207">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4594,16 +4594,16 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D208" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F208">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4614,16 +4614,16 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D209" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E209">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4634,13 +4634,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4654,16 +4654,16 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F211">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4674,16 +4674,16 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4694,13 +4694,13 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E214">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4734,13 +4734,13 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E215">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4754,16 +4754,16 @@
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E216">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F216">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4774,16 +4774,16 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E217">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4794,13 +4794,13 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E218">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4814,13 +4814,13 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E219">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4831,19 +4831,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C220">
-        <v>1332</v>
+        <v>210</v>
       </c>
       <c r="D220" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E220">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4854,16 +4854,16 @@
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F221">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4874,13 +4874,13 @@
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D222" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E222">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4894,16 +4894,16 @@
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E223">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4914,16 +4914,16 @@
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E224">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F224">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4934,13 +4934,13 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4954,16 +4954,16 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E226">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4974,13 +4974,13 @@
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E227">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4994,13 +4994,13 @@
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E228">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5014,16 +5014,16 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D229" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E229">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F229">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5034,13 +5034,13 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E230">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5054,16 +5054,16 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D231" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E231">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5074,13 +5074,13 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E232">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5094,13 +5094,13 @@
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D233" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E233">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -5114,16 +5114,16 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F234">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5131,19 +5131,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C235">
-        <v>5866</v>
+        <v>210</v>
       </c>
       <c r="D235" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E235">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5154,13 +5154,13 @@
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D236" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E236">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5174,16 +5174,16 @@
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E237">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5194,13 +5194,13 @@
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5214,13 +5214,13 @@
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E239">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5234,16 +5234,16 @@
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>3780</v>
+        <v>5330</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E240">
-        <v>3780</v>
+        <v>4584</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5251,19 +5251,19 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C241">
-        <v>210</v>
+        <v>4316</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F241">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5271,19 +5271,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C242">
-        <v>210</v>
+        <v>4048</v>
       </c>
       <c r="D242" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F242">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5294,13 +5294,13 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E243">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5314,16 +5314,16 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E244">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F244">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5334,16 +5334,16 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E245">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5354,13 +5354,13 @@
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D246" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E246">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5371,19 +5371,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C247">
-        <v>210</v>
+        <v>1868</v>
       </c>
       <c r="D247" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F247">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5417,7 +5417,7 @@
         <v>1332</v>
       </c>
       <c r="D249" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E249">
         <v>1332</v>
@@ -5437,7 +5437,7 @@
         <v>1064</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -5511,19 +5511,19 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C254">
-        <v>210</v>
+        <v>4316</v>
       </c>
       <c r="D254" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F254">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5534,13 +5534,13 @@
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E255">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -5551,19 +5551,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C256">
-        <v>210</v>
+        <v>3780</v>
       </c>
       <c r="D256" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F256">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5574,13 +5574,13 @@
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D257" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E257">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5594,16 +5594,16 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D258" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E258">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5614,13 +5614,13 @@
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E259">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5634,16 +5634,16 @@
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D260" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E260">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F260">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5651,19 +5651,19 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C261">
-        <v>210</v>
+        <v>1600</v>
       </c>
       <c r="D261" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F261">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5674,13 +5674,13 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D262" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E262">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5694,16 +5694,16 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D263" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E263">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5714,13 +5714,13 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D264" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5734,13 +5734,13 @@
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D265" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E265">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5754,16 +5754,16 @@
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D266" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F266">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5771,19 +5771,19 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C267">
-        <v>210</v>
+        <v>4316</v>
       </c>
       <c r="D267" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F267">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5794,13 +5794,13 @@
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D268" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E268">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D269" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E269">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5834,16 +5834,16 @@
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D270" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E270">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F270">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5854,16 +5854,16 @@
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D271" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E271">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5874,13 +5874,13 @@
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D272" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E272">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5894,13 +5894,13 @@
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D273" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E273">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D274" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E274">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5934,16 +5934,16 @@
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D275" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E275">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F275">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5954,16 +5954,16 @@
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D276" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E276">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5974,13 +5974,13 @@
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D277" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E277">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -5994,13 +5994,13 @@
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D278" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E278">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6014,16 +6014,16 @@
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D279" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E279">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6034,16 +6034,16 @@
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D280" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F280">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6054,13 +6054,13 @@
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D281" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E281">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6074,13 +6074,13 @@
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D282" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E282">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6094,16 +6094,16 @@
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D283" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E283">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F283">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6114,16 +6114,16 @@
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D284" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E284">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6134,13 +6134,13 @@
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D285" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E285">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D286" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E286">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -6174,13 +6174,13 @@
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D287" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E287">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6194,16 +6194,16 @@
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D288" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E288">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F288">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6214,16 +6214,16 @@
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D289" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E289">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6234,13 +6234,13 @@
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D290" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E290">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -6254,13 +6254,13 @@
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D291" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E291">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -6274,16 +6274,16 @@
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D292" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E292">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6294,16 +6294,16 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D293" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F293">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6314,13 +6314,13 @@
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D294" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E294">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6334,13 +6334,13 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D295" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E295">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6354,16 +6354,16 @@
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D296" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E296">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F296">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6374,16 +6374,16 @@
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D297" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E297">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6394,13 +6394,13 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D298" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E298">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6411,19 +6411,19 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C299">
-        <v>3780</v>
+        <v>210</v>
       </c>
       <c r="D299" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E299">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6434,13 +6434,13 @@
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D300" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E300">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -6454,16 +6454,16 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D301" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E301">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F301">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6474,13 +6474,13 @@
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D302" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E302">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6494,16 +6494,16 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D303" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E303">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F303">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6514,13 +6514,13 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D304" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E304">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6534,13 +6534,13 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D305" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E305">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6554,16 +6554,16 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D306" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E306">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F306">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6574,13 +6574,13 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D307" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E307">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6594,13 +6594,13 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D308" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E308">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6614,16 +6614,16 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D309" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E309">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F309">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6634,13 +6634,13 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D310" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E310">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6654,16 +6654,16 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D311" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E311">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6674,13 +6674,13 @@
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D312" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E312">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6694,13 +6694,13 @@
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D313" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E313">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6711,19 +6711,19 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C314">
-        <v>3244</v>
+        <v>210</v>
       </c>
       <c r="D314" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E314">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F314">
-        <v>840</v>
+        <v>210</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6731,19 +6731,19 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C315">
-        <v>210</v>
+        <v>1600</v>
       </c>
       <c r="D315" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F315">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6754,13 +6754,13 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D316" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E316">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6774,16 +6774,16 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D317" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E317">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6794,13 +6794,13 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D318" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E318">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6814,13 +6814,13 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D319" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E319">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6834,16 +6834,16 @@
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D320" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F320">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6854,13 +6854,13 @@
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D321" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E321">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6874,13 +6874,13 @@
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D322" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E322">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6891,19 +6891,19 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C323">
-        <v>210</v>
+        <v>3780</v>
       </c>
       <c r="D323" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F323">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6914,16 +6914,16 @@
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D324" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E324">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F324">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6934,16 +6934,16 @@
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D325" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E325">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6954,13 +6954,13 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D326" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E326">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6974,13 +6974,13 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D327" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E327">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6994,13 +6994,13 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D328" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E328">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7014,16 +7014,16 @@
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D329" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E329">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F329">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7034,16 +7034,16 @@
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D330" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E330">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F330">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7051,19 +7051,19 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C331">
-        <v>1868</v>
+        <v>210</v>
       </c>
       <c r="D331" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E331">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F331">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7074,13 +7074,13 @@
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D332" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E332">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7094,13 +7094,13 @@
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D333" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E333">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7114,16 +7114,16 @@
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D334" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F334">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7134,13 +7134,13 @@
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D335" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E335">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7154,13 +7154,13 @@
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D336" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E336">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7174,16 +7174,16 @@
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D337" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E337">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F337">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7191,19 +7191,19 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C338">
-        <v>210</v>
+        <v>3512</v>
       </c>
       <c r="D338" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F338">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7214,16 +7214,16 @@
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D339" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E339">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7234,13 +7234,13 @@
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D340" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E340">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7254,13 +7254,13 @@
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D341" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E341">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7274,13 +7274,13 @@
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D342" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E342">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -7294,16 +7294,16 @@
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D343" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E343">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F343">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7314,16 +7314,16 @@
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D344" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E344">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F344">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7334,13 +7334,13 @@
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D345" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E345">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7354,13 +7354,13 @@
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D346" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E346">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -7374,16 +7374,16 @@
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D347" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E347">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F347">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7394,16 +7394,16 @@
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D348" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F348">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7414,13 +7414,13 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D349" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E349">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7434,13 +7434,13 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D350" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E350">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7454,16 +7454,16 @@
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D351" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E351">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F351">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7471,19 +7471,19 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C352">
-        <v>4316</v>
+        <v>210</v>
       </c>
       <c r="D352" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E352">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7494,16 +7494,16 @@
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D353" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E353">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7514,13 +7514,13 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D354" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E354">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7534,13 +7534,13 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D355" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E355">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7554,16 +7554,16 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D356" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E356">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F356">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7574,13 +7574,13 @@
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D357" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E357">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7594,16 +7594,16 @@
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D358" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E358">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7614,13 +7614,13 @@
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D359" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E359">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -7634,13 +7634,13 @@
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D360" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E360">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7654,16 +7654,16 @@
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D361" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F361">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7674,13 +7674,13 @@
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D362" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E362">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -7691,19 +7691,19 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C363">
-        <v>210</v>
+        <v>4048</v>
       </c>
       <c r="D363" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E363">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F363">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -7714,13 +7714,13 @@
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D364" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E364">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -7734,16 +7734,16 @@
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D365" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E365">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F365">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7754,16 +7754,16 @@
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D366" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E366">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F366">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7774,13 +7774,13 @@
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D367" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E367">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7794,13 +7794,13 @@
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D368" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E368">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7814,13 +7814,13 @@
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D369" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E369">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7834,16 +7834,16 @@
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D370" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E370">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F370">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7854,16 +7854,16 @@
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D371" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E371">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F371">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7874,13 +7874,13 @@
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D372" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E372">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -7891,19 +7891,19 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C373">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D373" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E373">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F373">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -7914,16 +7914,16 @@
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D374" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E374">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F374">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7934,13 +7934,13 @@
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="D375" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E375">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7951,19 +7951,19 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C376">
-        <v>1064</v>
+        <v>210</v>
       </c>
       <c r="D376" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E376">
         <v>0</v>
       </c>
       <c r="F376">
-        <v>1064</v>
+        <v>210</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7974,13 +7974,13 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D377" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E377">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D378" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E378">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -8014,16 +8014,16 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D379" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E379">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F379">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8034,16 +8034,16 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D380" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E380">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F380">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8054,13 +8054,13 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D381" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E381">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8074,13 +8074,13 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D382" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E382">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8094,13 +8094,13 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D383" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E383">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8114,16 +8114,16 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D384" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E384">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F384">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8134,16 +8134,16 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D385" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E385">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F385">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8154,13 +8154,13 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D386" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E386">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -8174,13 +8174,13 @@
         <v>12000</v>
       </c>
       <c r="C387">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D387" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E387">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D388" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E388">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F388">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8217,7 +8217,7 @@
         <v>210</v>
       </c>
       <c r="D389" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -8234,16 +8234,16 @@
         <v>12000</v>
       </c>
       <c r="C390">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D390" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F390">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8254,13 +8254,13 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D391" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E391">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -8274,13 +8274,13 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D392" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E392">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>12000</v>
       </c>
       <c r="C393">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D393" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E393">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F393">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8314,16 +8314,16 @@
         <v>12000</v>
       </c>
       <c r="C394">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D394" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E394">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F394">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8331,19 +8331,19 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C395">
-        <v>4048</v>
+        <v>210</v>
       </c>
       <c r="D395" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E395">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F395">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8354,13 +8354,13 @@
         <v>12000</v>
       </c>
       <c r="C396">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D396" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E396">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -8374,13 +8374,13 @@
         <v>12000</v>
       </c>
       <c r="C397">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D397" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E397">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -8394,16 +8394,16 @@
         <v>12000</v>
       </c>
       <c r="C398">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D398" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E398">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F398">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8414,13 +8414,13 @@
         <v>12000</v>
       </c>
       <c r="C399">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D399" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E399">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -8434,16 +8434,16 @@
         <v>12000</v>
       </c>
       <c r="C400">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D400" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E400">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8454,13 +8454,13 @@
         <v>12000</v>
       </c>
       <c r="C401">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D401" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E401">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -8474,13 +8474,13 @@
         <v>12000</v>
       </c>
       <c r="C402">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D402" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E402">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -8494,16 +8494,16 @@
         <v>12000</v>
       </c>
       <c r="C403">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D403" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F403">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8511,16 +8511,16 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C404">
-        <v>5866</v>
+        <v>3516</v>
       </c>
       <c r="D404" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E404">
-        <v>5866</v>
+        <v>3516</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C405">
-        <v>5598</v>
+        <v>2448</v>
       </c>
       <c r="D405" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E405">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8551,19 +8551,19 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>210</v>
+        <v>11200</v>
       </c>
       <c r="C406">
-        <v>210</v>
+        <v>1336</v>
       </c>
       <c r="D406" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F406">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8571,19 +8571,19 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C407">
-        <v>5330</v>
+        <v>268</v>
       </c>
       <c r="D407" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E407">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F407">
-        <v>746</v>
+        <v>268</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8594,16 +8594,16 @@
         <v>11200</v>
       </c>
       <c r="C408">
-        <v>3516</v>
+        <v>5066</v>
       </c>
       <c r="D408" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E408">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F408">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8614,16 +8614,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>2448</v>
+        <v>3516</v>
       </c>
       <c r="D409" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E409">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F409">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8634,16 +8634,16 @@
         <v>11200</v>
       </c>
       <c r="C410">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D410" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E410">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F410">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8654,16 +8654,16 @@
         <v>11200</v>
       </c>
       <c r="C411">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D411" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F411">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8674,16 +8674,16 @@
         <v>11200</v>
       </c>
       <c r="C412">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D412" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E412">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F412">
-        <v>482</v>
+        <v>268</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8694,16 +8694,16 @@
         <v>11200</v>
       </c>
       <c r="C413">
-        <v>3516</v>
+        <v>5066</v>
       </c>
       <c r="D413" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E413">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F413">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8714,16 +8714,16 @@
         <v>11200</v>
       </c>
       <c r="C414">
-        <v>2448</v>
+        <v>3516</v>
       </c>
       <c r="D414" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E414">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F414">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8734,16 +8734,16 @@
         <v>11200</v>
       </c>
       <c r="C415">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D415" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E415">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F415">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8754,16 +8754,16 @@
         <v>11200</v>
       </c>
       <c r="C416">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D416" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F416">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8774,16 +8774,16 @@
         <v>11200</v>
       </c>
       <c r="C417">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D417" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E417">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F417">
-        <v>482</v>
+        <v>268</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8791,19 +8791,19 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C418">
-        <v>44</v>
+        <v>3266</v>
       </c>
       <c r="D418" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E418">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F418">
-        <v>44</v>
+        <v>862</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8811,16 +8811,16 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C419">
-        <v>3516</v>
+        <v>5670</v>
       </c>
       <c r="D419" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E419">
-        <v>3516</v>
+        <v>5670</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -8831,19 +8831,19 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C420">
-        <v>2448</v>
+        <v>2802</v>
       </c>
       <c r="D420" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E420">
         <v>2404</v>
       </c>
       <c r="F420">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8851,16 +8851,16 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C421">
-        <v>1336</v>
+        <v>5670</v>
       </c>
       <c r="D421" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E421">
-        <v>1336</v>
+        <v>5670</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -8871,19 +8871,19 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C422">
-        <v>268</v>
+        <v>2802</v>
       </c>
       <c r="D422" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E422">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F422">
-        <v>268</v>
+        <v>398</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8891,19 +8891,19 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C423">
-        <v>44</v>
+        <v>5670</v>
       </c>
       <c r="D423" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>5670</v>
       </c>
       <c r="F423">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8914,16 +8914,16 @@
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>3266</v>
+        <v>2802</v>
       </c>
       <c r="D424" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E424">
         <v>2404</v>
       </c>
       <c r="F424">
-        <v>862</v>
+        <v>398</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8931,19 +8931,19 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C425">
-        <v>44</v>
+        <v>5670</v>
       </c>
       <c r="D425" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>5670</v>
       </c>
       <c r="F425">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8951,19 +8951,19 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C426">
-        <v>5670</v>
+        <v>44</v>
       </c>
       <c r="D426" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E426">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F426">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9071,19 +9071,19 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C432">
-        <v>44</v>
+        <v>5670</v>
       </c>
       <c r="D432" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>5670</v>
       </c>
       <c r="F432">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9094,16 +9094,16 @@
         <v>9400</v>
       </c>
       <c r="C433">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D433" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E433">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F433">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9114,16 +9114,16 @@
         <v>9400</v>
       </c>
       <c r="C434">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D434" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E434">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F434">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9134,16 +9134,16 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D435" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E435">
-        <v>5670</v>
+        <v>2404</v>
       </c>
       <c r="F435">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9154,16 +9154,16 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>2802</v>
+        <v>5670</v>
       </c>
       <c r="D436" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E436">
-        <v>2404</v>
+        <v>5670</v>
       </c>
       <c r="F436">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9171,19 +9171,19 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C437">
-        <v>44</v>
+        <v>2802</v>
       </c>
       <c r="D437" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F437">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9271,19 +9271,19 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C442">
-        <v>5670</v>
+        <v>44</v>
       </c>
       <c r="D442" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E442">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F442">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -9291,19 +9291,19 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C443">
-        <v>2802</v>
+        <v>44</v>
       </c>
       <c r="D443" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E443">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F443">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -9371,19 +9371,19 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C447">
-        <v>2802</v>
+        <v>44</v>
       </c>
       <c r="D447" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E447">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F447">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -9394,115 +9394,15 @@
         <v>9400</v>
       </c>
       <c r="C448">
-        <v>5670</v>
+        <v>2802</v>
       </c>
       <c r="D448" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E448">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6">
-      <c r="A449" s="1">
-        <v>447</v>
-      </c>
-      <c r="B449">
-        <v>9400</v>
-      </c>
-      <c r="C449">
-        <v>2802</v>
-      </c>
-      <c r="D449" t="s">
-        <v>23</v>
-      </c>
-      <c r="E449">
-        <v>2404</v>
-      </c>
-      <c r="F449">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6">
-      <c r="A450" s="1">
-        <v>448</v>
-      </c>
-      <c r="B450">
-        <v>9400</v>
-      </c>
-      <c r="C450">
-        <v>5670</v>
-      </c>
-      <c r="D450" t="s">
-        <v>22</v>
-      </c>
-      <c r="E450">
-        <v>5670</v>
-      </c>
-      <c r="F450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6">
-      <c r="A451" s="1">
-        <v>449</v>
-      </c>
-      <c r="B451">
-        <v>9400</v>
-      </c>
-      <c r="C451">
-        <v>2802</v>
-      </c>
-      <c r="D451" t="s">
-        <v>23</v>
-      </c>
-      <c r="E451">
-        <v>2404</v>
-      </c>
-      <c r="F451">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6">
-      <c r="A452" s="1">
-        <v>450</v>
-      </c>
-      <c r="B452">
-        <v>9400</v>
-      </c>
-      <c r="C452">
-        <v>5670</v>
-      </c>
-      <c r="D452" t="s">
-        <v>22</v>
-      </c>
-      <c r="E452">
-        <v>5670</v>
-      </c>
-      <c r="F452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6">
-      <c r="A453" s="1">
-        <v>451</v>
-      </c>
-      <c r="B453">
-        <v>9400</v>
-      </c>
-      <c r="C453">
-        <v>2802</v>
-      </c>
-      <c r="D453" t="s">
-        <v>23</v>
-      </c>
-      <c r="E453">
-        <v>0</v>
-      </c>
-      <c r="F453">
         <v>2802</v>
       </c>
     </row>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="24">
   <si>
     <t>原料长度</t>
   </si>
@@ -40,52 +40,52 @@
     <t>[536, 6134]</t>
   </si>
   <si>
-    <t>[1550, 6134]</t>
+    <t>[1650, 6134]</t>
   </si>
   <si>
-    <t>[1818, 6134]</t>
+    <t>[1918, 6134]</t>
   </si>
   <si>
-    <t>[2086, 6134]</t>
+    <t>[2186, 6134]</t>
   </si>
   <si>
-    <t>[2354, 6134]</t>
+    <t>[2454, 6134]</t>
   </si>
   <si>
-    <t>[2622, 6134]</t>
+    <t>[2722, 6134]</t>
   </si>
   <si>
-    <t>[3730, 6134]</t>
+    <t>[3830, 6134]</t>
   </si>
   <si>
-    <t>[3998, 6134]</t>
+    <t>[4098, 6134]</t>
   </si>
   <si>
-    <t>[4266, 6134]</t>
+    <t>[4366, 6134]</t>
   </si>
   <si>
-    <t>[4534, 6134]</t>
+    <t>[4634, 6134]</t>
   </si>
   <si>
-    <t>[4802, 6134]</t>
-  </si>
-  <si>
-    <t>[268]</t>
+    <t>[4902, 6134]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[2618, 6134]</t>
+    <t>[536]</t>
   </si>
   <si>
-    <t>[4798, 6134]</t>
+    <t>[2718, 6134]</t>
   </si>
   <si>
-    <t>[3730]</t>
+    <t>[4898, 6134]</t>
   </si>
   <si>
-    <t>[464, 6134]</t>
+    <t>[3830]</t>
+  </si>
+  <si>
+    <t>[4518]</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F448"/>
+  <dimension ref="A1:F444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +520,10 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>4584</v>
+        <v>4484</v>
       </c>
       <c r="F4">
-        <v>746</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -534,13 +534,13 @@
         <v>12000</v>
       </c>
       <c r="C5">
-        <v>4316</v>
+        <v>4216</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>4316</v>
+        <v>4216</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -554,13 +554,13 @@
         <v>12000</v>
       </c>
       <c r="C6">
-        <v>4048</v>
+        <v>3948</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>4048</v>
+        <v>3948</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -574,13 +574,13 @@
         <v>12000</v>
       </c>
       <c r="C7">
-        <v>3780</v>
+        <v>3680</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>3780</v>
+        <v>3680</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>12000</v>
       </c>
       <c r="C8">
-        <v>3512</v>
+        <v>3412</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8">
-        <v>3512</v>
+        <v>3412</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -614,13 +614,13 @@
         <v>12000</v>
       </c>
       <c r="C9">
-        <v>3244</v>
+        <v>3144</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>2404</v>
+        <v>2304</v>
       </c>
       <c r="F9">
         <v>840</v>
@@ -634,13 +634,13 @@
         <v>12000</v>
       </c>
       <c r="C10">
-        <v>2136</v>
+        <v>2036</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10">
-        <v>2136</v>
+        <v>2036</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>1868</v>
+        <v>1768</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11">
-        <v>1868</v>
+        <v>1768</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>12000</v>
       </c>
       <c r="C13">
-        <v>1332</v>
+        <v>1232</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13">
-        <v>1332</v>
+        <v>1232</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>1064</v>
+        <v>964</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1064</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -751,19 +751,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C16">
-        <v>478</v>
+        <v>5598</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F16">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -774,16 +774,16 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -794,13 +794,13 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>4584</v>
+        <v>3948</v>
       </c>
       <c r="F19">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -834,13 +834,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3780</v>
+        <v>3144</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>3780</v>
+        <v>2304</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -894,13 +894,13 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -914,16 +914,16 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>3244</v>
+        <v>1768</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>2404</v>
+        <v>1768</v>
       </c>
       <c r="F24">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -934,13 +934,13 @@
         <v>12000</v>
       </c>
       <c r="C25">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -974,16 +974,16 @@
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>1600</v>
+        <v>964</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -994,13 +994,13 @@
         <v>12000</v>
       </c>
       <c r="C28">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>12000</v>
       </c>
       <c r="C29">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F29">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1034,16 +1034,16 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1054,13 +1054,13 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>4584</v>
+        <v>3948</v>
       </c>
       <c r="F32">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1094,13 +1094,13 @@
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3780</v>
+        <v>3144</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>3780</v>
+        <v>2304</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1154,13 +1154,13 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1174,16 +1174,16 @@
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>3244</v>
+        <v>1768</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>2404</v>
+        <v>1768</v>
       </c>
       <c r="F37">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1194,13 +1194,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1234,16 +1234,16 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1600</v>
+        <v>964</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1254,13 +1254,13 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1274,16 +1274,16 @@
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F42">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1294,16 +1294,16 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1311,19 +1311,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C44">
-        <v>210</v>
+        <v>4216</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F44">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1334,13 +1334,13 @@
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1351,19 +1351,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C46">
-        <v>5598</v>
+        <v>840</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1374,16 +1374,16 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>5330</v>
+        <v>3680</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>4584</v>
+        <v>3680</v>
       </c>
       <c r="F47">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1394,13 +1394,13 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>4048</v>
+        <v>3144</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>4048</v>
+        <v>2304</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1434,13 +1434,13 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1474,16 +1474,16 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>3244</v>
+        <v>1500</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>2404</v>
+        <v>1500</v>
       </c>
       <c r="F52">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1491,19 +1491,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C53">
-        <v>2136</v>
+        <v>840</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1514,13 +1514,13 @@
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>1600</v>
+        <v>964</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E55">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1554,13 +1554,13 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1574,16 +1574,16 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F57">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1594,16 +1594,16 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1614,13 +1614,13 @@
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>4584</v>
+        <v>3948</v>
       </c>
       <c r="F60">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1654,13 +1654,13 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C63">
-        <v>210</v>
+        <v>3144</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F63">
-        <v>210</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1714,13 +1714,13 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1754,16 +1754,16 @@
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>3244</v>
+        <v>1500</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>2404</v>
+        <v>1500</v>
       </c>
       <c r="F66">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1774,13 +1774,13 @@
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1794,16 +1794,16 @@
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>1868</v>
+        <v>964</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1814,13 +1814,13 @@
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1831,19 +1831,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C70">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F70">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1854,16 +1854,16 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1874,16 +1874,16 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F72">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1894,13 +1894,13 @@
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1931,19 +1931,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C75">
-        <v>210</v>
+        <v>3412</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>3412</v>
       </c>
       <c r="F75">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1954,16 +1954,16 @@
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>5330</v>
+        <v>3144</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E76">
-        <v>4584</v>
+        <v>2304</v>
       </c>
       <c r="F76">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1974,13 +1974,13 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>4316</v>
+        <v>2036</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E77">
-        <v>4316</v>
+        <v>2036</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1994,13 +1994,13 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>4048</v>
+        <v>1768</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E78">
-        <v>4048</v>
+        <v>1768</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>3780</v>
+        <v>1500</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>3780</v>
+        <v>1500</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2034,13 +2034,13 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>3512</v>
+        <v>1232</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E80">
-        <v>3512</v>
+        <v>1232</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>3244</v>
+        <v>964</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>840</v>
+        <v>964</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2074,13 +2074,13 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2094,13 +2094,13 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>1600</v>
+        <v>4484</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2131,19 +2131,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C85">
-        <v>1332</v>
+        <v>840</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E85">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2154,16 +2154,16 @@
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F86">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2174,13 +2174,13 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E87">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F89">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2234,16 +2234,16 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2254,13 +2254,13 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E91">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E92">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2294,13 +2294,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2314,16 +2314,16 @@
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E94">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F94">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2334,16 +2334,16 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2354,13 +2354,13 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E97">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E98">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2414,16 +2414,16 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F99">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2434,13 +2434,13 @@
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F102">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2494,16 +2494,16 @@
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2514,13 +2514,13 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E104">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2534,13 +2534,13 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E105">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E106">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2574,16 +2574,16 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E107">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F107">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2594,16 +2594,16 @@
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2614,13 +2614,13 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E110">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2654,16 +2654,16 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2674,16 +2674,16 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F112">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2694,13 +2694,13 @@
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E113">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2714,13 +2714,13 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2734,16 +2734,16 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F115">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2754,16 +2754,16 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E116">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2774,13 +2774,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E117">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E118">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2811,19 +2811,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C119">
-        <v>3512</v>
+        <v>840</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E119">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2834,16 +2834,16 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>3244</v>
+        <v>1500</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E120">
-        <v>2404</v>
+        <v>1500</v>
       </c>
       <c r="F120">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2854,13 +2854,13 @@
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2874,16 +2874,16 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>1868</v>
+        <v>964</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E122">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2894,13 +2894,13 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2914,13 +2914,13 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E124">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2934,16 +2934,16 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F125">
-        <v>1064</v>
+        <v>846</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2951,19 +2951,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C126">
-        <v>210</v>
+        <v>4216</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F126">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2974,13 +2974,13 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3014,16 +3014,16 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E129">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F129">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3034,16 +3034,16 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E130">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3054,13 +3054,13 @@
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E131">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E132">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3094,13 +3094,13 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E133">
-        <v>3512</v>
+        <v>1500</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3111,16 +3111,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C134">
-        <v>3244</v>
+        <v>840</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E134">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>840</v>
@@ -3134,13 +3134,13 @@
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E135">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3154,16 +3154,16 @@
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>1868</v>
+        <v>964</v>
       </c>
       <c r="D136" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E136">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3174,13 +3174,13 @@
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E137">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E138">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F139">
-        <v>1064</v>
+        <v>846</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3234,13 +3234,13 @@
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3251,19 +3251,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C141">
-        <v>5598</v>
+        <v>840</v>
       </c>
       <c r="D141" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E141">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3274,16 +3274,16 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E142">
-        <v>4584</v>
+        <v>3948</v>
       </c>
       <c r="F142">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3291,19 +3291,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C143">
-        <v>210</v>
+        <v>3680</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>3680</v>
       </c>
       <c r="F143">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3314,13 +3314,13 @@
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E144">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3334,16 +3334,16 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>4048</v>
+        <v>3144</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E145">
-        <v>4048</v>
+        <v>2304</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3354,13 +3354,13 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E146">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3374,13 +3374,13 @@
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E147">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3394,16 +3394,16 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>3244</v>
+        <v>1500</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E148">
-        <v>2404</v>
+        <v>1500</v>
       </c>
       <c r="F148">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3414,13 +3414,13 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E149">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>1868</v>
+        <v>964</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E150">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3454,13 +3454,13 @@
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D152" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E152">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3494,16 +3494,16 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F153">
-        <v>1064</v>
+        <v>846</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3514,13 +3514,13 @@
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E154">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3534,13 +3534,13 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="D155" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>5330</v>
+        <v>3680</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E156">
-        <v>4584</v>
+        <v>3680</v>
       </c>
       <c r="F156">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3574,13 +3574,13 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E157">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>4048</v>
+        <v>3144</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E158">
-        <v>4048</v>
+        <v>2304</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3611,19 +3611,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C159">
-        <v>3780</v>
+        <v>840</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E159">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3634,13 +3634,13 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E160">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3654,16 +3654,16 @@
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>3244</v>
+        <v>1768</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E161">
-        <v>2404</v>
+        <v>1768</v>
       </c>
       <c r="F161">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3674,13 +3674,13 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E162">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C163">
-        <v>210</v>
+        <v>1232</v>
       </c>
       <c r="D163" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F163">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3714,16 +3714,16 @@
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>1868</v>
+        <v>964</v>
       </c>
       <c r="D164" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E164">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3731,19 +3731,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C165">
-        <v>1600</v>
+        <v>840</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E165">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3754,13 +3754,13 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3774,16 +3774,16 @@
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F167">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3794,16 +3794,16 @@
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E168">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3814,13 +3814,13 @@
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="D169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E169">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3834,16 +3834,16 @@
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E170">
-        <v>4584</v>
+        <v>3948</v>
       </c>
       <c r="F170">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3854,13 +3854,13 @@
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="D171" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E171">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3874,13 +3874,13 @@
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E172">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3894,16 +3894,16 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>3780</v>
+        <v>3144</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E173">
-        <v>3780</v>
+        <v>2304</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3914,13 +3914,13 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E174">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3934,16 +3934,16 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>3244</v>
+        <v>1768</v>
       </c>
       <c r="D175" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E175">
-        <v>2404</v>
+        <v>1768</v>
       </c>
       <c r="F175">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3954,13 +3954,13 @@
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E176">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="D177" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E177">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3994,16 +3994,16 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>1600</v>
+        <v>964</v>
       </c>
       <c r="D178" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E178">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4011,19 +4011,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C179">
-        <v>210</v>
+        <v>5866</v>
       </c>
       <c r="D179" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F179">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4034,13 +4034,13 @@
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E180">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D181" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F181">
-        <v>1064</v>
+        <v>846</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4074,13 +4074,13 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E182">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4094,13 +4094,13 @@
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="D183" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E183">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4114,16 +4114,16 @@
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>5330</v>
+        <v>3680</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E184">
-        <v>4584</v>
+        <v>3680</v>
       </c>
       <c r="F184">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4134,13 +4134,13 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E185">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4154,16 +4154,16 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>4048</v>
+        <v>3144</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E186">
-        <v>4048</v>
+        <v>2304</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4174,13 +4174,13 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E187">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="D188" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E188">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4214,16 +4214,16 @@
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>3244</v>
+        <v>1500</v>
       </c>
       <c r="D189" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E189">
-        <v>2404</v>
+        <v>1500</v>
       </c>
       <c r="F189">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4234,13 +4234,13 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E190">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4254,16 +4254,16 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>1868</v>
+        <v>964</v>
       </c>
       <c r="D191" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E191">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4271,19 +4271,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C192">
-        <v>210</v>
+        <v>5866</v>
       </c>
       <c r="D192" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F192">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4294,13 +4294,13 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D193" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E193">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4314,16 +4314,16 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4334,16 +4334,16 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D195" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F195">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4351,19 +4351,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C196">
-        <v>5866</v>
+        <v>840</v>
       </c>
       <c r="D196" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E196">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4374,13 +4374,13 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="D197" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E197">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4394,16 +4394,16 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>5330</v>
+        <v>3680</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E198">
-        <v>4584</v>
+        <v>3680</v>
       </c>
       <c r="F198">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4414,13 +4414,13 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E199">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4434,16 +4434,16 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>4048</v>
+        <v>3144</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E200">
-        <v>4048</v>
+        <v>2304</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4454,13 +4454,13 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E201">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4474,13 +4474,13 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E202">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4491,19 +4491,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C203">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="D203" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F203">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4514,16 +4514,16 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>3244</v>
+        <v>1232</v>
       </c>
       <c r="D204" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E204">
-        <v>2404</v>
+        <v>1232</v>
       </c>
       <c r="F204">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4534,16 +4534,16 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>2136</v>
+        <v>964</v>
       </c>
       <c r="D205" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E205">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4554,13 +4554,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D206" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4574,13 +4574,13 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E207">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4594,16 +4594,16 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E208">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4614,16 +4614,16 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>1064</v>
+        <v>4216</v>
       </c>
       <c r="D209" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F209">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4634,13 +4634,13 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D210" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4654,13 +4654,13 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D211" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E211">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -4674,16 +4674,16 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>4584</v>
+        <v>3412</v>
       </c>
       <c r="F212">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4694,16 +4694,16 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>4316</v>
+        <v>3144</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E213">
-        <v>4316</v>
+        <v>2304</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4714,13 +4714,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E214">
-        <v>4048</v>
+        <v>2036</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4734,13 +4734,13 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E215">
-        <v>3780</v>
+        <v>1768</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4751,19 +4751,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C216">
-        <v>3512</v>
+        <v>840</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E216">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4774,16 +4774,16 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>3244</v>
+        <v>1500</v>
       </c>
       <c r="D217" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E217">
-        <v>2404</v>
+        <v>1500</v>
       </c>
       <c r="F217">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4794,13 +4794,13 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="D218" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E218">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4814,16 +4814,16 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>1868</v>
+        <v>964</v>
       </c>
       <c r="D219" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E219">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4831,19 +4831,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C220">
-        <v>210</v>
+        <v>5866</v>
       </c>
       <c r="D220" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F220">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4854,13 +4854,13 @@
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D221" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4874,16 +4874,16 @@
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D222" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E222">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4891,19 +4891,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C223">
-        <v>1064</v>
+        <v>840</v>
       </c>
       <c r="D223" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4914,13 +4914,13 @@
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="D224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E224">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4934,13 +4934,13 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="D225" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E225">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4954,16 +4954,16 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>5330</v>
+        <v>3680</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E226">
-        <v>4584</v>
+        <v>3680</v>
       </c>
       <c r="F226">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4974,13 +4974,13 @@
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="D227" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E227">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4994,16 +4994,16 @@
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>4048</v>
+        <v>3144</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E228">
-        <v>4048</v>
+        <v>2304</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5014,13 +5014,13 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E229">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -5034,13 +5034,13 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="D230" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E230">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5054,16 +5054,16 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>3244</v>
+        <v>1500</v>
       </c>
       <c r="D231" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E231">
-        <v>2404</v>
+        <v>1500</v>
       </c>
       <c r="F231">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5074,13 +5074,13 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="D232" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E232">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5094,16 +5094,16 @@
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>1868</v>
+        <v>964</v>
       </c>
       <c r="D233" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E233">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5114,13 +5114,13 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D234" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5131,19 +5131,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C235">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D235" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F235">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5154,16 +5154,16 @@
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D236" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E236">
-        <v>1332</v>
+        <v>4484</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5171,19 +5171,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C237">
-        <v>1064</v>
+        <v>840</v>
       </c>
       <c r="D237" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E237">
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5194,13 +5194,13 @@
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="D238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E238">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5214,13 +5214,13 @@
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="D239" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E239">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5234,16 +5234,16 @@
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>5330</v>
+        <v>3680</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>4584</v>
+        <v>3680</v>
       </c>
       <c r="F240">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5254,13 +5254,13 @@
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E241">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5274,16 +5274,16 @@
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>4048</v>
+        <v>3144</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E242">
-        <v>4048</v>
+        <v>2304</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5294,13 +5294,13 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="D243" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E243">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5314,13 +5314,13 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E244">
-        <v>3512</v>
+        <v>1768</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5334,16 +5334,16 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>3244</v>
+        <v>1500</v>
       </c>
       <c r="D245" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E245">
-        <v>2404</v>
+        <v>1500</v>
       </c>
       <c r="F245">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5354,13 +5354,13 @@
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="D246" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E246">
-        <v>2136</v>
+        <v>1232</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5374,16 +5374,16 @@
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>1868</v>
+        <v>964</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E247">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5394,13 +5394,13 @@
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E248">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5414,13 +5414,13 @@
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D249" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E249">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5434,16 +5434,16 @@
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D250" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F250">
-        <v>1064</v>
+        <v>846</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5454,13 +5454,13 @@
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="D251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E251">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -5474,13 +5474,13 @@
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="D252" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E252">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>5330</v>
+        <v>3680</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E253">
-        <v>4584</v>
+        <v>3680</v>
       </c>
       <c r="F253">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5514,13 +5514,13 @@
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="D254" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E254">
-        <v>4316</v>
+        <v>3412</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5534,16 +5534,16 @@
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>4048</v>
+        <v>3144</v>
       </c>
       <c r="D255" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E255">
-        <v>4048</v>
+        <v>2304</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5554,13 +5554,13 @@
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="D256" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E256">
-        <v>3780</v>
+        <v>2036</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5571,19 +5571,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C257">
-        <v>3512</v>
+        <v>840</v>
       </c>
       <c r="D257" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E257">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5594,16 +5594,16 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>3244</v>
+        <v>1768</v>
       </c>
       <c r="D258" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E258">
-        <v>2404</v>
+        <v>1768</v>
       </c>
       <c r="F258">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5614,13 +5614,13 @@
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="D259" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E259">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5634,13 +5634,13 @@
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="D260" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E260">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -5654,16 +5654,16 @@
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>1600</v>
+        <v>964</v>
       </c>
       <c r="D261" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E261">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5674,13 +5674,13 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D262" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5694,16 +5694,16 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D263" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F263">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5714,16 +5714,16 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D264" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E264">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5734,13 +5734,13 @@
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="D265" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E265">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5754,16 +5754,16 @@
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D266" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E266">
-        <v>4584</v>
+        <v>3948</v>
       </c>
       <c r="F266">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5774,13 +5774,13 @@
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="D267" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E267">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5794,13 +5794,13 @@
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="D268" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E268">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5814,16 +5814,16 @@
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>3780</v>
+        <v>3144</v>
       </c>
       <c r="D269" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E269">
-        <v>3780</v>
+        <v>2304</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5834,13 +5834,13 @@
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="D270" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E270">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5854,16 +5854,16 @@
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>3244</v>
+        <v>1768</v>
       </c>
       <c r="D271" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E271">
-        <v>2404</v>
+        <v>1768</v>
       </c>
       <c r="F271">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5874,13 +5874,13 @@
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="D272" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E272">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5894,13 +5894,13 @@
         <v>12000</v>
       </c>
       <c r="C273">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="D273" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E273">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5914,16 +5914,16 @@
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>1600</v>
+        <v>964</v>
       </c>
       <c r="D274" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E274">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5934,13 +5934,13 @@
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D275" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E275">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5954,16 +5954,16 @@
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D276" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F276">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5974,16 +5974,16 @@
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D277" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E277">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5994,13 +5994,13 @@
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="D278" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E278">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6014,16 +6014,16 @@
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D279" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E279">
-        <v>4584</v>
+        <v>3948</v>
       </c>
       <c r="F279">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6034,13 +6034,13 @@
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="D280" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E280">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6054,13 +6054,13 @@
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="D281" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E281">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6074,16 +6074,16 @@
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>3780</v>
+        <v>3144</v>
       </c>
       <c r="D282" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E282">
-        <v>3780</v>
+        <v>2304</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6094,13 +6094,13 @@
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="D283" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E283">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6114,16 +6114,16 @@
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>3244</v>
+        <v>1768</v>
       </c>
       <c r="D284" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E284">
-        <v>2404</v>
+        <v>1768</v>
       </c>
       <c r="F284">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6134,13 +6134,13 @@
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="D285" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E285">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="D286" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E286">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -6174,16 +6174,16 @@
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>1600</v>
+        <v>964</v>
       </c>
       <c r="D287" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E287">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6194,13 +6194,13 @@
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D288" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E288">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6214,16 +6214,16 @@
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D289" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F289">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6234,16 +6234,16 @@
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D290" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E290">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F290">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6251,19 +6251,19 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C291">
-        <v>5598</v>
+        <v>840</v>
       </c>
       <c r="D291" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E291">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6274,16 +6274,16 @@
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>5330</v>
+        <v>4216</v>
       </c>
       <c r="D292" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E292">
-        <v>4584</v>
+        <v>4216</v>
       </c>
       <c r="F292">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6294,13 +6294,13 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="D293" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E293">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="D294" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E294">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6334,13 +6334,13 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="D295" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E295">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6354,16 +6354,16 @@
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>3512</v>
+        <v>3144</v>
       </c>
       <c r="D296" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E296">
-        <v>3512</v>
+        <v>2304</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6371,16 +6371,16 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C297">
-        <v>3244</v>
+        <v>840</v>
       </c>
       <c r="D297" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E297">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F297">
         <v>840</v>
@@ -6394,13 +6394,13 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>2136</v>
+        <v>2036</v>
       </c>
       <c r="D298" t="s">
         <v>13</v>
       </c>
       <c r="E298">
-        <v>2136</v>
+        <v>2036</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6411,19 +6411,19 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C299">
-        <v>210</v>
+        <v>1768</v>
       </c>
       <c r="D299" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="F299">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6434,13 +6434,13 @@
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="D300" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E300">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -6454,13 +6454,13 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="D301" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E301">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6474,16 +6474,16 @@
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>1332</v>
+        <v>964</v>
       </c>
       <c r="D302" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E302">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6494,16 +6494,16 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D303" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F303">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6514,13 +6514,13 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D304" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E304">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6534,16 +6534,16 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D305" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E305">
-        <v>5598</v>
+        <v>4484</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6554,16 +6554,16 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>5330</v>
+        <v>4216</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E306">
-        <v>4584</v>
+        <v>4216</v>
       </c>
       <c r="F306">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6574,13 +6574,13 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="D307" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E307">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6594,13 +6594,13 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="D308" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E308">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6614,13 +6614,13 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="D309" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E309">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>3512</v>
+        <v>3144</v>
       </c>
       <c r="D310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E310">
-        <v>3512</v>
+        <v>2304</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6654,16 +6654,16 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>3244</v>
+        <v>2036</v>
       </c>
       <c r="D311" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E311">
-        <v>2404</v>
+        <v>2036</v>
       </c>
       <c r="F311">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6671,19 +6671,19 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C312">
-        <v>2136</v>
+        <v>840</v>
       </c>
       <c r="D312" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E312">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6694,13 +6694,13 @@
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>1868</v>
+        <v>1768</v>
       </c>
       <c r="D313" t="s">
         <v>14</v>
       </c>
       <c r="E313">
-        <v>1868</v>
+        <v>1768</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6711,19 +6711,19 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C314">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="D314" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F314">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6734,13 +6734,13 @@
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="D315" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E315">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6754,16 +6754,16 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>1332</v>
+        <v>964</v>
       </c>
       <c r="D316" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E316">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F316">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6774,16 +6774,16 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D317" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F317">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6794,13 +6794,13 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D318" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E318">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D319" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E319">
-        <v>5598</v>
+        <v>4484</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6834,16 +6834,16 @@
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>5330</v>
+        <v>4216</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E320">
-        <v>4584</v>
+        <v>4216</v>
       </c>
       <c r="F320">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6854,13 +6854,13 @@
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="D321" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E321">
-        <v>4316</v>
+        <v>3948</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6874,13 +6874,13 @@
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="D322" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E322">
-        <v>4048</v>
+        <v>3680</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6894,13 +6894,13 @@
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="D323" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E323">
-        <v>3780</v>
+        <v>3412</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6914,16 +6914,16 @@
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>3512</v>
+        <v>3144</v>
       </c>
       <c r="D324" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E324">
-        <v>3512</v>
+        <v>2304</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6934,16 +6934,16 @@
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>3244</v>
+        <v>2036</v>
       </c>
       <c r="D325" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E325">
-        <v>2404</v>
+        <v>2036</v>
       </c>
       <c r="F325">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6954,13 +6954,13 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="D326" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E326">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6974,13 +6974,13 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="D327" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E327">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6994,13 +6994,13 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="D328" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E328">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7014,16 +7014,16 @@
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>1332</v>
+        <v>964</v>
       </c>
       <c r="D329" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E329">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7034,16 +7034,16 @@
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D330" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F330">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7051,19 +7051,19 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C331">
-        <v>210</v>
+        <v>5598</v>
       </c>
       <c r="D331" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F331">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7074,16 +7074,16 @@
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D332" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E332">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7094,13 +7094,13 @@
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="D333" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E333">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7114,16 +7114,16 @@
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D334" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E334">
-        <v>4584</v>
+        <v>3948</v>
       </c>
       <c r="F334">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7134,13 +7134,13 @@
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="D335" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E335">
-        <v>4316</v>
+        <v>3680</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7154,13 +7154,13 @@
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="D336" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E336">
-        <v>4048</v>
+        <v>3412</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7174,16 +7174,16 @@
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>3780</v>
+        <v>3144</v>
       </c>
       <c r="D337" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E337">
-        <v>3780</v>
+        <v>2304</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7194,13 +7194,13 @@
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="D338" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E338">
-        <v>3512</v>
+        <v>2036</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7214,16 +7214,16 @@
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>3244</v>
+        <v>1768</v>
       </c>
       <c r="D339" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E339">
-        <v>2404</v>
+        <v>1768</v>
       </c>
       <c r="F339">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7234,13 +7234,13 @@
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="D340" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E340">
-        <v>2136</v>
+        <v>1500</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7254,13 +7254,13 @@
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="D341" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E341">
-        <v>1868</v>
+        <v>1232</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7271,19 +7271,19 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C342">
-        <v>1600</v>
+        <v>840</v>
       </c>
       <c r="D342" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E342">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F342">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7294,16 +7294,16 @@
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>1332</v>
+        <v>964</v>
       </c>
       <c r="D343" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E343">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7314,16 +7314,16 @@
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D344" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F344">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7334,13 +7334,13 @@
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D345" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E345">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7351,19 +7351,19 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C346">
-        <v>5598</v>
+        <v>304</v>
       </c>
       <c r="D346" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E346">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F346">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7374,16 +7374,16 @@
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D347" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E347">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F347">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7394,13 +7394,13 @@
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D348" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E348">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7414,16 +7414,16 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D349" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E349">
-        <v>4048</v>
+        <v>4484</v>
       </c>
       <c r="F349">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7434,13 +7434,13 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3780</v>
+        <v>4216</v>
       </c>
       <c r="D350" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E350">
-        <v>3780</v>
+        <v>4216</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7454,13 +7454,13 @@
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>3512</v>
+        <v>3948</v>
       </c>
       <c r="D351" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E351">
-        <v>3512</v>
+        <v>3948</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -7471,19 +7471,19 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C352">
-        <v>210</v>
+        <v>3680</v>
       </c>
       <c r="D352" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>3680</v>
       </c>
       <c r="F352">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7494,16 +7494,16 @@
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>3244</v>
+        <v>3412</v>
       </c>
       <c r="D353" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E353">
-        <v>2404</v>
+        <v>3412</v>
       </c>
       <c r="F353">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7514,16 +7514,16 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>2136</v>
+        <v>3144</v>
       </c>
       <c r="D354" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E354">
-        <v>2136</v>
+        <v>2304</v>
       </c>
       <c r="F354">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7534,13 +7534,13 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>1868</v>
+        <v>2036</v>
       </c>
       <c r="D355" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E355">
-        <v>1868</v>
+        <v>2036</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7554,13 +7554,13 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>1600</v>
+        <v>1768</v>
       </c>
       <c r="D356" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E356">
-        <v>1600</v>
+        <v>1768</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -7574,13 +7574,13 @@
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>1332</v>
+        <v>1500</v>
       </c>
       <c r="D357" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E357">
-        <v>1332</v>
+        <v>1500</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7594,16 +7594,16 @@
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>1064</v>
+        <v>1232</v>
       </c>
       <c r="D358" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F358">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7614,16 +7614,16 @@
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D359" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E359">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7634,13 +7634,13 @@
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D360" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E360">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7654,16 +7654,16 @@
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D361" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E361">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F361">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7674,16 +7674,16 @@
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D362" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E362">
-        <v>4316</v>
+        <v>4484</v>
       </c>
       <c r="F362">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7694,13 +7694,13 @@
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>4048</v>
+        <v>4216</v>
       </c>
       <c r="D363" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E363">
-        <v>4048</v>
+        <v>4216</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7714,13 +7714,13 @@
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>3780</v>
+        <v>3948</v>
       </c>
       <c r="D364" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E364">
-        <v>3780</v>
+        <v>3948</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -7734,13 +7734,13 @@
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>3512</v>
+        <v>3680</v>
       </c>
       <c r="D365" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E365">
-        <v>3512</v>
+        <v>3680</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7754,16 +7754,16 @@
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>3244</v>
+        <v>3412</v>
       </c>
       <c r="D366" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E366">
-        <v>2404</v>
+        <v>3412</v>
       </c>
       <c r="F366">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7774,16 +7774,16 @@
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>2136</v>
+        <v>3144</v>
       </c>
       <c r="D367" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E367">
-        <v>2136</v>
+        <v>2304</v>
       </c>
       <c r="F367">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7794,13 +7794,13 @@
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>1868</v>
+        <v>2036</v>
       </c>
       <c r="D368" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E368">
-        <v>1868</v>
+        <v>2036</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7814,13 +7814,13 @@
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>1600</v>
+        <v>1768</v>
       </c>
       <c r="D369" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E369">
-        <v>1600</v>
+        <v>1768</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7834,13 +7834,13 @@
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>1332</v>
+        <v>1500</v>
       </c>
       <c r="D370" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E370">
-        <v>1332</v>
+        <v>1500</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7854,16 +7854,16 @@
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>1064</v>
+        <v>1232</v>
       </c>
       <c r="D371" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F371">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7874,16 +7874,16 @@
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D372" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E372">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F372">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7891,19 +7891,19 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C373">
-        <v>5598</v>
+        <v>304</v>
       </c>
       <c r="D373" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E373">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F373">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -7914,16 +7914,16 @@
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D374" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E374">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F374">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7934,13 +7934,13 @@
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D375" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E375">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7951,19 +7951,19 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C376">
-        <v>210</v>
+        <v>5330</v>
       </c>
       <c r="D376" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E376">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F376">
-        <v>210</v>
+        <v>846</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7974,13 +7974,13 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>4048</v>
+        <v>4216</v>
       </c>
       <c r="D377" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E377">
-        <v>4048</v>
+        <v>4216</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>3780</v>
+        <v>3948</v>
       </c>
       <c r="D378" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E378">
-        <v>3780</v>
+        <v>3948</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -8014,13 +8014,13 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>3512</v>
+        <v>3680</v>
       </c>
       <c r="D379" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E379">
-        <v>3512</v>
+        <v>3680</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8034,16 +8034,16 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>3244</v>
+        <v>3412</v>
       </c>
       <c r="D380" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E380">
-        <v>2404</v>
+        <v>3412</v>
       </c>
       <c r="F380">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8054,16 +8054,16 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>2136</v>
+        <v>3144</v>
       </c>
       <c r="D381" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E381">
-        <v>2136</v>
+        <v>2304</v>
       </c>
       <c r="F381">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8074,13 +8074,13 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>1868</v>
+        <v>2036</v>
       </c>
       <c r="D382" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E382">
-        <v>1868</v>
+        <v>2036</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8094,13 +8094,13 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>1600</v>
+        <v>1768</v>
       </c>
       <c r="D383" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E383">
-        <v>1600</v>
+        <v>1768</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8114,13 +8114,13 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>1332</v>
+        <v>1500</v>
       </c>
       <c r="D384" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E384">
-        <v>1332</v>
+        <v>1500</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -8134,16 +8134,16 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>1064</v>
+        <v>1232</v>
       </c>
       <c r="D385" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F385">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8154,16 +8154,16 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D386" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E386">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F386">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8174,13 +8174,13 @@
         <v>12000</v>
       </c>
       <c r="C387">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D387" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E387">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D388" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E388">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F388">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8211,19 +8211,19 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C389">
-        <v>210</v>
+        <v>5330</v>
       </c>
       <c r="D389" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F389">
-        <v>210</v>
+        <v>846</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8234,13 +8234,13 @@
         <v>12000</v>
       </c>
       <c r="C390">
-        <v>4316</v>
+        <v>4216</v>
       </c>
       <c r="D390" t="s">
         <v>8</v>
       </c>
       <c r="E390">
-        <v>4316</v>
+        <v>4216</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8254,13 +8254,13 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>4048</v>
+        <v>3948</v>
       </c>
       <c r="D391" t="s">
         <v>9</v>
       </c>
       <c r="E391">
-        <v>4048</v>
+        <v>3948</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -8274,13 +8274,13 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>3780</v>
+        <v>3680</v>
       </c>
       <c r="D392" t="s">
         <v>10</v>
       </c>
       <c r="E392">
-        <v>3780</v>
+        <v>3680</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>12000</v>
       </c>
       <c r="C393">
-        <v>3512</v>
+        <v>3412</v>
       </c>
       <c r="D393" t="s">
         <v>11</v>
       </c>
       <c r="E393">
-        <v>3512</v>
+        <v>3412</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -8314,13 +8314,13 @@
         <v>12000</v>
       </c>
       <c r="C394">
-        <v>3244</v>
+        <v>3144</v>
       </c>
       <c r="D394" t="s">
         <v>12</v>
       </c>
       <c r="E394">
-        <v>2404</v>
+        <v>2304</v>
       </c>
       <c r="F394">
         <v>840</v>
@@ -8331,19 +8331,19 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C395">
-        <v>210</v>
+        <v>2036</v>
       </c>
       <c r="D395" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F395">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8354,13 +8354,13 @@
         <v>12000</v>
       </c>
       <c r="C396">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="D396" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E396">
-        <v>2136</v>
+        <v>1768</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -8374,13 +8374,13 @@
         <v>12000</v>
       </c>
       <c r="C397">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="D397" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E397">
-        <v>1868</v>
+        <v>1500</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -8394,13 +8394,13 @@
         <v>12000</v>
       </c>
       <c r="C398">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="D398" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E398">
-        <v>1600</v>
+        <v>1232</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -8414,16 +8414,16 @@
         <v>12000</v>
       </c>
       <c r="C399">
-        <v>1332</v>
+        <v>964</v>
       </c>
       <c r="D399" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E399">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F399">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8434,16 +8434,16 @@
         <v>12000</v>
       </c>
       <c r="C400">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D400" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E400">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F400">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8454,13 +8454,13 @@
         <v>12000</v>
       </c>
       <c r="C401">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D401" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E401">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -8474,16 +8474,16 @@
         <v>12000</v>
       </c>
       <c r="C402">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D402" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E402">
-        <v>5598</v>
+        <v>4484</v>
       </c>
       <c r="F402">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8491,19 +8491,19 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C403">
-        <v>5330</v>
+        <v>3416</v>
       </c>
       <c r="D403" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E403">
-        <v>4584</v>
+        <v>3416</v>
       </c>
       <c r="F403">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8514,16 +8514,16 @@
         <v>11200</v>
       </c>
       <c r="C404">
-        <v>3516</v>
+        <v>2348</v>
       </c>
       <c r="D404" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E404">
-        <v>3516</v>
+        <v>2304</v>
       </c>
       <c r="F404">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8534,16 +8534,16 @@
         <v>11200</v>
       </c>
       <c r="C405">
-        <v>2448</v>
+        <v>1236</v>
       </c>
       <c r="D405" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E405">
-        <v>2404</v>
+        <v>1236</v>
       </c>
       <c r="F405">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8554,16 +8554,16 @@
         <v>11200</v>
       </c>
       <c r="C406">
-        <v>1336</v>
+        <v>168</v>
       </c>
       <c r="D406" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E406">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="F406">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8574,16 +8574,16 @@
         <v>11200</v>
       </c>
       <c r="C407">
-        <v>268</v>
+        <v>5066</v>
       </c>
       <c r="D407" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E407">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F407">
-        <v>268</v>
+        <v>582</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8594,16 +8594,16 @@
         <v>11200</v>
       </c>
       <c r="C408">
-        <v>5066</v>
+        <v>3416</v>
       </c>
       <c r="D408" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E408">
-        <v>4584</v>
+        <v>3416</v>
       </c>
       <c r="F408">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8614,16 +8614,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>3516</v>
+        <v>2348</v>
       </c>
       <c r="D409" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E409">
-        <v>3516</v>
+        <v>2304</v>
       </c>
       <c r="F409">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8634,16 +8634,16 @@
         <v>11200</v>
       </c>
       <c r="C410">
-        <v>2448</v>
+        <v>1236</v>
       </c>
       <c r="D410" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E410">
-        <v>2404</v>
+        <v>1236</v>
       </c>
       <c r="F410">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8654,16 +8654,16 @@
         <v>11200</v>
       </c>
       <c r="C411">
-        <v>1336</v>
+        <v>168</v>
       </c>
       <c r="D411" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E411">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="F411">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8674,16 +8674,16 @@
         <v>11200</v>
       </c>
       <c r="C412">
-        <v>268</v>
+        <v>5066</v>
       </c>
       <c r="D412" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F412">
-        <v>268</v>
+        <v>582</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8694,16 +8694,16 @@
         <v>11200</v>
       </c>
       <c r="C413">
-        <v>5066</v>
+        <v>3416</v>
       </c>
       <c r="D413" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E413">
-        <v>4584</v>
+        <v>3416</v>
       </c>
       <c r="F413">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8714,16 +8714,16 @@
         <v>11200</v>
       </c>
       <c r="C414">
-        <v>3516</v>
+        <v>2348</v>
       </c>
       <c r="D414" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E414">
-        <v>3516</v>
+        <v>2304</v>
       </c>
       <c r="F414">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8734,16 +8734,16 @@
         <v>11200</v>
       </c>
       <c r="C415">
-        <v>2448</v>
+        <v>1236</v>
       </c>
       <c r="D415" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E415">
-        <v>2404</v>
+        <v>1236</v>
       </c>
       <c r="F415">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8754,16 +8754,16 @@
         <v>11200</v>
       </c>
       <c r="C416">
-        <v>1336</v>
+        <v>168</v>
       </c>
       <c r="D416" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E416">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="F416">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8771,19 +8771,19 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C417">
-        <v>268</v>
+        <v>3266</v>
       </c>
       <c r="D417" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E417">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F417">
-        <v>268</v>
+        <v>962</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8794,16 +8794,16 @@
         <v>9400</v>
       </c>
       <c r="C418">
-        <v>3266</v>
+        <v>5570</v>
       </c>
       <c r="D418" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E418">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F418">
-        <v>862</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8814,13 +8814,13 @@
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D419" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E419">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -8834,13 +8834,13 @@
         <v>9400</v>
       </c>
       <c r="C420">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D420" t="s">
         <v>23</v>
       </c>
       <c r="E420">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F420">
         <v>398</v>
@@ -8854,13 +8854,13 @@
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D421" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E421">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -8874,13 +8874,13 @@
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D422" t="s">
         <v>23</v>
       </c>
       <c r="E422">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F422">
         <v>398</v>
@@ -8894,13 +8894,13 @@
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D423" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E423">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -8914,13 +8914,13 @@
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D424" t="s">
         <v>23</v>
       </c>
       <c r="E424">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F424">
         <v>398</v>
@@ -8934,13 +8934,13 @@
         <v>9400</v>
       </c>
       <c r="C425">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D425" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E425">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -8951,19 +8951,19 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C426">
-        <v>44</v>
+        <v>4882</v>
       </c>
       <c r="D426" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E426">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F426">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8971,19 +8971,19 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C427">
-        <v>2802</v>
+        <v>44</v>
       </c>
       <c r="D427" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E427">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F427">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8994,13 +8994,13 @@
         <v>9400</v>
       </c>
       <c r="C428">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D428" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E428">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -9014,13 +9014,13 @@
         <v>9400</v>
       </c>
       <c r="C429">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D429" t="s">
         <v>23</v>
       </c>
       <c r="E429">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F429">
         <v>398</v>
@@ -9034,13 +9034,13 @@
         <v>9400</v>
       </c>
       <c r="C430">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D430" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E430">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -9054,13 +9054,13 @@
         <v>9400</v>
       </c>
       <c r="C431">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D431" t="s">
         <v>23</v>
       </c>
       <c r="E431">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F431">
         <v>398</v>
@@ -9074,13 +9074,13 @@
         <v>9400</v>
       </c>
       <c r="C432">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D432" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E432">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -9094,13 +9094,13 @@
         <v>9400</v>
       </c>
       <c r="C433">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D433" t="s">
         <v>23</v>
       </c>
       <c r="E433">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F433">
         <v>398</v>
@@ -9114,13 +9114,13 @@
         <v>9400</v>
       </c>
       <c r="C434">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D434" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E434">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -9134,13 +9134,13 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D435" t="s">
         <v>23</v>
       </c>
       <c r="E435">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F435">
         <v>398</v>
@@ -9154,13 +9154,13 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D436" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E436">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -9174,13 +9174,13 @@
         <v>9400</v>
       </c>
       <c r="C437">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D437" t="s">
         <v>23</v>
       </c>
       <c r="E437">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F437">
         <v>398</v>
@@ -9194,13 +9194,13 @@
         <v>9400</v>
       </c>
       <c r="C438">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D438" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E438">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -9214,13 +9214,13 @@
         <v>9400</v>
       </c>
       <c r="C439">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D439" t="s">
         <v>23</v>
       </c>
       <c r="E439">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F439">
         <v>398</v>
@@ -9234,13 +9234,13 @@
         <v>9400</v>
       </c>
       <c r="C440">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D440" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E440">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         <v>9400</v>
       </c>
       <c r="C441">
-        <v>2802</v>
+        <v>4882</v>
       </c>
       <c r="D441" t="s">
         <v>23</v>
       </c>
       <c r="E441">
-        <v>2404</v>
+        <v>4484</v>
       </c>
       <c r="F441">
         <v>398</v>
@@ -9271,19 +9271,19 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C442">
-        <v>44</v>
+        <v>1616</v>
       </c>
       <c r="D442" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E442">
-        <v>0</v>
+        <v>1616</v>
       </c>
       <c r="F442">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -9291,19 +9291,19 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C443">
-        <v>44</v>
+        <v>4882</v>
       </c>
       <c r="D443" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E443">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F443">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -9314,96 +9314,16 @@
         <v>9400</v>
       </c>
       <c r="C444">
-        <v>5670</v>
+        <v>1616</v>
       </c>
       <c r="D444" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E444">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="F444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445">
-        <v>9400</v>
-      </c>
-      <c r="C445">
-        <v>2802</v>
-      </c>
-      <c r="D445" t="s">
-        <v>23</v>
-      </c>
-      <c r="E445">
-        <v>2404</v>
-      </c>
-      <c r="F445">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446">
-        <v>9400</v>
-      </c>
-      <c r="C446">
-        <v>5670</v>
-      </c>
-      <c r="D446" t="s">
-        <v>22</v>
-      </c>
-      <c r="E446">
-        <v>5670</v>
-      </c>
-      <c r="F446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="B447">
-        <v>44</v>
-      </c>
-      <c r="C447">
-        <v>44</v>
-      </c>
-      <c r="D447" t="s">
-        <v>19</v>
-      </c>
-      <c r="E447">
-        <v>0</v>
-      </c>
-      <c r="F447">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6">
-      <c r="A448" s="1">
-        <v>446</v>
-      </c>
-      <c r="B448">
-        <v>9400</v>
-      </c>
-      <c r="C448">
-        <v>2802</v>
-      </c>
-      <c r="D448" t="s">
-        <v>23</v>
-      </c>
-      <c r="E448">
-        <v>0</v>
-      </c>
-      <c r="F448">
-        <v>2802</v>
+        <v>1616</v>
       </c>
     </row>
   </sheetData>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="24">
   <si>
     <t>原料长度</t>
   </si>
@@ -73,7 +73,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[536]</t>
+    <t>[268]</t>
   </si>
   <si>
     <t>[2718, 6134]</t>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F444"/>
+  <dimension ref="A1:F441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,19 +991,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C28">
-        <v>5866</v>
+        <v>840</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E28">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1014,13 +1014,13 @@
         <v>12000</v>
       </c>
       <c r="C29">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F30">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1054,16 +1054,16 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1074,13 +1074,13 @@
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1094,13 +1094,13 @@
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F35">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1154,16 +1154,16 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1174,13 +1174,13 @@
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1234,16 +1234,16 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F40">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1254,16 +1254,16 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E41">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1274,13 +1274,13 @@
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F43">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1314,16 +1314,16 @@
         <v>12000</v>
       </c>
       <c r="C44">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1331,19 +1331,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C45">
-        <v>3948</v>
+        <v>840</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E45">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1351,19 +1351,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C46">
-        <v>840</v>
+        <v>4216</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F46">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1374,13 +1374,13 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F49">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1434,16 +1434,16 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1454,13 +1454,13 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1474,13 +1474,13 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1491,19 +1491,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C53">
-        <v>840</v>
+        <v>1500</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F53">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1531,19 +1531,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C55">
-        <v>964</v>
+        <v>840</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>964</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1554,16 +1554,16 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E56">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1574,13 +1574,13 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1594,16 +1594,16 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F58">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1614,16 +1614,16 @@
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1634,13 +1634,13 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F63">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1714,16 +1714,16 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1734,13 +1734,13 @@
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1754,13 +1754,13 @@
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>12000</v>
       </c>
       <c r="C67">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1794,16 +1794,16 @@
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F68">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1811,19 +1811,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C69">
-        <v>5866</v>
+        <v>840</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1834,16 +1834,16 @@
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1854,16 +1854,16 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F71">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1874,13 +1874,13 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E72">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>12000</v>
       </c>
       <c r="C73">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E73">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1914,13 +1914,13 @@
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1954,16 +1954,16 @@
         <v>12000</v>
       </c>
       <c r="C76">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F76">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1974,13 +1974,13 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E77">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1994,16 +1994,16 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2014,13 +2014,13 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E79">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2034,13 +2034,13 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E80">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F81">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2074,13 +2074,13 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2094,16 +2094,16 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2114,16 +2114,16 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F84">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2134,16 +2134,16 @@
         <v>840</v>
       </c>
       <c r="C85">
-        <v>840</v>
+        <v>572</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>840</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2154,13 +2154,13 @@
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E87">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>3680</v>
+        <v>5330</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>3680</v>
+        <v>4484</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2214,13 +2214,13 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E89">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>3144</v>
+        <v>3948</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>2304</v>
+        <v>3948</v>
       </c>
       <c r="F90">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2254,13 +2254,13 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2294,16 +2294,16 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>1500</v>
+        <v>3144</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E93">
-        <v>1500</v>
+        <v>2304</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2314,13 +2314,13 @@
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>1232</v>
+        <v>2036</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E94">
-        <v>1232</v>
+        <v>2036</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>964</v>
+        <v>1768</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="F95">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2354,13 +2354,13 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E96">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E97">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>5330</v>
+        <v>964</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E98">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>846</v>
+        <v>964</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2414,13 +2414,13 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2434,13 +2434,13 @@
         <v>12000</v>
       </c>
       <c r="C100">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>3680</v>
+        <v>5330</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E101">
-        <v>3680</v>
+        <v>4484</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2474,13 +2474,13 @@
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2494,16 +2494,16 @@
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>3144</v>
+        <v>3948</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>2304</v>
+        <v>3948</v>
       </c>
       <c r="F103">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2514,13 +2514,13 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2534,13 +2534,13 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E105">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>1500</v>
+        <v>3144</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E106">
-        <v>1500</v>
+        <v>2304</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2574,13 +2574,13 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>1232</v>
+        <v>2036</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E107">
-        <v>1232</v>
+        <v>2036</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2591,19 +2591,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C108">
-        <v>964</v>
+        <v>572</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>964</v>
+        <v>572</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2614,13 +2614,13 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E109">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2654,16 +2654,16 @@
         <v>12000</v>
       </c>
       <c r="C111">
-        <v>5330</v>
+        <v>1232</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>4484</v>
+        <v>1232</v>
       </c>
       <c r="F111">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2674,16 +2674,16 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>4216</v>
+        <v>964</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E112">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2694,13 +2694,13 @@
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2714,13 +2714,13 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2734,16 +2734,16 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E115">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2754,16 +2754,16 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F116">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2774,13 +2774,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E118">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2811,10 +2811,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>840</v>
+        <v>572</v>
       </c>
       <c r="C119">
-        <v>840</v>
+        <v>572</v>
       </c>
       <c r="D119" t="s">
         <v>18</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>840</v>
+        <v>572</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2834,13 +2834,13 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E120">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2854,16 +2854,16 @@
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E121">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2874,16 +2874,16 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F122">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2894,13 +2894,13 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E123">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2914,13 +2914,13 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="D124" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E124">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2934,16 +2934,16 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>5330</v>
+        <v>1232</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E125">
-        <v>4484</v>
+        <v>1232</v>
       </c>
       <c r="F125">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2954,16 +2954,16 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>4216</v>
+        <v>964</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E126">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2971,19 +2971,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C127">
-        <v>3948</v>
+        <v>572</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E127">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2994,13 +2994,13 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3014,13 +3014,13 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E129">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>3144</v>
+        <v>5330</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E130">
-        <v>2304</v>
+        <v>4484</v>
       </c>
       <c r="F130">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3051,19 +3051,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C131">
-        <v>2036</v>
+        <v>572</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E131">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3074,13 +3074,13 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>1768</v>
+        <v>4216</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>1768</v>
+        <v>4216</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3094,13 +3094,13 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>1500</v>
+        <v>3948</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E133">
-        <v>1500</v>
+        <v>3948</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3111,19 +3111,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C134">
-        <v>840</v>
+        <v>3680</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>3680</v>
       </c>
       <c r="F134">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3134,13 +3134,13 @@
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E135">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3154,16 +3154,16 @@
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>964</v>
+        <v>3144</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F136">
-        <v>964</v>
+        <v>840</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3174,13 +3174,13 @@
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E137">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="D138" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E138">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>12000</v>
       </c>
       <c r="C139">
-        <v>5330</v>
+        <v>1500</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E139">
-        <v>4484</v>
+        <v>1500</v>
       </c>
       <c r="F139">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3234,13 +3234,13 @@
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E140">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3251,19 +3251,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C141">
-        <v>840</v>
+        <v>964</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>840</v>
+        <v>964</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3274,13 +3274,13 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3294,13 +3294,13 @@
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E144">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3334,16 +3334,16 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E145">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F145">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3351,19 +3351,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C146">
-        <v>2036</v>
+        <v>572</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E146">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3374,13 +3374,13 @@
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E147">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3394,13 +3394,13 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E148">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3414,13 +3414,13 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E149">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>964</v>
+        <v>3144</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F150">
-        <v>964</v>
+        <v>840</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3454,13 +3454,13 @@
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E151">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>12000</v>
       </c>
       <c r="C152">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="D152" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E152">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3494,16 +3494,16 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>5330</v>
+        <v>1500</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E153">
-        <v>4484</v>
+        <v>1500</v>
       </c>
       <c r="F153">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3514,13 +3514,13 @@
         <v>12000</v>
       </c>
       <c r="C154">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E154">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3534,16 +3534,16 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>3948</v>
+        <v>964</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E155">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3554,13 +3554,13 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E156">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3574,13 +3574,13 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="D157" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>12000</v>
       </c>
       <c r="C158">
-        <v>3144</v>
+        <v>5330</v>
       </c>
       <c r="D158" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E158">
-        <v>2304</v>
+        <v>4484</v>
       </c>
       <c r="F158">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3611,19 +3611,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C159">
-        <v>840</v>
+        <v>4216</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F159">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3634,13 +3634,13 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E160">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3654,13 +3654,13 @@
         <v>12000</v>
       </c>
       <c r="C161">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D161" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E161">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3674,13 +3674,13 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3694,16 +3694,16 @@
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E163">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3714,16 +3714,16 @@
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D164" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F164">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3731,19 +3731,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C165">
-        <v>840</v>
+        <v>1768</v>
       </c>
       <c r="D165" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="F165">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3754,13 +3754,13 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="D166" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E166">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3774,13 +3774,13 @@
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="D167" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E167">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>5330</v>
+        <v>964</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E168">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>846</v>
+        <v>964</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3814,13 +3814,13 @@
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E169">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E170">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3854,16 +3854,16 @@
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>3680</v>
+        <v>5330</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E171">
-        <v>3680</v>
+        <v>4484</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3874,13 +3874,13 @@
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E172">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3894,16 +3894,16 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>3144</v>
+        <v>3948</v>
       </c>
       <c r="D173" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E173">
-        <v>2304</v>
+        <v>3948</v>
       </c>
       <c r="F173">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3914,13 +3914,13 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="D174" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E174">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3934,13 +3934,13 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="D175" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E175">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>1500</v>
+        <v>3144</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E176">
-        <v>1500</v>
+        <v>2304</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3974,13 +3974,13 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>1232</v>
+        <v>2036</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E177">
-        <v>1232</v>
+        <v>2036</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3994,16 +3994,16 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>964</v>
+        <v>1768</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="F178">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4014,13 +4014,13 @@
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="D179" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E179">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="D180" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E180">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>5330</v>
+        <v>964</v>
       </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E181">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>846</v>
+        <v>964</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4074,13 +4074,13 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E182">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4094,13 +4094,13 @@
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E183">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4114,16 +4114,16 @@
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>3680</v>
+        <v>5330</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E184">
-        <v>3680</v>
+        <v>4484</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4134,13 +4134,13 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E185">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4154,16 +4154,16 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>3144</v>
+        <v>3948</v>
       </c>
       <c r="D186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>2304</v>
+        <v>3948</v>
       </c>
       <c r="F186">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4174,13 +4174,13 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="D187" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="D188" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E188">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4214,16 +4214,16 @@
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>1500</v>
+        <v>3144</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E189">
-        <v>1500</v>
+        <v>2304</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4234,13 +4234,13 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>1232</v>
+        <v>2036</v>
       </c>
       <c r="D190" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E190">
-        <v>1232</v>
+        <v>2036</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4254,16 +4254,16 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>964</v>
+        <v>1768</v>
       </c>
       <c r="D191" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="F191">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4274,13 +4274,13 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="D192" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E192">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4294,13 +4294,13 @@
         <v>12000</v>
       </c>
       <c r="C193">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="D193" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E193">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4314,16 +4314,16 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>5330</v>
+        <v>964</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E194">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>846</v>
+        <v>964</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4334,13 +4334,13 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4351,19 +4351,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C196">
-        <v>840</v>
+        <v>5598</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F196">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4374,16 +4374,16 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E197">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4394,13 +4394,13 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E198">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4414,13 +4414,13 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E199">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4434,16 +4434,16 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D200" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E200">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F200">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4454,13 +4454,13 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4474,16 +4474,16 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D202" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E202">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4494,13 +4494,13 @@
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D203" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E203">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E204">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4534,16 +4534,16 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D205" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F205">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4554,13 +4554,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D206" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E206">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4574,16 +4574,16 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D207" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E207">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4594,16 +4594,16 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F208">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4614,13 +4614,13 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4634,16 +4634,16 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E210">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4651,19 +4651,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C211">
-        <v>3680</v>
+        <v>572</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E211">
-        <v>3680</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4674,13 +4674,13 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4694,16 +4694,16 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>3144</v>
+        <v>3948</v>
       </c>
       <c r="D213" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>2304</v>
+        <v>3948</v>
       </c>
       <c r="F213">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4714,13 +4714,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4734,13 +4734,13 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="D215" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E215">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4751,16 +4751,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C216">
-        <v>840</v>
+        <v>3144</v>
       </c>
       <c r="D216" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F216">
         <v>840</v>
@@ -4774,13 +4774,13 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D217" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E217">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4794,13 +4794,13 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E218">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4814,16 +4814,16 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D219" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F219">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4834,13 +4834,13 @@
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D220" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E220">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4854,16 +4854,16 @@
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D221" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E221">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4874,16 +4874,16 @@
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E222">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F222">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4891,19 +4891,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C223">
-        <v>840</v>
+        <v>5598</v>
       </c>
       <c r="D223" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F223">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4914,16 +4914,16 @@
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E224">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4934,13 +4934,13 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4954,13 +4954,13 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E226">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4974,13 +4974,13 @@
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E227">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4994,16 +4994,16 @@
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E228">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F228">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5014,16 +5014,16 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5034,13 +5034,13 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D230" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E230">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5054,13 +5054,13 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E231">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5074,13 +5074,13 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D232" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E232">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5094,16 +5094,16 @@
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F233">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5114,16 +5114,16 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D234" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E234">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5134,13 +5134,13 @@
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E235">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5154,16 +5154,16 @@
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F236">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5171,19 +5171,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C237">
-        <v>840</v>
+        <v>5330</v>
       </c>
       <c r="D237" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F237">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5571,19 +5571,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C257">
-        <v>840</v>
+        <v>1768</v>
       </c>
       <c r="D257" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="F257">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5594,13 +5594,13 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>1768</v>
+        <v>1500</v>
       </c>
       <c r="D258" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E258">
-        <v>1768</v>
+        <v>1500</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5614,13 +5614,13 @@
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>1500</v>
+        <v>1232</v>
       </c>
       <c r="D259" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E259">
-        <v>1500</v>
+        <v>1232</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5634,16 +5634,16 @@
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>1232</v>
+        <v>964</v>
       </c>
       <c r="D260" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E260">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5654,16 +5654,16 @@
         <v>12000</v>
       </c>
       <c r="C261">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D261" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F261">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5674,13 +5674,13 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D262" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E262">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5694,16 +5694,16 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D263" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E263">
-        <v>5598</v>
+        <v>4484</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5714,16 +5714,16 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>5330</v>
+        <v>4216</v>
       </c>
       <c r="D264" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E264">
-        <v>4484</v>
+        <v>4216</v>
       </c>
       <c r="F264">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5731,19 +5731,19 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C265">
-        <v>4216</v>
+        <v>572</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E265">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6251,19 +6251,19 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C291">
-        <v>840</v>
+        <v>4216</v>
       </c>
       <c r="D291" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F291">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6274,13 +6274,13 @@
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>4216</v>
+        <v>3948</v>
       </c>
       <c r="D292" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E292">
-        <v>4216</v>
+        <v>3948</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6294,13 +6294,13 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>3948</v>
+        <v>3680</v>
       </c>
       <c r="D293" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E293">
-        <v>3948</v>
+        <v>3680</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>3680</v>
+        <v>3412</v>
       </c>
       <c r="D294" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E294">
-        <v>3680</v>
+        <v>3412</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>3412</v>
+        <v>3144</v>
       </c>
       <c r="D295" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E295">
-        <v>3412</v>
+        <v>2304</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6354,16 +6354,16 @@
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>3144</v>
+        <v>2036</v>
       </c>
       <c r="D296" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E296">
-        <v>2304</v>
+        <v>2036</v>
       </c>
       <c r="F296">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6371,19 +6371,19 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C297">
-        <v>840</v>
+        <v>1768</v>
       </c>
       <c r="D297" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="F297">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6394,13 +6394,13 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>2036</v>
+        <v>1500</v>
       </c>
       <c r="D298" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E298">
-        <v>2036</v>
+        <v>1500</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6414,13 +6414,13 @@
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>1768</v>
+        <v>1232</v>
       </c>
       <c r="D299" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E299">
-        <v>1768</v>
+        <v>1232</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -6434,16 +6434,16 @@
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>1500</v>
+        <v>964</v>
       </c>
       <c r="D300" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E300">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6454,13 +6454,13 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D301" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E301">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6474,16 +6474,16 @@
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>964</v>
+        <v>5598</v>
       </c>
       <c r="D302" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F302">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6494,16 +6494,16 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D303" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E303">
-        <v>5866</v>
+        <v>4484</v>
       </c>
       <c r="F303">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6514,13 +6514,13 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="D304" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E304">
-        <v>5598</v>
+        <v>4216</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6534,16 +6534,16 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>5330</v>
+        <v>3948</v>
       </c>
       <c r="D305" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E305">
-        <v>4484</v>
+        <v>3948</v>
       </c>
       <c r="F305">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6554,13 +6554,13 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>4216</v>
+        <v>3680</v>
       </c>
       <c r="D306" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E306">
-        <v>4216</v>
+        <v>3680</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6574,13 +6574,13 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>3948</v>
+        <v>3412</v>
       </c>
       <c r="D307" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E307">
-        <v>3948</v>
+        <v>3412</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6594,16 +6594,16 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>3680</v>
+        <v>3144</v>
       </c>
       <c r="D308" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E308">
-        <v>3680</v>
+        <v>2304</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6614,13 +6614,13 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>3412</v>
+        <v>2036</v>
       </c>
       <c r="D309" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E309">
-        <v>3412</v>
+        <v>2036</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>3144</v>
+        <v>1768</v>
       </c>
       <c r="D310" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E310">
-        <v>2304</v>
+        <v>1768</v>
       </c>
       <c r="F310">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6654,13 +6654,13 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>2036</v>
+        <v>1500</v>
       </c>
       <c r="D311" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E311">
-        <v>2036</v>
+        <v>1500</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6671,19 +6671,19 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C312">
-        <v>840</v>
+        <v>1232</v>
       </c>
       <c r="D312" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F312">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6694,16 +6694,16 @@
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>1768</v>
+        <v>964</v>
       </c>
       <c r="D313" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E313">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6714,13 +6714,13 @@
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="D314" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E314">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6734,13 +6734,13 @@
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="D315" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E315">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6754,16 +6754,16 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>964</v>
+        <v>5330</v>
       </c>
       <c r="D316" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F316">
-        <v>964</v>
+        <v>846</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6774,13 +6774,13 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="D317" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E317">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6794,13 +6794,13 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="D318" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E318">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>5330</v>
+        <v>3680</v>
       </c>
       <c r="D319" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E319">
-        <v>4484</v>
+        <v>3680</v>
       </c>
       <c r="F319">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6834,13 +6834,13 @@
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>4216</v>
+        <v>3412</v>
       </c>
       <c r="D320" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E320">
-        <v>4216</v>
+        <v>3412</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6854,16 +6854,16 @@
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>3948</v>
+        <v>3144</v>
       </c>
       <c r="D321" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E321">
-        <v>3948</v>
+        <v>2304</v>
       </c>
       <c r="F321">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6874,13 +6874,13 @@
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>3680</v>
+        <v>2036</v>
       </c>
       <c r="D322" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E322">
-        <v>3680</v>
+        <v>2036</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6894,13 +6894,13 @@
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>3412</v>
+        <v>1768</v>
       </c>
       <c r="D323" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E323">
-        <v>3412</v>
+        <v>1768</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6914,16 +6914,16 @@
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>3144</v>
+        <v>1500</v>
       </c>
       <c r="D324" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E324">
-        <v>2304</v>
+        <v>1500</v>
       </c>
       <c r="F324">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6931,19 +6931,19 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C325">
-        <v>2036</v>
+        <v>572</v>
       </c>
       <c r="D325" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E325">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6954,13 +6954,13 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>1768</v>
+        <v>1232</v>
       </c>
       <c r="D326" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E326">
-        <v>1768</v>
+        <v>1232</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6974,16 +6974,16 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>1500</v>
+        <v>964</v>
       </c>
       <c r="D327" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E327">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6994,13 +6994,13 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D328" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E328">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7011,19 +7011,19 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C329">
-        <v>964</v>
+        <v>304</v>
       </c>
       <c r="D329" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E329">
         <v>0</v>
       </c>
       <c r="F329">
-        <v>964</v>
+        <v>304</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7271,19 +7271,19 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C342">
-        <v>840</v>
+        <v>964</v>
       </c>
       <c r="D342" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E342">
         <v>0</v>
       </c>
       <c r="F342">
-        <v>840</v>
+        <v>964</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7294,16 +7294,16 @@
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D343" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F343">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7314,13 +7314,13 @@
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D344" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E344">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7334,16 +7334,16 @@
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D345" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E345">
-        <v>5598</v>
+        <v>4484</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7351,19 +7351,19 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C346">
-        <v>304</v>
+        <v>4216</v>
       </c>
       <c r="D346" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F346">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7374,13 +7374,13 @@
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D347" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E347">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7394,13 +7394,13 @@
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D348" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E348">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7414,16 +7414,16 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>5330</v>
+        <v>3412</v>
       </c>
       <c r="D349" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E349">
-        <v>4484</v>
+        <v>3412</v>
       </c>
       <c r="F349">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7434,16 +7434,16 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>4216</v>
+        <v>3144</v>
       </c>
       <c r="D350" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E350">
-        <v>4216</v>
+        <v>2304</v>
       </c>
       <c r="F350">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7454,13 +7454,13 @@
         <v>12000</v>
       </c>
       <c r="C351">
-        <v>3948</v>
+        <v>2036</v>
       </c>
       <c r="D351" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E351">
-        <v>3948</v>
+        <v>2036</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -7474,13 +7474,13 @@
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>3680</v>
+        <v>1768</v>
       </c>
       <c r="D352" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E352">
-        <v>3680</v>
+        <v>1768</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7494,13 +7494,13 @@
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>3412</v>
+        <v>1500</v>
       </c>
       <c r="D353" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E353">
-        <v>3412</v>
+        <v>1500</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7514,16 +7514,16 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>3144</v>
+        <v>1232</v>
       </c>
       <c r="D354" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E354">
-        <v>2304</v>
+        <v>1232</v>
       </c>
       <c r="F354">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7534,16 +7534,16 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>2036</v>
+        <v>964</v>
       </c>
       <c r="D355" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E355">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F355">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7554,13 +7554,13 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D356" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E356">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -7574,13 +7574,13 @@
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D357" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E357">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7594,16 +7594,16 @@
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>1232</v>
+        <v>5330</v>
       </c>
       <c r="D358" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E358">
-        <v>1232</v>
+        <v>4484</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7614,16 +7614,16 @@
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>964</v>
+        <v>4216</v>
       </c>
       <c r="D359" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F359">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7634,13 +7634,13 @@
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D360" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E360">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D361" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E361">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7671,19 +7671,19 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C362">
-        <v>5330</v>
+        <v>304</v>
       </c>
       <c r="D362" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E362">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F362">
-        <v>846</v>
+        <v>304</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7694,13 +7694,13 @@
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>4216</v>
+        <v>3412</v>
       </c>
       <c r="D363" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E363">
-        <v>4216</v>
+        <v>3412</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7714,16 +7714,16 @@
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>3948</v>
+        <v>3144</v>
       </c>
       <c r="D364" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E364">
-        <v>3948</v>
+        <v>2304</v>
       </c>
       <c r="F364">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7734,13 +7734,13 @@
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>3680</v>
+        <v>2036</v>
       </c>
       <c r="D365" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E365">
-        <v>3680</v>
+        <v>2036</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7754,13 +7754,13 @@
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>3412</v>
+        <v>1768</v>
       </c>
       <c r="D366" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E366">
-        <v>3412</v>
+        <v>1768</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>3144</v>
+        <v>1500</v>
       </c>
       <c r="D367" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E367">
-        <v>2304</v>
+        <v>1500</v>
       </c>
       <c r="F367">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7794,13 +7794,13 @@
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>2036</v>
+        <v>1232</v>
       </c>
       <c r="D368" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E368">
-        <v>2036</v>
+        <v>1232</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7814,16 +7814,16 @@
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>1768</v>
+        <v>964</v>
       </c>
       <c r="D369" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E369">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="F369">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7834,13 +7834,13 @@
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="D370" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E370">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7854,13 +7854,13 @@
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="D371" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E371">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -7874,16 +7874,16 @@
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>964</v>
+        <v>5330</v>
       </c>
       <c r="D372" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E372">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F372">
-        <v>964</v>
+        <v>846</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7891,19 +7891,19 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C373">
-        <v>304</v>
+        <v>4216</v>
       </c>
       <c r="D373" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E373">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F373">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -7914,13 +7914,13 @@
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="D374" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E374">
-        <v>5866</v>
+        <v>3948</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7934,13 +7934,13 @@
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="D375" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E375">
-        <v>5598</v>
+        <v>3680</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7951,19 +7951,19 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C376">
-        <v>5330</v>
+        <v>304</v>
       </c>
       <c r="D376" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E376">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F376">
-        <v>846</v>
+        <v>304</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7974,13 +7974,13 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>4216</v>
+        <v>3412</v>
       </c>
       <c r="D377" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E377">
-        <v>4216</v>
+        <v>3412</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7994,16 +7994,16 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>3948</v>
+        <v>3144</v>
       </c>
       <c r="D378" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E378">
-        <v>3948</v>
+        <v>2304</v>
       </c>
       <c r="F378">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8014,13 +8014,13 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>3680</v>
+        <v>2036</v>
       </c>
       <c r="D379" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E379">
-        <v>3680</v>
+        <v>2036</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -8034,13 +8034,13 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>3412</v>
+        <v>1768</v>
       </c>
       <c r="D380" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E380">
-        <v>3412</v>
+        <v>1768</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>3144</v>
+        <v>1500</v>
       </c>
       <c r="D381" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E381">
-        <v>2304</v>
+        <v>1500</v>
       </c>
       <c r="F381">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8074,13 +8074,13 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>2036</v>
+        <v>1232</v>
       </c>
       <c r="D382" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E382">
-        <v>2036</v>
+        <v>1232</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8094,16 +8094,16 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>1768</v>
+        <v>964</v>
       </c>
       <c r="D383" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E383">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="F383">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8114,13 +8114,13 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="D384" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E384">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -8134,13 +8134,13 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="D385" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E385">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>964</v>
+        <v>5330</v>
       </c>
       <c r="D386" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F386">
-        <v>964</v>
+        <v>846</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8174,13 +8174,13 @@
         <v>12000</v>
       </c>
       <c r="C387">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="D387" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E387">
-        <v>5866</v>
+        <v>4216</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -8194,13 +8194,13 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="D388" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E388">
-        <v>5598</v>
+        <v>3948</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -8214,16 +8214,16 @@
         <v>12000</v>
       </c>
       <c r="C389">
-        <v>5330</v>
+        <v>3680</v>
       </c>
       <c r="D389" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E389">
-        <v>4484</v>
+        <v>3680</v>
       </c>
       <c r="F389">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8234,13 +8234,13 @@
         <v>12000</v>
       </c>
       <c r="C390">
-        <v>4216</v>
+        <v>3412</v>
       </c>
       <c r="D390" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E390">
-        <v>4216</v>
+        <v>3412</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8254,16 +8254,16 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>3948</v>
+        <v>3144</v>
       </c>
       <c r="D391" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E391">
-        <v>3948</v>
+        <v>2304</v>
       </c>
       <c r="F391">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8274,13 +8274,13 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>3680</v>
+        <v>2036</v>
       </c>
       <c r="D392" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E392">
-        <v>3680</v>
+        <v>2036</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>12000</v>
       </c>
       <c r="C393">
-        <v>3412</v>
+        <v>1768</v>
       </c>
       <c r="D393" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E393">
-        <v>3412</v>
+        <v>1768</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -8314,16 +8314,16 @@
         <v>12000</v>
       </c>
       <c r="C394">
-        <v>3144</v>
+        <v>1500</v>
       </c>
       <c r="D394" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E394">
-        <v>2304</v>
+        <v>1500</v>
       </c>
       <c r="F394">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8334,13 +8334,13 @@
         <v>12000</v>
       </c>
       <c r="C395">
-        <v>2036</v>
+        <v>1232</v>
       </c>
       <c r="D395" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E395">
-        <v>2036</v>
+        <v>1232</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -8354,16 +8354,16 @@
         <v>12000</v>
       </c>
       <c r="C396">
-        <v>1768</v>
+        <v>964</v>
       </c>
       <c r="D396" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E396">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="F396">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8374,13 +8374,13 @@
         <v>12000</v>
       </c>
       <c r="C397">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="D397" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E397">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -8394,13 +8394,13 @@
         <v>12000</v>
       </c>
       <c r="C398">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="D398" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E398">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -8414,16 +8414,16 @@
         <v>12000</v>
       </c>
       <c r="C399">
-        <v>964</v>
+        <v>5330</v>
       </c>
       <c r="D399" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F399">
-        <v>964</v>
+        <v>846</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8431,16 +8431,16 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C400">
-        <v>5866</v>
+        <v>3416</v>
       </c>
       <c r="D400" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E400">
-        <v>5866</v>
+        <v>3416</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -8451,19 +8451,19 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C401">
-        <v>5598</v>
+        <v>2348</v>
       </c>
       <c r="D401" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E401">
-        <v>5598</v>
+        <v>2304</v>
       </c>
       <c r="F401">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8471,19 +8471,19 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>12000</v>
+        <v>44</v>
       </c>
       <c r="C402">
-        <v>5330</v>
+        <v>44</v>
       </c>
       <c r="D402" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E402">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F402">
-        <v>846</v>
+        <v>44</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8494,13 +8494,13 @@
         <v>11200</v>
       </c>
       <c r="C403">
-        <v>3416</v>
+        <v>1236</v>
       </c>
       <c r="D403" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E403">
-        <v>3416</v>
+        <v>1236</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -8514,16 +8514,16 @@
         <v>11200</v>
       </c>
       <c r="C404">
-        <v>2348</v>
+        <v>168</v>
       </c>
       <c r="D404" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E404">
-        <v>2304</v>
+        <v>0</v>
       </c>
       <c r="F404">
-        <v>44</v>
+        <v>168</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8534,16 +8534,16 @@
         <v>11200</v>
       </c>
       <c r="C405">
-        <v>1236</v>
+        <v>5066</v>
       </c>
       <c r="D405" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E405">
-        <v>1236</v>
+        <v>4484</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>582</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8554,16 +8554,16 @@
         <v>11200</v>
       </c>
       <c r="C406">
-        <v>168</v>
+        <v>3416</v>
       </c>
       <c r="D406" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>3416</v>
       </c>
       <c r="F406">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8574,16 +8574,16 @@
         <v>11200</v>
       </c>
       <c r="C407">
-        <v>5066</v>
+        <v>2348</v>
       </c>
       <c r="D407" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E407">
-        <v>4484</v>
+        <v>2304</v>
       </c>
       <c r="F407">
-        <v>582</v>
+        <v>44</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8594,13 +8594,13 @@
         <v>11200</v>
       </c>
       <c r="C408">
-        <v>3416</v>
+        <v>1236</v>
       </c>
       <c r="D408" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E408">
-        <v>3416</v>
+        <v>1236</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -8614,16 +8614,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>2348</v>
+        <v>168</v>
       </c>
       <c r="D409" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E409">
-        <v>2304</v>
+        <v>0</v>
       </c>
       <c r="F409">
-        <v>44</v>
+        <v>168</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8634,16 +8634,16 @@
         <v>11200</v>
       </c>
       <c r="C410">
-        <v>1236</v>
+        <v>5066</v>
       </c>
       <c r="D410" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E410">
-        <v>1236</v>
+        <v>4484</v>
       </c>
       <c r="F410">
-        <v>0</v>
+        <v>582</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8654,16 +8654,16 @@
         <v>11200</v>
       </c>
       <c r="C411">
-        <v>168</v>
+        <v>3416</v>
       </c>
       <c r="D411" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>3416</v>
       </c>
       <c r="F411">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8674,16 +8674,16 @@
         <v>11200</v>
       </c>
       <c r="C412">
-        <v>5066</v>
+        <v>2348</v>
       </c>
       <c r="D412" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E412">
-        <v>4484</v>
+        <v>2304</v>
       </c>
       <c r="F412">
-        <v>582</v>
+        <v>44</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8694,13 +8694,13 @@
         <v>11200</v>
       </c>
       <c r="C413">
-        <v>3416</v>
+        <v>1236</v>
       </c>
       <c r="D413" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E413">
-        <v>3416</v>
+        <v>1236</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -8714,16 +8714,16 @@
         <v>11200</v>
       </c>
       <c r="C414">
-        <v>2348</v>
+        <v>168</v>
       </c>
       <c r="D414" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E414">
-        <v>2304</v>
+        <v>0</v>
       </c>
       <c r="F414">
-        <v>44</v>
+        <v>168</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8731,19 +8731,19 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C415">
-        <v>1236</v>
+        <v>3266</v>
       </c>
       <c r="D415" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E415">
-        <v>1236</v>
+        <v>2304</v>
       </c>
       <c r="F415">
-        <v>0</v>
+        <v>962</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8751,19 +8751,19 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C416">
-        <v>168</v>
+        <v>5570</v>
       </c>
       <c r="D416" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F416">
-        <v>168</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8774,16 +8774,16 @@
         <v>9400</v>
       </c>
       <c r="C417">
-        <v>3266</v>
+        <v>1616</v>
       </c>
       <c r="D417" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E417">
-        <v>2304</v>
+        <v>1616</v>
       </c>
       <c r="F417">
-        <v>962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8794,16 +8794,16 @@
         <v>9400</v>
       </c>
       <c r="C418">
-        <v>5570</v>
+        <v>4882</v>
       </c>
       <c r="D418" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E418">
         <v>4484</v>
       </c>
       <c r="F418">
-        <v>1086</v>
+        <v>398</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8971,19 +8971,19 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C427">
-        <v>44</v>
+        <v>1616</v>
       </c>
       <c r="D427" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E427">
-        <v>0</v>
+        <v>1616</v>
       </c>
       <c r="F427">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8994,16 +8994,16 @@
         <v>9400</v>
       </c>
       <c r="C428">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D428" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E428">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F428">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9014,16 +9014,16 @@
         <v>9400</v>
       </c>
       <c r="C429">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D429" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E429">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F429">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9034,16 +9034,16 @@
         <v>9400</v>
       </c>
       <c r="C430">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D430" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E430">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F430">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9054,16 +9054,16 @@
         <v>9400</v>
       </c>
       <c r="C431">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D431" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E431">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F431">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9074,16 +9074,16 @@
         <v>9400</v>
       </c>
       <c r="C432">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D432" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E432">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F432">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9094,16 +9094,16 @@
         <v>9400</v>
       </c>
       <c r="C433">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D433" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E433">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F433">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9114,16 +9114,16 @@
         <v>9400</v>
       </c>
       <c r="C434">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D434" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E434">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F434">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9134,16 +9134,16 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D435" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E435">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F435">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9154,16 +9154,16 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D436" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E436">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F436">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9174,16 +9174,16 @@
         <v>9400</v>
       </c>
       <c r="C437">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D437" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E437">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F437">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9194,16 +9194,16 @@
         <v>9400</v>
       </c>
       <c r="C438">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D438" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E438">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F438">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9214,16 +9214,16 @@
         <v>9400</v>
       </c>
       <c r="C439">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D439" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E439">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F439">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -9234,16 +9234,16 @@
         <v>9400</v>
       </c>
       <c r="C440">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D440" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E440">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F440">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9254,75 +9254,15 @@
         <v>9400</v>
       </c>
       <c r="C441">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D441" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E441">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F441">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442">
-        <v>9400</v>
-      </c>
-      <c r="C442">
-        <v>1616</v>
-      </c>
-      <c r="D442" t="s">
-        <v>8</v>
-      </c>
-      <c r="E442">
-        <v>1616</v>
-      </c>
-      <c r="F442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443">
-        <v>9400</v>
-      </c>
-      <c r="C443">
-        <v>4882</v>
-      </c>
-      <c r="D443" t="s">
-        <v>23</v>
-      </c>
-      <c r="E443">
-        <v>4484</v>
-      </c>
-      <c r="F443">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444">
-        <v>9400</v>
-      </c>
-      <c r="C444">
-        <v>1616</v>
-      </c>
-      <c r="D444" t="s">
-        <v>8</v>
-      </c>
-      <c r="E444">
-        <v>0</v>
-      </c>
-      <c r="F444">
         <v>1616</v>
       </c>
     </row>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="24">
   <si>
     <t>原料长度</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>[536, 6134]</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>[1650, 6134]</t>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t>[4902, 6134]</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[268]</t>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F441"/>
+  <dimension ref="A1:F447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,19 +531,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12000</v>
+        <v>846</v>
       </c>
       <c r="C5">
-        <v>4216</v>
+        <v>846</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -554,13 +554,13 @@
         <v>12000</v>
       </c>
       <c r="C6">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -574,13 +574,13 @@
         <v>12000</v>
       </c>
       <c r="C7">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -591,19 +591,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12000</v>
+        <v>846</v>
       </c>
       <c r="C8">
-        <v>3412</v>
+        <v>846</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>3412</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -614,16 +614,16 @@
         <v>12000</v>
       </c>
       <c r="C9">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F9">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -634,13 +634,13 @@
         <v>12000</v>
       </c>
       <c r="C10">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -674,13 +674,13 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>12000</v>
       </c>
       <c r="C13">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -714,16 +714,16 @@
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F14">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -734,13 +734,13 @@
         <v>12000</v>
       </c>
       <c r="C15">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>12000</v>
       </c>
       <c r="C16">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -774,16 +774,16 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F17">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -794,13 +794,13 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -834,13 +834,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F22">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -894,13 +894,13 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -914,16 +914,16 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -934,13 +934,13 @@
         <v>12000</v>
       </c>
       <c r="C25">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -974,16 +974,16 @@
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F27">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -991,19 +991,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C28">
-        <v>840</v>
+        <v>1232</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F28">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1014,16 +1014,16 @@
         <v>12000</v>
       </c>
       <c r="C29">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E29">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1034,13 +1034,13 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F31">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1074,16 +1074,16 @@
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1094,13 +1094,13 @@
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
       <c r="E34">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
       <c r="E35">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1154,16 +1154,16 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F36">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1174,16 +1174,16 @@
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1194,13 +1194,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
       </c>
       <c r="E38">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F41">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1274,16 +1274,16 @@
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1294,13 +1294,13 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>12000</v>
+        <v>840</v>
       </c>
       <c r="C44">
-        <v>5330</v>
+        <v>572</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E44">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>846</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1331,19 +1331,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C45">
-        <v>840</v>
+        <v>5866</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F45">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1354,13 +1354,13 @@
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1374,16 +1374,16 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1394,13 +1394,13 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F50">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1454,13 +1454,13 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1474,16 +1474,16 @@
         <v>12000</v>
       </c>
       <c r="C52">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1494,13 +1494,13 @@
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1514,13 +1514,13 @@
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C55">
-        <v>840</v>
+        <v>1500</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F55">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1554,16 +1554,16 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F56">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1574,16 +1574,16 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E57">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1594,13 +1594,13 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1614,16 +1614,16 @@
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F59">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1634,16 +1634,16 @@
         <v>12000</v>
       </c>
       <c r="C60">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1654,13 +1654,13 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
       </c>
       <c r="E62">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1714,16 +1714,16 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
       <c r="E64">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F64">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1734,16 +1734,16 @@
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
       </c>
       <c r="E65">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1754,13 +1754,13 @@
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
       </c>
       <c r="E66">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C67">
-        <v>1500</v>
+        <v>572</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1794,13 +1794,13 @@
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1811,19 +1811,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C69">
-        <v>840</v>
+        <v>1500</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F69">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1834,16 +1834,16 @@
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D70" t="s">
         <v>17</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F70">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1854,16 +1854,16 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1874,13 +1874,13 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>12000</v>
+        <v>572</v>
       </c>
       <c r="C73">
-        <v>5330</v>
+        <v>304</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E73">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>846</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1914,13 +1914,13 @@
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E75">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1951,19 +1951,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C76">
-        <v>3680</v>
+        <v>304</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>3680</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1974,16 +1974,16 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1994,16 +1994,16 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E78">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F78">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2014,13 +2014,13 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2034,13 +2034,13 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E82">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2094,16 +2094,16 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F83">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2114,13 +2114,13 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E84">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C85">
-        <v>572</v>
+        <v>1500</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F85">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2154,13 +2154,13 @@
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2174,16 +2174,16 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E87">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2194,16 +2194,16 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F88">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2214,13 +2214,13 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E89">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2254,13 +2254,13 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>12000</v>
       </c>
       <c r="C92">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2294,16 +2294,16 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F93">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2314,13 +2314,13 @@
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>12000</v>
       </c>
       <c r="C95">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E95">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2354,13 +2354,13 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E96">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F98">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2414,13 +2414,13 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E99">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C100">
-        <v>5598</v>
+        <v>304</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2454,16 +2454,16 @@
         <v>12000</v>
       </c>
       <c r="C101">
-        <v>5330</v>
+        <v>964</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>846</v>
+        <v>964</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2474,13 +2474,13 @@
         <v>12000</v>
       </c>
       <c r="C102">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E102">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E103">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>3680</v>
+        <v>5330</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E104">
-        <v>3680</v>
+        <v>4484</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2534,13 +2534,13 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E105">
-        <v>3412</v>
+        <v>4216</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>3144</v>
+        <v>3948</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E106">
-        <v>2304</v>
+        <v>3948</v>
       </c>
       <c r="F106">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2574,13 +2574,13 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E107">
-        <v>2036</v>
+        <v>3680</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2591,19 +2591,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C108">
-        <v>572</v>
+        <v>3412</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>3412</v>
       </c>
       <c r="F108">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2614,16 +2614,16 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E109">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2634,13 +2634,13 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E110">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2651,19 +2651,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C111">
-        <v>1232</v>
+        <v>304</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E111">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2674,16 +2674,16 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>964</v>
+        <v>1768</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="F112">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2694,13 +2694,13 @@
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E113">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2714,13 +2714,13 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E114">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2734,16 +2734,16 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>5330</v>
+        <v>964</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E115">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>846</v>
+        <v>964</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2754,13 +2754,13 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2774,13 +2774,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>3680</v>
+        <v>5330</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>3680</v>
+        <v>4484</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2811,19 +2811,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C119">
-        <v>572</v>
+        <v>4216</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F119">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2834,13 +2834,13 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2854,16 +2854,16 @@
         <v>12000</v>
       </c>
       <c r="C121">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F121">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2874,13 +2874,13 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E123">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2914,13 +2914,13 @@
         <v>12000</v>
       </c>
       <c r="C124">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2934,13 +2934,13 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2954,16 +2954,16 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F126">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2971,19 +2971,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C127">
-        <v>572</v>
+        <v>1232</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F127">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2994,16 +2994,16 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D128" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E128">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3014,13 +3014,13 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E129">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E130">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F130">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3051,19 +3051,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C131">
-        <v>572</v>
+        <v>5330</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="F131">
-        <v>572</v>
+        <v>846</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3077,7 +3077,7 @@
         <v>4216</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E132">
         <v>4216</v>
@@ -3097,7 +3097,7 @@
         <v>3948</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133">
         <v>3948</v>
@@ -3117,7 +3117,7 @@
         <v>3680</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134">
         <v>3680</v>
@@ -3137,7 +3137,7 @@
         <v>3412</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E135">
         <v>3412</v>
@@ -3157,7 +3157,7 @@
         <v>3144</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E136">
         <v>2304</v>
@@ -3177,7 +3177,7 @@
         <v>2036</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E137">
         <v>2036</v>
@@ -3197,7 +3197,7 @@
         <v>1768</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E138">
         <v>1768</v>
@@ -3211,19 +3211,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C139">
-        <v>1500</v>
+        <v>304</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3234,13 +3234,13 @@
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D140" t="s">
         <v>16</v>
       </c>
       <c r="E140">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3254,16 +3254,16 @@
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F141">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3274,16 +3274,16 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D142" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3294,13 +3294,13 @@
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E144">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F144">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3334,16 +3334,16 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3351,19 +3351,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C146">
-        <v>572</v>
+        <v>4216</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F146">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3377,7 +3377,7 @@
         <v>3948</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147">
         <v>3948</v>
@@ -3397,7 +3397,7 @@
         <v>3680</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148">
         <v>3680</v>
@@ -3417,7 +3417,7 @@
         <v>3412</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E149">
         <v>3412</v>
@@ -3437,7 +3437,7 @@
         <v>3144</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E150">
         <v>2304</v>
@@ -3457,7 +3457,7 @@
         <v>2036</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E151">
         <v>2036</v>
@@ -3471,19 +3471,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C152">
-        <v>1768</v>
+        <v>304</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E152">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3494,13 +3494,13 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C154">
-        <v>1232</v>
+        <v>304</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E154">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3534,16 +3534,16 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F155">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3554,13 +3554,13 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E156">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3574,16 +3574,16 @@
         <v>12000</v>
       </c>
       <c r="C157">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D157" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E157">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3591,19 +3591,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C158">
-        <v>5330</v>
+        <v>304</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E158">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>846</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3614,13 +3614,13 @@
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E159">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3634,13 +3634,13 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3651,19 +3651,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C161">
-        <v>3680</v>
+        <v>304</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E161">
-        <v>3680</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3674,16 +3674,16 @@
         <v>12000</v>
       </c>
       <c r="C162">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3694,16 +3694,16 @@
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E163">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F163">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3714,13 +3714,13 @@
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E164">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3734,13 +3734,13 @@
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D165" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E165">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E166">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3774,16 +3774,16 @@
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D167" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E167">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3794,16 +3794,16 @@
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F168">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3814,13 +3814,13 @@
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E169">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E170">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3854,16 +3854,16 @@
         <v>12000</v>
       </c>
       <c r="C171">
-        <v>5330</v>
+        <v>1232</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E171">
-        <v>4484</v>
+        <v>1232</v>
       </c>
       <c r="F171">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3874,16 +3874,16 @@
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>4216</v>
+        <v>964</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E172">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3894,13 +3894,13 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3914,13 +3914,13 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E174">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3934,16 +3934,16 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3954,16 +3954,16 @@
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E176">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F176">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3974,13 +3974,13 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D177" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E177">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3994,13 +3994,13 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D178" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E178">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4014,13 +4014,13 @@
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D179" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E179">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E180">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4054,16 +4054,16 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D181" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F181">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4074,13 +4074,13 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E182">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4094,13 +4094,13 @@
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="D183" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E183">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4114,16 +4114,16 @@
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>5330</v>
+        <v>1232</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E184">
-        <v>4484</v>
+        <v>1232</v>
       </c>
       <c r="F184">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4134,16 +4134,16 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>4216</v>
+        <v>964</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E185">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4154,13 +4154,13 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E186">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -4174,13 +4174,13 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D188" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E188">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4214,16 +4214,16 @@
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D189" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F189">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4234,13 +4234,13 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E190">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4254,13 +4254,13 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D191" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E191">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4274,13 +4274,13 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D192" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E192">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4291,19 +4291,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C193">
-        <v>1232</v>
+        <v>304</v>
       </c>
       <c r="D193" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E193">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4314,16 +4314,16 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>964</v>
+        <v>3144</v>
       </c>
       <c r="D194" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F194">
-        <v>964</v>
+        <v>840</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4334,13 +4334,13 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="D195" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E195">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4354,13 +4354,13 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="D196" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E196">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4374,16 +4374,16 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>5330</v>
+        <v>1500</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E197">
-        <v>4484</v>
+        <v>1500</v>
       </c>
       <c r="F197">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4394,13 +4394,13 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E198">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4414,16 +4414,16 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>3948</v>
+        <v>964</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E199">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4434,13 +4434,13 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4454,13 +4454,13 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4474,16 +4474,16 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>3144</v>
+        <v>5330</v>
       </c>
       <c r="D202" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>2304</v>
+        <v>4484</v>
       </c>
       <c r="F202">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4494,13 +4494,13 @@
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E203">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="D204" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E204">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4534,13 +4534,13 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E205">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4554,13 +4554,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4574,16 +4574,16 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>964</v>
+        <v>3144</v>
       </c>
       <c r="D207" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F207">
-        <v>964</v>
+        <v>840</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4594,13 +4594,13 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="D208" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E208">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -4614,13 +4614,13 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="D209" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E209">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4634,16 +4634,16 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>5330</v>
+        <v>1500</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E210">
-        <v>4484</v>
+        <v>1500</v>
       </c>
       <c r="F210">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4651,19 +4651,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C211">
-        <v>572</v>
+        <v>1232</v>
       </c>
       <c r="D211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F211">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4674,16 +4674,16 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>4216</v>
+        <v>964</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E212">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4694,13 +4694,13 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E215">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4754,16 +4754,16 @@
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D216" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E216">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F216">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4774,13 +4774,13 @@
         <v>12000</v>
       </c>
       <c r="C217">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E217">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4794,13 +4794,13 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D218" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E218">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4814,13 +4814,13 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D219" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E219">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4834,16 +4834,16 @@
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E220">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4854,16 +4854,16 @@
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D221" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F221">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4874,13 +4874,13 @@
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D222" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E222">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4894,13 +4894,13 @@
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E223">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4914,16 +4914,16 @@
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>5330</v>
+        <v>1232</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E224">
-        <v>4484</v>
+        <v>1232</v>
       </c>
       <c r="F224">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4934,16 +4934,16 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>4216</v>
+        <v>964</v>
       </c>
       <c r="D225" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E225">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4954,13 +4954,13 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E226">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4974,13 +4974,13 @@
         <v>12000</v>
       </c>
       <c r="C227">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4994,16 +4994,16 @@
         <v>12000</v>
       </c>
       <c r="C228">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E228">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5014,16 +5014,16 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D229" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F229">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5034,13 +5034,13 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E230">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5054,13 +5054,13 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D231" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E231">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5074,13 +5074,13 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D232" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E232">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5094,16 +5094,16 @@
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D233" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E233">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5114,16 +5114,16 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D234" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F234">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5134,13 +5134,13 @@
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D235" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E235">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5154,13 +5154,13 @@
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="D236" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E236">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5174,16 +5174,16 @@
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>5330</v>
+        <v>1232</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E237">
-        <v>4484</v>
+        <v>1232</v>
       </c>
       <c r="F237">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5194,16 +5194,16 @@
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>4216</v>
+        <v>964</v>
       </c>
       <c r="D238" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E238">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5214,13 +5214,13 @@
         <v>12000</v>
       </c>
       <c r="C239">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E239">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5234,13 +5234,13 @@
         <v>12000</v>
       </c>
       <c r="C240">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E240">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5254,16 +5254,16 @@
         <v>12000</v>
       </c>
       <c r="C241">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D241" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E241">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5274,16 +5274,16 @@
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D242" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E242">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F242">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5294,13 +5294,13 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E243">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5314,13 +5314,13 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D244" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E244">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D245" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E245">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5354,16 +5354,16 @@
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D246" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E246">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5374,16 +5374,16 @@
         <v>12000</v>
       </c>
       <c r="C247">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D247" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F247">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5394,13 +5394,13 @@
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D248" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E248">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5414,13 +5414,13 @@
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="D249" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E249">
-        <v>5598</v>
+        <v>1500</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5434,16 +5434,16 @@
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>5330</v>
+        <v>1232</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E250">
-        <v>4484</v>
+        <v>1232</v>
       </c>
       <c r="F250">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5454,16 +5454,16 @@
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>4216</v>
+        <v>964</v>
       </c>
       <c r="D251" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E251">
-        <v>4216</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5474,13 +5474,13 @@
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D252" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E252">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5494,13 +5494,13 @@
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D253" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E253">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5514,16 +5514,16 @@
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E254">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5534,16 +5534,16 @@
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D255" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E255">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F255">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5554,13 +5554,13 @@
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D256" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E256">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5574,13 +5574,13 @@
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D257" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E257">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5594,13 +5594,13 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D258" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E258">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5614,16 +5614,16 @@
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D259" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E259">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5634,16 +5634,16 @@
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D260" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F260">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5651,19 +5651,19 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C261">
-        <v>5866</v>
+        <v>304</v>
       </c>
       <c r="D261" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E261">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5674,13 +5674,13 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="D262" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E262">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5694,16 +5694,16 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>5330</v>
+        <v>1500</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E263">
-        <v>4484</v>
+        <v>1500</v>
       </c>
       <c r="F263">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5714,13 +5714,13 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="D264" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E264">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5731,10 +5731,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C265">
-        <v>572</v>
+        <v>964</v>
       </c>
       <c r="D265" t="s">
         <v>18</v>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="F265">
-        <v>572</v>
+        <v>964</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5754,13 +5754,13 @@
         <v>12000</v>
       </c>
       <c r="C266">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="D266" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>3948</v>
+        <v>5866</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5774,13 +5774,13 @@
         <v>12000</v>
       </c>
       <c r="C267">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="D267" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E267">
-        <v>3680</v>
+        <v>5598</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5794,16 +5794,16 @@
         <v>12000</v>
       </c>
       <c r="C268">
-        <v>3412</v>
+        <v>5330</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>3412</v>
+        <v>4484</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5814,16 +5814,16 @@
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>3144</v>
+        <v>4216</v>
       </c>
       <c r="D269" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E269">
-        <v>2304</v>
+        <v>4216</v>
       </c>
       <c r="F269">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5834,13 +5834,13 @@
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="D270" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E270">
-        <v>2036</v>
+        <v>3948</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5854,13 +5854,13 @@
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="D271" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E271">
-        <v>1768</v>
+        <v>3680</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5874,13 +5874,13 @@
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="D272" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E272">
-        <v>1500</v>
+        <v>3412</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5891,19 +5891,19 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C273">
-        <v>1232</v>
+        <v>304</v>
       </c>
       <c r="D273" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E273">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5914,16 +5914,16 @@
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>964</v>
+        <v>3144</v>
       </c>
       <c r="D274" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F274">
-        <v>964</v>
+        <v>840</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5934,13 +5934,13 @@
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="D275" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E275">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5954,13 +5954,13 @@
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="D276" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E276">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>12000</v>
       </c>
       <c r="C277">
-        <v>5330</v>
+        <v>1500</v>
       </c>
       <c r="D277" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E277">
-        <v>4484</v>
+        <v>1500</v>
       </c>
       <c r="F277">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5994,13 +5994,13 @@
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="D278" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E278">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6014,16 +6014,16 @@
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>3948</v>
+        <v>964</v>
       </c>
       <c r="D279" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E279">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6034,13 +6034,13 @@
         <v>12000</v>
       </c>
       <c r="C280">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="D280" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E280">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6054,13 +6054,13 @@
         <v>12000</v>
       </c>
       <c r="C281">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="D281" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E281">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6074,16 +6074,16 @@
         <v>12000</v>
       </c>
       <c r="C282">
-        <v>3144</v>
+        <v>5330</v>
       </c>
       <c r="D282" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E282">
-        <v>2304</v>
+        <v>4484</v>
       </c>
       <c r="F282">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6094,13 +6094,13 @@
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="D283" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E283">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6114,13 +6114,13 @@
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="D284" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E284">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6134,13 +6134,13 @@
         <v>12000</v>
       </c>
       <c r="C285">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="D285" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E285">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="D286" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E286">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -6174,16 +6174,16 @@
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>964</v>
+        <v>3144</v>
       </c>
       <c r="D287" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F287">
-        <v>964</v>
+        <v>840</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6194,13 +6194,13 @@
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="D288" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E288">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6214,13 +6214,13 @@
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="D289" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E289">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6234,16 +6234,16 @@
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>5330</v>
+        <v>1500</v>
       </c>
       <c r="D290" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E290">
-        <v>4484</v>
+        <v>1500</v>
       </c>
       <c r="F290">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6254,13 +6254,13 @@
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="D291" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E291">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -6274,16 +6274,16 @@
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>3948</v>
+        <v>964</v>
       </c>
       <c r="D292" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E292">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6294,13 +6294,13 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="D293" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E293">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="D294" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E294">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>3144</v>
+        <v>5330</v>
       </c>
       <c r="D295" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E295">
-        <v>2304</v>
+        <v>4484</v>
       </c>
       <c r="F295">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6354,13 +6354,13 @@
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="D296" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E296">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6374,13 +6374,13 @@
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="D297" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E297">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6394,13 +6394,13 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="D298" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E298">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6414,13 +6414,13 @@
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="D299" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E299">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -6434,16 +6434,16 @@
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>964</v>
+        <v>3144</v>
       </c>
       <c r="D300" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F300">
-        <v>964</v>
+        <v>840</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6454,13 +6454,13 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="D301" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E301">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6474,13 +6474,13 @@
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="D302" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E302">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6494,16 +6494,16 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>5330</v>
+        <v>1500</v>
       </c>
       <c r="D303" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E303">
-        <v>4484</v>
+        <v>1500</v>
       </c>
       <c r="F303">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6514,13 +6514,13 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="D304" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E304">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6534,16 +6534,16 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>3948</v>
+        <v>964</v>
       </c>
       <c r="D305" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E305">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6554,13 +6554,13 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E306">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6574,13 +6574,13 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="D307" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E307">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6594,16 +6594,16 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>3144</v>
+        <v>5330</v>
       </c>
       <c r="D308" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E308">
-        <v>2304</v>
+        <v>4484</v>
       </c>
       <c r="F308">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6614,13 +6614,13 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="D309" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E309">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6634,13 +6634,13 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="D310" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E310">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6654,13 +6654,13 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="D311" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E311">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6674,13 +6674,13 @@
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="D312" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E312">
-        <v>1232</v>
+        <v>3412</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6694,16 +6694,16 @@
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>964</v>
+        <v>3144</v>
       </c>
       <c r="D313" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F313">
-        <v>964</v>
+        <v>840</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6714,13 +6714,13 @@
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="D314" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E314">
-        <v>5866</v>
+        <v>2036</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6734,13 +6734,13 @@
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="D315" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E315">
-        <v>5598</v>
+        <v>1768</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6754,16 +6754,16 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>5330</v>
+        <v>1500</v>
       </c>
       <c r="D316" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E316">
-        <v>4484</v>
+        <v>1500</v>
       </c>
       <c r="F316">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6774,13 +6774,13 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="D317" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E317">
-        <v>4216</v>
+        <v>1232</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6794,16 +6794,16 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>3948</v>
+        <v>964</v>
       </c>
       <c r="D318" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E318">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6814,13 +6814,13 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="D319" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E319">
-        <v>3680</v>
+        <v>5866</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6834,13 +6834,13 @@
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="D320" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E320">
-        <v>3412</v>
+        <v>5598</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6854,16 +6854,16 @@
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>3144</v>
+        <v>5330</v>
       </c>
       <c r="D321" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E321">
-        <v>2304</v>
+        <v>4484</v>
       </c>
       <c r="F321">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6874,13 +6874,13 @@
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="D322" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E322">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6894,13 +6894,13 @@
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="D323" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E323">
-        <v>1768</v>
+        <v>3948</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6914,13 +6914,13 @@
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="D324" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E324">
-        <v>1500</v>
+        <v>3680</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6931,19 +6931,19 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C325">
-        <v>572</v>
+        <v>3412</v>
       </c>
       <c r="D325" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>3412</v>
       </c>
       <c r="F325">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6954,16 +6954,16 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>1232</v>
+        <v>3144</v>
       </c>
       <c r="D326" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E326">
-        <v>1232</v>
+        <v>2304</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6974,16 +6974,16 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>964</v>
+        <v>2036</v>
       </c>
       <c r="D327" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="F327">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6994,13 +6994,13 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="D328" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E328">
-        <v>5866</v>
+        <v>1768</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7011,19 +7011,19 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C329">
-        <v>304</v>
+        <v>1500</v>
       </c>
       <c r="D329" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F329">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7034,13 +7034,13 @@
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D330" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E330">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7054,16 +7054,16 @@
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D331" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E331">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F331">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7074,16 +7074,16 @@
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D332" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E332">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F332">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7094,13 +7094,13 @@
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D333" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E333">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7114,16 +7114,16 @@
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D334" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E334">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7134,13 +7134,13 @@
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D335" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E335">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7154,13 +7154,13 @@
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E336">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7174,16 +7174,16 @@
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D337" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E337">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F337">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7194,13 +7194,13 @@
         <v>12000</v>
       </c>
       <c r="C338">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E338">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7214,16 +7214,16 @@
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D339" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E339">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7234,13 +7234,13 @@
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D340" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E340">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7254,13 +7254,13 @@
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D341" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E341">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7274,16 +7274,16 @@
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D342" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F342">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7294,13 +7294,13 @@
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D343" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E343">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -7314,16 +7314,16 @@
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D344" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E344">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F344">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7334,16 +7334,16 @@
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D345" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E345">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F345">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7354,13 +7354,13 @@
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D346" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E346">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -7374,16 +7374,16 @@
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D347" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E347">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F347">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7394,13 +7394,13 @@
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D348" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E348">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7414,13 +7414,13 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E349">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7434,16 +7434,16 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D350" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E350">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F350">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7451,19 +7451,19 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>12000</v>
+        <v>304</v>
       </c>
       <c r="C351">
-        <v>2036</v>
+        <v>304</v>
       </c>
       <c r="D351" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E351">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7474,13 +7474,13 @@
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="D352" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E352">
-        <v>1768</v>
+        <v>3412</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7494,16 +7494,16 @@
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>1500</v>
+        <v>3144</v>
       </c>
       <c r="D353" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E353">
-        <v>1500</v>
+        <v>2304</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7514,13 +7514,13 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>1232</v>
+        <v>2036</v>
       </c>
       <c r="D354" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E354">
-        <v>1232</v>
+        <v>2036</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7534,16 +7534,16 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>964</v>
+        <v>1768</v>
       </c>
       <c r="D355" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="F355">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7554,13 +7554,13 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="D356" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E356">
-        <v>5866</v>
+        <v>1500</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -7574,13 +7574,13 @@
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="D357" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E357">
-        <v>5598</v>
+        <v>1232</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7594,16 +7594,16 @@
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>5330</v>
+        <v>964</v>
       </c>
       <c r="D358" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E358">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F358">
-        <v>846</v>
+        <v>964</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7614,13 +7614,13 @@
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="D359" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E359">
-        <v>4216</v>
+        <v>5866</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -7634,13 +7634,13 @@
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="D360" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E360">
-        <v>3948</v>
+        <v>5598</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7654,16 +7654,16 @@
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>3680</v>
+        <v>5330</v>
       </c>
       <c r="D361" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E361">
-        <v>3680</v>
+        <v>4484</v>
       </c>
       <c r="F361">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7671,19 +7671,19 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C362">
-        <v>304</v>
+        <v>4216</v>
       </c>
       <c r="D362" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="F362">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7694,13 +7694,13 @@
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="D363" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E363">
-        <v>3412</v>
+        <v>3948</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7714,16 +7714,16 @@
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>3144</v>
+        <v>3680</v>
       </c>
       <c r="D364" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E364">
-        <v>2304</v>
+        <v>3680</v>
       </c>
       <c r="F364">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7734,13 +7734,13 @@
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="D365" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E365">
-        <v>2036</v>
+        <v>3412</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7754,16 +7754,16 @@
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>1768</v>
+        <v>3144</v>
       </c>
       <c r="D366" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E366">
-        <v>1768</v>
+        <v>2304</v>
       </c>
       <c r="F366">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7774,13 +7774,13 @@
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="D367" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E367">
-        <v>1500</v>
+        <v>2036</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7794,13 +7794,13 @@
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="D368" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E368">
-        <v>1232</v>
+        <v>1768</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7814,16 +7814,16 @@
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="D369" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F369">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7834,13 +7834,13 @@
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="D370" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E370">
-        <v>5866</v>
+        <v>1232</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7854,16 +7854,16 @@
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>5598</v>
+        <v>964</v>
       </c>
       <c r="D371" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E371">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F371">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7874,16 +7874,16 @@
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D372" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E372">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F372">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7894,13 +7894,13 @@
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D373" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E373">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7914,16 +7914,16 @@
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D374" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E374">
-        <v>3948</v>
+        <v>4484</v>
       </c>
       <c r="F374">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7934,13 +7934,13 @@
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="D375" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E375">
-        <v>3680</v>
+        <v>4216</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7951,19 +7951,19 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C376">
-        <v>304</v>
+        <v>3948</v>
       </c>
       <c r="D376" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E376">
-        <v>0</v>
+        <v>3948</v>
       </c>
       <c r="F376">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7974,13 +7974,13 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D377" t="s">
         <v>11</v>
       </c>
       <c r="E377">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7994,16 +7994,16 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D378" t="s">
         <v>12</v>
       </c>
       <c r="E378">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F378">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8014,16 +8014,16 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D379" t="s">
         <v>13</v>
       </c>
       <c r="E379">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F379">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8034,13 +8034,13 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D380" t="s">
         <v>14</v>
       </c>
       <c r="E380">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D381" t="s">
         <v>15</v>
       </c>
       <c r="E381">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8074,13 +8074,13 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D382" t="s">
         <v>16</v>
       </c>
       <c r="E382">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8094,16 +8094,16 @@
         <v>12000</v>
       </c>
       <c r="C383">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D383" t="s">
         <v>17</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F383">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8114,16 +8114,16 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D384" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E384">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F384">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8134,13 +8134,13 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D385" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E385">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D386" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E386">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F386">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8174,16 +8174,16 @@
         <v>12000</v>
       </c>
       <c r="C387">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D387" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E387">
-        <v>4216</v>
+        <v>4484</v>
       </c>
       <c r="F387">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8194,13 +8194,13 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="D388" t="s">
         <v>9</v>
       </c>
       <c r="E388">
-        <v>3948</v>
+        <v>4216</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -8214,13 +8214,13 @@
         <v>12000</v>
       </c>
       <c r="C389">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="D389" t="s">
         <v>10</v>
       </c>
       <c r="E389">
-        <v>3680</v>
+        <v>3948</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         <v>12000</v>
       </c>
       <c r="C390">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="D390" t="s">
         <v>11</v>
       </c>
       <c r="E390">
-        <v>3412</v>
+        <v>3680</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8254,16 +8254,16 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>3144</v>
+        <v>3412</v>
       </c>
       <c r="D391" t="s">
         <v>12</v>
       </c>
       <c r="E391">
-        <v>2304</v>
+        <v>3412</v>
       </c>
       <c r="F391">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8274,16 +8274,16 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>2036</v>
+        <v>3144</v>
       </c>
       <c r="D392" t="s">
         <v>13</v>
       </c>
       <c r="E392">
-        <v>2036</v>
+        <v>2304</v>
       </c>
       <c r="F392">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8294,13 +8294,13 @@
         <v>12000</v>
       </c>
       <c r="C393">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="D393" t="s">
         <v>14</v>
       </c>
       <c r="E393">
-        <v>1768</v>
+        <v>2036</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -8314,13 +8314,13 @@
         <v>12000</v>
       </c>
       <c r="C394">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="D394" t="s">
         <v>15</v>
       </c>
       <c r="E394">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -8334,13 +8334,13 @@
         <v>12000</v>
       </c>
       <c r="C395">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="D395" t="s">
         <v>16</v>
       </c>
       <c r="E395">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -8354,16 +8354,16 @@
         <v>12000</v>
       </c>
       <c r="C396">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="D396" t="s">
         <v>17</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="F396">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8374,16 +8374,16 @@
         <v>12000</v>
       </c>
       <c r="C397">
-        <v>5866</v>
+        <v>964</v>
       </c>
       <c r="D397" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E397">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F397">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8394,13 +8394,13 @@
         <v>12000</v>
       </c>
       <c r="C398">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D398" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E398">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -8414,16 +8414,16 @@
         <v>12000</v>
       </c>
       <c r="C399">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D399" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E399">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F399">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8431,19 +8431,19 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C400">
-        <v>3416</v>
+        <v>5330</v>
       </c>
       <c r="D400" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E400">
-        <v>3416</v>
+        <v>4484</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8454,16 +8454,16 @@
         <v>11200</v>
       </c>
       <c r="C401">
-        <v>2348</v>
+        <v>3416</v>
       </c>
       <c r="D401" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E401">
-        <v>2304</v>
+        <v>3416</v>
       </c>
       <c r="F401">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8471,19 +8471,19 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="C402">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="D402" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E402">
         <v>0</v>
       </c>
       <c r="F402">
-        <v>44</v>
+        <v>304</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8494,16 +8494,16 @@
         <v>11200</v>
       </c>
       <c r="C403">
-        <v>1236</v>
+        <v>2348</v>
       </c>
       <c r="D403" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E403">
-        <v>1236</v>
+        <v>2304</v>
       </c>
       <c r="F403">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8514,16 +8514,16 @@
         <v>11200</v>
       </c>
       <c r="C404">
-        <v>168</v>
+        <v>1236</v>
       </c>
       <c r="D404" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E404">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="F404">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8531,19 +8531,19 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>11200</v>
+        <v>44</v>
       </c>
       <c r="C405">
-        <v>5066</v>
+        <v>44</v>
       </c>
       <c r="D405" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E405">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F405">
-        <v>582</v>
+        <v>44</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8554,16 +8554,16 @@
         <v>11200</v>
       </c>
       <c r="C406">
-        <v>3416</v>
+        <v>168</v>
       </c>
       <c r="D406" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E406">
-        <v>3416</v>
+        <v>0</v>
       </c>
       <c r="F406">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8574,16 +8574,16 @@
         <v>11200</v>
       </c>
       <c r="C407">
-        <v>2348</v>
+        <v>5066</v>
       </c>
       <c r="D407" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E407">
-        <v>2304</v>
+        <v>4484</v>
       </c>
       <c r="F407">
-        <v>44</v>
+        <v>582</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8594,13 +8594,13 @@
         <v>11200</v>
       </c>
       <c r="C408">
-        <v>1236</v>
+        <v>3416</v>
       </c>
       <c r="D408" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E408">
-        <v>1236</v>
+        <v>3416</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -8614,16 +8614,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>168</v>
+        <v>2348</v>
       </c>
       <c r="D409" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E409">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="F409">
-        <v>168</v>
+        <v>44</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8634,16 +8634,16 @@
         <v>11200</v>
       </c>
       <c r="C410">
-        <v>5066</v>
+        <v>1236</v>
       </c>
       <c r="D410" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E410">
-        <v>4484</v>
+        <v>1236</v>
       </c>
       <c r="F410">
-        <v>582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8654,16 +8654,16 @@
         <v>11200</v>
       </c>
       <c r="C411">
-        <v>3416</v>
+        <v>168</v>
       </c>
       <c r="D411" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E411">
-        <v>3416</v>
+        <v>0</v>
       </c>
       <c r="F411">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8674,16 +8674,16 @@
         <v>11200</v>
       </c>
       <c r="C412">
-        <v>2348</v>
+        <v>5066</v>
       </c>
       <c r="D412" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E412">
-        <v>2304</v>
+        <v>4484</v>
       </c>
       <c r="F412">
-        <v>44</v>
+        <v>582</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8691,19 +8691,19 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>11200</v>
+        <v>44</v>
       </c>
       <c r="C413">
-        <v>1236</v>
+        <v>44</v>
       </c>
       <c r="D413" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E413">
-        <v>1236</v>
+        <v>0</v>
       </c>
       <c r="F413">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8714,16 +8714,16 @@
         <v>11200</v>
       </c>
       <c r="C414">
-        <v>168</v>
+        <v>3416</v>
       </c>
       <c r="D414" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>3416</v>
       </c>
       <c r="F414">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8731,19 +8731,19 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C415">
-        <v>3266</v>
+        <v>2348</v>
       </c>
       <c r="D415" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E415">
         <v>2304</v>
       </c>
       <c r="F415">
-        <v>962</v>
+        <v>44</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8751,19 +8751,19 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C416">
-        <v>5570</v>
+        <v>1236</v>
       </c>
       <c r="D416" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E416">
-        <v>4484</v>
+        <v>1236</v>
       </c>
       <c r="F416">
-        <v>1086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8771,19 +8771,19 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>9400</v>
+        <v>11200</v>
       </c>
       <c r="C417">
-        <v>1616</v>
+        <v>168</v>
       </c>
       <c r="D417" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E417">
-        <v>1616</v>
+        <v>0</v>
       </c>
       <c r="F417">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8794,16 +8794,16 @@
         <v>9400</v>
       </c>
       <c r="C418">
-        <v>4882</v>
+        <v>3266</v>
       </c>
       <c r="D418" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E418">
-        <v>4484</v>
+        <v>2304</v>
       </c>
       <c r="F418">
-        <v>398</v>
+        <v>962</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8814,16 +8814,16 @@
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>1616</v>
+        <v>5570</v>
       </c>
       <c r="D419" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E419">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F419">
-        <v>0</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8834,16 +8834,16 @@
         <v>9400</v>
       </c>
       <c r="C420">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D420" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E420">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F420">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8854,16 +8854,16 @@
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D421" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E421">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F421">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8874,16 +8874,16 @@
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D422" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E422">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F422">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8894,16 +8894,16 @@
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D423" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E423">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F423">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8914,16 +8914,16 @@
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D424" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E424">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F424">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8934,16 +8934,16 @@
         <v>9400</v>
       </c>
       <c r="C425">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D425" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E425">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F425">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8954,16 +8954,16 @@
         <v>9400</v>
       </c>
       <c r="C426">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D426" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E426">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F426">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8974,16 +8974,16 @@
         <v>9400</v>
       </c>
       <c r="C427">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D427" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E427">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F427">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8994,16 +8994,16 @@
         <v>9400</v>
       </c>
       <c r="C428">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D428" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E428">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F428">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9014,16 +9014,16 @@
         <v>9400</v>
       </c>
       <c r="C429">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D429" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E429">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F429">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9034,16 +9034,16 @@
         <v>9400</v>
       </c>
       <c r="C430">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D430" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E430">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F430">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9051,19 +9051,19 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C431">
-        <v>1616</v>
+        <v>44</v>
       </c>
       <c r="D431" t="s">
         <v>8</v>
       </c>
       <c r="E431">
-        <v>1616</v>
+        <v>0</v>
       </c>
       <c r="F431">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9091,19 +9091,19 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C433">
-        <v>1616</v>
+        <v>44</v>
       </c>
       <c r="D433" t="s">
         <v>8</v>
       </c>
       <c r="E433">
-        <v>1616</v>
+        <v>0</v>
       </c>
       <c r="F433">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9114,16 +9114,16 @@
         <v>9400</v>
       </c>
       <c r="C434">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D434" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E434">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F434">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9134,16 +9134,16 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D435" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E435">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F435">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9154,16 +9154,16 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>4882</v>
+        <v>1616</v>
       </c>
       <c r="D436" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E436">
-        <v>4484</v>
+        <v>1616</v>
       </c>
       <c r="F436">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9174,16 +9174,16 @@
         <v>9400</v>
       </c>
       <c r="C437">
-        <v>1616</v>
+        <v>4882</v>
       </c>
       <c r="D437" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E437">
-        <v>1616</v>
+        <v>4484</v>
       </c>
       <c r="F437">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9191,19 +9191,19 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C438">
-        <v>4882</v>
+        <v>44</v>
       </c>
       <c r="D438" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E438">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F438">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9217,7 +9217,7 @@
         <v>1616</v>
       </c>
       <c r="D439" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E439">
         <v>1616</v>
@@ -9257,12 +9257,132 @@
         <v>1616</v>
       </c>
       <c r="D441" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E441">
-        <v>0</v>
+        <v>1616</v>
       </c>
       <c r="F441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>9400</v>
+      </c>
+      <c r="C442">
+        <v>4882</v>
+      </c>
+      <c r="D442" t="s">
+        <v>23</v>
+      </c>
+      <c r="E442">
+        <v>4484</v>
+      </c>
+      <c r="F442">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>9400</v>
+      </c>
+      <c r="C443">
+        <v>1616</v>
+      </c>
+      <c r="D443" t="s">
+        <v>9</v>
+      </c>
+      <c r="E443">
+        <v>1616</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>9400</v>
+      </c>
+      <c r="C444">
+        <v>4882</v>
+      </c>
+      <c r="D444" t="s">
+        <v>23</v>
+      </c>
+      <c r="E444">
+        <v>4484</v>
+      </c>
+      <c r="F444">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>9400</v>
+      </c>
+      <c r="C445">
+        <v>1616</v>
+      </c>
+      <c r="D445" t="s">
+        <v>9</v>
+      </c>
+      <c r="E445">
+        <v>1616</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>9400</v>
+      </c>
+      <c r="C446">
+        <v>4882</v>
+      </c>
+      <c r="D446" t="s">
+        <v>23</v>
+      </c>
+      <c r="E446">
+        <v>4484</v>
+      </c>
+      <c r="F446">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>9400</v>
+      </c>
+      <c r="C447">
+        <v>1616</v>
+      </c>
+      <c r="D447" t="s">
+        <v>9</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
         <v>1616</v>
       </c>
     </row>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="24">
   <si>
     <t>原料长度</t>
   </si>
@@ -40,52 +40,52 @@
     <t>[536, 6134]</t>
   </si>
   <si>
+    <t>[1550, 6134]</t>
+  </si>
+  <si>
+    <t>[1818, 6134]</t>
+  </si>
+  <si>
+    <t>[2086, 6134]</t>
+  </si>
+  <si>
+    <t>[2354, 6134]</t>
+  </si>
+  <si>
+    <t>[2622, 6134]</t>
+  </si>
+  <si>
+    <t>[3730, 6134]</t>
+  </si>
+  <si>
+    <t>[3998, 6134]</t>
+  </si>
+  <si>
+    <t>[4266, 6134]</t>
+  </si>
+  <si>
+    <t>[4534, 6134]</t>
+  </si>
+  <si>
+    <t>[4802, 6134]</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[1650, 6134]</t>
+    <t>[536]</t>
   </si>
   <si>
-    <t>[1918, 6134]</t>
+    <t>[2618, 6134]</t>
   </si>
   <si>
-    <t>[2186, 6134]</t>
+    <t>[4798, 6134]</t>
   </si>
   <si>
-    <t>[2454, 6134]</t>
+    <t>[3730]</t>
   </si>
   <si>
-    <t>[2722, 6134]</t>
-  </si>
-  <si>
-    <t>[3830, 6134]</t>
-  </si>
-  <si>
-    <t>[4098, 6134]</t>
-  </si>
-  <si>
-    <t>[4366, 6134]</t>
-  </si>
-  <si>
-    <t>[4634, 6134]</t>
-  </si>
-  <si>
-    <t>[4902, 6134]</t>
-  </si>
-  <si>
-    <t>[268]</t>
-  </si>
-  <si>
-    <t>[2718, 6134]</t>
-  </si>
-  <si>
-    <t>[4898, 6134]</t>
-  </si>
-  <si>
-    <t>[3830]</t>
-  </si>
-  <si>
-    <t>[4518]</t>
+    <t>[464, 6134]</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F447"/>
+  <dimension ref="A1:F445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +520,10 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>4484</v>
+        <v>4584</v>
       </c>
       <c r="F4">
-        <v>846</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -531,19 +531,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>846</v>
+        <v>12000</v>
       </c>
       <c r="C5">
-        <v>846</v>
+        <v>4316</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F5">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -554,13 +554,13 @@
         <v>12000</v>
       </c>
       <c r="C6">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -574,13 +574,13 @@
         <v>12000</v>
       </c>
       <c r="C7">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -591,19 +591,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>846</v>
+        <v>12000</v>
       </c>
       <c r="C8">
-        <v>846</v>
+        <v>3512</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F8">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -614,16 +614,16 @@
         <v>12000</v>
       </c>
       <c r="C9">
-        <v>3680</v>
+        <v>3244</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>3680</v>
+        <v>2404</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -634,13 +634,13 @@
         <v>12000</v>
       </c>
       <c r="C10">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>3144</v>
+        <v>1868</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>2304</v>
+        <v>1868</v>
       </c>
       <c r="F11">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -674,13 +674,13 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>12000</v>
       </c>
       <c r="C13">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -714,16 +714,16 @@
         <v>12000</v>
       </c>
       <c r="C14">
-        <v>1500</v>
+        <v>1064</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -734,13 +734,13 @@
         <v>12000</v>
       </c>
       <c r="C15">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>12000</v>
       </c>
       <c r="C16">
-        <v>964</v>
+        <v>5598</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F16">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -774,16 +774,16 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -794,13 +794,13 @@
         <v>12000</v>
       </c>
       <c r="C18">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>12000</v>
       </c>
       <c r="C19">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>4484</v>
+        <v>4048</v>
       </c>
       <c r="F19">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -834,13 +834,13 @@
         <v>12000</v>
       </c>
       <c r="C20">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>12000</v>
       </c>
       <c r="C21">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>12000</v>
       </c>
       <c r="C22">
-        <v>3680</v>
+        <v>3244</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>3680</v>
+        <v>2404</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -894,13 +894,13 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -914,16 +914,16 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>3144</v>
+        <v>1868</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>2304</v>
+        <v>1868</v>
       </c>
       <c r="F24">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -934,13 +934,13 @@
         <v>12000</v>
       </c>
       <c r="C25">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>12000</v>
       </c>
       <c r="C26">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -974,16 +974,16 @@
         <v>12000</v>
       </c>
       <c r="C27">
-        <v>1500</v>
+        <v>1064</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -994,13 +994,13 @@
         <v>12000</v>
       </c>
       <c r="C28">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>12000</v>
       </c>
       <c r="C29">
-        <v>964</v>
+        <v>5598</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F29">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1034,16 +1034,16 @@
         <v>12000</v>
       </c>
       <c r="C30">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1054,13 +1054,13 @@
         <v>12000</v>
       </c>
       <c r="C31">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>12000</v>
       </c>
       <c r="C32">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>4484</v>
+        <v>4048</v>
       </c>
       <c r="F32">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1094,13 +1094,13 @@
         <v>12000</v>
       </c>
       <c r="C33">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>12000</v>
       </c>
       <c r="C34">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>12000</v>
       </c>
       <c r="C35">
-        <v>3680</v>
+        <v>3244</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>3680</v>
+        <v>2404</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1154,13 +1154,13 @@
         <v>12000</v>
       </c>
       <c r="C36">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1174,16 +1174,16 @@
         <v>12000</v>
       </c>
       <c r="C37">
-        <v>3144</v>
+        <v>1868</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>2304</v>
+        <v>1868</v>
       </c>
       <c r="F37">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1194,13 +1194,13 @@
         <v>12000</v>
       </c>
       <c r="C38">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>12000</v>
       </c>
       <c r="C39">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1234,16 +1234,16 @@
         <v>12000</v>
       </c>
       <c r="C40">
-        <v>1500</v>
+        <v>1064</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1254,13 +1254,13 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1274,16 +1274,16 @@
         <v>12000</v>
       </c>
       <c r="C42">
-        <v>964</v>
+        <v>5598</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F42">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1294,16 +1294,16 @@
         <v>12000</v>
       </c>
       <c r="C43">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1311,19 +1311,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>840</v>
+        <v>12000</v>
       </c>
       <c r="C44">
-        <v>572</v>
+        <v>4316</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F44">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1334,13 +1334,13 @@
         <v>12000</v>
       </c>
       <c r="C45">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>12000</v>
       </c>
       <c r="C46">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1374,16 +1374,16 @@
         <v>12000</v>
       </c>
       <c r="C47">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>4484</v>
+        <v>3512</v>
       </c>
       <c r="F47">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1394,16 +1394,16 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>4216</v>
+        <v>3244</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>4216</v>
+        <v>2404</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1414,13 +1414,13 @@
         <v>12000</v>
       </c>
       <c r="C49">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1434,13 +1434,13 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>12000</v>
       </c>
       <c r="C51">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1471,19 +1471,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C52">
-        <v>3144</v>
+        <v>746</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>2304</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1494,13 +1494,13 @@
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>2036</v>
+        <v>1332</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>2036</v>
+        <v>1332</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1514,16 +1514,16 @@
         <v>12000</v>
       </c>
       <c r="C54">
-        <v>1768</v>
+        <v>1064</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1534,13 +1534,13 @@
         <v>12000</v>
       </c>
       <c r="C55">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         <v>12000</v>
       </c>
       <c r="C56">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1574,16 +1574,16 @@
         <v>12000</v>
       </c>
       <c r="C57">
-        <v>964</v>
+        <v>5330</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F57">
-        <v>964</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1594,13 +1594,13 @@
         <v>12000</v>
       </c>
       <c r="C58">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1614,13 +1614,13 @@
         <v>12000</v>
       </c>
       <c r="C59">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E59">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1631,19 +1631,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C60">
-        <v>5330</v>
+        <v>746</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E60">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>846</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1654,13 +1654,13 @@
         <v>12000</v>
       </c>
       <c r="C61">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>12000</v>
       </c>
       <c r="C62">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>12000</v>
       </c>
       <c r="C63">
-        <v>3680</v>
+        <v>3244</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>3680</v>
+        <v>2404</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1714,13 +1714,13 @@
         <v>12000</v>
       </c>
       <c r="C64">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>12000</v>
       </c>
       <c r="C65">
-        <v>3144</v>
+        <v>1868</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>2304</v>
+        <v>1868</v>
       </c>
       <c r="F65">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1754,13 +1754,13 @@
         <v>12000</v>
       </c>
       <c r="C66">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C67">
-        <v>572</v>
+        <v>1332</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F67">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1794,16 +1794,16 @@
         <v>12000</v>
       </c>
       <c r="C68">
-        <v>1768</v>
+        <v>1064</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1814,13 +1814,13 @@
         <v>12000</v>
       </c>
       <c r="C69">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>1500</v>
+        <v>5866</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1834,13 +1834,13 @@
         <v>12000</v>
       </c>
       <c r="C70">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>1232</v>
+        <v>5598</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1854,16 +1854,16 @@
         <v>12000</v>
       </c>
       <c r="C71">
-        <v>964</v>
+        <v>5330</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F71">
-        <v>964</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1874,13 +1874,13 @@
         <v>12000</v>
       </c>
       <c r="C72">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>572</v>
+        <v>12000</v>
       </c>
       <c r="C73">
-        <v>304</v>
+        <v>4048</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F73">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1914,13 +1914,13 @@
         <v>12000</v>
       </c>
       <c r="C74">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>12000</v>
       </c>
       <c r="C75">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1951,19 +1951,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C76">
-        <v>304</v>
+        <v>3244</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F76">
-        <v>304</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1974,16 +1974,16 @@
         <v>12000</v>
       </c>
       <c r="C77">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E77">
-        <v>4484</v>
+        <v>2136</v>
       </c>
       <c r="F77">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1994,13 +1994,13 @@
         <v>12000</v>
       </c>
       <c r="C78">
-        <v>4216</v>
+        <v>1868</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E78">
-        <v>4216</v>
+        <v>1868</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>12000</v>
       </c>
       <c r="C79">
-        <v>3948</v>
+        <v>1600</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>3948</v>
+        <v>1600</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2034,13 +2034,13 @@
         <v>12000</v>
       </c>
       <c r="C80">
-        <v>3680</v>
+        <v>1332</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E80">
-        <v>3680</v>
+        <v>1332</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>12000</v>
       </c>
       <c r="C81">
-        <v>3412</v>
+        <v>1064</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>3412</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2074,16 +2074,16 @@
         <v>12000</v>
       </c>
       <c r="C82">
-        <v>3144</v>
+        <v>5866</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>2304</v>
+        <v>5866</v>
       </c>
       <c r="F82">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2094,13 +2094,13 @@
         <v>12000</v>
       </c>
       <c r="C83">
-        <v>2036</v>
+        <v>5598</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>2036</v>
+        <v>5598</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>12000</v>
       </c>
       <c r="C84">
-        <v>1768</v>
+        <v>5330</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>1768</v>
+        <v>4584</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2134,13 +2134,13 @@
         <v>12000</v>
       </c>
       <c r="C85">
-        <v>1500</v>
+        <v>4316</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>1500</v>
+        <v>4316</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2154,13 +2154,13 @@
         <v>12000</v>
       </c>
       <c r="C86">
-        <v>1232</v>
+        <v>4048</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>1232</v>
+        <v>4048</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2174,16 +2174,16 @@
         <v>12000</v>
       </c>
       <c r="C87">
-        <v>964</v>
+        <v>3780</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F87">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2194,13 +2194,13 @@
         <v>12000</v>
       </c>
       <c r="C88">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>12000</v>
       </c>
       <c r="C89">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2234,16 +2234,16 @@
         <v>12000</v>
       </c>
       <c r="C90">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E90">
-        <v>4484</v>
+        <v>2136</v>
       </c>
       <c r="F90">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2254,13 +2254,13 @@
         <v>12000</v>
       </c>
       <c r="C91">
-        <v>4216</v>
+        <v>1868</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E91">
-        <v>4216</v>
+        <v>1868</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2271,19 +2271,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C92">
-        <v>3948</v>
+        <v>746</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E92">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2294,13 +2294,13 @@
         <v>12000</v>
       </c>
       <c r="C93">
-        <v>3680</v>
+        <v>1600</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>3680</v>
+        <v>1600</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2314,13 +2314,13 @@
         <v>12000</v>
       </c>
       <c r="C94">
-        <v>3412</v>
+        <v>1332</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E94">
-        <v>3412</v>
+        <v>1332</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2331,19 +2331,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C95">
-        <v>3144</v>
+        <v>746</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E95">
-        <v>2304</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2354,16 +2354,16 @@
         <v>12000</v>
       </c>
       <c r="C96">
-        <v>2036</v>
+        <v>1064</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E96">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2374,13 +2374,13 @@
         <v>12000</v>
       </c>
       <c r="C97">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         <v>12000</v>
       </c>
       <c r="C98">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2414,16 +2414,16 @@
         <v>12000</v>
       </c>
       <c r="C99">
-        <v>1232</v>
+        <v>5330</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>1232</v>
+        <v>4584</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2431,19 +2431,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C100">
-        <v>304</v>
+        <v>4316</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F100">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2451,10 +2451,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C101">
-        <v>964</v>
+        <v>746</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>964</v>
+        <v>746</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2471,19 +2471,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C102">
-        <v>5866</v>
+        <v>746</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E102">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2494,13 +2494,13 @@
         <v>12000</v>
       </c>
       <c r="C103">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D103" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>12000</v>
       </c>
       <c r="C104">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>4484</v>
+        <v>3780</v>
       </c>
       <c r="F104">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2534,13 +2534,13 @@
         <v>12000</v>
       </c>
       <c r="C105">
-        <v>4216</v>
+        <v>3512</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E105">
-        <v>4216</v>
+        <v>3512</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         <v>12000</v>
       </c>
       <c r="C106">
-        <v>3948</v>
+        <v>3244</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E106">
-        <v>3948</v>
+        <v>2404</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2574,13 +2574,13 @@
         <v>12000</v>
       </c>
       <c r="C107">
-        <v>3680</v>
+        <v>2136</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E107">
-        <v>3680</v>
+        <v>2136</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>12000</v>
       </c>
       <c r="C108">
-        <v>3412</v>
+        <v>1868</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>3412</v>
+        <v>1868</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>12000</v>
       </c>
       <c r="C109">
-        <v>3144</v>
+        <v>1600</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E109">
-        <v>2304</v>
+        <v>1600</v>
       </c>
       <c r="F109">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2634,13 +2634,13 @@
         <v>12000</v>
       </c>
       <c r="C110">
-        <v>2036</v>
+        <v>1332</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E110">
-        <v>2036</v>
+        <v>1332</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2651,19 +2651,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C111">
-        <v>304</v>
+        <v>1064</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>304</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2674,13 +2674,13 @@
         <v>12000</v>
       </c>
       <c r="C112">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E112">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>12000</v>
       </c>
       <c r="C113">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2714,16 +2714,16 @@
         <v>12000</v>
       </c>
       <c r="C114">
-        <v>1232</v>
+        <v>5330</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E114">
-        <v>1232</v>
+        <v>4584</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2734,16 +2734,16 @@
         <v>12000</v>
       </c>
       <c r="C115">
-        <v>964</v>
+        <v>4316</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F115">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2754,13 +2754,13 @@
         <v>12000</v>
       </c>
       <c r="C116">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E116">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2774,13 +2774,13 @@
         <v>12000</v>
       </c>
       <c r="C117">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D117" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>12000</v>
       </c>
       <c r="C118">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E118">
-        <v>4484</v>
+        <v>3512</v>
       </c>
       <c r="F118">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2814,16 +2814,16 @@
         <v>12000</v>
       </c>
       <c r="C119">
-        <v>4216</v>
+        <v>3244</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E119">
-        <v>4216</v>
+        <v>2404</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2834,13 +2834,13 @@
         <v>12000</v>
       </c>
       <c r="C120">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E120">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C121">
-        <v>3680</v>
+        <v>746</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E121">
-        <v>3680</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2874,13 +2874,13 @@
         <v>12000</v>
       </c>
       <c r="C122">
-        <v>3412</v>
+        <v>1868</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E122">
-        <v>3412</v>
+        <v>1868</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>12000</v>
       </c>
       <c r="C123">
-        <v>3144</v>
+        <v>1600</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E123">
-        <v>2304</v>
+        <v>1600</v>
       </c>
       <c r="F123">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2911,19 +2911,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C124">
-        <v>2036</v>
+        <v>746</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E124">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2934,13 +2934,13 @@
         <v>12000</v>
       </c>
       <c r="C125">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E125">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2954,16 +2954,16 @@
         <v>12000</v>
       </c>
       <c r="C126">
-        <v>1500</v>
+        <v>1064</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E126">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2974,13 +2974,13 @@
         <v>12000</v>
       </c>
       <c r="C127">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>12000</v>
       </c>
       <c r="C128">
-        <v>964</v>
+        <v>5598</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F128">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3014,16 +3014,16 @@
         <v>12000</v>
       </c>
       <c r="C129">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E129">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3034,13 +3034,13 @@
         <v>12000</v>
       </c>
       <c r="C130">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3054,16 +3054,16 @@
         <v>12000</v>
       </c>
       <c r="C131">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>4484</v>
+        <v>4048</v>
       </c>
       <c r="F131">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3074,13 +3074,13 @@
         <v>12000</v>
       </c>
       <c r="C132">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3094,13 +3094,13 @@
         <v>12000</v>
       </c>
       <c r="C133">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3114,16 +3114,16 @@
         <v>12000</v>
       </c>
       <c r="C134">
-        <v>3680</v>
+        <v>3244</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E134">
-        <v>3680</v>
+        <v>2404</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3134,13 +3134,13 @@
         <v>12000</v>
       </c>
       <c r="C135">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E135">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3154,16 +3154,16 @@
         <v>12000</v>
       </c>
       <c r="C136">
-        <v>3144</v>
+        <v>1868</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E136">
-        <v>2304</v>
+        <v>1868</v>
       </c>
       <c r="F136">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3174,13 +3174,13 @@
         <v>12000</v>
       </c>
       <c r="C137">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E137">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>12000</v>
       </c>
       <c r="C138">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E138">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3211,19 +3211,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>304</v>
+        <v>746</v>
       </c>
       <c r="C139">
-        <v>304</v>
+        <v>746</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="F139">
-        <v>304</v>
+        <v>746</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3234,16 +3234,16 @@
         <v>12000</v>
       </c>
       <c r="C140">
-        <v>1500</v>
+        <v>1064</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E140">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3254,13 +3254,13 @@
         <v>12000</v>
       </c>
       <c r="C141">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E141">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>12000</v>
       </c>
       <c r="C142">
-        <v>964</v>
+        <v>5598</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F142">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3294,16 +3294,16 @@
         <v>12000</v>
       </c>
       <c r="C143">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3314,13 +3314,13 @@
         <v>12000</v>
       </c>
       <c r="C144">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3334,16 +3334,16 @@
         <v>12000</v>
       </c>
       <c r="C145">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E145">
-        <v>4484</v>
+        <v>4048</v>
       </c>
       <c r="F145">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3354,13 +3354,13 @@
         <v>12000</v>
       </c>
       <c r="C146">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3374,13 +3374,13 @@
         <v>12000</v>
       </c>
       <c r="C147">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3394,16 +3394,16 @@
         <v>12000</v>
       </c>
       <c r="C148">
-        <v>3680</v>
+        <v>3244</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E148">
-        <v>3680</v>
+        <v>2404</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3414,13 +3414,13 @@
         <v>12000</v>
       </c>
       <c r="C149">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E149">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>12000</v>
       </c>
       <c r="C150">
-        <v>3144</v>
+        <v>1868</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E150">
-        <v>2304</v>
+        <v>1868</v>
       </c>
       <c r="F150">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3454,13 +3454,13 @@
         <v>12000</v>
       </c>
       <c r="C151">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E151">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C152">
-        <v>304</v>
+        <v>1332</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F152">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3494,16 +3494,16 @@
         <v>12000</v>
       </c>
       <c r="C153">
-        <v>1768</v>
+        <v>1064</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E153">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3511,19 +3511,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C154">
-        <v>304</v>
+        <v>5866</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F154">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3534,13 +3534,13 @@
         <v>12000</v>
       </c>
       <c r="C155">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>12000</v>
       </c>
       <c r="C156">
-        <v>1232</v>
+        <v>5330</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E156">
-        <v>1232</v>
+        <v>4584</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3571,10 +3571,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C157">
-        <v>964</v>
+        <v>746</v>
       </c>
       <c r="D157" t="s">
         <v>18</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>964</v>
+        <v>746</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3591,19 +3591,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C158">
-        <v>304</v>
+        <v>4316</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F158">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3614,13 +3614,13 @@
         <v>12000</v>
       </c>
       <c r="C159">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E159">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3634,13 +3634,13 @@
         <v>12000</v>
       </c>
       <c r="C160">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E160">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3651,19 +3651,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C161">
-        <v>304</v>
+        <v>3512</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F161">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3671,19 +3671,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C162">
-        <v>5330</v>
+        <v>746</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E162">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>846</v>
+        <v>746</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3694,16 +3694,16 @@
         <v>12000</v>
       </c>
       <c r="C163">
-        <v>4216</v>
+        <v>3244</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E163">
-        <v>4216</v>
+        <v>2404</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3714,13 +3714,13 @@
         <v>12000</v>
       </c>
       <c r="C164">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E164">
-        <v>3948</v>
+        <v>2136</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3734,13 +3734,13 @@
         <v>12000</v>
       </c>
       <c r="C165">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E165">
-        <v>3680</v>
+        <v>1868</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>12000</v>
       </c>
       <c r="C166">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="D166" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E166">
-        <v>3412</v>
+        <v>1600</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3774,16 +3774,16 @@
         <v>12000</v>
       </c>
       <c r="C167">
-        <v>3144</v>
+        <v>1332</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E167">
-        <v>2304</v>
+        <v>1332</v>
       </c>
       <c r="F167">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3794,16 +3794,16 @@
         <v>12000</v>
       </c>
       <c r="C168">
-        <v>2036</v>
+        <v>1064</v>
       </c>
       <c r="D168" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E168">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3814,13 +3814,13 @@
         <v>12000</v>
       </c>
       <c r="C169">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E169">
-        <v>1768</v>
+        <v>5866</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>12000</v>
       </c>
       <c r="C170">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="D170" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E170">
-        <v>1500</v>
+        <v>5598</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3851,19 +3851,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>12000</v>
+        <v>746</v>
       </c>
       <c r="C171">
-        <v>1232</v>
+        <v>210</v>
       </c>
       <c r="D171" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E171">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3874,16 +3874,16 @@
         <v>12000</v>
       </c>
       <c r="C172">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D172" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F172">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3894,13 +3894,13 @@
         <v>12000</v>
       </c>
       <c r="C173">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E173">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3914,16 +3914,16 @@
         <v>12000</v>
       </c>
       <c r="C174">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E174">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3934,16 +3934,16 @@
         <v>12000</v>
       </c>
       <c r="C175">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E175">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F175">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3954,13 +3954,13 @@
         <v>12000</v>
       </c>
       <c r="C176">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D176" t="s">
         <v>9</v>
       </c>
       <c r="E176">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         <v>12000</v>
       </c>
       <c r="C177">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D177" t="s">
         <v>10</v>
       </c>
       <c r="E177">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3994,13 +3994,13 @@
         <v>12000</v>
       </c>
       <c r="C178">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
       </c>
       <c r="E178">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4014,16 +4014,16 @@
         <v>12000</v>
       </c>
       <c r="C179">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
       </c>
       <c r="E179">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4034,16 +4034,16 @@
         <v>12000</v>
       </c>
       <c r="C180">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D180" t="s">
         <v>13</v>
       </c>
       <c r="E180">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F180">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4054,13 +4054,13 @@
         <v>12000</v>
       </c>
       <c r="C181">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D181" t="s">
         <v>14</v>
       </c>
       <c r="E181">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4074,13 +4074,13 @@
         <v>12000</v>
       </c>
       <c r="C182">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
       </c>
       <c r="E182">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4094,13 +4094,13 @@
         <v>12000</v>
       </c>
       <c r="C183">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D183" t="s">
         <v>16</v>
       </c>
       <c r="E183">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4114,16 +4114,16 @@
         <v>12000</v>
       </c>
       <c r="C184">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D184" t="s">
         <v>17</v>
       </c>
       <c r="E184">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4134,16 +4134,16 @@
         <v>12000</v>
       </c>
       <c r="C185">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D185" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F185">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4154,13 +4154,13 @@
         <v>12000</v>
       </c>
       <c r="C186">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E186">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -4174,16 +4174,16 @@
         <v>12000</v>
       </c>
       <c r="C187">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E187">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4194,16 +4194,16 @@
         <v>12000</v>
       </c>
       <c r="C188">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E188">
-        <v>4484</v>
+        <v>4316</v>
       </c>
       <c r="F188">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4214,13 +4214,13 @@
         <v>12000</v>
       </c>
       <c r="C189">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
       </c>
       <c r="E189">
-        <v>4216</v>
+        <v>4048</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4234,13 +4234,13 @@
         <v>12000</v>
       </c>
       <c r="C190">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="D190" t="s">
         <v>10</v>
       </c>
       <c r="E190">
-        <v>3948</v>
+        <v>3780</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4254,13 +4254,13 @@
         <v>12000</v>
       </c>
       <c r="C191">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D191" t="s">
         <v>11</v>
       </c>
       <c r="E191">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4274,16 +4274,16 @@
         <v>12000</v>
       </c>
       <c r="C192">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D192" t="s">
         <v>12</v>
       </c>
       <c r="E192">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4291,19 +4291,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C193">
-        <v>304</v>
+        <v>2136</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F193">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4314,16 +4314,16 @@
         <v>12000</v>
       </c>
       <c r="C194">
-        <v>3144</v>
+        <v>1868</v>
       </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E194">
-        <v>2304</v>
+        <v>1868</v>
       </c>
       <c r="F194">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4334,13 +4334,13 @@
         <v>12000</v>
       </c>
       <c r="C195">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="D195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E195">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4354,13 +4354,13 @@
         <v>12000</v>
       </c>
       <c r="C196">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E196">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4374,16 +4374,16 @@
         <v>12000</v>
       </c>
       <c r="C197">
-        <v>1500</v>
+        <v>1064</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E197">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4394,13 +4394,13 @@
         <v>12000</v>
       </c>
       <c r="C198">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E198">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4414,16 +4414,16 @@
         <v>12000</v>
       </c>
       <c r="C199">
-        <v>964</v>
+        <v>5598</v>
       </c>
       <c r="D199" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F199">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4434,16 +4434,16 @@
         <v>12000</v>
       </c>
       <c r="C200">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E200">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4454,13 +4454,13 @@
         <v>12000</v>
       </c>
       <c r="C201">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E201">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4474,16 +4474,16 @@
         <v>12000</v>
       </c>
       <c r="C202">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E202">
-        <v>4484</v>
+        <v>4048</v>
       </c>
       <c r="F202">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4494,13 +4494,13 @@
         <v>12000</v>
       </c>
       <c r="C203">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>12000</v>
       </c>
       <c r="C204">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204">
-        <v>3948</v>
+        <v>3512</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4534,16 +4534,16 @@
         <v>12000</v>
       </c>
       <c r="C205">
-        <v>3680</v>
+        <v>3244</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>3680</v>
+        <v>2404</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4554,13 +4554,13 @@
         <v>12000</v>
       </c>
       <c r="C206">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="D206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>3412</v>
+        <v>2136</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4574,16 +4574,16 @@
         <v>12000</v>
       </c>
       <c r="C207">
-        <v>3144</v>
+        <v>1868</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E207">
-        <v>2304</v>
+        <v>1868</v>
       </c>
       <c r="F207">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4594,13 +4594,13 @@
         <v>12000</v>
       </c>
       <c r="C208">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="D208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E208">
-        <v>2036</v>
+        <v>1600</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -4614,13 +4614,13 @@
         <v>12000</v>
       </c>
       <c r="C209">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="D209" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E209">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4634,16 +4634,16 @@
         <v>12000</v>
       </c>
       <c r="C210">
-        <v>1500</v>
+        <v>1064</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E210">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4654,13 +4654,13 @@
         <v>12000</v>
       </c>
       <c r="C211">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="D211" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>1232</v>
+        <v>5866</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -4674,16 +4674,16 @@
         <v>12000</v>
       </c>
       <c r="C212">
-        <v>964</v>
+        <v>5598</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F212">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4694,16 +4694,16 @@
         <v>12000</v>
       </c>
       <c r="C213">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E213">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4714,13 +4714,13 @@
         <v>12000</v>
       </c>
       <c r="C214">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>12000</v>
       </c>
       <c r="C215">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E215">
-        <v>4484</v>
+        <v>4048</v>
       </c>
       <c r="F215">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4754,13 +4754,13 @@
         <v>12000</v>
       </c>
       <c r="C216">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216">
-        <v>4216</v>
+        <v>3780</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4771,19 +4771,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C217">
-        <v>3948</v>
+        <v>210</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E217">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4794,13 +4794,13 @@
         <v>12000</v>
       </c>
       <c r="C218">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="D218" t="s">
         <v>11</v>
       </c>
       <c r="E218">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4814,16 +4814,16 @@
         <v>12000</v>
       </c>
       <c r="C219">
-        <v>3412</v>
+        <v>3244</v>
       </c>
       <c r="D219" t="s">
         <v>12</v>
       </c>
       <c r="E219">
-        <v>3412</v>
+        <v>2404</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4834,16 +4834,16 @@
         <v>12000</v>
       </c>
       <c r="C220">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D220" t="s">
         <v>13</v>
       </c>
       <c r="E220">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F220">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4854,13 +4854,13 @@
         <v>12000</v>
       </c>
       <c r="C221">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D221" t="s">
         <v>14</v>
       </c>
       <c r="E221">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>12000</v>
       </c>
       <c r="C222">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D222" t="s">
         <v>15</v>
       </c>
       <c r="E222">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4894,13 +4894,13 @@
         <v>12000</v>
       </c>
       <c r="C223">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="D223" t="s">
         <v>16</v>
       </c>
       <c r="E223">
-        <v>1500</v>
+        <v>1332</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4914,16 +4914,16 @@
         <v>12000</v>
       </c>
       <c r="C224">
-        <v>1232</v>
+        <v>1064</v>
       </c>
       <c r="D224" t="s">
         <v>17</v>
       </c>
       <c r="E224">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4934,16 +4934,16 @@
         <v>12000</v>
       </c>
       <c r="C225">
-        <v>964</v>
+        <v>5866</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F225">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4954,13 +4954,13 @@
         <v>12000</v>
       </c>
       <c r="C226">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4971,19 +4971,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C227">
-        <v>5598</v>
+        <v>210</v>
       </c>
       <c r="D227" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E227">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5000,10 +5000,10 @@
         <v>7</v>
       </c>
       <c r="E228">
-        <v>4484</v>
+        <v>4584</v>
       </c>
       <c r="F228">
-        <v>846</v>
+        <v>746</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5014,13 +5014,13 @@
         <v>12000</v>
       </c>
       <c r="C229">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E229">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -5034,13 +5034,13 @@
         <v>12000</v>
       </c>
       <c r="C230">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="D230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E230">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5054,13 +5054,13 @@
         <v>12000</v>
       </c>
       <c r="C231">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E231">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5074,13 +5074,13 @@
         <v>12000</v>
       </c>
       <c r="C232">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="D232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5094,13 +5094,13 @@
         <v>12000</v>
       </c>
       <c r="C233">
-        <v>3144</v>
+        <v>3244</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E233">
-        <v>2304</v>
+        <v>2404</v>
       </c>
       <c r="F233">
         <v>840</v>
@@ -5114,13 +5114,13 @@
         <v>12000</v>
       </c>
       <c r="C234">
-        <v>2036</v>
+        <v>2136</v>
       </c>
       <c r="D234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E234">
-        <v>2036</v>
+        <v>2136</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5134,13 +5134,13 @@
         <v>12000</v>
       </c>
       <c r="C235">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="D235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E235">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5154,13 +5154,13 @@
         <v>12000</v>
       </c>
       <c r="C236">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D236" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E236">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5174,13 +5174,13 @@
         <v>12000</v>
       </c>
       <c r="C237">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="D237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E237">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5194,16 +5194,16 @@
         <v>12000</v>
       </c>
       <c r="C238">
-        <v>964</v>
+        <v>1064</v>
       </c>
       <c r="D238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E238">
         <v>0</v>
       </c>
       <c r="F238">
-        <v>964</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5260,10 +5260,10 @@
         <v>7</v>
       </c>
       <c r="E241">
-        <v>4484</v>
+        <v>4584</v>
       </c>
       <c r="F241">
-        <v>846</v>
+        <v>746</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5274,13 +5274,13 @@
         <v>12000</v>
       </c>
       <c r="C242">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E242">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -5294,13 +5294,13 @@
         <v>12000</v>
       </c>
       <c r="C243">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="D243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E243">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5314,13 +5314,13 @@
         <v>12000</v>
       </c>
       <c r="C244">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E244">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         <v>12000</v>
       </c>
       <c r="C245">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="D245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E245">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5354,13 +5354,13 @@
         <v>12000</v>
       </c>
       <c r="C246">
-        <v>3144</v>
+        <v>3244</v>
       </c>
       <c r="D246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E246">
-        <v>2304</v>
+        <v>2404</v>
       </c>
       <c r="F246">
         <v>840</v>
@@ -5371,19 +5371,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C247">
-        <v>2036</v>
+        <v>210</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E247">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5394,13 +5394,13 @@
         <v>12000</v>
       </c>
       <c r="C248">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E248">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5414,13 +5414,13 @@
         <v>12000</v>
       </c>
       <c r="C249">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="D249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E249">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5434,13 +5434,13 @@
         <v>12000</v>
       </c>
       <c r="C250">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="D250" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E250">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -5454,16 +5454,16 @@
         <v>12000</v>
       </c>
       <c r="C251">
-        <v>964</v>
+        <v>1332</v>
       </c>
       <c r="D251" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F251">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5474,16 +5474,16 @@
         <v>12000</v>
       </c>
       <c r="C252">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D252" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E252">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5494,13 +5494,13 @@
         <v>12000</v>
       </c>
       <c r="C253">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E253">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5514,16 +5514,16 @@
         <v>12000</v>
       </c>
       <c r="C254">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E254">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F254">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5534,16 +5534,16 @@
         <v>12000</v>
       </c>
       <c r="C255">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>4216</v>
+        <v>4584</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5554,13 +5554,13 @@
         <v>12000</v>
       </c>
       <c r="C256">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="D256" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E256">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5574,13 +5574,13 @@
         <v>12000</v>
       </c>
       <c r="C257">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="D257" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E257">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5594,13 +5594,13 @@
         <v>12000</v>
       </c>
       <c r="C258">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="D258" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E258">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5614,16 +5614,16 @@
         <v>12000</v>
       </c>
       <c r="C259">
-        <v>3144</v>
+        <v>3512</v>
       </c>
       <c r="D259" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E259">
-        <v>2304</v>
+        <v>3512</v>
       </c>
       <c r="F259">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5634,16 +5634,16 @@
         <v>12000</v>
       </c>
       <c r="C260">
-        <v>2036</v>
+        <v>3244</v>
       </c>
       <c r="D260" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E260">
-        <v>2036</v>
+        <v>2404</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5651,19 +5651,19 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C261">
-        <v>304</v>
+        <v>2136</v>
       </c>
       <c r="D261" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F261">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5674,13 +5674,13 @@
         <v>12000</v>
       </c>
       <c r="C262">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="D262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E262">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5694,13 +5694,13 @@
         <v>12000</v>
       </c>
       <c r="C263">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E263">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5714,13 +5714,13 @@
         <v>12000</v>
       </c>
       <c r="C264">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="D264" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E264">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5734,16 +5734,16 @@
         <v>12000</v>
       </c>
       <c r="C265">
-        <v>964</v>
+        <v>1064</v>
       </c>
       <c r="D265" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E265">
         <v>0</v>
       </c>
       <c r="F265">
-        <v>964</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5800,10 +5800,10 @@
         <v>7</v>
       </c>
       <c r="E268">
-        <v>4484</v>
+        <v>4584</v>
       </c>
       <c r="F268">
-        <v>846</v>
+        <v>746</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5814,13 +5814,13 @@
         <v>12000</v>
       </c>
       <c r="C269">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="D269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E269">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5834,13 +5834,13 @@
         <v>12000</v>
       </c>
       <c r="C270">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="D270" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E270">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5854,13 +5854,13 @@
         <v>12000</v>
       </c>
       <c r="C271">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E271">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5874,13 +5874,13 @@
         <v>12000</v>
       </c>
       <c r="C272">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="D272" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E272">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5891,19 +5891,19 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C273">
-        <v>304</v>
+        <v>3244</v>
       </c>
       <c r="D273" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F273">
-        <v>304</v>
+        <v>840</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5914,16 +5914,16 @@
         <v>12000</v>
       </c>
       <c r="C274">
-        <v>3144</v>
+        <v>2136</v>
       </c>
       <c r="D274" t="s">
         <v>13</v>
       </c>
       <c r="E274">
-        <v>2304</v>
+        <v>2136</v>
       </c>
       <c r="F274">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5934,13 +5934,13 @@
         <v>12000</v>
       </c>
       <c r="C275">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="D275" t="s">
         <v>14</v>
       </c>
       <c r="E275">
-        <v>2036</v>
+        <v>1868</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5954,13 +5954,13 @@
         <v>12000</v>
       </c>
       <c r="C276">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="D276" t="s">
         <v>15</v>
       </c>
       <c r="E276">
-        <v>1768</v>
+        <v>1600</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5971,19 +5971,19 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C277">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="D277" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E277">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5994,13 +5994,13 @@
         <v>12000</v>
       </c>
       <c r="C278">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="D278" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E278">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6014,16 +6014,16 @@
         <v>12000</v>
       </c>
       <c r="C279">
-        <v>964</v>
+        <v>1064</v>
       </c>
       <c r="D279" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E279">
         <v>0</v>
       </c>
       <c r="F279">
-        <v>964</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6080,10 +6080,10 @@
         <v>7</v>
       </c>
       <c r="E282">
-        <v>4484</v>
+        <v>4584</v>
       </c>
       <c r="F282">
-        <v>846</v>
+        <v>746</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6094,13 +6094,13 @@
         <v>12000</v>
       </c>
       <c r="C283">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="D283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E283">
-        <v>4216</v>
+        <v>4316</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6114,13 +6114,13 @@
         <v>12000</v>
       </c>
       <c r="C284">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="D284" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E284">
-        <v>3948</v>
+        <v>4048</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6131,19 +6131,19 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C285">
-        <v>3680</v>
+        <v>210</v>
       </c>
       <c r="D285" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E285">
-        <v>3680</v>
+        <v>0</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6154,13 +6154,13 @@
         <v>12000</v>
       </c>
       <c r="C286">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="D286" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E286">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -6174,16 +6174,16 @@
         <v>12000</v>
       </c>
       <c r="C287">
-        <v>3144</v>
+        <v>3512</v>
       </c>
       <c r="D287" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E287">
-        <v>2304</v>
+        <v>3512</v>
       </c>
       <c r="F287">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6194,16 +6194,16 @@
         <v>12000</v>
       </c>
       <c r="C288">
-        <v>2036</v>
+        <v>3244</v>
       </c>
       <c r="D288" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E288">
-        <v>2036</v>
+        <v>2404</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6214,13 +6214,13 @@
         <v>12000</v>
       </c>
       <c r="C289">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="D289" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E289">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6234,13 +6234,13 @@
         <v>12000</v>
       </c>
       <c r="C290">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="D290" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E290">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -6254,13 +6254,13 @@
         <v>12000</v>
       </c>
       <c r="C291">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="D291" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E291">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -6274,16 +6274,16 @@
         <v>12000</v>
       </c>
       <c r="C292">
-        <v>964</v>
+        <v>1332</v>
       </c>
       <c r="D292" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F292">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6294,16 +6294,16 @@
         <v>12000</v>
       </c>
       <c r="C293">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D293" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E293">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6314,13 +6314,13 @@
         <v>12000</v>
       </c>
       <c r="C294">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D294" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E294">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>12000</v>
       </c>
       <c r="C295">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E295">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F295">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6354,16 +6354,16 @@
         <v>12000</v>
       </c>
       <c r="C296">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D296" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E296">
-        <v>4216</v>
+        <v>4584</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6374,13 +6374,13 @@
         <v>12000</v>
       </c>
       <c r="C297">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="D297" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E297">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6394,13 +6394,13 @@
         <v>12000</v>
       </c>
       <c r="C298">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="D298" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E298">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6414,13 +6414,13 @@
         <v>12000</v>
       </c>
       <c r="C299">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="D299" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E299">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -6434,16 +6434,16 @@
         <v>12000</v>
       </c>
       <c r="C300">
-        <v>3144</v>
+        <v>3512</v>
       </c>
       <c r="D300" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E300">
-        <v>2304</v>
+        <v>3512</v>
       </c>
       <c r="F300">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6454,16 +6454,16 @@
         <v>12000</v>
       </c>
       <c r="C301">
-        <v>2036</v>
+        <v>3244</v>
       </c>
       <c r="D301" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E301">
-        <v>2036</v>
+        <v>2404</v>
       </c>
       <c r="F301">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6474,13 +6474,13 @@
         <v>12000</v>
       </c>
       <c r="C302">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="D302" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E302">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         <v>12000</v>
       </c>
       <c r="C303">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="D303" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E303">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -6514,13 +6514,13 @@
         <v>12000</v>
       </c>
       <c r="C304">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="D304" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E304">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6534,16 +6534,16 @@
         <v>12000</v>
       </c>
       <c r="C305">
-        <v>964</v>
+        <v>1332</v>
       </c>
       <c r="D305" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F305">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6554,16 +6554,16 @@
         <v>12000</v>
       </c>
       <c r="C306">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D306" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E306">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F306">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6574,13 +6574,13 @@
         <v>12000</v>
       </c>
       <c r="C307">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D307" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E307">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6594,16 +6594,16 @@
         <v>12000</v>
       </c>
       <c r="C308">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D308" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E308">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F308">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6614,16 +6614,16 @@
         <v>12000</v>
       </c>
       <c r="C309">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D309" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E309">
-        <v>4216</v>
+        <v>4584</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6634,13 +6634,13 @@
         <v>12000</v>
       </c>
       <c r="C310">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E310">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6654,13 +6654,13 @@
         <v>12000</v>
       </c>
       <c r="C311">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="D311" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E311">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6674,13 +6674,13 @@
         <v>12000</v>
       </c>
       <c r="C312">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="D312" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E312">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6694,16 +6694,16 @@
         <v>12000</v>
       </c>
       <c r="C313">
-        <v>3144</v>
+        <v>3512</v>
       </c>
       <c r="D313" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E313">
-        <v>2304</v>
+        <v>3512</v>
       </c>
       <c r="F313">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6714,16 +6714,16 @@
         <v>12000</v>
       </c>
       <c r="C314">
-        <v>2036</v>
+        <v>3244</v>
       </c>
       <c r="D314" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E314">
-        <v>2036</v>
+        <v>2404</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6734,13 +6734,13 @@
         <v>12000</v>
       </c>
       <c r="C315">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="D315" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E315">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6754,13 +6754,13 @@
         <v>12000</v>
       </c>
       <c r="C316">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="D316" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E316">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6774,13 +6774,13 @@
         <v>12000</v>
       </c>
       <c r="C317">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="D317" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E317">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6794,16 +6794,16 @@
         <v>12000</v>
       </c>
       <c r="C318">
-        <v>964</v>
+        <v>1332</v>
       </c>
       <c r="D318" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F318">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6814,16 +6814,16 @@
         <v>12000</v>
       </c>
       <c r="C319">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D319" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E319">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6834,13 +6834,13 @@
         <v>12000</v>
       </c>
       <c r="C320">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D320" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E320">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6854,16 +6854,16 @@
         <v>12000</v>
       </c>
       <c r="C321">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D321" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E321">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F321">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6874,16 +6874,16 @@
         <v>12000</v>
       </c>
       <c r="C322">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D322" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E322">
-        <v>4216</v>
+        <v>4584</v>
       </c>
       <c r="F322">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6894,13 +6894,13 @@
         <v>12000</v>
       </c>
       <c r="C323">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="D323" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E323">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6914,13 +6914,13 @@
         <v>12000</v>
       </c>
       <c r="C324">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="D324" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E324">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6934,13 +6934,13 @@
         <v>12000</v>
       </c>
       <c r="C325">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="D325" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E325">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -6954,16 +6954,16 @@
         <v>12000</v>
       </c>
       <c r="C326">
-        <v>3144</v>
+        <v>3512</v>
       </c>
       <c r="D326" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E326">
-        <v>2304</v>
+        <v>3512</v>
       </c>
       <c r="F326">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6974,16 +6974,16 @@
         <v>12000</v>
       </c>
       <c r="C327">
-        <v>2036</v>
+        <v>3244</v>
       </c>
       <c r="D327" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E327">
-        <v>2036</v>
+        <v>2404</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6994,13 +6994,13 @@
         <v>12000</v>
       </c>
       <c r="C328">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="D328" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E328">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7014,13 +7014,13 @@
         <v>12000</v>
       </c>
       <c r="C329">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="D329" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E329">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -7034,13 +7034,13 @@
         <v>12000</v>
       </c>
       <c r="C330">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="D330" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E330">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7054,16 +7054,16 @@
         <v>12000</v>
       </c>
       <c r="C331">
-        <v>964</v>
+        <v>1332</v>
       </c>
       <c r="D331" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F331">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7074,16 +7074,16 @@
         <v>12000</v>
       </c>
       <c r="C332">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D332" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E332">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7094,13 +7094,13 @@
         <v>12000</v>
       </c>
       <c r="C333">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D333" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E333">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7114,16 +7114,16 @@
         <v>12000</v>
       </c>
       <c r="C334">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D334" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E334">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F334">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7134,16 +7134,16 @@
         <v>12000</v>
       </c>
       <c r="C335">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D335" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E335">
-        <v>4216</v>
+        <v>4584</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7154,13 +7154,13 @@
         <v>12000</v>
       </c>
       <c r="C336">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="D336" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E336">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7174,13 +7174,13 @@
         <v>12000</v>
       </c>
       <c r="C337">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="D337" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E337">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -7191,19 +7191,19 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C338">
-        <v>3412</v>
+        <v>210</v>
       </c>
       <c r="D338" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E338">
-        <v>3412</v>
+        <v>0</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7214,16 +7214,16 @@
         <v>12000</v>
       </c>
       <c r="C339">
-        <v>3144</v>
+        <v>3780</v>
       </c>
       <c r="D339" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E339">
-        <v>2304</v>
+        <v>3780</v>
       </c>
       <c r="F339">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7234,13 +7234,13 @@
         <v>12000</v>
       </c>
       <c r="C340">
-        <v>2036</v>
+        <v>3512</v>
       </c>
       <c r="D340" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E340">
-        <v>2036</v>
+        <v>3512</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7254,16 +7254,16 @@
         <v>12000</v>
       </c>
       <c r="C341">
-        <v>1768</v>
+        <v>3244</v>
       </c>
       <c r="D341" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E341">
-        <v>1768</v>
+        <v>2404</v>
       </c>
       <c r="F341">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7274,13 +7274,13 @@
         <v>12000</v>
       </c>
       <c r="C342">
-        <v>1500</v>
+        <v>2136</v>
       </c>
       <c r="D342" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E342">
-        <v>1500</v>
+        <v>2136</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -7294,13 +7294,13 @@
         <v>12000</v>
       </c>
       <c r="C343">
-        <v>1232</v>
+        <v>1868</v>
       </c>
       <c r="D343" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E343">
-        <v>1232</v>
+        <v>1868</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -7314,16 +7314,16 @@
         <v>12000</v>
       </c>
       <c r="C344">
-        <v>964</v>
+        <v>1600</v>
       </c>
       <c r="D344" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F344">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7334,13 +7334,13 @@
         <v>12000</v>
       </c>
       <c r="C345">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D345" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E345">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7354,16 +7354,16 @@
         <v>12000</v>
       </c>
       <c r="C346">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D346" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E346">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F346">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7374,16 +7374,16 @@
         <v>12000</v>
       </c>
       <c r="C347">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D347" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E347">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F347">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7394,13 +7394,13 @@
         <v>12000</v>
       </c>
       <c r="C348">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D348" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E348">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7414,16 +7414,16 @@
         <v>12000</v>
       </c>
       <c r="C349">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D349" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E349">
-        <v>3948</v>
+        <v>4584</v>
       </c>
       <c r="F349">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7434,13 +7434,13 @@
         <v>12000</v>
       </c>
       <c r="C350">
-        <v>3680</v>
+        <v>4316</v>
       </c>
       <c r="D350" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E350">
-        <v>3680</v>
+        <v>4316</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7451,19 +7451,19 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C351">
-        <v>304</v>
+        <v>4048</v>
       </c>
       <c r="D351" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E351">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F351">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7474,13 +7474,13 @@
         <v>12000</v>
       </c>
       <c r="C352">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="D352" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E352">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7494,16 +7494,16 @@
         <v>12000</v>
       </c>
       <c r="C353">
-        <v>3144</v>
+        <v>3512</v>
       </c>
       <c r="D353" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E353">
-        <v>2304</v>
+        <v>3512</v>
       </c>
       <c r="F353">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7514,16 +7514,16 @@
         <v>12000</v>
       </c>
       <c r="C354">
-        <v>2036</v>
+        <v>3244</v>
       </c>
       <c r="D354" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E354">
-        <v>2036</v>
+        <v>2404</v>
       </c>
       <c r="F354">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7534,13 +7534,13 @@
         <v>12000</v>
       </c>
       <c r="C355">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="D355" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E355">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7554,13 +7554,13 @@
         <v>12000</v>
       </c>
       <c r="C356">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="D356" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E356">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -7574,13 +7574,13 @@
         <v>12000</v>
       </c>
       <c r="C357">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="D357" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E357">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7594,16 +7594,16 @@
         <v>12000</v>
       </c>
       <c r="C358">
-        <v>964</v>
+        <v>1332</v>
       </c>
       <c r="D358" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F358">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7614,16 +7614,16 @@
         <v>12000</v>
       </c>
       <c r="C359">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D359" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E359">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7634,13 +7634,13 @@
         <v>12000</v>
       </c>
       <c r="C360">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D360" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E360">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7654,16 +7654,16 @@
         <v>12000</v>
       </c>
       <c r="C361">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D361" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E361">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F361">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7674,16 +7674,16 @@
         <v>12000</v>
       </c>
       <c r="C362">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D362" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E362">
-        <v>4216</v>
+        <v>4584</v>
       </c>
       <c r="F362">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7694,13 +7694,13 @@
         <v>12000</v>
       </c>
       <c r="C363">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="D363" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E363">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7714,13 +7714,13 @@
         <v>12000</v>
       </c>
       <c r="C364">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="D364" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E364">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -7734,13 +7734,13 @@
         <v>12000</v>
       </c>
       <c r="C365">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="D365" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E365">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7754,16 +7754,16 @@
         <v>12000</v>
       </c>
       <c r="C366">
-        <v>3144</v>
+        <v>3512</v>
       </c>
       <c r="D366" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E366">
-        <v>2304</v>
+        <v>3512</v>
       </c>
       <c r="F366">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7774,16 +7774,16 @@
         <v>12000</v>
       </c>
       <c r="C367">
-        <v>2036</v>
+        <v>3244</v>
       </c>
       <c r="D367" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E367">
-        <v>2036</v>
+        <v>2404</v>
       </c>
       <c r="F367">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7794,13 +7794,13 @@
         <v>12000</v>
       </c>
       <c r="C368">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="D368" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E368">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7814,13 +7814,13 @@
         <v>12000</v>
       </c>
       <c r="C369">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="D369" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E369">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7834,13 +7834,13 @@
         <v>12000</v>
       </c>
       <c r="C370">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="D370" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E370">
-        <v>1232</v>
+        <v>1600</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7854,16 +7854,16 @@
         <v>12000</v>
       </c>
       <c r="C371">
-        <v>964</v>
+        <v>1332</v>
       </c>
       <c r="D371" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F371">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7874,16 +7874,16 @@
         <v>12000</v>
       </c>
       <c r="C372">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D372" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E372">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F372">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7894,13 +7894,13 @@
         <v>12000</v>
       </c>
       <c r="C373">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D373" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E373">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7914,16 +7914,16 @@
         <v>12000</v>
       </c>
       <c r="C374">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D374" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E374">
-        <v>4484</v>
+        <v>5598</v>
       </c>
       <c r="F374">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7934,16 +7934,16 @@
         <v>12000</v>
       </c>
       <c r="C375">
-        <v>4216</v>
+        <v>5330</v>
       </c>
       <c r="D375" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E375">
-        <v>4216</v>
+        <v>4584</v>
       </c>
       <c r="F375">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -7954,13 +7954,13 @@
         <v>12000</v>
       </c>
       <c r="C376">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="D376" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E376">
-        <v>3948</v>
+        <v>4316</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -7974,13 +7974,13 @@
         <v>12000</v>
       </c>
       <c r="C377">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="D377" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E377">
-        <v>3680</v>
+        <v>4048</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>12000</v>
       </c>
       <c r="C378">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="D378" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E378">
-        <v>3412</v>
+        <v>3780</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -8014,16 +8014,16 @@
         <v>12000</v>
       </c>
       <c r="C379">
-        <v>3144</v>
+        <v>3512</v>
       </c>
       <c r="D379" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E379">
-        <v>2304</v>
+        <v>3512</v>
       </c>
       <c r="F379">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8034,16 +8034,16 @@
         <v>12000</v>
       </c>
       <c r="C380">
-        <v>2036</v>
+        <v>3244</v>
       </c>
       <c r="D380" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E380">
-        <v>2036</v>
+        <v>2404</v>
       </c>
       <c r="F380">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8054,13 +8054,13 @@
         <v>12000</v>
       </c>
       <c r="C381">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="D381" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E381">
-        <v>1768</v>
+        <v>2136</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8074,13 +8074,13 @@
         <v>12000</v>
       </c>
       <c r="C382">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="D382" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E382">
-        <v>1500</v>
+        <v>1868</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8091,19 +8091,19 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C383">
-        <v>1232</v>
+        <v>210</v>
       </c>
       <c r="D383" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E383">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F383">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8114,16 +8114,16 @@
         <v>12000</v>
       </c>
       <c r="C384">
-        <v>964</v>
+        <v>1600</v>
       </c>
       <c r="D384" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F384">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8134,13 +8134,13 @@
         <v>12000</v>
       </c>
       <c r="C385">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D385" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E385">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>12000</v>
       </c>
       <c r="C386">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D386" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E386">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F386">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8174,16 +8174,16 @@
         <v>12000</v>
       </c>
       <c r="C387">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D387" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E387">
-        <v>4484</v>
+        <v>5866</v>
       </c>
       <c r="F387">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8194,13 +8194,13 @@
         <v>12000</v>
       </c>
       <c r="C388">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="D388" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E388">
-        <v>4216</v>
+        <v>5598</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -8214,16 +8214,16 @@
         <v>12000</v>
       </c>
       <c r="C389">
-        <v>3948</v>
+        <v>5330</v>
       </c>
       <c r="D389" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E389">
-        <v>3948</v>
+        <v>4584</v>
       </c>
       <c r="F389">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8234,13 +8234,13 @@
         <v>12000</v>
       </c>
       <c r="C390">
-        <v>3680</v>
+        <v>4316</v>
       </c>
       <c r="D390" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E390">
-        <v>3680</v>
+        <v>4316</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8254,13 +8254,13 @@
         <v>12000</v>
       </c>
       <c r="C391">
-        <v>3412</v>
+        <v>4048</v>
       </c>
       <c r="D391" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E391">
-        <v>3412</v>
+        <v>4048</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -8274,16 +8274,16 @@
         <v>12000</v>
       </c>
       <c r="C392">
-        <v>3144</v>
+        <v>3780</v>
       </c>
       <c r="D392" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E392">
-        <v>2304</v>
+        <v>3780</v>
       </c>
       <c r="F392">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8294,13 +8294,13 @@
         <v>12000</v>
       </c>
       <c r="C393">
-        <v>2036</v>
+        <v>3512</v>
       </c>
       <c r="D393" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E393">
-        <v>2036</v>
+        <v>3512</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -8314,16 +8314,16 @@
         <v>12000</v>
       </c>
       <c r="C394">
-        <v>1768</v>
+        <v>3244</v>
       </c>
       <c r="D394" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E394">
-        <v>1768</v>
+        <v>2404</v>
       </c>
       <c r="F394">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8334,13 +8334,13 @@
         <v>12000</v>
       </c>
       <c r="C395">
-        <v>1500</v>
+        <v>2136</v>
       </c>
       <c r="D395" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E395">
-        <v>1500</v>
+        <v>2136</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -8351,19 +8351,19 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>12000</v>
+        <v>210</v>
       </c>
       <c r="C396">
-        <v>1232</v>
+        <v>210</v>
       </c>
       <c r="D396" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E396">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="F396">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8374,16 +8374,16 @@
         <v>12000</v>
       </c>
       <c r="C397">
-        <v>964</v>
+        <v>1868</v>
       </c>
       <c r="D397" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F397">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8394,13 +8394,13 @@
         <v>12000</v>
       </c>
       <c r="C398">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D398" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E398">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -8414,13 +8414,13 @@
         <v>12000</v>
       </c>
       <c r="C399">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D399" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E399">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -8434,16 +8434,16 @@
         <v>12000</v>
       </c>
       <c r="C400">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D400" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E400">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F400">
-        <v>846</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8451,16 +8451,16 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C401">
-        <v>3416</v>
+        <v>5866</v>
       </c>
       <c r="D401" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E401">
-        <v>3416</v>
+        <v>5866</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -8471,19 +8471,19 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>304</v>
+        <v>12000</v>
       </c>
       <c r="C402">
-        <v>304</v>
+        <v>5598</v>
       </c>
       <c r="D402" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E402">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F402">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8491,19 +8491,19 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="C403">
-        <v>2348</v>
+        <v>5330</v>
       </c>
       <c r="D403" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E403">
-        <v>2304</v>
+        <v>4584</v>
       </c>
       <c r="F403">
-        <v>44</v>
+        <v>746</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8514,13 +8514,13 @@
         <v>11200</v>
       </c>
       <c r="C404">
-        <v>1236</v>
+        <v>3516</v>
       </c>
       <c r="D404" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E404">
-        <v>1236</v>
+        <v>3516</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>44</v>
+        <v>11200</v>
       </c>
       <c r="C405">
-        <v>44</v>
+        <v>2448</v>
       </c>
       <c r="D405" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E405">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F405">
         <v>44</v>
@@ -8554,16 +8554,16 @@
         <v>11200</v>
       </c>
       <c r="C406">
-        <v>168</v>
+        <v>1336</v>
       </c>
       <c r="D406" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F406">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8574,16 +8574,16 @@
         <v>11200</v>
       </c>
       <c r="C407">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D407" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E407">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F407">
-        <v>582</v>
+        <v>268</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8594,16 +8594,16 @@
         <v>11200</v>
       </c>
       <c r="C408">
-        <v>3416</v>
+        <v>5066</v>
       </c>
       <c r="D408" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E408">
-        <v>3416</v>
+        <v>4584</v>
       </c>
       <c r="F408">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8614,16 +8614,16 @@
         <v>11200</v>
       </c>
       <c r="C409">
-        <v>2348</v>
+        <v>3516</v>
       </c>
       <c r="D409" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E409">
-        <v>2304</v>
+        <v>3516</v>
       </c>
       <c r="F409">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8634,16 +8634,16 @@
         <v>11200</v>
       </c>
       <c r="C410">
-        <v>1236</v>
+        <v>2448</v>
       </c>
       <c r="D410" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E410">
-        <v>1236</v>
+        <v>2404</v>
       </c>
       <c r="F410">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8654,16 +8654,16 @@
         <v>11200</v>
       </c>
       <c r="C411">
-        <v>168</v>
+        <v>1336</v>
       </c>
       <c r="D411" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F411">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8674,16 +8674,16 @@
         <v>11200</v>
       </c>
       <c r="C412">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D412" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E412">
-        <v>4484</v>
+        <v>0</v>
       </c>
       <c r="F412">
-        <v>582</v>
+        <v>268</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8691,19 +8691,19 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>44</v>
+        <v>11200</v>
       </c>
       <c r="C413">
-        <v>44</v>
+        <v>5066</v>
       </c>
       <c r="D413" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E413">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F413">
-        <v>44</v>
+        <v>482</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8714,13 +8714,13 @@
         <v>11200</v>
       </c>
       <c r="C414">
-        <v>3416</v>
+        <v>3516</v>
       </c>
       <c r="D414" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E414">
-        <v>3416</v>
+        <v>3516</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -8734,13 +8734,13 @@
         <v>11200</v>
       </c>
       <c r="C415">
-        <v>2348</v>
+        <v>2448</v>
       </c>
       <c r="D415" t="s">
         <v>20</v>
       </c>
       <c r="E415">
-        <v>2304</v>
+        <v>2404</v>
       </c>
       <c r="F415">
         <v>44</v>
@@ -8754,13 +8754,13 @@
         <v>11200</v>
       </c>
       <c r="C416">
-        <v>1236</v>
+        <v>1336</v>
       </c>
       <c r="D416" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E416">
-        <v>1236</v>
+        <v>1336</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>11200</v>
       </c>
       <c r="C417">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="D417" t="s">
         <v>21</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="F417">
-        <v>168</v>
+        <v>268</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8791,19 +8791,19 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>9400</v>
+        <v>44</v>
       </c>
       <c r="C418">
-        <v>3266</v>
+        <v>44</v>
       </c>
       <c r="D418" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E418">
-        <v>2304</v>
+        <v>0</v>
       </c>
       <c r="F418">
-        <v>962</v>
+        <v>44</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8814,16 +8814,16 @@
         <v>9400</v>
       </c>
       <c r="C419">
-        <v>5570</v>
+        <v>3266</v>
       </c>
       <c r="D419" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E419">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F419">
-        <v>1086</v>
+        <v>862</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8834,13 +8834,13 @@
         <v>9400</v>
       </c>
       <c r="C420">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D420" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E420">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -8854,13 +8854,13 @@
         <v>9400</v>
       </c>
       <c r="C421">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D421" t="s">
         <v>23</v>
       </c>
       <c r="E421">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F421">
         <v>398</v>
@@ -8874,13 +8874,13 @@
         <v>9400</v>
       </c>
       <c r="C422">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D422" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E422">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -8894,13 +8894,13 @@
         <v>9400</v>
       </c>
       <c r="C423">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D423" t="s">
         <v>23</v>
       </c>
       <c r="E423">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F423">
         <v>398</v>
@@ -8914,13 +8914,13 @@
         <v>9400</v>
       </c>
       <c r="C424">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D424" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E424">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -8934,13 +8934,13 @@
         <v>9400</v>
       </c>
       <c r="C425">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D425" t="s">
         <v>23</v>
       </c>
       <c r="E425">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F425">
         <v>398</v>
@@ -8954,13 +8954,13 @@
         <v>9400</v>
       </c>
       <c r="C426">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D426" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E426">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F426">
         <v>0</v>
@@ -8974,13 +8974,13 @@
         <v>9400</v>
       </c>
       <c r="C427">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D427" t="s">
         <v>23</v>
       </c>
       <c r="E427">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F427">
         <v>398</v>
@@ -8994,13 +8994,13 @@
         <v>9400</v>
       </c>
       <c r="C428">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D428" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E428">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -9014,13 +9014,13 @@
         <v>9400</v>
       </c>
       <c r="C429">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D429" t="s">
         <v>23</v>
       </c>
       <c r="E429">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F429">
         <v>398</v>
@@ -9034,13 +9034,13 @@
         <v>9400</v>
       </c>
       <c r="C430">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D430" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E430">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -9051,19 +9051,19 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C431">
-        <v>44</v>
+        <v>2802</v>
       </c>
       <c r="D431" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E431">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F431">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9074,16 +9074,16 @@
         <v>9400</v>
       </c>
       <c r="C432">
-        <v>4882</v>
+        <v>5670</v>
       </c>
       <c r="D432" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E432">
-        <v>4484</v>
+        <v>5670</v>
       </c>
       <c r="F432">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9091,19 +9091,19 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C433">
-        <v>44</v>
+        <v>2802</v>
       </c>
       <c r="D433" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E433">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F433">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9114,13 +9114,13 @@
         <v>9400</v>
       </c>
       <c r="C434">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D434" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E434">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -9134,13 +9134,13 @@
         <v>9400</v>
       </c>
       <c r="C435">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D435" t="s">
         <v>23</v>
       </c>
       <c r="E435">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F435">
         <v>398</v>
@@ -9154,13 +9154,13 @@
         <v>9400</v>
       </c>
       <c r="C436">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="D436" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E436">
-        <v>1616</v>
+        <v>5670</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -9174,13 +9174,13 @@
         <v>9400</v>
       </c>
       <c r="C437">
-        <v>4882</v>
+        <v>2802</v>
       </c>
       <c r="D437" t="s">
         <v>23</v>
       </c>
       <c r="E437">
-        <v>4484</v>
+        <v>2404</v>
       </c>
       <c r="F437">
         <v>398</v>
@@ -9191,19 +9191,19 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>44</v>
+        <v>9400</v>
       </c>
       <c r="C438">
-        <v>44</v>
+        <v>5670</v>
       </c>
       <c r="D438" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E438">
-        <v>0</v>
+        <v>5670</v>
       </c>
       <c r="F438">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9214,16 +9214,16 @@
         <v>9400</v>
       </c>
       <c r="C439">
-        <v>1616</v>
+        <v>2802</v>
       </c>
       <c r="D439" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E439">
-        <v>1616</v>
+        <v>2404</v>
       </c>
       <c r="F439">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -9234,16 +9234,16 @@
         <v>9400</v>
       </c>
       <c r="C440">
-        <v>4882</v>
+        <v>5670</v>
       </c>
       <c r="D440" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E440">
-        <v>4484</v>
+        <v>5670</v>
       </c>
       <c r="F440">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9254,16 +9254,16 @@
         <v>9400</v>
       </c>
       <c r="C441">
-        <v>1616</v>
+        <v>2802</v>
       </c>
       <c r="D441" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E441">
-        <v>1616</v>
+        <v>2404</v>
       </c>
       <c r="F441">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -9274,16 +9274,16 @@
         <v>9400</v>
       </c>
       <c r="C442">
-        <v>4882</v>
+        <v>5670</v>
       </c>
       <c r="D442" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E442">
-        <v>4484</v>
+        <v>5670</v>
       </c>
       <c r="F442">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -9294,16 +9294,16 @@
         <v>9400</v>
       </c>
       <c r="C443">
-        <v>1616</v>
+        <v>2802</v>
       </c>
       <c r="D443" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E443">
-        <v>1616</v>
+        <v>2404</v>
       </c>
       <c r="F443">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -9314,16 +9314,16 @@
         <v>9400</v>
       </c>
       <c r="C444">
-        <v>4882</v>
+        <v>5670</v>
       </c>
       <c r="D444" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E444">
-        <v>4484</v>
+        <v>5670</v>
       </c>
       <c r="F444">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -9334,56 +9334,16 @@
         <v>9400</v>
       </c>
       <c r="C445">
-        <v>1616</v>
+        <v>2802</v>
       </c>
       <c r="D445" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E445">
-        <v>1616</v>
+        <v>0</v>
       </c>
       <c r="F445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446">
-        <v>9400</v>
-      </c>
-      <c r="C446">
-        <v>4882</v>
-      </c>
-      <c r="D446" t="s">
-        <v>23</v>
-      </c>
-      <c r="E446">
-        <v>4484</v>
-      </c>
-      <c r="F446">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="B447">
-        <v>9400</v>
-      </c>
-      <c r="C447">
-        <v>1616</v>
-      </c>
-      <c r="D447" t="s">
-        <v>9</v>
-      </c>
-      <c r="E447">
-        <v>0</v>
-      </c>
-      <c r="F447">
-        <v>1616</v>
+        <v>2802</v>
       </c>
     </row>
   </sheetData>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F445"/>
+  <dimension ref="A1:F424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,21 +773,21 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746</v>
+        <v>12000</v>
       </c>
       <c r="C16" t="n">
-        <v>478</v>
+        <v>5598</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[268]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F16" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -798,18 +798,18 @@
         <v>12000</v>
       </c>
       <c r="C17" t="n">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18">
@@ -820,15 +820,15 @@
         <v>12000</v>
       </c>
       <c r="C18" t="n">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -842,18 +842,18 @@
         <v>12000</v>
       </c>
       <c r="C19" t="n">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F19" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -864,15 +864,15 @@
         <v>12000</v>
       </c>
       <c r="C20" t="n">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -886,15 +886,15 @@
         <v>12000</v>
       </c>
       <c r="C21" t="n">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -908,18 +908,18 @@
         <v>12000</v>
       </c>
       <c r="C22" t="n">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23">
@@ -930,15 +930,15 @@
         <v>12000</v>
       </c>
       <c r="C23" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -949,21 +949,21 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C24" t="n">
-        <v>478</v>
+        <v>1868</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F24" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -974,18 +974,18 @@
         <v>12000</v>
       </c>
       <c r="C25" t="n">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F25" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -996,15 +996,15 @@
         <v>12000</v>
       </c>
       <c r="C26" t="n">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1018,18 +1018,18 @@
         <v>12000</v>
       </c>
       <c r="C27" t="n">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="28">
@@ -1040,15 +1040,15 @@
         <v>12000</v>
       </c>
       <c r="C28" t="n">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1062,15 +1062,15 @@
         <v>12000</v>
       </c>
       <c r="C29" t="n">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1084,18 +1084,18 @@
         <v>12000</v>
       </c>
       <c r="C30" t="n">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F30" t="n">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31">
@@ -1106,15 +1106,15 @@
         <v>12000</v>
       </c>
       <c r="C31" t="n">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1128,15 +1128,15 @@
         <v>12000</v>
       </c>
       <c r="C32" t="n">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1150,18 +1150,18 @@
         <v>12000</v>
       </c>
       <c r="C33" t="n">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F33" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1172,15 +1172,15 @@
         <v>12000</v>
       </c>
       <c r="C34" t="n">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1194,18 +1194,18 @@
         <v>12000</v>
       </c>
       <c r="C35" t="n">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36">
@@ -1216,15 +1216,15 @@
         <v>12000</v>
       </c>
       <c r="C36" t="n">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1238,15 +1238,15 @@
         <v>12000</v>
       </c>
       <c r="C37" t="n">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1257,21 +1257,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C38" t="n">
-        <v>478</v>
+        <v>1600</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F38" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1282,18 +1282,18 @@
         <v>12000</v>
       </c>
       <c r="C39" t="n">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F39" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1304,18 +1304,18 @@
         <v>12000</v>
       </c>
       <c r="C40" t="n">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="41">
@@ -1326,15 +1326,15 @@
         <v>12000</v>
       </c>
       <c r="C41" t="n">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1348,15 +1348,15 @@
         <v>12000</v>
       </c>
       <c r="C42" t="n">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1370,18 +1370,18 @@
         <v>12000</v>
       </c>
       <c r="C43" t="n">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="44">
@@ -1392,18 +1392,18 @@
         <v>12000</v>
       </c>
       <c r="C44" t="n">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F44" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1414,15 +1414,15 @@
         <v>12000</v>
       </c>
       <c r="C45" t="n">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1436,15 +1436,15 @@
         <v>12000</v>
       </c>
       <c r="C46" t="n">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1458,18 +1458,18 @@
         <v>12000</v>
       </c>
       <c r="C47" t="n">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F47" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1480,18 +1480,18 @@
         <v>12000</v>
       </c>
       <c r="C48" t="n">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49">
@@ -1502,15 +1502,15 @@
         <v>12000</v>
       </c>
       <c r="C49" t="n">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -1524,15 +1524,15 @@
         <v>12000</v>
       </c>
       <c r="C50" t="n">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1546,15 +1546,15 @@
         <v>12000</v>
       </c>
       <c r="C51" t="n">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -1568,18 +1568,18 @@
         <v>12000</v>
       </c>
       <c r="C52" t="n">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F52" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1590,18 +1590,18 @@
         <v>12000</v>
       </c>
       <c r="C53" t="n">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="54">
@@ -1612,15 +1612,15 @@
         <v>12000</v>
       </c>
       <c r="C54" t="n">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -1634,15 +1634,15 @@
         <v>12000</v>
       </c>
       <c r="C55" t="n">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -1656,18 +1656,18 @@
         <v>12000</v>
       </c>
       <c r="C56" t="n">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57">
@@ -1678,18 +1678,18 @@
         <v>12000</v>
       </c>
       <c r="C57" t="n">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F57" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1700,15 +1700,15 @@
         <v>12000</v>
       </c>
       <c r="C58" t="n">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -1722,15 +1722,15 @@
         <v>12000</v>
       </c>
       <c r="C59" t="n">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -1744,18 +1744,18 @@
         <v>12000</v>
       </c>
       <c r="C60" t="n">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F60" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1766,18 +1766,18 @@
         <v>12000</v>
       </c>
       <c r="C61" t="n">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="62">
@@ -1788,15 +1788,15 @@
         <v>12000</v>
       </c>
       <c r="C62" t="n">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -1810,15 +1810,15 @@
         <v>12000</v>
       </c>
       <c r="C63" t="n">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -1832,15 +1832,15 @@
         <v>12000</v>
       </c>
       <c r="C64" t="n">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -1854,18 +1854,18 @@
         <v>12000</v>
       </c>
       <c r="C65" t="n">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F65" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1876,18 +1876,18 @@
         <v>12000</v>
       </c>
       <c r="C66" t="n">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="67">
@@ -1898,15 +1898,15 @@
         <v>12000</v>
       </c>
       <c r="C67" t="n">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -1920,15 +1920,15 @@
         <v>12000</v>
       </c>
       <c r="C68" t="n">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -1942,18 +1942,18 @@
         <v>12000</v>
       </c>
       <c r="C69" t="n">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="70">
@@ -1964,18 +1964,18 @@
         <v>12000</v>
       </c>
       <c r="C70" t="n">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F70" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1986,15 +1986,15 @@
         <v>12000</v>
       </c>
       <c r="C71" t="n">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2008,15 +2008,15 @@
         <v>12000</v>
       </c>
       <c r="C72" t="n">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5598</v>
+        <v>3780</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2027,21 +2027,21 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C73" t="n">
-        <v>478</v>
+        <v>3512</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F73" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2052,18 +2052,18 @@
         <v>12000</v>
       </c>
       <c r="C74" t="n">
-        <v>5330</v>
+        <v>3244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F74" t="n">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75">
@@ -2074,15 +2074,15 @@
         <v>12000</v>
       </c>
       <c r="C75" t="n">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -2096,15 +2096,15 @@
         <v>12000</v>
       </c>
       <c r="C76" t="n">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2118,15 +2118,15 @@
         <v>12000</v>
       </c>
       <c r="C77" t="n">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2140,15 +2140,15 @@
         <v>12000</v>
       </c>
       <c r="C78" t="n">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2162,18 +2162,18 @@
         <v>12000</v>
       </c>
       <c r="C79" t="n">
-        <v>3244</v>
+        <v>1064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>840</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="80">
@@ -2184,15 +2184,15 @@
         <v>12000</v>
       </c>
       <c r="C80" t="n">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2206,15 +2206,15 @@
         <v>12000</v>
       </c>
       <c r="C81" t="n">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2228,18 +2228,18 @@
         <v>12000</v>
       </c>
       <c r="C82" t="n">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="83">
@@ -2250,15 +2250,15 @@
         <v>12000</v>
       </c>
       <c r="C83" t="n">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2272,18 +2272,18 @@
         <v>12000</v>
       </c>
       <c r="C84" t="n">
-        <v>1064</v>
+        <v>4048</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F84" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2294,15 +2294,15 @@
         <v>12000</v>
       </c>
       <c r="C85" t="n">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2316,15 +2316,15 @@
         <v>12000</v>
       </c>
       <c r="C86" t="n">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2338,18 +2338,18 @@
         <v>12000</v>
       </c>
       <c r="C87" t="n">
-        <v>5330</v>
+        <v>3244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F87" t="n">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="88">
@@ -2360,15 +2360,15 @@
         <v>12000</v>
       </c>
       <c r="C88" t="n">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2382,15 +2382,15 @@
         <v>12000</v>
       </c>
       <c r="C89" t="n">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -2404,15 +2404,15 @@
         <v>12000</v>
       </c>
       <c r="C90" t="n">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -2426,15 +2426,15 @@
         <v>12000</v>
       </c>
       <c r="C91" t="n">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3512</v>
+        <v>1332</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -2448,18 +2448,18 @@
         <v>12000</v>
       </c>
       <c r="C92" t="n">
-        <v>3244</v>
+        <v>1064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>840</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="93">
@@ -2470,15 +2470,15 @@
         <v>12000</v>
       </c>
       <c r="C93" t="n">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -2492,15 +2492,15 @@
         <v>12000</v>
       </c>
       <c r="C94" t="n">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -2514,18 +2514,18 @@
         <v>12000</v>
       </c>
       <c r="C95" t="n">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96">
@@ -2533,21 +2533,21 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C96" t="n">
-        <v>478</v>
+        <v>4316</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F96" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2558,15 +2558,15 @@
         <v>12000</v>
       </c>
       <c r="C97" t="n">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -2580,18 +2580,18 @@
         <v>12000</v>
       </c>
       <c r="C98" t="n">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F98" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2602,15 +2602,15 @@
         <v>12000</v>
       </c>
       <c r="C99" t="n">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -2624,18 +2624,18 @@
         <v>12000</v>
       </c>
       <c r="C100" t="n">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="101">
@@ -2646,18 +2646,18 @@
         <v>12000</v>
       </c>
       <c r="C101" t="n">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F101" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2668,15 +2668,15 @@
         <v>12000</v>
       </c>
       <c r="C102" t="n">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -2690,15 +2690,15 @@
         <v>12000</v>
       </c>
       <c r="C103" t="n">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -2712,15 +2712,15 @@
         <v>12000</v>
       </c>
       <c r="C104" t="n">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -2731,21 +2731,21 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C105" t="n">
-        <v>478</v>
+        <v>1064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>478</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="106">
@@ -2756,15 +2756,15 @@
         <v>12000</v>
       </c>
       <c r="C106" t="n">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -2778,18 +2778,18 @@
         <v>12000</v>
       </c>
       <c r="C107" t="n">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F107" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2800,18 +2800,18 @@
         <v>12000</v>
       </c>
       <c r="C108" t="n">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="109">
@@ -2822,15 +2822,15 @@
         <v>12000</v>
       </c>
       <c r="C109" t="n">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -2844,15 +2844,15 @@
         <v>12000</v>
       </c>
       <c r="C110" t="n">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -2866,15 +2866,15 @@
         <v>12000</v>
       </c>
       <c r="C111" t="n">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -2888,18 +2888,18 @@
         <v>12000</v>
       </c>
       <c r="C112" t="n">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F112" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2910,18 +2910,18 @@
         <v>12000</v>
       </c>
       <c r="C113" t="n">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="114">
@@ -2932,15 +2932,15 @@
         <v>12000</v>
       </c>
       <c r="C114" t="n">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -2954,18 +2954,18 @@
         <v>12000</v>
       </c>
       <c r="C115" t="n">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F115" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2976,15 +2976,15 @@
         <v>12000</v>
       </c>
       <c r="C116" t="n">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -2998,15 +2998,15 @@
         <v>12000</v>
       </c>
       <c r="C117" t="n">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3020,18 +3020,18 @@
         <v>12000</v>
       </c>
       <c r="C118" t="n">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="119">
@@ -3042,15 +3042,15 @@
         <v>12000</v>
       </c>
       <c r="C119" t="n">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3064,18 +3064,18 @@
         <v>12000</v>
       </c>
       <c r="C120" t="n">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F120" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3086,18 +3086,18 @@
         <v>12000</v>
       </c>
       <c r="C121" t="n">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="122">
@@ -3108,15 +3108,15 @@
         <v>12000</v>
       </c>
       <c r="C122" t="n">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3130,15 +3130,15 @@
         <v>12000</v>
       </c>
       <c r="C123" t="n">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3152,15 +3152,15 @@
         <v>12000</v>
       </c>
       <c r="C124" t="n">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -3174,18 +3174,18 @@
         <v>12000</v>
       </c>
       <c r="C125" t="n">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F125" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3196,18 +3196,18 @@
         <v>12000</v>
       </c>
       <c r="C126" t="n">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="127">
@@ -3218,15 +3218,15 @@
         <v>12000</v>
       </c>
       <c r="C127" t="n">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -3240,18 +3240,18 @@
         <v>12000</v>
       </c>
       <c r="C128" t="n">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F128" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3262,15 +3262,15 @@
         <v>12000</v>
       </c>
       <c r="C129" t="n">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -3284,15 +3284,15 @@
         <v>12000</v>
       </c>
       <c r="C130" t="n">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -3306,18 +3306,18 @@
         <v>12000</v>
       </c>
       <c r="C131" t="n">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="132">
@@ -3328,15 +3328,15 @@
         <v>12000</v>
       </c>
       <c r="C132" t="n">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -3350,18 +3350,18 @@
         <v>12000</v>
       </c>
       <c r="C133" t="n">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F133" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3372,18 +3372,18 @@
         <v>12000</v>
       </c>
       <c r="C134" t="n">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="135">
@@ -3394,15 +3394,15 @@
         <v>12000</v>
       </c>
       <c r="C135" t="n">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -3416,15 +3416,15 @@
         <v>12000</v>
       </c>
       <c r="C136" t="n">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -3438,15 +3438,15 @@
         <v>12000</v>
       </c>
       <c r="C137" t="n">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -3460,18 +3460,18 @@
         <v>12000</v>
       </c>
       <c r="C138" t="n">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F138" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3482,18 +3482,18 @@
         <v>12000</v>
       </c>
       <c r="C139" t="n">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="140">
@@ -3504,15 +3504,15 @@
         <v>12000</v>
       </c>
       <c r="C140" t="n">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -3526,18 +3526,18 @@
         <v>12000</v>
       </c>
       <c r="C141" t="n">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F141" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3548,15 +3548,15 @@
         <v>12000</v>
       </c>
       <c r="C142" t="n">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -3570,15 +3570,15 @@
         <v>12000</v>
       </c>
       <c r="C143" t="n">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4048</v>
+        <v>1332</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -3592,18 +3592,18 @@
         <v>12000</v>
       </c>
       <c r="C144" t="n">
-        <v>3780</v>
+        <v>1064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="145">
@@ -3614,15 +3614,15 @@
         <v>12000</v>
       </c>
       <c r="C145" t="n">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3512</v>
+        <v>5866</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -3636,18 +3636,18 @@
         <v>12000</v>
       </c>
       <c r="C146" t="n">
-        <v>3244</v>
+        <v>5598</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>2404</v>
+        <v>5598</v>
       </c>
       <c r="F146" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3658,18 +3658,18 @@
         <v>12000</v>
       </c>
       <c r="C147" t="n">
-        <v>2136</v>
+        <v>5330</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2136</v>
+        <v>4584</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="148">
@@ -3680,15 +3680,15 @@
         <v>12000</v>
       </c>
       <c r="C148" t="n">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1868</v>
+        <v>4316</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -3702,15 +3702,15 @@
         <v>12000</v>
       </c>
       <c r="C149" t="n">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1600</v>
+        <v>4048</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -3724,15 +3724,15 @@
         <v>12000</v>
       </c>
       <c r="C150" t="n">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1332</v>
+        <v>3780</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -3746,18 +3746,18 @@
         <v>12000</v>
       </c>
       <c r="C151" t="n">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F151" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3765,21 +3765,21 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C152" t="n">
-        <v>478</v>
+        <v>3244</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F152" t="n">
-        <v>478</v>
+        <v>840</v>
       </c>
     </row>
     <row r="153">
@@ -3790,15 +3790,15 @@
         <v>12000</v>
       </c>
       <c r="C153" t="n">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -3812,15 +3812,15 @@
         <v>12000</v>
       </c>
       <c r="C154" t="n">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -3834,18 +3834,18 @@
         <v>12000</v>
       </c>
       <c r="C155" t="n">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F155" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3856,15 +3856,15 @@
         <v>12000</v>
       </c>
       <c r="C156" t="n">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -3878,18 +3878,18 @@
         <v>12000</v>
       </c>
       <c r="C157" t="n">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="158">
@@ -3900,15 +3900,15 @@
         <v>12000</v>
       </c>
       <c r="C158" t="n">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -3922,15 +3922,15 @@
         <v>12000</v>
       </c>
       <c r="C159" t="n">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -3944,18 +3944,18 @@
         <v>12000</v>
       </c>
       <c r="C160" t="n">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F160" t="n">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="161">
@@ -3966,15 +3966,15 @@
         <v>12000</v>
       </c>
       <c r="C161" t="n">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -3988,15 +3988,15 @@
         <v>12000</v>
       </c>
       <c r="C162" t="n">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -4010,15 +4010,15 @@
         <v>12000</v>
       </c>
       <c r="C163" t="n">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -4032,15 +4032,15 @@
         <v>12000</v>
       </c>
       <c r="C164" t="n">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -4054,18 +4054,18 @@
         <v>12000</v>
       </c>
       <c r="C165" t="n">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F165" t="n">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="166">
@@ -4076,15 +4076,15 @@
         <v>12000</v>
       </c>
       <c r="C166" t="n">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -4098,15 +4098,15 @@
         <v>12000</v>
       </c>
       <c r="C167" t="n">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -4117,21 +4117,21 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C168" t="n">
-        <v>478</v>
+        <v>1600</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F168" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4142,18 +4142,18 @@
         <v>12000</v>
       </c>
       <c r="C169" t="n">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F169" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4164,18 +4164,18 @@
         <v>12000</v>
       </c>
       <c r="C170" t="n">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="171">
@@ -4186,15 +4186,15 @@
         <v>12000</v>
       </c>
       <c r="C171" t="n">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -4208,15 +4208,15 @@
         <v>12000</v>
       </c>
       <c r="C172" t="n">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -4230,18 +4230,18 @@
         <v>12000</v>
       </c>
       <c r="C173" t="n">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="174">
@@ -4252,18 +4252,18 @@
         <v>12000</v>
       </c>
       <c r="C174" t="n">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F174" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4274,15 +4274,15 @@
         <v>12000</v>
       </c>
       <c r="C175" t="n">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -4296,15 +4296,15 @@
         <v>12000</v>
       </c>
       <c r="C176" t="n">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -4318,15 +4318,15 @@
         <v>12000</v>
       </c>
       <c r="C177" t="n">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -4340,18 +4340,18 @@
         <v>12000</v>
       </c>
       <c r="C178" t="n">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="179">
@@ -4362,18 +4362,18 @@
         <v>12000</v>
       </c>
       <c r="C179" t="n">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F179" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4384,15 +4384,15 @@
         <v>12000</v>
       </c>
       <c r="C180" t="n">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -4406,15 +4406,15 @@
         <v>12000</v>
       </c>
       <c r="C181" t="n">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -4428,18 +4428,18 @@
         <v>12000</v>
       </c>
       <c r="C182" t="n">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F182" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4450,18 +4450,18 @@
         <v>12000</v>
       </c>
       <c r="C183" t="n">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="184">
@@ -4472,15 +4472,15 @@
         <v>12000</v>
       </c>
       <c r="C184" t="n">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -4494,15 +4494,15 @@
         <v>12000</v>
       </c>
       <c r="C185" t="n">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -4513,21 +4513,21 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C186" t="n">
-        <v>478</v>
+        <v>5330</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F186" t="n">
-        <v>478</v>
+        <v>746</v>
       </c>
     </row>
     <row r="187">
@@ -4538,15 +4538,15 @@
         <v>12000</v>
       </c>
       <c r="C187" t="n">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3512</v>
+        <v>4316</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -4560,18 +4560,18 @@
         <v>12000</v>
       </c>
       <c r="C188" t="n">
-        <v>3244</v>
+        <v>4048</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2404</v>
+        <v>4048</v>
       </c>
       <c r="F188" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4582,15 +4582,15 @@
         <v>12000</v>
       </c>
       <c r="C189" t="n">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2136</v>
+        <v>3780</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -4604,15 +4604,15 @@
         <v>12000</v>
       </c>
       <c r="C190" t="n">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1868</v>
+        <v>3512</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -4626,18 +4626,18 @@
         <v>12000</v>
       </c>
       <c r="C191" t="n">
-        <v>1600</v>
+        <v>3244</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1600</v>
+        <v>2404</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="192">
@@ -4648,15 +4648,15 @@
         <v>12000</v>
       </c>
       <c r="C192" t="n">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1332</v>
+        <v>2136</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -4670,18 +4670,18 @@
         <v>12000</v>
       </c>
       <c r="C193" t="n">
-        <v>1064</v>
+        <v>1868</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F193" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4692,15 +4692,15 @@
         <v>12000</v>
       </c>
       <c r="C194" t="n">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>5866</v>
+        <v>1600</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -4714,15 +4714,15 @@
         <v>12000</v>
       </c>
       <c r="C195" t="n">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>5598</v>
+        <v>1332</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -4736,18 +4736,18 @@
         <v>12000</v>
       </c>
       <c r="C196" t="n">
-        <v>5330</v>
+        <v>1064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>746</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="197">
@@ -4758,15 +4758,15 @@
         <v>12000</v>
       </c>
       <c r="C197" t="n">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>4316</v>
+        <v>5866</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -4780,15 +4780,15 @@
         <v>12000</v>
       </c>
       <c r="C198" t="n">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>4048</v>
+        <v>5598</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -4799,21 +4799,21 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C199" t="n">
-        <v>478</v>
+        <v>5330</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F199" t="n">
-        <v>478</v>
+        <v>746</v>
       </c>
     </row>
     <row r="200">
@@ -4821,21 +4821,21 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C200" t="n">
-        <v>478</v>
+        <v>4316</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F200" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4846,15 +4846,15 @@
         <v>12000</v>
       </c>
       <c r="C201" t="n">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -4868,15 +4868,15 @@
         <v>12000</v>
       </c>
       <c r="C202" t="n">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -4890,18 +4890,18 @@
         <v>12000</v>
       </c>
       <c r="C203" t="n">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F203" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4912,18 +4912,18 @@
         <v>12000</v>
       </c>
       <c r="C204" t="n">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="205">
@@ -4934,15 +4934,15 @@
         <v>12000</v>
       </c>
       <c r="C205" t="n">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -4956,15 +4956,15 @@
         <v>12000</v>
       </c>
       <c r="C206" t="n">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -4978,15 +4978,15 @@
         <v>12000</v>
       </c>
       <c r="C207" t="n">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -5000,18 +5000,18 @@
         <v>12000</v>
       </c>
       <c r="C208" t="n">
-        <v>1064</v>
+        <v>1332</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F208" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5022,18 +5022,18 @@
         <v>12000</v>
       </c>
       <c r="C209" t="n">
-        <v>5866</v>
+        <v>1064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="210">
@@ -5044,15 +5044,15 @@
         <v>12000</v>
       </c>
       <c r="C210" t="n">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -5066,18 +5066,18 @@
         <v>12000</v>
       </c>
       <c r="C211" t="n">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F211" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5088,18 +5088,18 @@
         <v>12000</v>
       </c>
       <c r="C212" t="n">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="213">
@@ -5110,15 +5110,15 @@
         <v>12000</v>
       </c>
       <c r="C213" t="n">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -5132,15 +5132,15 @@
         <v>12000</v>
       </c>
       <c r="C214" t="n">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -5154,15 +5154,15 @@
         <v>12000</v>
       </c>
       <c r="C215" t="n">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -5176,18 +5176,18 @@
         <v>12000</v>
       </c>
       <c r="C216" t="n">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F216" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -5198,18 +5198,18 @@
         <v>12000</v>
       </c>
       <c r="C217" t="n">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="218">
@@ -5220,15 +5220,15 @@
         <v>12000</v>
       </c>
       <c r="C218" t="n">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -5242,15 +5242,15 @@
         <v>12000</v>
       </c>
       <c r="C219" t="n">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -5264,15 +5264,15 @@
         <v>12000</v>
       </c>
       <c r="C220" t="n">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1332</v>
+        <v>1600</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -5283,21 +5283,21 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C221" t="n">
-        <v>478</v>
+        <v>1332</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F221" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -5327,21 +5327,21 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C223" t="n">
-        <v>478</v>
+        <v>5866</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F223" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5352,15 +5352,15 @@
         <v>12000</v>
       </c>
       <c r="C224" t="n">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
@@ -5374,18 +5374,18 @@
         <v>12000</v>
       </c>
       <c r="C225" t="n">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="226">
@@ -5396,18 +5396,18 @@
         <v>12000</v>
       </c>
       <c r="C226" t="n">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F226" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -5418,15 +5418,15 @@
         <v>12000</v>
       </c>
       <c r="C227" t="n">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5440,15 +5440,15 @@
         <v>12000</v>
       </c>
       <c r="C228" t="n">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -5462,15 +5462,15 @@
         <v>12000</v>
       </c>
       <c r="C229" t="n">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>3780</v>
+        <v>3512</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -5484,18 +5484,18 @@
         <v>12000</v>
       </c>
       <c r="C230" t="n">
-        <v>3512</v>
+        <v>3244</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="231">
@@ -5506,18 +5506,18 @@
         <v>12000</v>
       </c>
       <c r="C231" t="n">
-        <v>3244</v>
+        <v>2136</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2404</v>
+        <v>2136</v>
       </c>
       <c r="F231" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5528,15 +5528,15 @@
         <v>12000</v>
       </c>
       <c r="C232" t="n">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>2136</v>
+        <v>1868</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -5550,15 +5550,15 @@
         <v>12000</v>
       </c>
       <c r="C233" t="n">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1868</v>
+        <v>1600</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -5572,15 +5572,15 @@
         <v>12000</v>
       </c>
       <c r="C234" t="n">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1600</v>
+        <v>1332</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -5594,18 +5594,18 @@
         <v>12000</v>
       </c>
       <c r="C235" t="n">
-        <v>1332</v>
+        <v>1064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="236">
@@ -5616,18 +5616,18 @@
         <v>12000</v>
       </c>
       <c r="C236" t="n">
-        <v>1064</v>
+        <v>5866</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="F236" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5638,15 +5638,15 @@
         <v>12000</v>
       </c>
       <c r="C237" t="n">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5866</v>
+        <v>5598</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -5660,18 +5660,18 @@
         <v>12000</v>
       </c>
       <c r="C238" t="n">
-        <v>5598</v>
+        <v>5330</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>5598</v>
+        <v>4584</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="239">
@@ -5682,18 +5682,18 @@
         <v>12000</v>
       </c>
       <c r="C239" t="n">
-        <v>5330</v>
+        <v>4316</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>4584</v>
+        <v>4316</v>
       </c>
       <c r="F239" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5704,15 +5704,15 @@
         <v>12000</v>
       </c>
       <c r="C240" t="n">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4316</v>
+        <v>4048</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -5726,15 +5726,15 @@
         <v>12000</v>
       </c>
       <c r="C241" t="n">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>4048</v>
+        <v>3780</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -5745,21 +5745,21 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C242" t="n">
-        <v>478</v>
+        <v>3512</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F242" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5770,18 +5770,18 @@
         <v>12000</v>
       </c>
       <c r="C243" t="n">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="244">
@@ -5792,15 +5792,15 @@
         <v>12000</v>
       </c>
       <c r="C244" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -5814,18 +5814,18 @@
         <v>12000</v>
       </c>
       <c r="C245" t="n">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F245" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -5836,15 +5836,15 @@
         <v>12000</v>
       </c>
       <c r="C246" t="n">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -5858,15 +5858,15 @@
         <v>12000</v>
       </c>
       <c r="C247" t="n">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -5880,18 +5880,18 @@
         <v>12000</v>
       </c>
       <c r="C248" t="n">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="249">
@@ -5902,15 +5902,15 @@
         <v>12000</v>
       </c>
       <c r="C249" t="n">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -5924,18 +5924,18 @@
         <v>12000</v>
       </c>
       <c r="C250" t="n">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F250" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5946,18 +5946,18 @@
         <v>12000</v>
       </c>
       <c r="C251" t="n">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="252">
@@ -5968,15 +5968,15 @@
         <v>12000</v>
       </c>
       <c r="C252" t="n">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -5990,18 +5990,18 @@
         <v>12000</v>
       </c>
       <c r="C253" t="n">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F253" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -6012,15 +6012,15 @@
         <v>12000</v>
       </c>
       <c r="C254" t="n">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -6034,15 +6034,15 @@
         <v>12000</v>
       </c>
       <c r="C255" t="n">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -6056,18 +6056,18 @@
         <v>12000</v>
       </c>
       <c r="C256" t="n">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="257">
@@ -6078,15 +6078,15 @@
         <v>12000</v>
       </c>
       <c r="C257" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -6100,18 +6100,18 @@
         <v>12000</v>
       </c>
       <c r="C258" t="n">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F258" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -6122,15 +6122,15 @@
         <v>12000</v>
       </c>
       <c r="C259" t="n">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -6144,15 +6144,15 @@
         <v>12000</v>
       </c>
       <c r="C260" t="n">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -6166,18 +6166,18 @@
         <v>12000</v>
       </c>
       <c r="C261" t="n">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="262">
@@ -6188,15 +6188,15 @@
         <v>12000</v>
       </c>
       <c r="C262" t="n">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
@@ -6210,18 +6210,18 @@
         <v>12000</v>
       </c>
       <c r="C263" t="n">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F263" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -6232,18 +6232,18 @@
         <v>12000</v>
       </c>
       <c r="C264" t="n">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="265">
@@ -6254,15 +6254,15 @@
         <v>12000</v>
       </c>
       <c r="C265" t="n">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -6276,18 +6276,18 @@
         <v>12000</v>
       </c>
       <c r="C266" t="n">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F266" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -6298,15 +6298,15 @@
         <v>12000</v>
       </c>
       <c r="C267" t="n">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
@@ -6320,15 +6320,15 @@
         <v>12000</v>
       </c>
       <c r="C268" t="n">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -6342,18 +6342,18 @@
         <v>12000</v>
       </c>
       <c r="C269" t="n">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="270">
@@ -6364,15 +6364,15 @@
         <v>12000</v>
       </c>
       <c r="C270" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -6386,18 +6386,18 @@
         <v>12000</v>
       </c>
       <c r="C271" t="n">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>2404</v>
+        <v>1868</v>
       </c>
       <c r="F271" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -6408,15 +6408,15 @@
         <v>12000</v>
       </c>
       <c r="C272" t="n">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2136</v>
+        <v>1600</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -6430,15 +6430,15 @@
         <v>12000</v>
       </c>
       <c r="C273" t="n">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1868</v>
+        <v>1332</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
@@ -6452,18 +6452,18 @@
         <v>12000</v>
       </c>
       <c r="C274" t="n">
-        <v>1600</v>
+        <v>1064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="275">
@@ -6474,15 +6474,15 @@
         <v>12000</v>
       </c>
       <c r="C275" t="n">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -6496,18 +6496,18 @@
         <v>12000</v>
       </c>
       <c r="C276" t="n">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F276" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -6518,18 +6518,18 @@
         <v>12000</v>
       </c>
       <c r="C277" t="n">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="278">
@@ -6540,15 +6540,15 @@
         <v>12000</v>
       </c>
       <c r="C278" t="n">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -6562,18 +6562,18 @@
         <v>12000</v>
       </c>
       <c r="C279" t="n">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F279" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6584,15 +6584,15 @@
         <v>12000</v>
       </c>
       <c r="C280" t="n">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -6606,15 +6606,15 @@
         <v>12000</v>
       </c>
       <c r="C281" t="n">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
@@ -6628,18 +6628,18 @@
         <v>12000</v>
       </c>
       <c r="C282" t="n">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="283">
@@ -6650,15 +6650,15 @@
         <v>12000</v>
       </c>
       <c r="C283" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -6669,21 +6669,21 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C284" t="n">
-        <v>478</v>
+        <v>1868</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F284" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6694,18 +6694,18 @@
         <v>12000</v>
       </c>
       <c r="C285" t="n">
-        <v>3244</v>
+        <v>1600</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>2404</v>
+        <v>1600</v>
       </c>
       <c r="F285" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -6716,15 +6716,15 @@
         <v>12000</v>
       </c>
       <c r="C286" t="n">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>2136</v>
+        <v>1332</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -6738,18 +6738,18 @@
         <v>12000</v>
       </c>
       <c r="C287" t="n">
-        <v>1868</v>
+        <v>1064</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="288">
@@ -6760,15 +6760,15 @@
         <v>12000</v>
       </c>
       <c r="C288" t="n">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -6782,15 +6782,15 @@
         <v>12000</v>
       </c>
       <c r="C289" t="n">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
@@ -6804,18 +6804,18 @@
         <v>12000</v>
       </c>
       <c r="C290" t="n">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F290" t="n">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="291">
@@ -6826,15 +6826,15 @@
         <v>12000</v>
       </c>
       <c r="C291" t="n">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
@@ -6848,15 +6848,15 @@
         <v>12000</v>
       </c>
       <c r="C292" t="n">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
@@ -6867,21 +6867,21 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C293" t="n">
-        <v>478</v>
+        <v>3780</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F293" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6892,18 +6892,18 @@
         <v>12000</v>
       </c>
       <c r="C294" t="n">
-        <v>5330</v>
+        <v>3512</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>4584</v>
+        <v>3512</v>
       </c>
       <c r="F294" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -6914,18 +6914,18 @@
         <v>12000</v>
       </c>
       <c r="C295" t="n">
-        <v>4316</v>
+        <v>3244</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>4316</v>
+        <v>2404</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="296">
@@ -6936,15 +6936,15 @@
         <v>12000</v>
       </c>
       <c r="C296" t="n">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>4048</v>
+        <v>2136</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
@@ -6958,15 +6958,15 @@
         <v>12000</v>
       </c>
       <c r="C297" t="n">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>3780</v>
+        <v>1868</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
@@ -6980,15 +6980,15 @@
         <v>12000</v>
       </c>
       <c r="C298" t="n">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>3512</v>
+        <v>1600</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
@@ -7002,18 +7002,18 @@
         <v>12000</v>
       </c>
       <c r="C299" t="n">
-        <v>3244</v>
+        <v>1332</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>2404</v>
+        <v>1332</v>
       </c>
       <c r="F299" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -7024,18 +7024,18 @@
         <v>12000</v>
       </c>
       <c r="C300" t="n">
-        <v>2136</v>
+        <v>1064</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="301">
@@ -7046,15 +7046,15 @@
         <v>12000</v>
       </c>
       <c r="C301" t="n">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>1868</v>
+        <v>5866</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
@@ -7068,15 +7068,15 @@
         <v>12000</v>
       </c>
       <c r="C302" t="n">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>1600</v>
+        <v>5598</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
@@ -7090,18 +7090,18 @@
         <v>12000</v>
       </c>
       <c r="C303" t="n">
-        <v>1332</v>
+        <v>5330</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="304">
@@ -7112,18 +7112,18 @@
         <v>12000</v>
       </c>
       <c r="C304" t="n">
-        <v>1064</v>
+        <v>4316</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="F304" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -7134,15 +7134,15 @@
         <v>12000</v>
       </c>
       <c r="C305" t="n">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>5866</v>
+        <v>4048</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -7153,21 +7153,21 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>478</v>
+        <v>12000</v>
       </c>
       <c r="C306" t="n">
-        <v>210</v>
+        <v>3780</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>[268]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F306" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -7178,15 +7178,15 @@
         <v>12000</v>
       </c>
       <c r="C307" t="n">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -7200,18 +7200,18 @@
         <v>12000</v>
       </c>
       <c r="C308" t="n">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="309">
@@ -7222,18 +7222,18 @@
         <v>12000</v>
       </c>
       <c r="C309" t="n">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F309" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -7244,15 +7244,15 @@
         <v>12000</v>
       </c>
       <c r="C310" t="n">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
@@ -7266,15 +7266,15 @@
         <v>12000</v>
       </c>
       <c r="C311" t="n">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
@@ -7288,15 +7288,15 @@
         <v>12000</v>
       </c>
       <c r="C312" t="n">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -7310,18 +7310,18 @@
         <v>12000</v>
       </c>
       <c r="C313" t="n">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="314">
@@ -7332,18 +7332,18 @@
         <v>12000</v>
       </c>
       <c r="C314" t="n">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F314" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -7354,15 +7354,15 @@
         <v>12000</v>
       </c>
       <c r="C315" t="n">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
@@ -7376,18 +7376,18 @@
         <v>12000</v>
       </c>
       <c r="C316" t="n">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="317">
@@ -7398,15 +7398,15 @@
         <v>12000</v>
       </c>
       <c r="C317" t="n">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -7420,15 +7420,15 @@
         <v>12000</v>
       </c>
       <c r="C318" t="n">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -7442,18 +7442,18 @@
         <v>12000</v>
       </c>
       <c r="C319" t="n">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F319" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -7464,15 +7464,15 @@
         <v>12000</v>
       </c>
       <c r="C320" t="n">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E320" t="n">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
@@ -7486,18 +7486,18 @@
         <v>12000</v>
       </c>
       <c r="C321" t="n">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="322">
@@ -7508,18 +7508,18 @@
         <v>12000</v>
       </c>
       <c r="C322" t="n">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F322" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -7530,15 +7530,15 @@
         <v>12000</v>
       </c>
       <c r="C323" t="n">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E323" t="n">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
@@ -7552,15 +7552,15 @@
         <v>12000</v>
       </c>
       <c r="C324" t="n">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
@@ -7574,15 +7574,15 @@
         <v>12000</v>
       </c>
       <c r="C325" t="n">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
@@ -7596,18 +7596,18 @@
         <v>12000</v>
       </c>
       <c r="C326" t="n">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E326" t="n">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F326" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="327">
@@ -7618,18 +7618,18 @@
         <v>12000</v>
       </c>
       <c r="C327" t="n">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F327" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -7640,15 +7640,15 @@
         <v>12000</v>
       </c>
       <c r="C328" t="n">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E328" t="n">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
@@ -7662,18 +7662,18 @@
         <v>12000</v>
       </c>
       <c r="C329" t="n">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F329" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="330">
@@ -7684,15 +7684,15 @@
         <v>12000</v>
       </c>
       <c r="C330" t="n">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
@@ -7706,15 +7706,15 @@
         <v>12000</v>
       </c>
       <c r="C331" t="n">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
@@ -7728,18 +7728,18 @@
         <v>12000</v>
       </c>
       <c r="C332" t="n">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F332" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -7750,15 +7750,15 @@
         <v>12000</v>
       </c>
       <c r="C333" t="n">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E333" t="n">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
@@ -7772,18 +7772,18 @@
         <v>12000</v>
       </c>
       <c r="C334" t="n">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E334" t="n">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="335">
@@ -7794,18 +7794,18 @@
         <v>12000</v>
       </c>
       <c r="C335" t="n">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E335" t="n">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F335" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -7816,15 +7816,15 @@
         <v>12000</v>
       </c>
       <c r="C336" t="n">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E336" t="n">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
@@ -7838,15 +7838,15 @@
         <v>12000</v>
       </c>
       <c r="C337" t="n">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>4048</v>
+        <v>1600</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -7860,15 +7860,15 @@
         <v>12000</v>
       </c>
       <c r="C338" t="n">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E338" t="n">
-        <v>3780</v>
+        <v>1332</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
@@ -7882,18 +7882,18 @@
         <v>12000</v>
       </c>
       <c r="C339" t="n">
-        <v>3512</v>
+        <v>1064</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E339" t="n">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="340">
@@ -7904,18 +7904,18 @@
         <v>12000</v>
       </c>
       <c r="C340" t="n">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F340" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -7926,15 +7926,15 @@
         <v>12000</v>
       </c>
       <c r="C341" t="n">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E341" t="n">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
@@ -7948,18 +7948,18 @@
         <v>12000</v>
       </c>
       <c r="C342" t="n">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E342" t="n">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="343">
@@ -7970,15 +7970,15 @@
         <v>12000</v>
       </c>
       <c r="C343" t="n">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
@@ -7992,15 +7992,15 @@
         <v>12000</v>
       </c>
       <c r="C344" t="n">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -8011,21 +8011,21 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C345" t="n">
-        <v>210</v>
+        <v>3780</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F345" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -8036,18 +8036,18 @@
         <v>12000</v>
       </c>
       <c r="C346" t="n">
-        <v>1064</v>
+        <v>3512</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>3512</v>
       </c>
       <c r="F346" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -8058,18 +8058,18 @@
         <v>12000</v>
       </c>
       <c r="C347" t="n">
-        <v>5866</v>
+        <v>3244</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>5866</v>
+        <v>2404</v>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="348">
@@ -8080,15 +8080,15 @@
         <v>12000</v>
       </c>
       <c r="C348" t="n">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>5598</v>
+        <v>2136</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -8102,18 +8102,18 @@
         <v>12000</v>
       </c>
       <c r="C349" t="n">
-        <v>5330</v>
+        <v>1868</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E349" t="n">
-        <v>4584</v>
+        <v>1868</v>
       </c>
       <c r="F349" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -8124,15 +8124,15 @@
         <v>12000</v>
       </c>
       <c r="C350" t="n">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E350" t="n">
-        <v>4316</v>
+        <v>1600</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
@@ -8143,21 +8143,21 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C351" t="n">
-        <v>210</v>
+        <v>1332</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="F351" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -8168,18 +8168,18 @@
         <v>12000</v>
       </c>
       <c r="C352" t="n">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E352" t="n">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="353">
@@ -8190,15 +8190,15 @@
         <v>12000</v>
       </c>
       <c r="C353" t="n">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E353" t="n">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
@@ -8212,15 +8212,15 @@
         <v>12000</v>
       </c>
       <c r="C354" t="n">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E354" t="n">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
@@ -8234,18 +8234,18 @@
         <v>12000</v>
       </c>
       <c r="C355" t="n">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E355" t="n">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F355" t="n">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="356">
@@ -8256,15 +8256,15 @@
         <v>12000</v>
       </c>
       <c r="C356" t="n">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E356" t="n">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
@@ -8278,15 +8278,15 @@
         <v>12000</v>
       </c>
       <c r="C357" t="n">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
@@ -8300,15 +8300,15 @@
         <v>12000</v>
       </c>
       <c r="C358" t="n">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
@@ -8322,15 +8322,15 @@
         <v>12000</v>
       </c>
       <c r="C359" t="n">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E359" t="n">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
@@ -8344,18 +8344,18 @@
         <v>12000</v>
       </c>
       <c r="C360" t="n">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F360" t="n">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="361">
@@ -8366,15 +8366,15 @@
         <v>12000</v>
       </c>
       <c r="C361" t="n">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E361" t="n">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
@@ -8388,15 +8388,15 @@
         <v>12000</v>
       </c>
       <c r="C362" t="n">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
@@ -8410,18 +8410,18 @@
         <v>12000</v>
       </c>
       <c r="C363" t="n">
-        <v>5330</v>
+        <v>1600</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E363" t="n">
-        <v>4584</v>
+        <v>1600</v>
       </c>
       <c r="F363" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -8432,15 +8432,15 @@
         <v>12000</v>
       </c>
       <c r="C364" t="n">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E364" t="n">
-        <v>4316</v>
+        <v>1332</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
@@ -8454,18 +8454,18 @@
         <v>12000</v>
       </c>
       <c r="C365" t="n">
-        <v>4048</v>
+        <v>1064</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E365" t="n">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F365" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="366">
@@ -8476,15 +8476,15 @@
         <v>12000</v>
       </c>
       <c r="C366" t="n">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E366" t="n">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
@@ -8498,15 +8498,15 @@
         <v>12000</v>
       </c>
       <c r="C367" t="n">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E367" t="n">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
@@ -8517,21 +8517,21 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>210</v>
+        <v>12000</v>
       </c>
       <c r="C368" t="n">
-        <v>210</v>
+        <v>5330</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F368" t="n">
-        <v>210</v>
+        <v>746</v>
       </c>
     </row>
     <row r="369">
@@ -8542,18 +8542,18 @@
         <v>12000</v>
       </c>
       <c r="C369" t="n">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E369" t="n">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F369" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -8564,15 +8564,15 @@
         <v>12000</v>
       </c>
       <c r="C370" t="n">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E370" t="n">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
@@ -8586,15 +8586,15 @@
         <v>12000</v>
       </c>
       <c r="C371" t="n">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
@@ -8608,15 +8608,15 @@
         <v>12000</v>
       </c>
       <c r="C372" t="n">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
@@ -8630,18 +8630,18 @@
         <v>12000</v>
       </c>
       <c r="C373" t="n">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F373" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="374">
@@ -8652,18 +8652,18 @@
         <v>12000</v>
       </c>
       <c r="C374" t="n">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F374" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -8674,15 +8674,15 @@
         <v>12000</v>
       </c>
       <c r="C375" t="n">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E375" t="n">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
@@ -8696,15 +8696,15 @@
         <v>12000</v>
       </c>
       <c r="C376" t="n">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E376" t="n">
-        <v>5598</v>
+        <v>1600</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
@@ -8718,18 +8718,18 @@
         <v>12000</v>
       </c>
       <c r="C377" t="n">
-        <v>5330</v>
+        <v>1332</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E377" t="n">
-        <v>4584</v>
+        <v>1332</v>
       </c>
       <c r="F377" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -8740,18 +8740,18 @@
         <v>12000</v>
       </c>
       <c r="C378" t="n">
-        <v>4316</v>
+        <v>1064</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E378" t="n">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F378" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="379">
@@ -8762,15 +8762,15 @@
         <v>12000</v>
       </c>
       <c r="C379" t="n">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E379" t="n">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
@@ -8784,15 +8784,15 @@
         <v>12000</v>
       </c>
       <c r="C380" t="n">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
@@ -8806,18 +8806,18 @@
         <v>12000</v>
       </c>
       <c r="C381" t="n">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E381" t="n">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="382">
@@ -8828,18 +8828,18 @@
         <v>12000</v>
       </c>
       <c r="C382" t="n">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E382" t="n">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F382" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -8850,15 +8850,15 @@
         <v>12000</v>
       </c>
       <c r="C383" t="n">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -8869,21 +8869,21 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C384" t="n">
-        <v>1868</v>
+        <v>2980</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F384" t="n">
-        <v>0</v>
+        <v>576</v>
       </c>
     </row>
     <row r="385">
@@ -8891,18 +8891,18 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C385" t="n">
-        <v>1600</v>
+        <v>1336</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1600</v>
+        <v>1336</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -8913,21 +8913,21 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C386" t="n">
-        <v>1332</v>
+        <v>268</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[4798, 6134]</t>
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="387">
@@ -8935,21 +8935,21 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C387" t="n">
-        <v>1064</v>
+        <v>5066</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F387" t="n">
-        <v>1064</v>
+        <v>482</v>
       </c>
     </row>
     <row r="388">
@@ -8957,18 +8957,18 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C388" t="n">
-        <v>5866</v>
+        <v>3516</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5866</v>
+        <v>3516</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -8979,21 +8979,21 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C389" t="n">
-        <v>5598</v>
+        <v>2448</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2618, 6134]</t>
         </is>
       </c>
       <c r="E389" t="n">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="390">
@@ -9001,21 +9001,21 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C390" t="n">
-        <v>5330</v>
+        <v>1336</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E390" t="n">
-        <v>4584</v>
+        <v>1336</v>
       </c>
       <c r="F390" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -9023,21 +9023,21 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C391" t="n">
-        <v>4316</v>
+        <v>268</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4798, 6134]</t>
         </is>
       </c>
       <c r="E391" t="n">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="392">
@@ -9045,21 +9045,21 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C392" t="n">
-        <v>4048</v>
+        <v>5066</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E392" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F392" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="393">
@@ -9067,18 +9067,18 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C393" t="n">
-        <v>3780</v>
+        <v>3516</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E393" t="n">
-        <v>3780</v>
+        <v>3516</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
@@ -9089,21 +9089,21 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C394" t="n">
-        <v>3512</v>
+        <v>2448</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[2618, 6134]</t>
         </is>
       </c>
       <c r="E394" t="n">
-        <v>3512</v>
+        <v>2404</v>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="395">
@@ -9111,21 +9111,21 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C395" t="n">
-        <v>3244</v>
+        <v>1336</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E395" t="n">
-        <v>2404</v>
+        <v>1336</v>
       </c>
       <c r="F395" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -9133,21 +9133,21 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C396" t="n">
-        <v>2136</v>
+        <v>268</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4798, 6134]</t>
         </is>
       </c>
       <c r="E396" t="n">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="F396" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="397">
@@ -9155,21 +9155,21 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="C397" t="n">
-        <v>1868</v>
+        <v>5066</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="398">
@@ -9177,18 +9177,18 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>12000</v>
+        <v>9400</v>
       </c>
       <c r="C398" t="n">
-        <v>1600</v>
+        <v>1716</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1600</v>
+        <v>1716</v>
       </c>
       <c r="F398" t="n">
         <v>0</v>
@@ -9199,21 +9199,21 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>12000</v>
+        <v>9400</v>
       </c>
       <c r="C399" t="n">
-        <v>1332</v>
+        <v>4982</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1332</v>
+        <v>4584</v>
       </c>
       <c r="F399" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="400">
@@ -9221,21 +9221,21 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>12000</v>
+        <v>9400</v>
       </c>
       <c r="C400" t="n">
-        <v>1064</v>
+        <v>1716</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="F400" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -9243,21 +9243,21 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>12000</v>
+        <v>9400</v>
       </c>
       <c r="C401" t="n">
-        <v>5866</v>
+        <v>4982</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E401" t="n">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F401" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="402">
@@ -9265,18 +9265,18 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>12000</v>
+        <v>9400</v>
       </c>
       <c r="C402" t="n">
-        <v>5598</v>
+        <v>1716</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E402" t="n">
-        <v>5598</v>
+        <v>1716</v>
       </c>
       <c r="F402" t="n">
         <v>0</v>
@@ -9287,21 +9287,21 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>12000</v>
+        <v>9400</v>
       </c>
       <c r="C403" t="n">
-        <v>5330</v>
+        <v>4982</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E403" t="n">
         <v>4584</v>
       </c>
       <c r="F403" t="n">
-        <v>746</v>
+        <v>398</v>
       </c>
     </row>
     <row r="404">
@@ -9309,10 +9309,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C404" t="n">
-        <v>3516</v>
+        <v>1716</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>3516</v>
+        <v>1716</v>
       </c>
       <c r="F404" t="n">
         <v>0</v>
@@ -9331,21 +9331,21 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C405" t="n">
-        <v>2448</v>
+        <v>4982</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[2618, 6134]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E405" t="n">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F405" t="n">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="406">
@@ -9353,18 +9353,18 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C406" t="n">
-        <v>1336</v>
+        <v>1716</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1336</v>
+        <v>1716</v>
       </c>
       <c r="F406" t="n">
         <v>0</v>
@@ -9375,21 +9375,21 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C407" t="n">
-        <v>268</v>
+        <v>4982</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>[4798, 6134]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E407" t="n">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F407" t="n">
-        <v>268</v>
+        <v>398</v>
       </c>
     </row>
     <row r="408">
@@ -9397,21 +9397,21 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C408" t="n">
-        <v>5066</v>
+        <v>1716</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4584</v>
+        <v>1716</v>
       </c>
       <c r="F408" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -9419,21 +9419,21 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C409" t="n">
-        <v>3516</v>
+        <v>4982</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E409" t="n">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F409" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="410">
@@ -9441,21 +9441,21 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C410" t="n">
-        <v>2448</v>
+        <v>1716</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>[2618, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E410" t="n">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F410" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -9463,21 +9463,21 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C411" t="n">
-        <v>1336</v>
+        <v>4982</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1336</v>
+        <v>4584</v>
       </c>
       <c r="F411" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="412">
@@ -9485,21 +9485,21 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C412" t="n">
-        <v>268</v>
+        <v>1716</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>[4798, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="F412" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -9507,21 +9507,21 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C413" t="n">
-        <v>5066</v>
+        <v>4982</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E413" t="n">
         <v>4584</v>
       </c>
       <c r="F413" t="n">
-        <v>482</v>
+        <v>398</v>
       </c>
     </row>
     <row r="414">
@@ -9529,10 +9529,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C414" t="n">
-        <v>3516</v>
+        <v>1716</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>3516</v>
+        <v>1716</v>
       </c>
       <c r="F414" t="n">
         <v>0</v>
@@ -9551,21 +9551,21 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C415" t="n">
-        <v>2448</v>
+        <v>4982</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>[2618, 6134]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F415" t="n">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="416">
@@ -9573,18 +9573,18 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C416" t="n">
-        <v>1336</v>
+        <v>1716</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1336</v>
+        <v>1716</v>
       </c>
       <c r="F416" t="n">
         <v>0</v>
@@ -9595,21 +9595,21 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="C417" t="n">
-        <v>268</v>
+        <v>4982</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>[4798, 6134]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F417" t="n">
-        <v>268</v>
+        <v>398</v>
       </c>
     </row>
     <row r="418">
@@ -9620,18 +9620,18 @@
         <v>9400</v>
       </c>
       <c r="C418" t="n">
-        <v>3266</v>
+        <v>1716</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E418" t="n">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F418" t="n">
-        <v>862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -9642,18 +9642,18 @@
         <v>9400</v>
       </c>
       <c r="C419" t="n">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>[3730]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E419" t="n">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="420">
@@ -9664,18 +9664,18 @@
         <v>9400</v>
       </c>
       <c r="C420" t="n">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>[464, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E420" t="n">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F420" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -9686,18 +9686,18 @@
         <v>9400</v>
       </c>
       <c r="C421" t="n">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>[3730]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E421" t="n">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="422">
@@ -9708,18 +9708,18 @@
         <v>9400</v>
       </c>
       <c r="C422" t="n">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>[464, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E422" t="n">
-        <v>2404</v>
+        <v>1716</v>
       </c>
       <c r="F422" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -9730,18 +9730,18 @@
         <v>9400</v>
       </c>
       <c r="C423" t="n">
-        <v>5670</v>
+        <v>4982</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>[3730]</t>
+          <t>[4418]</t>
         </is>
       </c>
       <c r="E423" t="n">
-        <v>5670</v>
+        <v>4584</v>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="424">
@@ -9752,480 +9752,18 @@
         <v>9400</v>
       </c>
       <c r="C424" t="n">
-        <v>2802</v>
+        <v>1716</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>[464, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F424" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C425" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>[3730]</t>
-        </is>
-      </c>
-      <c r="E425" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F425" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C426" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>[464, 6134]</t>
-        </is>
-      </c>
-      <c r="E426" t="n">
-        <v>2404</v>
-      </c>
-      <c r="F426" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C427" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>[3730]</t>
-        </is>
-      </c>
-      <c r="E427" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F427" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C428" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>[464, 6134]</t>
-        </is>
-      </c>
-      <c r="E428" t="n">
-        <v>2404</v>
-      </c>
-      <c r="F428" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C429" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>[3730]</t>
-        </is>
-      </c>
-      <c r="E429" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F429" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C430" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>[464, 6134]</t>
-        </is>
-      </c>
-      <c r="E430" t="n">
-        <v>2404</v>
-      </c>
-      <c r="F430" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C431" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>[3730]</t>
-        </is>
-      </c>
-      <c r="E431" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F431" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C432" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>[464, 6134]</t>
-        </is>
-      </c>
-      <c r="E432" t="n">
-        <v>2404</v>
-      </c>
-      <c r="F432" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>44</v>
-      </c>
-      <c r="C433" t="n">
-        <v>44</v>
-      </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="E433" t="n">
-        <v>0</v>
-      </c>
-      <c r="F433" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C434" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D434" t="inlineStr">
-        <is>
-          <t>[3730]</t>
-        </is>
-      </c>
-      <c r="E434" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F434" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C435" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D435" t="inlineStr">
-        <is>
-          <t>[464, 6134]</t>
-        </is>
-      </c>
-      <c r="E435" t="n">
-        <v>2404</v>
-      </c>
-      <c r="F435" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C436" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D436" t="inlineStr">
-        <is>
-          <t>[3730]</t>
-        </is>
-      </c>
-      <c r="E436" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F436" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C437" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>[464, 6134]</t>
-        </is>
-      </c>
-      <c r="E437" t="n">
-        <v>2404</v>
-      </c>
-      <c r="F437" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C438" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>[3730]</t>
-        </is>
-      </c>
-      <c r="E438" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F438" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C439" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>[464, 6134]</t>
-        </is>
-      </c>
-      <c r="E439" t="n">
-        <v>2404</v>
-      </c>
-      <c r="F439" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C440" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D440" t="inlineStr">
-        <is>
-          <t>[3730]</t>
-        </is>
-      </c>
-      <c r="E440" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F440" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C441" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D441" t="inlineStr">
-        <is>
-          <t>[464, 6134]</t>
-        </is>
-      </c>
-      <c r="E441" t="n">
-        <v>2404</v>
-      </c>
-      <c r="F441" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C442" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>[3730]</t>
-        </is>
-      </c>
-      <c r="E442" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F442" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C443" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>[464, 6134]</t>
-        </is>
-      </c>
-      <c r="E443" t="n">
-        <v>2404</v>
-      </c>
-      <c r="F443" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C444" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>[3730]</t>
-        </is>
-      </c>
-      <c r="E444" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F444" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>9400</v>
-      </c>
-      <c r="C445" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>[464, 6134]</t>
-        </is>
-      </c>
-      <c r="E445" t="n">
-        <v>0</v>
-      </c>
-      <c r="F445" t="n">
-        <v>2802</v>
+        <v>1716</v>
       </c>
     </row>
   </sheetData>

--- a/某一次的原料切割方式.xlsx
+++ b/某一次的原料切割方式.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F424"/>
+  <dimension ref="A1:F426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2390,10 +2390,10 @@
         </is>
       </c>
       <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
         <v>1868</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2404,15 +2404,15 @@
         <v>12000</v>
       </c>
       <c r="C90" t="n">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1600</v>
+        <v>5866</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -2426,15 +2426,15 @@
         <v>12000</v>
       </c>
       <c r="C91" t="n">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1332</v>
+        <v>5598</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -2448,18 +2448,18 @@
         <v>12000</v>
       </c>
       <c r="C92" t="n">
-        <v>1064</v>
+        <v>5330</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="F92" t="n">
-        <v>1064</v>
+        <v>746</v>
       </c>
     </row>
     <row r="93">
@@ -2470,15 +2470,15 @@
         <v>12000</v>
       </c>
       <c r="C93" t="n">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5866</v>
+        <v>4316</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -2492,15 +2492,15 @@
         <v>12000</v>
       </c>
       <c r="C94" t="n">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5598</v>
+        <v>4048</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -2514,18 +2514,18 @@
         <v>12000</v>
       </c>
       <c r="C95" t="n">
-        <v>5330</v>
+        <v>3780</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4584</v>
+        <v>3780</v>
       </c>
       <c r="F95" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2536,15 +2536,15 @@
         <v>12000</v>
       </c>
       <c r="C96" t="n">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4316</v>
+        <v>3512</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -2558,18 +2558,18 @@
         <v>12000</v>
       </c>
       <c r="C97" t="n">
-        <v>4048</v>
+        <v>3244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4048</v>
+        <v>2404</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="98">
@@ -2580,15 +2580,15 @@
         <v>12000</v>
       </c>
       <c r="C98" t="n">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3780</v>
+        <v>2136</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -2602,18 +2602,18 @@
         <v>12000</v>
       </c>
       <c r="C99" t="n">
-        <v>3512</v>
+        <v>1868</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="100">
@@ -2624,18 +2624,18 @@
         <v>12000</v>
       </c>
       <c r="C100" t="n">
-        <v>3244</v>
+        <v>5866</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2404</v>
+        <v>5866</v>
       </c>
       <c r="F100" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2646,15 +2646,15 @@
         <v>12000</v>
       </c>
       <c r="C101" t="n">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2136</v>
+        <v>5598</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -2668,18 +2668,18 @@
         <v>12000</v>
       </c>
       <c r="C102" t="n">
-        <v>1868</v>
+        <v>5330</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1868</v>
+        <v>4584</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="103">
@@ -2690,15 +2690,15 @@
         <v>12000</v>
       </c>
       <c r="C103" t="n">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1600</v>
+        <v>4316</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -2712,15 +2712,15 @@
         <v>12000</v>
       </c>
       <c r="C104" t="n">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1332</v>
+        <v>4048</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -2734,18 +2734,18 @@
         <v>12000</v>
       </c>
       <c r="C105" t="n">
-        <v>1064</v>
+        <v>3780</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="F105" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2756,15 +2756,15 @@
         <v>12000</v>
       </c>
       <c r="C106" t="n">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5866</v>
+        <v>3512</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -2778,18 +2778,18 @@
         <v>12000</v>
       </c>
       <c r="C107" t="n">
-        <v>5598</v>
+        <v>3244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5598</v>
+        <v>2404</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="108">
@@ -2800,18 +2800,18 @@
         <v>12000</v>
       </c>
       <c r="C108" t="n">
-        <v>5330</v>
+        <v>2136</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4584</v>
+        <v>2136</v>
       </c>
       <c r="F108" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2822,18 +2822,18 @@
         <v>12000</v>
       </c>
       <c r="C109" t="n">
-        <v>4316</v>
+        <v>1868</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="110">
@@ -2844,15 +2844,15 @@
         <v>12000</v>
       </c>
       <c r="C110" t="n">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4048</v>
+        <v>5866</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -2866,15 +2866,15 @@
         <v>12000</v>
       </c>
       <c r="C111" t="n">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3780</v>
+        <v>5598</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -2888,18 +2888,18 @@
         <v>12000</v>
       </c>
       <c r="C112" t="n">
-        <v>3512</v>
+        <v>5330</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3512</v>
+        <v>4584</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="113">
@@ -2910,18 +2910,18 @@
         <v>12000</v>
       </c>
       <c r="C113" t="n">
-        <v>3244</v>
+        <v>4316</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2404</v>
+        <v>4316</v>
       </c>
       <c r="F113" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2932,15 +2932,15 @@
         <v>12000</v>
       </c>
       <c r="C114" t="n">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2136</v>
+        <v>4048</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -2954,15 +2954,15 @@
         <v>12000</v>
       </c>
       <c r="C115" t="n">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1868</v>
+        <v>3780</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -2976,15 +2976,15 @@
         <v>12000</v>
       </c>
       <c r="C116" t="n">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1600</v>
+        <v>3512</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -2998,18 +2998,18 @@
         <v>12000</v>
       </c>
       <c r="C117" t="n">
-        <v>1332</v>
+        <v>3244</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1332</v>
+        <v>2404</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="118">
@@ -3020,18 +3020,18 @@
         <v>12000</v>
       </c>
       <c r="C118" t="n">
-        <v>1064</v>
+        <v>2136</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="F118" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3042,18 +3042,18 @@
         <v>12000</v>
       </c>
       <c r="C119" t="n">
-        <v>5866</v>
+        <v>1868</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="120">
@@ -3064,15 +3064,15 @@
         <v>12000</v>
       </c>
       <c r="C120" t="n">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>5598</v>
+        <v>5866</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3086,18 +3086,18 @@
         <v>12000</v>
       </c>
       <c r="C121" t="n">
-        <v>5330</v>
+        <v>5598</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4584</v>
+        <v>5598</v>
       </c>
       <c r="F121" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3108,18 +3108,18 @@
         <v>12000</v>
       </c>
       <c r="C122" t="n">
-        <v>4316</v>
+        <v>5330</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4316</v>
+        <v>4584</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="123">
@@ -3130,15 +3130,15 @@
         <v>12000</v>
       </c>
       <c r="C123" t="n">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4048</v>
+        <v>4316</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3152,15 +3152,15 @@
         <v>12000</v>
       </c>
       <c r="C124" t="n">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3780</v>
+        <v>4048</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -3174,15 +3174,15 @@
         <v>12000</v>
       </c>
       <c r="C125" t="n">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3512</v>
+        <v>3780</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -3196,18 +3196,18 @@
         <v>12000</v>
       </c>
       <c r="C126" t="n">
-        <v>3244</v>
+        <v>3512</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2404</v>
+        <v>3512</v>
       </c>
       <c r="F126" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3218,18 +3218,18 @@
         <v>12000</v>
       </c>
       <c r="C127" t="n">
-        <v>2136</v>
+        <v>3244</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2136</v>
+        <v>2404</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="128">
@@ -3240,15 +3240,15 @@
         <v>12000</v>
       </c>
       <c r="C128" t="n">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1868</v>
+        <v>2136</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -3262,18 +3262,18 @@
         <v>12000</v>
       </c>
       <c r="C129" t="n">
-        <v>1600</v>
+        <v>1868</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="130">
@@ -3284,15 +3284,15 @@
         <v>12000</v>
       </c>
       <c r="C130" t="n">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1332</v>
+        <v>5866</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -3306,18 +3306,18 @@
         <v>12000</v>
       </c>
       <c r="C131" t="n">
-        <v>1064</v>
+        <v>5598</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="F131" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3328,18 +3328,18 @@
         <v>12000</v>
       </c>
       <c r="C132" t="n">
-        <v>5866</v>
+        <v>5330</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5866</v>
+        <v>4584</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="133">
@@ -3350,15 +3350,15 @@
         <v>12000</v>
       </c>
       <c r="C133" t="n">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5598</v>
+        <v>4316</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -3372,18 +3372,18 @@
         <v>12000</v>
       </c>
       <c r="C134" t="n">
-        <v>5330</v>
+        <v>4048</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4584</v>
+        <v>4048</v>
       </c>
       <c r="F134" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3394,15 +3394,15 @@
         <v>12000</v>
       </c>
       <c r="C135" t="n">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>4316</v>
+        <v>3780</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -3416,15 +3416,15 @@
         <v>12000</v>
       </c>
       <c r="C136" t="n">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>4048</v>
+        <v>3512</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -3438,18 +3438,18 @@
         <v>12000</v>
       </c>
       <c r="C137" t="n">
-        <v>3780</v>
+        <v>3244</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3780</v>
+        <v>2404</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="138">
@@ -3460,15 +3460,15 @@
         <v>12000</v>
       </c>
       <c r="C138" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3512</v>
+        <v>2136</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -3482,18 +3482,18 @@
         <v>12000</v>
       </c>
       <c r="C139" t="n">
-        <v>3244</v>
+        <v>1868</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>840</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="140">
@@ -3504,15 +3504,15 @@
         <v>12000</v>
       </c>
       <c r="C140" t="n">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2136</v>
+        <v>5866</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -3526,15 +3526,15 @@
         <v>12000</v>
       </c>
       <c r="C141" t="n">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1868</v>
+        <v>5598</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -3548,18 +3548,18 @@
         <v>12000</v>
       </c>
       <c r="C142" t="n">
-        <v>1600</v>
+        <v>5330</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1600</v>
+        <v>4584</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="143">
@@ -3570,15 +3570,15 @@
         <v>12000</v>
       </c>
       <c r="C143" t="n">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1332</v>
+        <v>4316</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -3592,18 +3592,18 @@
         <v>12000</v>
       </c>
       <c r="C144" t="n">
-        <v>1064</v>
+        <v>4048</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="F144" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3614,15 +3614,15 @@
         <v>12000</v>
       </c>
       <c r="C145" t="n">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>5866</v>
+        <v>3780</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -3636,15 +3636,15 @@
         <v>12000</v>
       </c>
       <c r="C146" t="n">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>5598</v>
+        <v>3512</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -3658,18 +3658,18 @@
         <v>12000</v>
       </c>
       <c r="C147" t="n">
-        <v>5330</v>
+        <v>3244</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>4584</v>
+        <v>2404</v>
       </c>
       <c r="F147" t="n">
-        <v>746</v>
+        <v>840</v>
       </c>
     </row>
     <row r="148">
@@ -3680,15 +3680,15 @@
         <v>12000</v>
       </c>
       <c r="C148" t="n">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4316</v>
+        <v>2136</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -3702,18 +3702,18 @@
         <v>12000</v>
       </c>
       <c r="C149" t="n">
-        <v>4048</v>
+        <v>1868</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="150">
@@ -3724,15 +3724,15 @@
         <v>12000</v>
       </c>
       <c r="C150" t="n">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3780</v>
+        <v>5866</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -3746,15 +3746,15 @@
         <v>12000</v>
       </c>
       <c r="C151" t="n">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3512</v>
+        <v>5598</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -3768,18 +3768,18 @@
         <v>12000</v>
       </c>
       <c r="C152" t="n">
-        <v>3244</v>
+        <v>5330</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2404</v>
+        <v>4584</v>
       </c>
       <c r="F152" t="n">
-        <v>840</v>
+        <v>746</v>
       </c>
     </row>
     <row r="153">
@@ -3790,15 +3790,15 @@
         <v>12000</v>
       </c>
       <c r="C153" t="n">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2136</v>
+        <v>4316</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -3812,15 +3812,15 @@
         <v>12000</v>
       </c>
       <c r="C154" t="n">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1868</v>
+        <v>4048</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -3834,15 +3834,15 @@
         <v>12000</v>
       </c>
       <c r="C155" t="n">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1600</v>
+        <v>3780</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -3856,15 +3856,15 @@
         <v>12000</v>
       </c>
       <c r="C156" t="n">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1332</v>
+        <v>3512</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -3878,18 +3878,18 @@
         <v>12000</v>
       </c>
       <c r="C157" t="n">
-        <v>1064</v>
+        <v>3244</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="F157" t="n">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="158">
@@ -3900,15 +3900,15 @@
         <v>12000</v>
       </c>
       <c r="C158" t="n">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>5866</v>
+        <v>2136</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -3922,18 +3922,18 @@
         <v>12000</v>
       </c>
       <c r="C159" t="n">
-        <v>5598</v>
+        <v>1868</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="160">
@@ -3944,18 +3944,18 @@
         <v>12000</v>
       </c>
       <c r="C160" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F160" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3966,15 +3966,15 @@
         <v>12000</v>
       </c>
       <c r="C161" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -3988,18 +3988,18 @@
         <v>12000</v>
       </c>
       <c r="C162" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="163">
@@ -4010,15 +4010,15 @@
         <v>12000</v>
       </c>
       <c r="C163" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -4032,15 +4032,15 @@
         <v>12000</v>
       </c>
       <c r="C164" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -4054,18 +4054,18 @@
         <v>12000</v>
       </c>
       <c r="C165" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F165" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4076,15 +4076,15 @@
         <v>12000</v>
       </c>
       <c r="C166" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -4098,18 +4098,18 @@
         <v>12000</v>
       </c>
       <c r="C167" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="168">
@@ -4120,15 +4120,15 @@
         <v>12000</v>
       </c>
       <c r="C168" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -4142,15 +4142,15 @@
         <v>12000</v>
       </c>
       <c r="C169" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -4164,18 +4164,18 @@
         <v>12000</v>
       </c>
       <c r="C170" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F170" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4186,15 +4186,15 @@
         <v>12000</v>
       </c>
       <c r="C171" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -4208,18 +4208,18 @@
         <v>12000</v>
       </c>
       <c r="C172" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="173">
@@ -4230,18 +4230,18 @@
         <v>12000</v>
       </c>
       <c r="C173" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F173" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4252,15 +4252,15 @@
         <v>12000</v>
       </c>
       <c r="C174" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -4274,18 +4274,18 @@
         <v>12000</v>
       </c>
       <c r="C175" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="176">
@@ -4296,15 +4296,15 @@
         <v>12000</v>
       </c>
       <c r="C176" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -4318,15 +4318,15 @@
         <v>12000</v>
       </c>
       <c r="C177" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -4340,18 +4340,18 @@
         <v>12000</v>
       </c>
       <c r="C178" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F178" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4362,15 +4362,15 @@
         <v>12000</v>
       </c>
       <c r="C179" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -4384,18 +4384,18 @@
         <v>12000</v>
       </c>
       <c r="C180" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="181">
@@ -4406,15 +4406,15 @@
         <v>12000</v>
       </c>
       <c r="C181" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -4428,15 +4428,15 @@
         <v>12000</v>
       </c>
       <c r="C182" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -4450,18 +4450,18 @@
         <v>12000</v>
       </c>
       <c r="C183" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F183" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4472,15 +4472,15 @@
         <v>12000</v>
       </c>
       <c r="C184" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -4494,18 +4494,18 @@
         <v>12000</v>
       </c>
       <c r="C185" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="186">
@@ -4516,18 +4516,18 @@
         <v>12000</v>
       </c>
       <c r="C186" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F186" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4538,15 +4538,15 @@
         <v>12000</v>
       </c>
       <c r="C187" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -4560,18 +4560,18 @@
         <v>12000</v>
       </c>
       <c r="C188" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="189">
@@ -4582,15 +4582,15 @@
         <v>12000</v>
       </c>
       <c r="C189" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -4604,15 +4604,15 @@
         <v>12000</v>
       </c>
       <c r="C190" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -4626,18 +4626,18 @@
         <v>12000</v>
       </c>
       <c r="C191" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F191" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4648,15 +4648,15 @@
         <v>12000</v>
       </c>
       <c r="C192" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -4670,18 +4670,18 @@
         <v>12000</v>
       </c>
       <c r="C193" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="194">
@@ -4692,15 +4692,15 @@
         <v>12000</v>
       </c>
       <c r="C194" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -4714,15 +4714,15 @@
         <v>12000</v>
       </c>
       <c r="C195" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -4736,18 +4736,18 @@
         <v>12000</v>
       </c>
       <c r="C196" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F196" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4758,15 +4758,15 @@
         <v>12000</v>
       </c>
       <c r="C197" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -4780,18 +4780,18 @@
         <v>12000</v>
       </c>
       <c r="C198" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="199">
@@ -4802,18 +4802,18 @@
         <v>12000</v>
       </c>
       <c r="C199" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F199" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4824,15 +4824,15 @@
         <v>12000</v>
       </c>
       <c r="C200" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -4846,18 +4846,18 @@
         <v>12000</v>
       </c>
       <c r="C201" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="202">
@@ -4868,15 +4868,15 @@
         <v>12000</v>
       </c>
       <c r="C202" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -4890,15 +4890,15 @@
         <v>12000</v>
       </c>
       <c r="C203" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -4912,18 +4912,18 @@
         <v>12000</v>
       </c>
       <c r="C204" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F204" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4934,15 +4934,15 @@
         <v>12000</v>
       </c>
       <c r="C205" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -4956,18 +4956,18 @@
         <v>12000</v>
       </c>
       <c r="C206" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="207">
@@ -4978,15 +4978,15 @@
         <v>12000</v>
       </c>
       <c r="C207" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -5000,15 +5000,15 @@
         <v>12000</v>
       </c>
       <c r="C208" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -5022,18 +5022,18 @@
         <v>12000</v>
       </c>
       <c r="C209" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F209" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5044,15 +5044,15 @@
         <v>12000</v>
       </c>
       <c r="C210" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -5066,18 +5066,18 @@
         <v>12000</v>
       </c>
       <c r="C211" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="212">
@@ -5088,18 +5088,18 @@
         <v>12000</v>
       </c>
       <c r="C212" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F212" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5110,15 +5110,15 @@
         <v>12000</v>
       </c>
       <c r="C213" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -5132,18 +5132,18 @@
         <v>12000</v>
       </c>
       <c r="C214" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="215">
@@ -5154,15 +5154,15 @@
         <v>12000</v>
       </c>
       <c r="C215" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -5176,15 +5176,15 @@
         <v>12000</v>
       </c>
       <c r="C216" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -5198,18 +5198,18 @@
         <v>12000</v>
       </c>
       <c r="C217" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F217" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -5220,15 +5220,15 @@
         <v>12000</v>
       </c>
       <c r="C218" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -5242,18 +5242,18 @@
         <v>12000</v>
       </c>
       <c r="C219" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="220">
@@ -5264,15 +5264,15 @@
         <v>12000</v>
       </c>
       <c r="C220" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -5286,15 +5286,15 @@
         <v>12000</v>
       </c>
       <c r="C221" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -5308,18 +5308,18 @@
         <v>12000</v>
       </c>
       <c r="C222" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F222" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -5330,15 +5330,15 @@
         <v>12000</v>
       </c>
       <c r="C223" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -5352,18 +5352,18 @@
         <v>12000</v>
       </c>
       <c r="C224" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="225">
@@ -5374,18 +5374,18 @@
         <v>12000</v>
       </c>
       <c r="C225" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F225" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5396,15 +5396,15 @@
         <v>12000</v>
       </c>
       <c r="C226" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -5418,18 +5418,18 @@
         <v>12000</v>
       </c>
       <c r="C227" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="228">
@@ -5440,15 +5440,15 @@
         <v>12000</v>
       </c>
       <c r="C228" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -5462,15 +5462,15 @@
         <v>12000</v>
       </c>
       <c r="C229" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -5484,18 +5484,18 @@
         <v>12000</v>
       </c>
       <c r="C230" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F230" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5506,15 +5506,15 @@
         <v>12000</v>
       </c>
       <c r="C231" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -5528,18 +5528,18 @@
         <v>12000</v>
       </c>
       <c r="C232" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="233">
@@ -5550,15 +5550,15 @@
         <v>12000</v>
       </c>
       <c r="C233" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -5572,15 +5572,15 @@
         <v>12000</v>
       </c>
       <c r="C234" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -5594,18 +5594,18 @@
         <v>12000</v>
       </c>
       <c r="C235" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F235" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -5616,15 +5616,15 @@
         <v>12000</v>
       </c>
       <c r="C236" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -5638,18 +5638,18 @@
         <v>12000</v>
       </c>
       <c r="C237" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="238">
@@ -5660,18 +5660,18 @@
         <v>12000</v>
       </c>
       <c r="C238" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F238" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5682,15 +5682,15 @@
         <v>12000</v>
       </c>
       <c r="C239" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
@@ -5704,18 +5704,18 @@
         <v>12000</v>
       </c>
       <c r="C240" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="241">
@@ -5726,15 +5726,15 @@
         <v>12000</v>
       </c>
       <c r="C241" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -5748,15 +5748,15 @@
         <v>12000</v>
       </c>
       <c r="C242" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -5770,18 +5770,18 @@
         <v>12000</v>
       </c>
       <c r="C243" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F243" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5792,15 +5792,15 @@
         <v>12000</v>
       </c>
       <c r="C244" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -5814,18 +5814,18 @@
         <v>12000</v>
       </c>
       <c r="C245" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="246">
@@ -5836,15 +5836,15 @@
         <v>12000</v>
       </c>
       <c r="C246" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -5858,15 +5858,15 @@
         <v>12000</v>
       </c>
       <c r="C247" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -5880,18 +5880,18 @@
         <v>12000</v>
       </c>
       <c r="C248" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F248" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -5902,15 +5902,15 @@
         <v>12000</v>
       </c>
       <c r="C249" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -5924,18 +5924,18 @@
         <v>12000</v>
       </c>
       <c r="C250" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="251">
@@ -5946,18 +5946,18 @@
         <v>12000</v>
       </c>
       <c r="C251" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F251" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -5968,15 +5968,15 @@
         <v>12000</v>
       </c>
       <c r="C252" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -5990,18 +5990,18 @@
         <v>12000</v>
       </c>
       <c r="C253" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="254">
@@ -6012,15 +6012,15 @@
         <v>12000</v>
       </c>
       <c r="C254" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -6034,15 +6034,15 @@
         <v>12000</v>
       </c>
       <c r="C255" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -6056,18 +6056,18 @@
         <v>12000</v>
       </c>
       <c r="C256" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F256" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -6078,15 +6078,15 @@
         <v>12000</v>
       </c>
       <c r="C257" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -6100,18 +6100,18 @@
         <v>12000</v>
       </c>
       <c r="C258" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="259">
@@ -6122,15 +6122,15 @@
         <v>12000</v>
       </c>
       <c r="C259" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -6144,15 +6144,15 @@
         <v>12000</v>
       </c>
       <c r="C260" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -6166,18 +6166,18 @@
         <v>12000</v>
       </c>
       <c r="C261" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F261" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -6188,15 +6188,15 @@
         <v>12000</v>
       </c>
       <c r="C262" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
@@ -6210,18 +6210,18 @@
         <v>12000</v>
       </c>
       <c r="C263" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="264">
@@ -6232,18 +6232,18 @@
         <v>12000</v>
       </c>
       <c r="C264" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F264" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -6254,15 +6254,15 @@
         <v>12000</v>
       </c>
       <c r="C265" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -6276,18 +6276,18 @@
         <v>12000</v>
       </c>
       <c r="C266" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="267">
@@ -6298,15 +6298,15 @@
         <v>12000</v>
       </c>
       <c r="C267" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
@@ -6320,15 +6320,15 @@
         <v>12000</v>
       </c>
       <c r="C268" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -6342,18 +6342,18 @@
         <v>12000</v>
       </c>
       <c r="C269" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F269" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -6364,15 +6364,15 @@
         <v>12000</v>
       </c>
       <c r="C270" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -6386,18 +6386,18 @@
         <v>12000</v>
       </c>
       <c r="C271" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="272">
@@ -6408,15 +6408,15 @@
         <v>12000</v>
       </c>
       <c r="C272" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -6430,15 +6430,15 @@
         <v>12000</v>
       </c>
       <c r="C273" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
@@ -6452,18 +6452,18 @@
         <v>12000</v>
       </c>
       <c r="C274" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F274" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6474,15 +6474,15 @@
         <v>12000</v>
       </c>
       <c r="C275" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -6496,18 +6496,18 @@
         <v>12000</v>
       </c>
       <c r="C276" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="277">
@@ -6518,18 +6518,18 @@
         <v>12000</v>
       </c>
       <c r="C277" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F277" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6540,15 +6540,15 @@
         <v>12000</v>
       </c>
       <c r="C278" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -6562,18 +6562,18 @@
         <v>12000</v>
       </c>
       <c r="C279" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="280">
@@ -6584,15 +6584,15 @@
         <v>12000</v>
       </c>
       <c r="C280" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -6606,15 +6606,15 @@
         <v>12000</v>
       </c>
       <c r="C281" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
@@ -6628,18 +6628,18 @@
         <v>12000</v>
       </c>
       <c r="C282" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F282" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -6650,15 +6650,15 @@
         <v>12000</v>
       </c>
       <c r="C283" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -6672,18 +6672,18 @@
         <v>12000</v>
       </c>
       <c r="C284" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="285">
@@ -6694,15 +6694,15 @@
         <v>12000</v>
       </c>
       <c r="C285" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
@@ -6716,15 +6716,15 @@
         <v>12000</v>
       </c>
       <c r="C286" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -6738,18 +6738,18 @@
         <v>12000</v>
       </c>
       <c r="C287" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F287" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6760,15 +6760,15 @@
         <v>12000</v>
       </c>
       <c r="C288" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -6782,18 +6782,18 @@
         <v>12000</v>
       </c>
       <c r="C289" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="290">
@@ -6804,18 +6804,18 @@
         <v>12000</v>
       </c>
       <c r="C290" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F290" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -6826,15 +6826,15 @@
         <v>12000</v>
       </c>
       <c r="C291" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
@@ -6848,18 +6848,18 @@
         <v>12000</v>
       </c>
       <c r="C292" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="293">
@@ -6870,15 +6870,15 @@
         <v>12000</v>
       </c>
       <c r="C293" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
@@ -6892,15 +6892,15 @@
         <v>12000</v>
       </c>
       <c r="C294" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
@@ -6914,18 +6914,18 @@
         <v>12000</v>
       </c>
       <c r="C295" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F295" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -6936,15 +6936,15 @@
         <v>12000</v>
       </c>
       <c r="C296" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
@@ -6958,18 +6958,18 @@
         <v>12000</v>
       </c>
       <c r="C297" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="298">
@@ -6980,15 +6980,15 @@
         <v>12000</v>
       </c>
       <c r="C298" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
@@ -7002,15 +7002,15 @@
         <v>12000</v>
       </c>
       <c r="C299" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
@@ -7024,18 +7024,18 @@
         <v>12000</v>
       </c>
       <c r="C300" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F300" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -7046,15 +7046,15 @@
         <v>12000</v>
       </c>
       <c r="C301" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
@@ -7068,18 +7068,18 @@
         <v>12000</v>
       </c>
       <c r="C302" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="303">
@@ -7090,18 +7090,18 @@
         <v>12000</v>
       </c>
       <c r="C303" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F303" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -7112,15 +7112,15 @@
         <v>12000</v>
       </c>
       <c r="C304" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
@@ -7134,18 +7134,18 @@
         <v>12000</v>
       </c>
       <c r="C305" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="306">
@@ -7156,15 +7156,15 @@
         <v>12000</v>
       </c>
       <c r="C306" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -7178,15 +7178,15 @@
         <v>12000</v>
       </c>
       <c r="C307" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -7200,18 +7200,18 @@
         <v>12000</v>
       </c>
       <c r="C308" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F308" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -7222,15 +7222,15 @@
         <v>12000</v>
       </c>
       <c r="C309" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
@@ -7244,18 +7244,18 @@
         <v>12000</v>
       </c>
       <c r="C310" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="311">
@@ -7266,15 +7266,15 @@
         <v>12000</v>
       </c>
       <c r="C311" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
@@ -7288,15 +7288,15 @@
         <v>12000</v>
       </c>
       <c r="C312" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -7310,18 +7310,18 @@
         <v>12000</v>
       </c>
       <c r="C313" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F313" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -7332,15 +7332,15 @@
         <v>12000</v>
       </c>
       <c r="C314" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
@@ -7354,18 +7354,18 @@
         <v>12000</v>
       </c>
       <c r="C315" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="316">
@@ -7376,18 +7376,18 @@
         <v>12000</v>
       </c>
       <c r="C316" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F316" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -7398,15 +7398,15 @@
         <v>12000</v>
       </c>
       <c r="C317" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -7420,18 +7420,18 @@
         <v>12000</v>
       </c>
       <c r="C318" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="319">
@@ -7442,15 +7442,15 @@
         <v>12000</v>
       </c>
       <c r="C319" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
@@ -7464,15 +7464,15 @@
         <v>12000</v>
       </c>
       <c r="C320" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E320" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
@@ -7486,18 +7486,18 @@
         <v>12000</v>
       </c>
       <c r="C321" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F321" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -7508,15 +7508,15 @@
         <v>12000</v>
       </c>
       <c r="C322" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
@@ -7530,18 +7530,18 @@
         <v>12000</v>
       </c>
       <c r="C323" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E323" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="324">
@@ -7552,15 +7552,15 @@
         <v>12000</v>
       </c>
       <c r="C324" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
@@ -7574,15 +7574,15 @@
         <v>12000</v>
       </c>
       <c r="C325" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
@@ -7596,18 +7596,18 @@
         <v>12000</v>
       </c>
       <c r="C326" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F326" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -7618,15 +7618,15 @@
         <v>12000</v>
       </c>
       <c r="C327" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
@@ -7640,18 +7640,18 @@
         <v>12000</v>
       </c>
       <c r="C328" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E328" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="329">
@@ -7662,18 +7662,18 @@
         <v>12000</v>
       </c>
       <c r="C329" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F329" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -7684,15 +7684,15 @@
         <v>12000</v>
       </c>
       <c r="C330" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E330" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
@@ -7706,18 +7706,18 @@
         <v>12000</v>
       </c>
       <c r="C331" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="332">
@@ -7728,15 +7728,15 @@
         <v>12000</v>
       </c>
       <c r="C332" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E332" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
@@ -7750,15 +7750,15 @@
         <v>12000</v>
       </c>
       <c r="C333" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E333" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
@@ -7772,18 +7772,18 @@
         <v>12000</v>
       </c>
       <c r="C334" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F334" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -7794,15 +7794,15 @@
         <v>12000</v>
       </c>
       <c r="C335" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E335" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
@@ -7816,18 +7816,18 @@
         <v>12000</v>
       </c>
       <c r="C336" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="337">
@@ -7838,15 +7838,15 @@
         <v>12000</v>
       </c>
       <c r="C337" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -7860,15 +7860,15 @@
         <v>12000</v>
       </c>
       <c r="C338" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
@@ -7882,18 +7882,18 @@
         <v>12000</v>
       </c>
       <c r="C339" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F339" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -7904,15 +7904,15 @@
         <v>12000</v>
       </c>
       <c r="C340" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E340" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
@@ -7926,18 +7926,18 @@
         <v>12000</v>
       </c>
       <c r="C341" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E341" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="342">
@@ -7948,18 +7948,18 @@
         <v>12000</v>
       </c>
       <c r="C342" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E342" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F342" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -7970,15 +7970,15 @@
         <v>12000</v>
       </c>
       <c r="C343" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E343" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
@@ -7992,18 +7992,18 @@
         <v>12000</v>
       </c>
       <c r="C344" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="345">
@@ -8014,15 +8014,15 @@
         <v>12000</v>
       </c>
       <c r="C345" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E345" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
@@ -8036,15 +8036,15 @@
         <v>12000</v>
       </c>
       <c r="C346" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
@@ -8058,18 +8058,18 @@
         <v>12000</v>
       </c>
       <c r="C347" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F347" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -8080,15 +8080,15 @@
         <v>12000</v>
       </c>
       <c r="C348" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -8102,18 +8102,18 @@
         <v>12000</v>
       </c>
       <c r="C349" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="350">
@@ -8124,15 +8124,15 @@
         <v>12000</v>
       </c>
       <c r="C350" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
@@ -8146,15 +8146,15 @@
         <v>12000</v>
       </c>
       <c r="C351" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
@@ -8168,18 +8168,18 @@
         <v>12000</v>
       </c>
       <c r="C352" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F352" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -8190,15 +8190,15 @@
         <v>12000</v>
       </c>
       <c r="C353" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E353" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
@@ -8212,18 +8212,18 @@
         <v>12000</v>
       </c>
       <c r="C354" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E354" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="355">
@@ -8234,18 +8234,18 @@
         <v>12000</v>
       </c>
       <c r="C355" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E355" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F355" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -8256,15 +8256,15 @@
         <v>12000</v>
       </c>
       <c r="C356" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E356" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
@@ -8278,18 +8278,18 @@
         <v>12000</v>
       </c>
       <c r="C357" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E357" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="358">
@@ -8300,15 +8300,15 @@
         <v>12000</v>
       </c>
       <c r="C358" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E358" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
@@ -8322,15 +8322,15 @@
         <v>12000</v>
       </c>
       <c r="C359" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E359" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
@@ -8344,18 +8344,18 @@
         <v>12000</v>
       </c>
       <c r="C360" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E360" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F360" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -8366,15 +8366,15 @@
         <v>12000</v>
       </c>
       <c r="C361" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E361" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
@@ -8388,18 +8388,18 @@
         <v>12000</v>
       </c>
       <c r="C362" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F362" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="363">
@@ -8410,15 +8410,15 @@
         <v>12000</v>
       </c>
       <c r="C363" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
@@ -8432,15 +8432,15 @@
         <v>12000</v>
       </c>
       <c r="C364" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E364" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
@@ -8454,18 +8454,18 @@
         <v>12000</v>
       </c>
       <c r="C365" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F365" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -8476,15 +8476,15 @@
         <v>12000</v>
       </c>
       <c r="C366" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E366" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
@@ -8498,18 +8498,18 @@
         <v>12000</v>
       </c>
       <c r="C367" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E367" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F367" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="368">
@@ -8520,18 +8520,18 @@
         <v>12000</v>
       </c>
       <c r="C368" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F368" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -8542,15 +8542,15 @@
         <v>12000</v>
       </c>
       <c r="C369" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E369" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
@@ -8564,18 +8564,18 @@
         <v>12000</v>
       </c>
       <c r="C370" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E370" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F370" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="371">
@@ -8586,15 +8586,15 @@
         <v>12000</v>
       </c>
       <c r="C371" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E371" t="n">
-        <v>3780</v>
+        <v>4316</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
@@ -8608,15 +8608,15 @@
         <v>12000</v>
       </c>
       <c r="C372" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>[2354, 6134]</t>
+          <t>[1818, 6134]</t>
         </is>
       </c>
       <c r="E372" t="n">
-        <v>3512</v>
+        <v>4048</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
@@ -8630,18 +8630,18 @@
         <v>12000</v>
       </c>
       <c r="C373" t="n">
-        <v>3244</v>
+        <v>3780</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[2622, 6134]</t>
+          <t>[2086, 6134]</t>
         </is>
       </c>
       <c r="E373" t="n">
-        <v>2404</v>
+        <v>3780</v>
       </c>
       <c r="F373" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -8652,15 +8652,15 @@
         <v>12000</v>
       </c>
       <c r="C374" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2354, 6134]</t>
         </is>
       </c>
       <c r="E374" t="n">
-        <v>2136</v>
+        <v>3512</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
@@ -8674,18 +8674,18 @@
         <v>12000</v>
       </c>
       <c r="C375" t="n">
-        <v>1868</v>
+        <v>3244</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[3998, 6134]</t>
+          <t>[2622, 6134]</t>
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1868</v>
+        <v>2404</v>
       </c>
       <c r="F375" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="376">
@@ -8696,15 +8696,15 @@
         <v>12000</v>
       </c>
       <c r="C376" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>[4266, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1600</v>
+        <v>2136</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
@@ -8718,15 +8718,15 @@
         <v>12000</v>
       </c>
       <c r="C377" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>[4534, 6134]</t>
+          <t>[3998, 6134]</t>
         </is>
       </c>
       <c r="E377" t="n">
-        <v>1332</v>
+        <v>1868</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
@@ -8740,18 +8740,18 @@
         <v>12000</v>
       </c>
       <c r="C378" t="n">
-        <v>1064</v>
+        <v>1600</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>[4802, 6134]</t>
+          <t>[4266, 6134]</t>
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F378" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -8762,15 +8762,15 @@
         <v>12000</v>
       </c>
       <c r="C379" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4534, 6134]</t>
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5866</v>
+        <v>1332</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
@@ -8784,18 +8784,18 @@
         <v>12000</v>
       </c>
       <c r="C380" t="n">
-        <v>5598</v>
+        <v>1064</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>[268, 6134]</t>
+          <t>[4802, 6134]</t>
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5598</v>
+        <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="381">
@@ -8806,18 +8806,18 @@
         <v>12000</v>
       </c>
       <c r="C381" t="n">
-        <v>5330</v>
+        <v>5866</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>[536, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E381" t="n">
-        <v>4584</v>
+        <v>5866</v>
       </c>
       <c r="F381" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -8828,15 +8828,15 @@
         <v>12000</v>
       </c>
       <c r="C382" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[268, 6134]</t>
         </is>
       </c>
       <c r="E382" t="n">
-        <v>4316</v>
+        <v>5598</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
@@ -8850,18 +8850,18 @@
         <v>12000</v>
       </c>
       <c r="C383" t="n">
-        <v>4048</v>
+        <v>5330</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[1818, 6134]</t>
+          <t>[536, 6134]</t>
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4048</v>
+        <v>4584</v>
       </c>
       <c r="F383" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="384">
@@ -8872,18 +8872,18 @@
         <v>11200</v>
       </c>
       <c r="C384" t="n">
-        <v>2980</v>
+        <v>3516</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[2086, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E384" t="n">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F384" t="n">
-        <v>576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -8894,18 +8894,18 @@
         <v>11200</v>
       </c>
       <c r="C385" t="n">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2618, 6134]</t>
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F385" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="386">
@@ -8916,18 +8916,18 @@
         <v>11200</v>
       </c>
       <c r="C386" t="n">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[4798, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F386" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -8938,18 +8938,18 @@
         <v>11200</v>
       </c>
       <c r="C387" t="n">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4798, 6134]</t>
         </is>
       </c>
       <c r="E387" t="n">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F387" t="n">
-        <v>482</v>
+        <v>268</v>
       </c>
     </row>
     <row r="388">
@@ -8960,18 +8960,18 @@
         <v>11200</v>
       </c>
       <c r="C388" t="n">
-        <v>3516</v>
+        <v>5066</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="389">
@@ -8982,18 +8982,18 @@
         <v>11200</v>
       </c>
       <c r="C389" t="n">
-        <v>2448</v>
+        <v>3516</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>[2618, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E389" t="n">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F389" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -9004,18 +9004,18 @@
         <v>11200</v>
       </c>
       <c r="C390" t="n">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2618, 6134]</t>
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="391">
@@ -9026,18 +9026,18 @@
         <v>11200</v>
       </c>
       <c r="C391" t="n">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>[4798, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F391" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -9048,18 +9048,18 @@
         <v>11200</v>
       </c>
       <c r="C392" t="n">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4798, 6134]</t>
         </is>
       </c>
       <c r="E392" t="n">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F392" t="n">
-        <v>482</v>
+        <v>268</v>
       </c>
     </row>
     <row r="393">
@@ -9070,18 +9070,18 @@
         <v>11200</v>
       </c>
       <c r="C393" t="n">
-        <v>3516</v>
+        <v>5066</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E393" t="n">
-        <v>3516</v>
+        <v>4584</v>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="394">
@@ -9092,18 +9092,18 @@
         <v>11200</v>
       </c>
       <c r="C394" t="n">
-        <v>2448</v>
+        <v>3516</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[2618, 6134]</t>
+          <t>[1550, 6134]</t>
         </is>
       </c>
       <c r="E394" t="n">
-        <v>2404</v>
+        <v>3516</v>
       </c>
       <c r="F394" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -9114,18 +9114,18 @@
         <v>11200</v>
       </c>
       <c r="C395" t="n">
-        <v>1336</v>
+        <v>2448</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[3730, 6134]</t>
+          <t>[2618, 6134]</t>
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1336</v>
+        <v>2404</v>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="396">
@@ -9136,18 +9136,18 @@
         <v>11200</v>
       </c>
       <c r="C396" t="n">
-        <v>268</v>
+        <v>1336</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[4798, 6134]</t>
+          <t>[3730, 6134]</t>
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="F396" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -9158,18 +9158,18 @@
         <v>11200</v>
       </c>
       <c r="C397" t="n">
-        <v>5066</v>
+        <v>268</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[6134]</t>
+          <t>[4798, 6134]</t>
         </is>
       </c>
       <c r="E397" t="n">
-        <v>4584</v>
+        <v>0</v>
       </c>
       <c r="F397" t="n">
-        <v>482</v>
+        <v>268</v>
       </c>
     </row>
     <row r="398">
@@ -9180,18 +9180,18 @@
         <v>9400</v>
       </c>
       <c r="C398" t="n">
-        <v>1716</v>
+        <v>3266</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[6134]</t>
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>862</v>
       </c>
     </row>
     <row r="399">
@@ -9202,18 +9202,18 @@
         <v>9400</v>
       </c>
       <c r="C399" t="n">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>[4418]</t>
+          <t>[3730]</t>
         </is>
       </c>
       <c r="E399" t="n">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F399" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -9224,18 +9224,18 @@
         <v>9400</v>
       </c>
       <c r="C400" t="n">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[464, 6134]</t>
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F400" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="401">
@@ -9246,18 +9246,18 @@
         <v>9400</v>
       </c>
       <c r="C401" t="n">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>[4418]</t>
+          <t>[3730]</t>
         </is>
       </c>
       <c r="E401" t="n">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F401" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -9268,18 +9268,18 @@
         <v>9400</v>
       </c>
       <c r="C402" t="n">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>[1550, 6134]</t>
+          <t>[464, 6134]</t>
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1716</v>
+        <v>2404</v>
       </c>
       <c r="F402" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="403">
@@ -9290,18 +9290,18 @@
         <v>9400</v>
       </c>
       <c r="C403" t="n">
-        <v>4982</v>
+        <v>5670</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>[4418]</t>
+          <t>[3730]</t>
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4584</v>
+        <v>5670</v>
       </c>
       <c r="F403" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -9312,18 +9312,18 @@
         <v>9400</v>
       </c>
       <c r="C404" t="n">
-        <v>1716</v>
+        <v>2802</v>
       </c>
       <c r="D404" t="inlineStr"